--- a/public/food-data.xlsx
+++ b/public/food-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanau/WebstormProjects/nutrition-calculator/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0363C207-F3F6-1146-8D1E-3B014C09C11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A873AF-6DDE-7546-A2E0-1400DA68C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="300 Common Foods - editing" sheetId="1" r:id="rId1"/>
@@ -5174,7 +5174,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AF10" sqref="AF10"/>
+      <selection pane="bottomRight" activeCell="AH38" sqref="AH38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>

--- a/public/food-data.xlsx
+++ b/public/food-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanau/WebstormProjects/nutrition-calculator/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serena/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A873AF-6DDE-7546-A2E0-1400DA68C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C1DDA5-AE65-3046-99A8-37D6AD3CAA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12200" yWindow="500" windowWidth="16600" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="300 Common Foods - editing" sheetId="1" r:id="rId1"/>
@@ -46,18 +46,91 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAAAH-oaTD0
-tc={471C0693-07FA-4C34-9E78-9A9CD3DF2B18}    (2021-03-05 08:04:03)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Serving size in Chinese</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAH-oaTD0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tc={471C0693-07FA-4C34-9E78-9A9CD3DF2B18}    (2021-03-05 08:04:03)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Serving size in Chinese</t>
         </r>
       </text>
     </comment>
@@ -66,18 +139,91 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAAAH-oaTDs
-tc={2C6C085F-354B-448B-9257-9F091E0B44DE}    (2021-03-05 08:04:03)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Update traffic light</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAH-oaTDs
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tc={2C6C085F-354B-448B-9257-9F091E0B44DE}    (2021-03-05 08:04:03)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Update traffic light</t>
         </r>
       </text>
     </comment>
@@ -151,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="1359">
   <si>
     <t>WeRise Nutrition Calculator Database</t>
   </si>
@@ -4195,6 +4341,39 @@
   </si>
   <si>
     <t>1gspuR_g6zrApwvXPVjAKW_QPu2KZedv-</t>
+  </si>
+  <si>
+    <t>13uo3RlE4JP9nEc6Khj1LNyRDRuC5G_iv</t>
+  </si>
+  <si>
+    <t>1NobQ7O9GOew7N1PHuH5p08cfC5rPFJGR</t>
+  </si>
+  <si>
+    <t>1m0oR7jnCqNJvMvEj_lssH5ENmhR5itL_</t>
+  </si>
+  <si>
+    <t>1CeH9aXVZpraNclD1XRkOQahJqEphurEI</t>
+  </si>
+  <si>
+    <t>1TB1luYnX-IfrAsmrtzEoKyubfI4GYdPo</t>
+  </si>
+  <si>
+    <t>1_NLJBx57QJTjgRhJ1OMYt0Njkdkp6KMv</t>
+  </si>
+  <si>
+    <t>1ytKYISIlatyhLWSIlddQggurDBaxcdHR</t>
+  </si>
+  <si>
+    <t>1I54rJMZ3GLCAUTUWMpIcMEkpemqjKlDW</t>
+  </si>
+  <si>
+    <t>1UifdtRJnj0ien9-Tfgw060SxAGnLwsp7</t>
+  </si>
+  <si>
+    <t>1p0Ikbt5kluya833qwwBfVI5TYNP4cAOw</t>
+  </si>
+  <si>
+    <t>1TmlG0MixbxwTf-8pRtcevu9nJ0xpcb_G</t>
   </si>
 </sst>
 </file>
@@ -4204,7 +4383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4336,6 +4515,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4794,6 +4979,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4814,7 +5000,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5170,11 +5355,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="F100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AH38" sqref="AH38"/>
+      <selection pane="bottomRight" activeCell="AE93" sqref="AE93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5185,15 +5370,15 @@
     <col min="4" max="5" width="8" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="16" width="9.1640625" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="1.83203125" customWidth="1"/>
-    <col min="19" max="19" width="6.83203125" customWidth="1"/>
-    <col min="20" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" customWidth="1"/>
-    <col min="22" max="29" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="16" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="1.83203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="22" max="29" width="9.1640625" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="15.33203125" hidden="1" customWidth="1"/>
     <col min="31" max="41" width="9" customWidth="1"/>
   </cols>
@@ -5313,30 +5498,30 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="92"/>
       <c r="R3" s="3"/>
       <c r="S3" s="10"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="89" t="s">
+      <c r="V3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="92"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="46"/>
       <c r="AF3" s="46"/>
@@ -5575,10 +5760,10 @@
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
-      <c r="BA5" s="95" t="s">
+      <c r="BA5" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="BB5" s="95" t="s">
+      <c r="BB5" s="85" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -5702,10 +5887,10 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
       <c r="AO6" s="2"/>
-      <c r="BA6" s="95" t="s">
+      <c r="BA6" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="BB6" s="95" t="s">
+      <c r="BB6" s="85" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -5826,10 +6011,10 @@
       <c r="AM7" s="12"/>
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
-      <c r="BA7" s="95" t="s">
+      <c r="BA7" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="BB7" s="95" t="s">
+      <c r="BB7" s="85" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -5952,10 +6137,10 @@
       <c r="AM8" s="12"/>
       <c r="AN8" s="13"/>
       <c r="AO8" s="2"/>
-      <c r="BA8" s="95" t="s">
+      <c r="BA8" s="85" t="s">
         <v>1099</v>
       </c>
-      <c r="BB8" s="95" t="s">
+      <c r="BB8" s="85" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -6062,17 +6247,17 @@
       <c r="AF9" s="46" t="s">
         <v>819</v>
       </c>
-      <c r="AG9" s="92">
+      <c r="AG9" s="93">
         <v>21</v>
       </c>
-      <c r="AH9" s="92">
+      <c r="AH9" s="93">
         <v>27</v>
       </c>
-      <c r="AI9" s="92">
+      <c r="AI9" s="93">
         <f>AJ9*388</f>
         <v>698.4</v>
       </c>
-      <c r="AJ9" s="93">
+      <c r="AJ9" s="94">
         <v>1.8</v>
       </c>
       <c r="AK9" s="2"/>
@@ -6080,10 +6265,10 @@
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
-      <c r="BA9" s="95" t="s">
+      <c r="BA9" s="85" t="s">
         <v>1101</v>
       </c>
-      <c r="BB9" s="95" t="s">
+      <c r="BB9" s="85" t="s">
         <v>1102</v>
       </c>
     </row>
@@ -6187,19 +6372,19 @@
       <c r="AF10" s="46" t="s">
         <v>820</v>
       </c>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="88"/>
-      <c r="AJ10" s="94"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="95"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
-      <c r="BA10" s="95" t="s">
+      <c r="BA10" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="BB10" s="95" t="s">
+      <c r="BB10" s="85" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -6310,10 +6495,10 @@
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
-      <c r="BA11" s="95" t="s">
+      <c r="BA11" s="85" t="s">
         <v>1104</v>
       </c>
-      <c r="BB11" s="95" t="s">
+      <c r="BB11" s="85" t="s">
         <v>1105</v>
       </c>
     </row>
@@ -6430,10 +6615,10 @@
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
-      <c r="BA12" s="95" t="s">
+      <c r="BA12" s="85" t="s">
         <v>1106</v>
       </c>
-      <c r="BB12" s="95" t="s">
+      <c r="BB12" s="85" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -6553,10 +6738,10 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
-      <c r="BA13" s="95" t="s">
+      <c r="BA13" s="85" t="s">
         <v>1108</v>
       </c>
-      <c r="BB13" s="95" t="s">
+      <c r="BB13" s="85" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -6658,10 +6843,10 @@
       <c r="AF14" s="46" t="s">
         <v>824</v>
       </c>
-      <c r="AG14" s="85" t="s">
+      <c r="AG14" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="AH14" s="86"/>
+      <c r="AH14" s="87"/>
       <c r="AI14" s="2">
         <v>3</v>
       </c>
@@ -6675,10 +6860,10 @@
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
-      <c r="BA14" s="95" t="s">
+      <c r="BA14" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="BB14" s="95" t="s">
+      <c r="BB14" s="85" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -6787,10 +6972,10 @@
       <c r="AH15" s="2">
         <v>7.5</v>
       </c>
-      <c r="AI15" s="85">
+      <c r="AI15" s="86">
         <v>5</v>
       </c>
-      <c r="AJ15" s="86"/>
+      <c r="AJ15" s="87"/>
       <c r="AK15" s="40" t="s">
         <v>73</v>
       </c>
@@ -6798,10 +6983,10 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
-      <c r="BA15" s="95" t="s">
+      <c r="BA15" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="BB15" s="95" t="s">
+      <c r="BB15" s="85" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -6910,10 +7095,10 @@
       <c r="AH16" s="42">
         <v>300</v>
       </c>
-      <c r="AI16" s="87">
+      <c r="AI16" s="88">
         <v>120</v>
       </c>
-      <c r="AJ16" s="88"/>
+      <c r="AJ16" s="89"/>
       <c r="AK16" s="43" t="s">
         <v>78</v>
       </c>
@@ -6921,10 +7106,10 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
-      <c r="BA16" s="95" t="s">
+      <c r="BA16" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="BB16" s="95" t="s">
+      <c r="BB16" s="85" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -7038,10 +7223,10 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
-      <c r="BA17" s="95" t="s">
+      <c r="BA17" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="BB17" s="95" t="s">
+      <c r="BB17" s="85" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -7153,10 +7338,10 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
-      <c r="BA18" s="95" t="s">
+      <c r="BA18" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="BB18" s="95" t="s">
+      <c r="BB18" s="85" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -7268,10 +7453,10 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
-      <c r="BA19" s="95" t="s">
+      <c r="BA19" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="BB19" s="95" t="s">
+      <c r="BB19" s="85" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -7383,10 +7568,10 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
-      <c r="BA20" s="95" t="s">
+      <c r="BA20" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="BB20" s="95" t="s">
+      <c r="BB20" s="85" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -7498,10 +7683,10 @@
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
-      <c r="BA21" s="95" t="s">
+      <c r="BA21" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="BB21" s="95" t="s">
+      <c r="BB21" s="85" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -7613,10 +7798,10 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
-      <c r="BA22" s="95" t="s">
+      <c r="BA22" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="BB22" s="95" t="s">
+      <c r="BB22" s="85" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -7728,10 +7913,10 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
-      <c r="BA23" s="95" t="s">
+      <c r="BA23" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="BB23" s="95" t="s">
+      <c r="BB23" s="85" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -7843,10 +8028,10 @@
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
-      <c r="BA24" s="95" t="s">
+      <c r="BA24" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="BB24" s="95" t="s">
+      <c r="BB24" s="85" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -7958,10 +8143,10 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
-      <c r="BA25" s="95" t="s">
+      <c r="BA25" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="BB25" s="95" t="s">
+      <c r="BB25" s="85" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -8073,10 +8258,10 @@
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
-      <c r="BA26" s="95" t="s">
+      <c r="BA26" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="BB26" s="95" t="s">
+      <c r="BB26" s="85" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -8188,10 +8373,10 @@
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
-      <c r="BA27" s="95" t="s">
+      <c r="BA27" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="BB27" s="95" t="s">
+      <c r="BB27" s="85" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -8303,10 +8488,10 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
-      <c r="BA28" s="95" t="s">
+      <c r="BA28" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="BB28" s="95" t="s">
+      <c r="BB28" s="85" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -8418,10 +8603,10 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
-      <c r="BA29" s="95" t="s">
+      <c r="BA29" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="BB29" s="95" t="s">
+      <c r="BB29" s="85" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -8533,10 +8718,10 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
-      <c r="BA30" s="95" t="s">
+      <c r="BA30" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="BB30" s="95" t="s">
+      <c r="BB30" s="85" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -8648,10 +8833,10 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
-      <c r="BA31" s="95" t="s">
+      <c r="BA31" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="BB31" s="95" t="s">
+      <c r="BB31" s="85" t="s">
         <v>1127</v>
       </c>
     </row>
@@ -8765,10 +8950,10 @@
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
-      <c r="BA32" s="95" t="s">
+      <c r="BA32" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="BB32" s="95" t="s">
+      <c r="BB32" s="85" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -8879,10 +9064,10 @@
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
-      <c r="BA33" s="95" t="s">
+      <c r="BA33" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="BB33" s="95" t="s">
+      <c r="BB33" s="85" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -8993,10 +9178,10 @@
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
-      <c r="BA34" s="95" t="s">
+      <c r="BA34" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="BB34" s="95" t="s">
+      <c r="BB34" s="85" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -9107,10 +9292,10 @@
       <c r="AM35" s="2"/>
       <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
-      <c r="BA35" s="95" t="s">
+      <c r="BA35" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="BB35" s="95" t="s">
+      <c r="BB35" s="85" t="s">
         <v>1131</v>
       </c>
     </row>
@@ -9221,10 +9406,10 @@
       <c r="AM36" s="2"/>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
-      <c r="BA36" s="95" t="s">
+      <c r="BA36" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="BB36" s="95" t="s">
+      <c r="BB36" s="85" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -9335,10 +9520,10 @@
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
-      <c r="BA37" s="95" t="s">
+      <c r="BA37" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="BB37" s="95" t="s">
+      <c r="BB37" s="85" t="s">
         <v>1133</v>
       </c>
     </row>
@@ -9449,10 +9634,10 @@
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
-      <c r="BA38" s="95" t="s">
+      <c r="BA38" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="BB38" s="95" t="s">
+      <c r="BB38" s="85" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -9563,10 +9748,10 @@
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
-      <c r="BA39" s="95" t="s">
+      <c r="BA39" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="BB39" s="95" t="s">
+      <c r="BB39" s="85" t="s">
         <v>1135</v>
       </c>
     </row>
@@ -9677,10 +9862,10 @@
       <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
-      <c r="BA40" s="95" t="s">
+      <c r="BA40" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="BB40" s="95" t="s">
+      <c r="BB40" s="85" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -9791,10 +9976,10 @@
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
-      <c r="BA41" s="95" t="s">
+      <c r="BA41" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="BB41" s="95" t="s">
+      <c r="BB41" s="85" t="s">
         <v>1137</v>
       </c>
     </row>
@@ -9905,10 +10090,10 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
-      <c r="BA42" s="95" t="s">
+      <c r="BA42" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="BB42" s="95" t="s">
+      <c r="BB42" s="85" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -10019,10 +10204,10 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
-      <c r="BA43" s="95" t="s">
+      <c r="BA43" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="BB43" s="95" t="s">
+      <c r="BB43" s="85" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -10133,10 +10318,10 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
-      <c r="BA44" s="95" t="s">
+      <c r="BA44" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="BB44" s="95" t="s">
+      <c r="BB44" s="85" t="s">
         <v>1140</v>
       </c>
     </row>
@@ -10247,10 +10432,10 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
-      <c r="BA45" s="95" t="s">
+      <c r="BA45" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="BB45" s="95" t="s">
+      <c r="BB45" s="85" t="s">
         <v>1141</v>
       </c>
     </row>
@@ -10361,10 +10546,10 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
-      <c r="BA46" s="95" t="s">
+      <c r="BA46" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="BB46" s="95" t="s">
+      <c r="BB46" s="85" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -10475,10 +10660,10 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
-      <c r="BA47" s="95" t="s">
+      <c r="BA47" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="BB47" s="95" t="s">
+      <c r="BB47" s="85" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -10589,10 +10774,10 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
-      <c r="BA48" s="95" t="s">
+      <c r="BA48" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="BB48" s="95" t="s">
+      <c r="BB48" s="85" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -10687,9 +10872,8 @@
       <c r="AD49" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="AE49" s="81" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="AE49" s="81" t="s">
+        <v>1357</v>
       </c>
       <c r="AF49" s="46" t="s">
         <v>856</v>
@@ -10703,10 +10887,10 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
-      <c r="BA49" s="95" t="s">
+      <c r="BA49" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="BB49" s="95" t="s">
+      <c r="BB49" s="85" t="s">
         <v>1145</v>
       </c>
     </row>
@@ -10817,10 +11001,10 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
-      <c r="BA50" s="95" t="s">
+      <c r="BA50" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="BB50" s="95" t="s">
+      <c r="BB50" s="85" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -10931,10 +11115,10 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
-      <c r="BA51" s="95" t="s">
+      <c r="BA51" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="BB51" s="95" t="s">
+      <c r="BB51" s="85" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -11048,10 +11232,10 @@
       <c r="AM52" s="1"/>
       <c r="AN52" s="1"/>
       <c r="AO52" s="1"/>
-      <c r="BA52" s="95" t="s">
+      <c r="BA52" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="BB52" s="95" t="s">
+      <c r="BB52" s="85" t="s">
         <v>1148</v>
       </c>
     </row>
@@ -11163,10 +11347,10 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
       <c r="AO53" s="1"/>
-      <c r="BA53" s="95" t="s">
+      <c r="BA53" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="BB53" s="95" t="s">
+      <c r="BB53" s="85" t="s">
         <v>1149</v>
       </c>
     </row>
@@ -11278,10 +11462,10 @@
       <c r="AM54" s="1"/>
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
-      <c r="BA54" s="95" t="s">
+      <c r="BA54" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="BB54" s="95" t="s">
+      <c r="BB54" s="85" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -11393,10 +11577,10 @@
       <c r="AM55" s="1"/>
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
-      <c r="BA55" s="95" t="s">
+      <c r="BA55" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="BB55" s="95" t="s">
+      <c r="BB55" s="85" t="s">
         <v>1151</v>
       </c>
     </row>
@@ -11508,10 +11692,10 @@
       <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
       <c r="AO56" s="1"/>
-      <c r="BA56" s="95" t="s">
+      <c r="BA56" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="BB56" s="95" t="s">
+      <c r="BB56" s="85" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -11623,10 +11807,10 @@
       <c r="AM57" s="1"/>
       <c r="AN57" s="1"/>
       <c r="AO57" s="1"/>
-      <c r="BA57" s="95" t="s">
+      <c r="BA57" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="BB57" s="95" t="s">
+      <c r="BB57" s="85" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -11738,10 +11922,10 @@
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
       <c r="AO58" s="1"/>
-      <c r="BA58" s="95" t="s">
+      <c r="BA58" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="BB58" s="95" t="s">
+      <c r="BB58" s="85" t="s">
         <v>1154</v>
       </c>
     </row>
@@ -11853,10 +12037,10 @@
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
       <c r="AO59" s="1"/>
-      <c r="BA59" s="95" t="s">
+      <c r="BA59" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="BB59" s="95" t="s">
+      <c r="BB59" s="85" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -11968,10 +12152,10 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
       <c r="AO60" s="1"/>
-      <c r="BA60" s="95" t="s">
+      <c r="BA60" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="BB60" s="95" t="s">
+      <c r="BB60" s="85" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -12083,10 +12267,10 @@
       <c r="AM61" s="1"/>
       <c r="AN61" s="1"/>
       <c r="AO61" s="1"/>
-      <c r="BA61" s="95" t="s">
+      <c r="BA61" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="BB61" s="95" t="s">
+      <c r="BB61" s="85" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -12198,10 +12382,10 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
       <c r="AO62" s="1"/>
-      <c r="BA62" s="95" t="s">
+      <c r="BA62" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="BB62" s="95" t="s">
+      <c r="BB62" s="85" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -12313,10 +12497,10 @@
       <c r="AM63" s="1"/>
       <c r="AN63" s="1"/>
       <c r="AO63" s="1"/>
-      <c r="BA63" s="95" t="s">
+      <c r="BA63" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="BB63" s="95" t="s">
+      <c r="BB63" s="85" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -12428,10 +12612,10 @@
       <c r="AM64" s="1"/>
       <c r="AN64" s="1"/>
       <c r="AO64" s="1"/>
-      <c r="BA64" s="95" t="s">
+      <c r="BA64" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="BB64" s="95" t="s">
+      <c r="BB64" s="85" t="s">
         <v>1160</v>
       </c>
     </row>
@@ -12543,10 +12727,10 @@
       <c r="AM65" s="1"/>
       <c r="AN65" s="1"/>
       <c r="AO65" s="1"/>
-      <c r="BA65" s="95" t="s">
+      <c r="BA65" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="BB65" s="95" t="s">
+      <c r="BB65" s="85" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -12642,9 +12826,8 @@
       <c r="AD66" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="AE66" s="46" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="AE66" s="46" t="s">
+        <v>1358</v>
       </c>
       <c r="AF66" s="46" t="s">
         <v>865</v>
@@ -12658,10 +12841,10 @@
       <c r="AM66" s="1"/>
       <c r="AN66" s="1"/>
       <c r="AO66" s="1"/>
-      <c r="BA66" s="95" t="s">
+      <c r="BA66" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="BB66" s="95" t="s">
+      <c r="BB66" s="85" t="s">
         <v>1162</v>
       </c>
     </row>
@@ -12773,10 +12956,10 @@
       <c r="AM67" s="1"/>
       <c r="AN67" s="1"/>
       <c r="AO67" s="1"/>
-      <c r="BA67" s="95" t="s">
+      <c r="BA67" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="BB67" s="95" t="s">
+      <c r="BB67" s="85" t="s">
         <v>1163</v>
       </c>
     </row>
@@ -12888,10 +13071,10 @@
       <c r="AM68" s="1"/>
       <c r="AN68" s="1"/>
       <c r="AO68" s="1"/>
-      <c r="BA68" s="95" t="s">
+      <c r="BA68" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="BB68" s="95" t="s">
+      <c r="BB68" s="85" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -13003,10 +13186,10 @@
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
       <c r="AO69" s="1"/>
-      <c r="BA69" s="95" t="s">
+      <c r="BA69" s="85" t="s">
         <v>1165</v>
       </c>
-      <c r="BB69" s="95" t="s">
+      <c r="BB69" s="85" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -13118,10 +13301,10 @@
       <c r="AM70" s="1"/>
       <c r="AN70" s="1"/>
       <c r="AO70" s="1"/>
-      <c r="BA70" s="95" t="s">
+      <c r="BA70" s="85" t="s">
         <v>428</v>
       </c>
-      <c r="BB70" s="95" t="s">
+      <c r="BB70" s="85" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -13233,10 +13416,10 @@
       <c r="AM71" s="1"/>
       <c r="AN71" s="1"/>
       <c r="AO71" s="1"/>
-      <c r="BA71" s="95" t="s">
+      <c r="BA71" s="85" t="s">
         <v>1168</v>
       </c>
-      <c r="BB71" s="95" t="s">
+      <c r="BB71" s="85" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -13348,10 +13531,10 @@
       <c r="AM72" s="1"/>
       <c r="AN72" s="1"/>
       <c r="AO72" s="1"/>
-      <c r="BA72" s="95" t="s">
+      <c r="BA72" s="85" t="s">
         <v>423</v>
       </c>
-      <c r="BB72" s="95" t="s">
+      <c r="BB72" s="85" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -13463,10 +13646,10 @@
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
       <c r="AO73" s="1"/>
-      <c r="BA73" s="95" t="s">
+      <c r="BA73" s="85" t="s">
         <v>1171</v>
       </c>
-      <c r="BB73" s="95" t="s">
+      <c r="BB73" s="85" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -13578,10 +13761,10 @@
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
       <c r="AO74" s="1"/>
-      <c r="BA74" s="95" t="s">
+      <c r="BA74" s="85" t="s">
         <v>398</v>
       </c>
-      <c r="BB74" s="95" t="s">
+      <c r="BB74" s="85" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -13693,10 +13876,10 @@
       <c r="AM75" s="1"/>
       <c r="AN75" s="1"/>
       <c r="AO75" s="1"/>
-      <c r="BA75" s="95" t="s">
+      <c r="BA75" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="BB75" s="95" t="s">
+      <c r="BB75" s="85" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -13808,10 +13991,10 @@
       <c r="AM76" s="1"/>
       <c r="AN76" s="1"/>
       <c r="AO76" s="1"/>
-      <c r="BA76" s="95" t="s">
+      <c r="BA76" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="BB76" s="95" t="s">
+      <c r="BB76" s="85" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -13923,10 +14106,10 @@
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
       <c r="AO77" s="1"/>
-      <c r="BA77" s="95" t="s">
+      <c r="BA77" s="85" t="s">
         <v>355</v>
       </c>
-      <c r="BB77" s="95" t="s">
+      <c r="BB77" s="85" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -14038,10 +14221,10 @@
       <c r="AM78" s="1"/>
       <c r="AN78" s="1"/>
       <c r="AO78" s="1"/>
-      <c r="BA78" s="95" t="s">
+      <c r="BA78" s="85" t="s">
         <v>344</v>
       </c>
-      <c r="BB78" s="95" t="s">
+      <c r="BB78" s="85" t="s">
         <v>1177</v>
       </c>
     </row>
@@ -14153,10 +14336,10 @@
       <c r="AM79" s="1"/>
       <c r="AN79" s="1"/>
       <c r="AO79" s="1"/>
-      <c r="BA79" s="95" t="s">
+      <c r="BA79" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="BB79" s="95" t="s">
+      <c r="BB79" s="85" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -14268,10 +14451,10 @@
       <c r="AM80" s="1"/>
       <c r="AN80" s="1"/>
       <c r="AO80" s="1"/>
-      <c r="BA80" s="95" t="s">
+      <c r="BA80" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="BB80" s="95" t="s">
+      <c r="BB80" s="85" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -14383,10 +14566,10 @@
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
       <c r="AO81" s="1"/>
-      <c r="BA81" s="95" t="s">
+      <c r="BA81" s="85" t="s">
         <v>410</v>
       </c>
-      <c r="BB81" s="95" t="s">
+      <c r="BB81" s="85" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -14498,10 +14681,10 @@
       <c r="AM82" s="1"/>
       <c r="AN82" s="1"/>
       <c r="AO82" s="1"/>
-      <c r="BA82" s="95" t="s">
+      <c r="BA82" s="85" t="s">
         <v>1181</v>
       </c>
-      <c r="BB82" s="95" t="s">
+      <c r="BB82" s="85" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -14613,10 +14796,10 @@
       <c r="AM83" s="1"/>
       <c r="AN83" s="1"/>
       <c r="AO83" s="1"/>
-      <c r="BA83" s="95" t="s">
+      <c r="BA83" s="85" t="s">
         <v>383</v>
       </c>
-      <c r="BB83" s="95" t="s">
+      <c r="BB83" s="85" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -14728,10 +14911,10 @@
       <c r="AM84" s="1"/>
       <c r="AN84" s="1"/>
       <c r="AO84" s="1"/>
-      <c r="BA84" s="95" t="s">
+      <c r="BA84" s="85" t="s">
         <v>434</v>
       </c>
-      <c r="BB84" s="95" t="s">
+      <c r="BB84" s="85" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -14843,10 +15026,10 @@
       <c r="AM85" s="1"/>
       <c r="AN85" s="1"/>
       <c r="AO85" s="1"/>
-      <c r="BA85" s="95" t="s">
+      <c r="BA85" s="85" t="s">
         <v>352</v>
       </c>
-      <c r="BB85" s="95" t="s">
+      <c r="BB85" s="85" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -14958,10 +15141,10 @@
       <c r="AM86" s="1"/>
       <c r="AN86" s="1"/>
       <c r="AO86" s="1"/>
-      <c r="BA86" s="95" t="s">
+      <c r="BA86" s="85" t="s">
         <v>416</v>
       </c>
-      <c r="BB86" s="95" t="s">
+      <c r="BB86" s="85" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -15057,9 +15240,8 @@
       <c r="AD87" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="AE87" s="81" t="e">
-        <f t="shared" si="69"/>
-        <v>#N/A</v>
+      <c r="AE87" s="81" t="s">
+        <v>1135</v>
       </c>
       <c r="AF87" s="46" t="s">
         <v>880</v>
@@ -15073,10 +15255,10 @@
       <c r="AM87" s="1"/>
       <c r="AN87" s="1"/>
       <c r="AO87" s="1"/>
-      <c r="BA87" s="95" t="s">
+      <c r="BA87" s="85" t="s">
         <v>1187</v>
       </c>
-      <c r="BB87" s="95" t="s">
+      <c r="BB87" s="85" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -15188,10 +15370,10 @@
       <c r="AM88" s="1"/>
       <c r="AN88" s="1"/>
       <c r="AO88" s="1"/>
-      <c r="BA88" s="95" t="s">
+      <c r="BA88" s="85" t="s">
         <v>380</v>
       </c>
-      <c r="BB88" s="95" t="s">
+      <c r="BB88" s="85" t="s">
         <v>1189</v>
       </c>
     </row>
@@ -15303,10 +15485,10 @@
       <c r="AM89" s="1"/>
       <c r="AN89" s="1"/>
       <c r="AO89" s="1"/>
-      <c r="BA89" s="95" t="s">
+      <c r="BA89" s="85" t="s">
         <v>1190</v>
       </c>
-      <c r="BB89" s="95" t="s">
+      <c r="BB89" s="85" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -15418,10 +15600,10 @@
       <c r="AM90" s="1"/>
       <c r="AN90" s="1"/>
       <c r="AO90" s="1"/>
-      <c r="BA90" s="95" t="s">
+      <c r="BA90" s="85" t="s">
         <v>1192</v>
       </c>
-      <c r="BB90" s="95" t="s">
+      <c r="BB90" s="85" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -15533,10 +15715,10 @@
       <c r="AM91" s="1"/>
       <c r="AN91" s="1"/>
       <c r="AO91" s="1"/>
-      <c r="BA91" s="95" t="s">
+      <c r="BA91" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="BB91" s="95" t="s">
+      <c r="BB91" s="85" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -15648,10 +15830,10 @@
       <c r="AM92" s="1"/>
       <c r="AN92" s="1"/>
       <c r="AO92" s="1"/>
-      <c r="BA92" s="95" t="s">
+      <c r="BA92" s="85" t="s">
         <v>1195</v>
       </c>
-      <c r="BB92" s="95" t="s">
+      <c r="BB92" s="85" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -15763,10 +15945,10 @@
       <c r="AM93" s="1"/>
       <c r="AN93" s="1"/>
       <c r="AO93" s="1"/>
-      <c r="BA93" s="95" t="s">
+      <c r="BA93" s="85" t="s">
         <v>1197</v>
       </c>
-      <c r="BB93" s="95" t="s">
+      <c r="BB93" s="85" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -15878,10 +16060,10 @@
       <c r="AM94" s="1"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
-      <c r="BA94" s="95" t="s">
+      <c r="BA94" s="85" t="s">
         <v>1199</v>
       </c>
-      <c r="BB94" s="95" t="s">
+      <c r="BB94" s="85" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -15993,10 +16175,10 @@
       <c r="AM95" s="1"/>
       <c r="AN95" s="1"/>
       <c r="AO95" s="1"/>
-      <c r="BA95" s="95" t="s">
+      <c r="BA95" s="85" t="s">
         <v>1201</v>
       </c>
-      <c r="BB95" s="95" t="s">
+      <c r="BB95" s="85" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -16108,10 +16290,10 @@
       <c r="AM96" s="1"/>
       <c r="AN96" s="1"/>
       <c r="AO96" s="1"/>
-      <c r="BA96" s="95" t="s">
+      <c r="BA96" s="85" t="s">
         <v>1203</v>
       </c>
-      <c r="BB96" s="95" t="s">
+      <c r="BB96" s="85" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -16223,10 +16405,10 @@
       <c r="AM97" s="1"/>
       <c r="AN97" s="1"/>
       <c r="AO97" s="1"/>
-      <c r="BA97" s="95" t="s">
+      <c r="BA97" s="85" t="s">
         <v>514</v>
       </c>
-      <c r="BB97" s="95" t="s">
+      <c r="BB97" s="85" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -16338,10 +16520,10 @@
       <c r="AM98" s="1"/>
       <c r="AN98" s="1"/>
       <c r="AO98" s="1"/>
-      <c r="BA98" s="95" t="s">
+      <c r="BA98" s="85" t="s">
         <v>506</v>
       </c>
-      <c r="BB98" s="95" t="s">
+      <c r="BB98" s="85" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -16453,10 +16635,10 @@
       <c r="AM99" s="1"/>
       <c r="AN99" s="1"/>
       <c r="AO99" s="1"/>
-      <c r="BA99" s="95" t="s">
+      <c r="BA99" s="85" t="s">
         <v>1207</v>
       </c>
-      <c r="BB99" s="95" t="s">
+      <c r="BB99" s="85" t="s">
         <v>1208</v>
       </c>
     </row>
@@ -16568,10 +16750,10 @@
       <c r="AM100" s="1"/>
       <c r="AN100" s="1"/>
       <c r="AO100" s="1"/>
-      <c r="BA100" s="95" t="s">
+      <c r="BA100" s="85" t="s">
         <v>482</v>
       </c>
-      <c r="BB100" s="95" t="s">
+      <c r="BB100" s="85" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -16683,10 +16865,10 @@
       <c r="AM101" s="1"/>
       <c r="AN101" s="1"/>
       <c r="AO101" s="1"/>
-      <c r="BA101" s="95" t="s">
+      <c r="BA101" s="85" t="s">
         <v>509</v>
       </c>
-      <c r="BB101" s="95" t="s">
+      <c r="BB101" s="85" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -16798,10 +16980,10 @@
       <c r="AM102" s="1"/>
       <c r="AN102" s="1"/>
       <c r="AO102" s="1"/>
-      <c r="BA102" s="95" t="s">
+      <c r="BA102" s="85" t="s">
         <v>512</v>
       </c>
-      <c r="BB102" s="95" t="s">
+      <c r="BB102" s="85" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -16913,10 +17095,10 @@
       <c r="AM103" s="1"/>
       <c r="AN103" s="1"/>
       <c r="AO103" s="1"/>
-      <c r="BA103" s="95" t="s">
+      <c r="BA103" s="85" t="s">
         <v>469</v>
       </c>
-      <c r="BB103" s="95" t="s">
+      <c r="BB103" s="85" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -17028,10 +17210,10 @@
       <c r="AM104" s="1"/>
       <c r="AN104" s="1"/>
       <c r="AO104" s="1"/>
-      <c r="BA104" s="95" t="s">
+      <c r="BA104" s="85" t="s">
         <v>1213</v>
       </c>
-      <c r="BB104" s="95" t="s">
+      <c r="BB104" s="85" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -17143,10 +17325,10 @@
       <c r="AM105" s="2"/>
       <c r="AN105" s="2"/>
       <c r="AO105" s="2"/>
-      <c r="BA105" s="95" t="s">
+      <c r="BA105" s="85" t="s">
         <v>1215</v>
       </c>
-      <c r="BB105" s="95" t="s">
+      <c r="BB105" s="85" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -17258,10 +17440,10 @@
       <c r="AM106" s="2"/>
       <c r="AN106" s="2"/>
       <c r="AO106" s="2"/>
-      <c r="BA106" s="95" t="s">
+      <c r="BA106" s="85" t="s">
         <v>495</v>
       </c>
-      <c r="BB106" s="95" t="s">
+      <c r="BB106" s="85" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -17373,10 +17555,10 @@
       <c r="AM107" s="1"/>
       <c r="AN107" s="1"/>
       <c r="AO107" s="1"/>
-      <c r="BA107" s="95" t="s">
+      <c r="BA107" s="85" t="s">
         <v>459</v>
       </c>
-      <c r="BB107" s="95" t="s">
+      <c r="BB107" s="85" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -17488,10 +17670,10 @@
       <c r="AM108" s="1"/>
       <c r="AN108" s="1"/>
       <c r="AO108" s="1"/>
-      <c r="BA108" s="95" t="s">
+      <c r="BA108" s="85" t="s">
         <v>501</v>
       </c>
-      <c r="BB108" s="95" t="s">
+      <c r="BB108" s="85" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -17603,10 +17785,10 @@
       <c r="AM109" s="1"/>
       <c r="AN109" s="1"/>
       <c r="AO109" s="1"/>
-      <c r="BA109" s="95" t="s">
+      <c r="BA109" s="85" t="s">
         <v>492</v>
       </c>
-      <c r="BB109" s="95" t="s">
+      <c r="BB109" s="85" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -17718,10 +17900,10 @@
       <c r="AM110" s="1"/>
       <c r="AN110" s="1"/>
       <c r="AO110" s="1"/>
-      <c r="BA110" s="95" t="s">
+      <c r="BA110" s="85" t="s">
         <v>525</v>
       </c>
-      <c r="BB110" s="95" t="s">
+      <c r="BB110" s="85" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -17833,10 +18015,10 @@
       <c r="AM111" s="1"/>
       <c r="AN111" s="1"/>
       <c r="AO111" s="1"/>
-      <c r="BA111" s="95" t="s">
+      <c r="BA111" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="BB111" s="95" t="s">
+      <c r="BB111" s="85" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -17948,10 +18130,10 @@
       <c r="AM112" s="1"/>
       <c r="AN112" s="1"/>
       <c r="AO112" s="1"/>
-      <c r="BA112" s="95" t="s">
+      <c r="BA112" s="85" t="s">
         <v>521</v>
       </c>
-      <c r="BB112" s="95" t="s">
+      <c r="BB112" s="85" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18063,10 +18245,10 @@
       <c r="AM113" s="1"/>
       <c r="AN113" s="1"/>
       <c r="AO113" s="1"/>
-      <c r="BA113" s="95" t="s">
+      <c r="BA113" s="85" t="s">
         <v>517</v>
       </c>
-      <c r="BB113" s="95" t="s">
+      <c r="BB113" s="85" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -18178,10 +18360,10 @@
       <c r="AM114" s="1"/>
       <c r="AN114" s="1"/>
       <c r="AO114" s="1"/>
-      <c r="BA114" s="95" t="s">
+      <c r="BA114" s="85" t="s">
         <v>523</v>
       </c>
-      <c r="BB114" s="95" t="s">
+      <c r="BB114" s="85" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -18293,10 +18475,10 @@
       <c r="AM115" s="1"/>
       <c r="AN115" s="1"/>
       <c r="AO115" s="1"/>
-      <c r="BA115" s="95" t="s">
+      <c r="BA115" s="85" t="s">
         <v>452</v>
       </c>
-      <c r="BB115" s="95" t="s">
+      <c r="BB115" s="85" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -18408,10 +18590,10 @@
       <c r="AM116" s="1"/>
       <c r="AN116" s="1"/>
       <c r="AO116" s="1"/>
-      <c r="BA116" s="95" t="s">
+      <c r="BA116" s="85" t="s">
         <v>456</v>
       </c>
-      <c r="BB116" s="95" t="s">
+      <c r="BB116" s="85" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -18523,10 +18705,10 @@
       <c r="AM117" s="1"/>
       <c r="AN117" s="1"/>
       <c r="AO117" s="1"/>
-      <c r="BA117" s="95" t="s">
+      <c r="BA117" s="85" t="s">
         <v>1228</v>
       </c>
-      <c r="BB117" s="95" t="s">
+      <c r="BB117" s="85" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -18638,10 +18820,10 @@
       <c r="AM118" s="1"/>
       <c r="AN118" s="1"/>
       <c r="AO118" s="1"/>
-      <c r="BA118" s="95" t="s">
+      <c r="BA118" s="85" t="s">
         <v>465</v>
       </c>
-      <c r="BB118" s="95" t="s">
+      <c r="BB118" s="85" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -18753,10 +18935,10 @@
       <c r="AM119" s="1"/>
       <c r="AN119" s="1"/>
       <c r="AO119" s="1"/>
-      <c r="BA119" s="95" t="s">
+      <c r="BA119" s="85" t="s">
         <v>489</v>
       </c>
-      <c r="BB119" s="95" t="s">
+      <c r="BB119" s="85" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -18805,10 +18987,10 @@
       <c r="AM120" s="2"/>
       <c r="AN120" s="2"/>
       <c r="AO120" s="2"/>
-      <c r="BA120" s="95" t="s">
+      <c r="BA120" s="85" t="s">
         <v>437</v>
       </c>
-      <c r="BB120" s="95" t="s">
+      <c r="BB120" s="85" t="s">
         <v>1232</v>
       </c>
     </row>
@@ -18924,10 +19106,10 @@
       <c r="AM121" s="1"/>
       <c r="AN121" s="1"/>
       <c r="AO121" s="1"/>
-      <c r="BA121" s="95" t="s">
+      <c r="BA121" s="85" t="s">
         <v>1233</v>
       </c>
-      <c r="BB121" s="95" t="s">
+      <c r="BB121" s="85" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -19043,10 +19225,10 @@
       <c r="AM122" s="1"/>
       <c r="AN122" s="1"/>
       <c r="AO122" s="1"/>
-      <c r="BA122" s="95" t="s">
+      <c r="BA122" s="85" t="s">
         <v>1235</v>
       </c>
-      <c r="BB122" s="95" t="s">
+      <c r="BB122" s="85" t="s">
         <v>1236</v>
       </c>
     </row>
@@ -19145,9 +19327,8 @@
       <c r="AD123" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="AE123" s="81" t="e">
-        <f t="shared" si="69"/>
-        <v>#N/A</v>
+      <c r="AE123" s="81" t="s">
+        <v>1353</v>
       </c>
       <c r="AF123" s="46" t="s">
         <v>903</v>
@@ -19161,10 +19342,10 @@
       <c r="AM123" s="2"/>
       <c r="AN123" s="2"/>
       <c r="AO123" s="2"/>
-      <c r="BA123" s="95" t="s">
+      <c r="BA123" s="85" t="s">
         <v>585</v>
       </c>
-      <c r="BB123" s="95" t="s">
+      <c r="BB123" s="85" t="s">
         <v>1237</v>
       </c>
     </row>
@@ -19279,10 +19460,10 @@
       <c r="AM124" s="2"/>
       <c r="AN124" s="2"/>
       <c r="AO124" s="2"/>
-      <c r="BA124" s="95" t="s">
+      <c r="BA124" s="85" t="s">
         <v>566</v>
       </c>
-      <c r="BB124" s="95" t="s">
+      <c r="BB124" s="85" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -19381,9 +19562,8 @@
       <c r="AD125" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="AE125" s="81" t="e">
-        <f t="shared" si="69"/>
-        <v>#N/A</v>
+      <c r="AE125" s="81" t="s">
+        <v>1354</v>
       </c>
       <c r="AF125" s="46" t="s">
         <v>905</v>
@@ -19397,10 +19577,10 @@
       <c r="AM125" s="2"/>
       <c r="AN125" s="2"/>
       <c r="AO125" s="2"/>
-      <c r="BA125" s="95" t="s">
+      <c r="BA125" s="85" t="s">
         <v>537</v>
       </c>
-      <c r="BB125" s="95" t="s">
+      <c r="BB125" s="85" t="s">
         <v>1239</v>
       </c>
     </row>
@@ -19515,10 +19695,10 @@
       <c r="AM126" s="2"/>
       <c r="AN126" s="2"/>
       <c r="AO126" s="2"/>
-      <c r="BA126" s="95" t="s">
+      <c r="BA126" s="85" t="s">
         <v>591</v>
       </c>
-      <c r="BB126" s="95" t="s">
+      <c r="BB126" s="85" t="s">
         <v>1240</v>
       </c>
     </row>
@@ -19633,10 +19813,10 @@
       <c r="AM127" s="2"/>
       <c r="AN127" s="2"/>
       <c r="AO127" s="2"/>
-      <c r="BA127" s="95" t="s">
+      <c r="BA127" s="85" t="s">
         <v>683</v>
       </c>
-      <c r="BB127" s="95" t="s">
+      <c r="BB127" s="85" t="s">
         <v>1241</v>
       </c>
     </row>
@@ -19735,9 +19915,8 @@
       <c r="AD128" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="AE128" s="46" t="e">
-        <f t="shared" si="69"/>
-        <v>#N/A</v>
+      <c r="AE128" s="46" t="s">
+        <v>1355</v>
       </c>
       <c r="AF128" s="46" t="s">
         <v>908</v>
@@ -19751,10 +19930,10 @@
       <c r="AM128" s="2"/>
       <c r="AN128" s="2"/>
       <c r="AO128" s="2"/>
-      <c r="BA128" s="95" t="s">
+      <c r="BA128" s="85" t="s">
         <v>568</v>
       </c>
-      <c r="BB128" s="95" t="s">
+      <c r="BB128" s="85" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -19869,10 +20048,10 @@
       <c r="AM129" s="2"/>
       <c r="AN129" s="2"/>
       <c r="AO129" s="2"/>
-      <c r="BA129" s="95" t="s">
+      <c r="BA129" s="85" t="s">
         <v>572</v>
       </c>
-      <c r="BB129" s="95" t="s">
+      <c r="BB129" s="85" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -19987,10 +20166,10 @@
       <c r="AM130" s="2"/>
       <c r="AN130" s="2"/>
       <c r="AO130" s="2"/>
-      <c r="BA130" s="95" t="s">
+      <c r="BA130" s="85" t="s">
         <v>589</v>
       </c>
-      <c r="BB130" s="95" t="s">
+      <c r="BB130" s="85" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -20105,10 +20284,10 @@
       <c r="AM131" s="2"/>
       <c r="AN131" s="2"/>
       <c r="AO131" s="2"/>
-      <c r="BA131" s="95" t="s">
+      <c r="BA131" s="85" t="s">
         <v>1245</v>
       </c>
-      <c r="BB131" s="95" t="s">
+      <c r="BB131" s="85" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -20221,10 +20400,10 @@
       <c r="AM132" s="2"/>
       <c r="AN132" s="2"/>
       <c r="AO132" s="2"/>
-      <c r="BA132" s="95" t="s">
+      <c r="BA132" s="85" t="s">
         <v>599</v>
       </c>
-      <c r="BB132" s="95" t="s">
+      <c r="BB132" s="85" t="s">
         <v>1247</v>
       </c>
     </row>
@@ -20339,10 +20518,10 @@
       <c r="AM133" s="2"/>
       <c r="AN133" s="2"/>
       <c r="AO133" s="2"/>
-      <c r="BA133" s="95" t="s">
+      <c r="BA133" s="85" t="s">
         <v>581</v>
       </c>
-      <c r="BB133" s="95" t="s">
+      <c r="BB133" s="85" t="s">
         <v>1248</v>
       </c>
     </row>
@@ -20458,10 +20637,10 @@
       <c r="AM134" s="2"/>
       <c r="AN134" s="2"/>
       <c r="AO134" s="2"/>
-      <c r="BA134" s="95" t="s">
+      <c r="BA134" s="85" t="s">
         <v>601</v>
       </c>
-      <c r="BB134" s="95" t="s">
+      <c r="BB134" s="85" t="s">
         <v>1249</v>
       </c>
     </row>
@@ -20572,10 +20751,10 @@
       <c r="AM135" s="2"/>
       <c r="AN135" s="2"/>
       <c r="AO135" s="2"/>
-      <c r="BA135" s="95" t="s">
+      <c r="BA135" s="85" t="s">
         <v>539</v>
       </c>
-      <c r="BB135" s="95" t="s">
+      <c r="BB135" s="85" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -20687,10 +20866,10 @@
       <c r="AM136" s="1"/>
       <c r="AN136" s="1"/>
       <c r="AO136" s="1"/>
-      <c r="BA136" s="95" t="s">
+      <c r="BA136" s="85" t="s">
         <v>555</v>
       </c>
-      <c r="BB136" s="95" t="s">
+      <c r="BB136" s="85" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -20789,9 +20968,8 @@
       <c r="AD137" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="AE137" s="81" t="e">
-        <f t="shared" si="134"/>
-        <v>#N/A</v>
+      <c r="AE137" s="81" t="s">
+        <v>1356</v>
       </c>
       <c r="AF137" s="46" t="s">
         <v>917</v>
@@ -20805,10 +20983,10 @@
       <c r="AM137" s="2"/>
       <c r="AN137" s="2"/>
       <c r="AO137" s="2"/>
-      <c r="BA137" s="95" t="s">
+      <c r="BA137" s="85" t="s">
         <v>545</v>
       </c>
-      <c r="BB137" s="95" t="s">
+      <c r="BB137" s="85" t="s">
         <v>1252</v>
       </c>
     </row>
@@ -20923,10 +21101,10 @@
       <c r="AM138" s="2"/>
       <c r="AN138" s="2"/>
       <c r="AO138" s="2"/>
-      <c r="BA138" s="95" t="s">
+      <c r="BA138" s="85" t="s">
         <v>587</v>
       </c>
-      <c r="BB138" s="95" t="s">
+      <c r="BB138" s="85" t="s">
         <v>1253</v>
       </c>
     </row>
@@ -21041,10 +21219,10 @@
       <c r="AM139" s="2"/>
       <c r="AN139" s="2"/>
       <c r="AO139" s="2"/>
-      <c r="BA139" s="95" t="s">
+      <c r="BA139" s="85" t="s">
         <v>561</v>
       </c>
-      <c r="BB139" s="95" t="s">
+      <c r="BB139" s="85" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -21159,10 +21337,10 @@
       <c r="AM140" s="2"/>
       <c r="AN140" s="2"/>
       <c r="AO140" s="2"/>
-      <c r="BA140" s="95" t="s">
+      <c r="BA140" s="85" t="s">
         <v>549</v>
       </c>
-      <c r="BB140" s="95" t="s">
+      <c r="BB140" s="85" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -21278,10 +21456,10 @@
       <c r="AM141" s="2"/>
       <c r="AN141" s="2"/>
       <c r="AO141" s="2"/>
-      <c r="BA141" s="95" t="s">
+      <c r="BA141" s="85" t="s">
         <v>593</v>
       </c>
-      <c r="BB141" s="95" t="s">
+      <c r="BB141" s="85" t="s">
         <v>1256</v>
       </c>
     </row>
@@ -21396,10 +21574,10 @@
       <c r="AM142" s="2"/>
       <c r="AN142" s="2"/>
       <c r="AO142" s="2"/>
-      <c r="BA142" s="95" t="s">
+      <c r="BA142" s="85" t="s">
         <v>553</v>
       </c>
-      <c r="BB142" s="95" t="s">
+      <c r="BB142" s="85" t="s">
         <v>1257</v>
       </c>
     </row>
@@ -21511,10 +21689,10 @@
       <c r="AM143" s="1"/>
       <c r="AN143" s="1"/>
       <c r="AO143" s="1"/>
-      <c r="BA143" s="95" t="s">
+      <c r="BA143" s="85" t="s">
         <v>551</v>
       </c>
-      <c r="BB143" s="95" t="s">
+      <c r="BB143" s="85" t="s">
         <v>1258</v>
       </c>
     </row>
@@ -21629,10 +21807,10 @@
       <c r="AM144" s="2"/>
       <c r="AN144" s="2"/>
       <c r="AO144" s="2"/>
-      <c r="BA144" s="95" t="s">
+      <c r="BA144" s="85" t="s">
         <v>577</v>
       </c>
-      <c r="BB144" s="95" t="s">
+      <c r="BB144" s="85" t="s">
         <v>1259</v>
       </c>
     </row>
@@ -21747,10 +21925,10 @@
       <c r="AM145" s="2"/>
       <c r="AN145" s="2"/>
       <c r="AO145" s="2"/>
-      <c r="BA145" s="95" t="s">
+      <c r="BA145" s="85" t="s">
         <v>1260</v>
       </c>
-      <c r="BB145" s="95" t="s">
+      <c r="BB145" s="85" t="s">
         <v>1261</v>
       </c>
     </row>
@@ -21865,10 +22043,10 @@
       <c r="AM146" s="2"/>
       <c r="AN146" s="2"/>
       <c r="AO146" s="2"/>
-      <c r="BA146" s="95" t="s">
+      <c r="BA146" s="85" t="s">
         <v>557</v>
       </c>
-      <c r="BB146" s="95" t="s">
+      <c r="BB146" s="85" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -21983,10 +22161,10 @@
       <c r="AM147" s="2"/>
       <c r="AN147" s="2"/>
       <c r="AO147" s="2"/>
-      <c r="BA147" s="95" t="s">
+      <c r="BA147" s="85" t="s">
         <v>570</v>
       </c>
-      <c r="BB147" s="95" t="s">
+      <c r="BB147" s="85" t="s">
         <v>1263</v>
       </c>
     </row>
@@ -22101,10 +22279,10 @@
       <c r="AM148" s="2"/>
       <c r="AN148" s="2"/>
       <c r="AO148" s="2"/>
-      <c r="BA148" s="95" t="s">
+      <c r="BA148" s="85" t="s">
         <v>1264</v>
       </c>
-      <c r="BB148" s="95" t="s">
+      <c r="BB148" s="85" t="s">
         <v>1265</v>
       </c>
     </row>
@@ -22219,10 +22397,10 @@
       <c r="AM149" s="2"/>
       <c r="AN149" s="2"/>
       <c r="AO149" s="2"/>
-      <c r="BA149" s="95" t="s">
+      <c r="BA149" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="BB149" s="95" t="s">
+      <c r="BB149" s="85" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -22337,10 +22515,10 @@
       <c r="AM150" s="2"/>
       <c r="AN150" s="2"/>
       <c r="AO150" s="2"/>
-      <c r="BA150" s="95" t="s">
+      <c r="BA150" s="85" t="s">
         <v>579</v>
       </c>
-      <c r="BB150" s="95" t="s">
+      <c r="BB150" s="85" t="s">
         <v>1267</v>
       </c>
     </row>
@@ -22456,10 +22634,10 @@
       <c r="AM151" s="2"/>
       <c r="AN151" s="2"/>
       <c r="AO151" s="2"/>
-      <c r="BA151" s="95" t="s">
+      <c r="BA151" s="85" t="s">
         <v>530</v>
       </c>
-      <c r="BB151" s="95" t="s">
+      <c r="BB151" s="85" t="s">
         <v>1268</v>
       </c>
     </row>
@@ -22574,10 +22752,10 @@
       <c r="AM152" s="2"/>
       <c r="AN152" s="2"/>
       <c r="AO152" s="2"/>
-      <c r="BA152" s="95" t="s">
+      <c r="BA152" s="85" t="s">
         <v>1269</v>
       </c>
-      <c r="BB152" s="95" t="s">
+      <c r="BB152" s="85" t="s">
         <v>1270</v>
       </c>
     </row>
@@ -22692,10 +22870,10 @@
       <c r="AM153" s="2"/>
       <c r="AN153" s="2"/>
       <c r="AO153" s="2"/>
-      <c r="BA153" s="95" t="s">
+      <c r="BA153" s="85" t="s">
         <v>630</v>
       </c>
-      <c r="BB153" s="95" t="s">
+      <c r="BB153" s="85" t="s">
         <v>1271</v>
       </c>
     </row>
@@ -22810,10 +22988,10 @@
       <c r="AM154" s="2"/>
       <c r="AN154" s="2"/>
       <c r="AO154" s="2"/>
-      <c r="BA154" s="95" t="s">
+      <c r="BA154" s="85" t="s">
         <v>652</v>
       </c>
-      <c r="BB154" s="95" t="s">
+      <c r="BB154" s="85" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -22928,10 +23106,10 @@
       <c r="AM155" s="2"/>
       <c r="AN155" s="2"/>
       <c r="AO155" s="2"/>
-      <c r="BA155" s="95" t="s">
+      <c r="BA155" s="85" t="s">
         <v>683</v>
       </c>
-      <c r="BB155" s="95" t="s">
+      <c r="BB155" s="85" t="s">
         <v>1273</v>
       </c>
     </row>
@@ -23046,10 +23224,10 @@
       <c r="AM156" s="2"/>
       <c r="AN156" s="2"/>
       <c r="AO156" s="2"/>
-      <c r="BA156" s="95" t="s">
+      <c r="BA156" s="85" t="s">
         <v>618</v>
       </c>
-      <c r="BB156" s="95" t="s">
+      <c r="BB156" s="85" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -23164,10 +23342,10 @@
       <c r="AM157" s="2"/>
       <c r="AN157" s="2"/>
       <c r="AO157" s="2"/>
-      <c r="BA157" s="95" t="s">
+      <c r="BA157" s="85" t="s">
         <v>638</v>
       </c>
-      <c r="BB157" s="95" t="s">
+      <c r="BB157" s="85" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -23282,10 +23460,10 @@
       <c r="AM158" s="2"/>
       <c r="AN158" s="2"/>
       <c r="AO158" s="2"/>
-      <c r="BA158" s="95" t="s">
+      <c r="BA158" s="85" t="s">
         <v>634</v>
       </c>
-      <c r="BB158" s="95" t="s">
+      <c r="BB158" s="85" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -23400,10 +23578,10 @@
       <c r="AM159" s="2"/>
       <c r="AN159" s="2"/>
       <c r="AO159" s="2"/>
-      <c r="BA159" s="95" t="s">
+      <c r="BA159" s="85" t="s">
         <v>685</v>
       </c>
-      <c r="BB159" s="95" t="s">
+      <c r="BB159" s="85" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -23518,10 +23696,10 @@
       <c r="AM160" s="2"/>
       <c r="AN160" s="2"/>
       <c r="AO160" s="2"/>
-      <c r="BA160" s="95" t="s">
+      <c r="BA160" s="85" t="s">
         <v>1278</v>
       </c>
-      <c r="BB160" s="95" t="s">
+      <c r="BB160" s="85" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -23636,10 +23814,10 @@
       <c r="AM161" s="2"/>
       <c r="AN161" s="2"/>
       <c r="AO161" s="2"/>
-      <c r="BA161" s="95" t="s">
+      <c r="BA161" s="85" t="s">
         <v>626</v>
       </c>
-      <c r="BB161" s="95" t="s">
+      <c r="BB161" s="85" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -23754,10 +23932,10 @@
       <c r="AM162" s="2"/>
       <c r="AN162" s="2"/>
       <c r="AO162" s="2"/>
-      <c r="BA162" s="95" t="s">
+      <c r="BA162" s="85" t="s">
         <v>673</v>
       </c>
-      <c r="BB162" s="95" t="s">
+      <c r="BB162" s="85" t="s">
         <v>1281</v>
       </c>
     </row>
@@ -23862,10 +24040,10 @@
       <c r="AM163" s="2"/>
       <c r="AN163" s="2"/>
       <c r="AO163" s="2"/>
-      <c r="BA163" s="95" t="s">
+      <c r="BA163" s="85" t="s">
         <v>679</v>
       </c>
-      <c r="BB163" s="95" t="s">
+      <c r="BB163" s="85" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -23969,10 +24147,10 @@
       <c r="AM164" s="2"/>
       <c r="AN164" s="2"/>
       <c r="AO164" s="2"/>
-      <c r="BA164" s="95" t="s">
+      <c r="BA164" s="85" t="s">
         <v>647</v>
       </c>
-      <c r="BB164" s="95" t="s">
+      <c r="BB164" s="85" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -24077,10 +24255,10 @@
       <c r="AM165" s="2"/>
       <c r="AN165" s="2"/>
       <c r="AO165" s="2"/>
-      <c r="BA165" s="95" t="s">
+      <c r="BA165" s="85" t="s">
         <v>675</v>
       </c>
-      <c r="BB165" s="95" t="s">
+      <c r="BB165" s="85" t="s">
         <v>1284</v>
       </c>
     </row>
@@ -24185,10 +24363,10 @@
       <c r="AM166" s="2"/>
       <c r="AN166" s="2"/>
       <c r="AO166" s="2"/>
-      <c r="BA166" s="95" t="s">
+      <c r="BA166" s="85" t="s">
         <v>628</v>
       </c>
-      <c r="BB166" s="95" t="s">
+      <c r="BB166" s="85" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -24292,10 +24470,10 @@
       <c r="AM167" s="2"/>
       <c r="AN167" s="2"/>
       <c r="AO167" s="2"/>
-      <c r="BA167" s="95" t="s">
+      <c r="BA167" s="85" t="s">
         <v>687</v>
       </c>
-      <c r="BB167" s="95" t="s">
+      <c r="BB167" s="85" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -24346,10 +24524,10 @@
       <c r="AM168" s="2"/>
       <c r="AN168" s="2"/>
       <c r="AO168" s="2"/>
-      <c r="BA168" s="95" t="s">
+      <c r="BA168" s="85" t="s">
         <v>636</v>
       </c>
-      <c r="BB168" s="95" t="s">
+      <c r="BB168" s="85" t="s">
         <v>1287</v>
       </c>
     </row>
@@ -24464,10 +24642,10 @@
       <c r="AM169" s="2"/>
       <c r="AN169" s="2"/>
       <c r="AO169" s="2"/>
-      <c r="BA169" s="95" t="s">
+      <c r="BA169" s="85" t="s">
         <v>608</v>
       </c>
-      <c r="BB169" s="95" t="s">
+      <c r="BB169" s="85" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -24583,10 +24761,10 @@
       <c r="AM170" s="1"/>
       <c r="AN170" s="1"/>
       <c r="AO170" s="1"/>
-      <c r="BA170" s="95" t="s">
+      <c r="BA170" s="85" t="s">
         <v>645</v>
       </c>
-      <c r="BB170" s="95" t="s">
+      <c r="BB170" s="85" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -24699,10 +24877,10 @@
       <c r="AM171" s="2"/>
       <c r="AN171" s="2"/>
       <c r="AO171" s="2"/>
-      <c r="BA171" s="95" t="s">
+      <c r="BA171" s="85" t="s">
         <v>642</v>
       </c>
-      <c r="BB171" s="95" t="s">
+      <c r="BB171" s="85" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -24816,10 +24994,10 @@
       <c r="AM172" s="2"/>
       <c r="AN172" s="2"/>
       <c r="AO172" s="2"/>
-      <c r="BA172" s="95" t="s">
+      <c r="BA172" s="85" t="s">
         <v>640</v>
       </c>
-      <c r="BB172" s="95" t="s">
+      <c r="BB172" s="85" t="s">
         <v>1291</v>
       </c>
     </row>
@@ -24934,10 +25112,10 @@
       <c r="AM173" s="2"/>
       <c r="AN173" s="2"/>
       <c r="AO173" s="2"/>
-      <c r="BA173" s="95" t="s">
+      <c r="BA173" s="85" t="s">
         <v>681</v>
       </c>
-      <c r="BB173" s="95" t="s">
+      <c r="BB173" s="85" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -25052,10 +25230,10 @@
       <c r="AM174" s="2"/>
       <c r="AN174" s="2"/>
       <c r="AO174" s="2"/>
-      <c r="BA174" s="95" t="s">
+      <c r="BA174" s="85" t="s">
         <v>666</v>
       </c>
-      <c r="BB174" s="95" t="s">
+      <c r="BB174" s="85" t="s">
         <v>1293</v>
       </c>
     </row>
@@ -25170,10 +25348,10 @@
       <c r="AM175" s="2"/>
       <c r="AN175" s="2"/>
       <c r="AO175" s="2"/>
-      <c r="BA175" s="95" t="s">
+      <c r="BA175" s="85" t="s">
         <v>662</v>
       </c>
-      <c r="BB175" s="95" t="s">
+      <c r="BB175" s="85" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -25288,10 +25466,10 @@
       <c r="AM176" s="2"/>
       <c r="AN176" s="2"/>
       <c r="AO176" s="2"/>
-      <c r="BA176" s="95" t="s">
+      <c r="BA176" s="85" t="s">
         <v>621</v>
       </c>
-      <c r="BB176" s="95" t="s">
+      <c r="BB176" s="85" t="s">
         <v>1295</v>
       </c>
     </row>
@@ -25407,10 +25585,10 @@
       <c r="AM177" s="2"/>
       <c r="AN177" s="2"/>
       <c r="AO177" s="2"/>
-      <c r="BA177" s="95" t="s">
+      <c r="BA177" s="85" t="s">
         <v>604</v>
       </c>
-      <c r="BB177" s="95" t="s">
+      <c r="BB177" s="85" t="s">
         <v>1296</v>
       </c>
     </row>
@@ -25510,9 +25688,8 @@
       <c r="AD178" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="AE178" s="46" t="e">
-        <f t="shared" si="134"/>
-        <v>#N/A</v>
+      <c r="AE178" s="46" t="s">
+        <v>1229</v>
       </c>
       <c r="AF178" s="46" t="s">
         <v>956</v>
@@ -25526,10 +25703,10 @@
       <c r="AM178" s="2"/>
       <c r="AN178" s="2"/>
       <c r="AO178" s="2"/>
-      <c r="BA178" s="95" t="s">
+      <c r="BA178" s="85" t="s">
         <v>623</v>
       </c>
-      <c r="BB178" s="95" t="s">
+      <c r="BB178" s="85" t="s">
         <v>1297</v>
       </c>
     </row>
@@ -25645,10 +25822,10 @@
       <c r="AM179" s="2"/>
       <c r="AN179" s="2"/>
       <c r="AO179" s="2"/>
-      <c r="BA179" s="95" t="s">
+      <c r="BA179" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="BB179" s="95" t="s">
+      <c r="BB179" s="85" t="s">
         <v>1298</v>
       </c>
     </row>
@@ -25748,9 +25925,8 @@
       <c r="AD180" s="60" t="s">
         <v>472</v>
       </c>
-      <c r="AE180" s="46" t="e">
-        <f t="shared" si="134"/>
-        <v>#N/A</v>
+      <c r="AE180" s="46" t="s">
+        <v>1214</v>
       </c>
       <c r="AF180" s="46" t="s">
         <v>958</v>
@@ -25764,10 +25940,10 @@
       <c r="AM180" s="2"/>
       <c r="AN180" s="2"/>
       <c r="AO180" s="2"/>
-      <c r="BA180" s="95" t="s">
+      <c r="BA180" s="85" t="s">
         <v>632</v>
       </c>
-      <c r="BB180" s="95" t="s">
+      <c r="BB180" s="85" t="s">
         <v>1299</v>
       </c>
     </row>
@@ -25883,10 +26059,10 @@
       <c r="AM181" s="2"/>
       <c r="AN181" s="2"/>
       <c r="AO181" s="2"/>
-      <c r="BA181" s="95" t="s">
+      <c r="BA181" s="85" t="s">
         <v>1300</v>
       </c>
-      <c r="BB181" s="95" t="s">
+      <c r="BB181" s="85" t="s">
         <v>1301</v>
       </c>
     </row>
@@ -26001,10 +26177,10 @@
       <c r="AM182" s="2"/>
       <c r="AN182" s="2"/>
       <c r="AO182" s="2"/>
-      <c r="BA182" s="95" t="s">
+      <c r="BA182" s="85" t="s">
         <v>654</v>
       </c>
-      <c r="BB182" s="95" t="s">
+      <c r="BB182" s="85" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -26119,10 +26295,10 @@
       <c r="AM183" s="2"/>
       <c r="AN183" s="2"/>
       <c r="AO183" s="2"/>
-      <c r="BA183" s="95" t="s">
+      <c r="BA183" s="85" t="s">
         <v>677</v>
       </c>
-      <c r="BB183" s="95" t="s">
+      <c r="BB183" s="85" t="s">
         <v>1303</v>
       </c>
     </row>
@@ -26237,10 +26413,10 @@
       <c r="AM184" s="2"/>
       <c r="AN184" s="2"/>
       <c r="AO184" s="2"/>
-      <c r="BA184" s="95" t="s">
+      <c r="BA184" s="85" t="s">
         <v>1304</v>
       </c>
-      <c r="BB184" s="95" t="s">
+      <c r="BB184" s="85" t="s">
         <v>1305</v>
       </c>
     </row>
@@ -26355,10 +26531,10 @@
       <c r="AM185" s="2"/>
       <c r="AN185" s="2"/>
       <c r="AO185" s="2"/>
-      <c r="BA185" s="95" t="s">
+      <c r="BA185" s="85" t="s">
         <v>717</v>
       </c>
-      <c r="BB185" s="95" t="s">
+      <c r="BB185" s="85" t="s">
         <v>1306</v>
       </c>
     </row>
@@ -26473,10 +26649,10 @@
       <c r="AM186" s="2"/>
       <c r="AN186" s="2"/>
       <c r="AO186" s="2"/>
-      <c r="BA186" s="95" t="s">
+      <c r="BA186" s="85" t="s">
         <v>703</v>
       </c>
-      <c r="BB186" s="95" t="s">
+      <c r="BB186" s="85" t="s">
         <v>1307</v>
       </c>
     </row>
@@ -26591,10 +26767,10 @@
       <c r="AM187" s="2"/>
       <c r="AN187" s="2"/>
       <c r="AO187" s="2"/>
-      <c r="BA187" s="95" t="s">
+      <c r="BA187" s="85" t="s">
         <v>694</v>
       </c>
-      <c r="BB187" s="95" t="s">
+      <c r="BB187" s="85" t="s">
         <v>1308</v>
       </c>
     </row>
@@ -26709,10 +26885,10 @@
       <c r="AM188" s="2"/>
       <c r="AN188" s="2"/>
       <c r="AO188" s="2"/>
-      <c r="BA188" s="95" t="s">
+      <c r="BA188" s="85" t="s">
         <v>709</v>
       </c>
-      <c r="BB188" s="95" t="s">
+      <c r="BB188" s="85" t="s">
         <v>1309</v>
       </c>
     </row>
@@ -26827,10 +27003,10 @@
       <c r="AM189" s="2"/>
       <c r="AN189" s="2"/>
       <c r="AO189" s="2"/>
-      <c r="BA189" s="95" t="s">
+      <c r="BA189" s="85" t="s">
         <v>705</v>
       </c>
-      <c r="BB189" s="95" t="s">
+      <c r="BB189" s="85" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -26945,10 +27121,10 @@
       <c r="AM190" s="2"/>
       <c r="AN190" s="2"/>
       <c r="AO190" s="2"/>
-      <c r="BA190" s="95" t="s">
+      <c r="BA190" s="85" t="s">
         <v>707</v>
       </c>
-      <c r="BB190" s="95" t="s">
+      <c r="BB190" s="85" t="s">
         <v>1311</v>
       </c>
     </row>
@@ -27063,10 +27239,10 @@
       <c r="AM191" s="2"/>
       <c r="AN191" s="2"/>
       <c r="AO191" s="2"/>
-      <c r="BA191" s="95" t="s">
+      <c r="BA191" s="85" t="s">
         <v>711</v>
       </c>
-      <c r="BB191" s="95" t="s">
+      <c r="BB191" s="85" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -27181,10 +27357,10 @@
       <c r="AM192" s="2"/>
       <c r="AN192" s="2"/>
       <c r="AO192" s="2"/>
-      <c r="BA192" s="95" t="s">
+      <c r="BA192" s="85" t="s">
         <v>1313</v>
       </c>
-      <c r="BB192" s="95" t="s">
+      <c r="BB192" s="85" t="s">
         <v>1314</v>
       </c>
     </row>
@@ -27299,10 +27475,10 @@
       <c r="AM193" s="2"/>
       <c r="AN193" s="2"/>
       <c r="AO193" s="2"/>
-      <c r="BA193" s="95" t="s">
+      <c r="BA193" s="85" t="s">
         <v>720</v>
       </c>
-      <c r="BB193" s="95" t="s">
+      <c r="BB193" s="85" t="s">
         <v>1315</v>
       </c>
     </row>
@@ -27417,10 +27593,10 @@
       <c r="AM194" s="2"/>
       <c r="AN194" s="2"/>
       <c r="AO194" s="2"/>
-      <c r="BA194" s="95" t="s">
+      <c r="BA194" s="85" t="s">
         <v>743</v>
       </c>
-      <c r="BB194" s="95" t="s">
+      <c r="BB194" s="85" t="s">
         <v>1316</v>
       </c>
     </row>
@@ -27533,10 +27709,10 @@
       <c r="AM195" s="2"/>
       <c r="AN195" s="2"/>
       <c r="AO195" s="2"/>
-      <c r="BA195" s="95" t="s">
+      <c r="BA195" s="85" t="s">
         <v>732</v>
       </c>
-      <c r="BB195" s="95" t="s">
+      <c r="BB195" s="85" t="s">
         <v>1317</v>
       </c>
     </row>
@@ -27649,10 +27825,10 @@
       <c r="AM196" s="2"/>
       <c r="AN196" s="2"/>
       <c r="AO196" s="2"/>
-      <c r="BA196" s="95" t="s">
+      <c r="BA196" s="85" t="s">
         <v>735</v>
       </c>
-      <c r="BB196" s="95" t="s">
+      <c r="BB196" s="85" t="s">
         <v>1318</v>
       </c>
     </row>
@@ -27763,10 +27939,10 @@
       <c r="AM197" s="2"/>
       <c r="AN197" s="2"/>
       <c r="AO197" s="2"/>
-      <c r="BA197" s="95" t="s">
+      <c r="BA197" s="85" t="s">
         <v>724</v>
       </c>
-      <c r="BB197" s="95" t="s">
+      <c r="BB197" s="85" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -27877,10 +28053,10 @@
       <c r="AM198" s="2"/>
       <c r="AN198" s="2"/>
       <c r="AO198" s="2"/>
-      <c r="BA198" s="95" t="s">
+      <c r="BA198" s="85" t="s">
         <v>750</v>
       </c>
-      <c r="BB198" s="95" t="s">
+      <c r="BB198" s="85" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -27990,10 +28166,10 @@
       <c r="AM199" s="2"/>
       <c r="AN199" s="2"/>
       <c r="AO199" s="2"/>
-      <c r="BA199" s="95" t="s">
+      <c r="BA199" s="85" t="s">
         <v>727</v>
       </c>
-      <c r="BB199" s="95" t="s">
+      <c r="BB199" s="85" t="s">
         <v>1321</v>
       </c>
     </row>
@@ -28042,10 +28218,10 @@
       <c r="AM200" s="2"/>
       <c r="AN200" s="2"/>
       <c r="AO200" s="2"/>
-      <c r="BA200" s="95" t="s">
+      <c r="BA200" s="85" t="s">
         <v>748</v>
       </c>
-      <c r="BB200" s="95" t="s">
+      <c r="BB200" s="85" t="s">
         <v>1322</v>
       </c>
     </row>
@@ -28161,10 +28337,10 @@
       <c r="AM201" s="1"/>
       <c r="AN201" s="1"/>
       <c r="AO201" s="1"/>
-      <c r="BA201" s="95" t="s">
+      <c r="BA201" s="85" t="s">
         <v>746</v>
       </c>
-      <c r="BB201" s="95" t="s">
+      <c r="BB201" s="85" t="s">
         <v>1323</v>
       </c>
     </row>
@@ -28264,9 +28440,8 @@
       <c r="AD202" s="54" t="s">
         <v>534</v>
       </c>
-      <c r="AE202" s="46" t="e">
-        <f t="shared" si="199"/>
-        <v>#N/A</v>
+      <c r="AE202" s="46" t="s">
+        <v>1261</v>
       </c>
       <c r="AF202" s="46" t="s">
         <v>974</v>
@@ -28280,10 +28455,10 @@
       <c r="AM202" s="1"/>
       <c r="AN202" s="1"/>
       <c r="AO202" s="1"/>
-      <c r="BA202" s="95" t="s">
+      <c r="BA202" s="85" t="s">
         <v>754</v>
       </c>
-      <c r="BB202" s="95" t="s">
+      <c r="BB202" s="85" t="s">
         <v>1324</v>
       </c>
     </row>
@@ -28396,10 +28571,10 @@
       <c r="AM203" s="2"/>
       <c r="AN203" s="2"/>
       <c r="AO203" s="2"/>
-      <c r="BA203" s="95" t="s">
+      <c r="BA203" s="85" t="s">
         <v>729</v>
       </c>
-      <c r="BB203" s="95" t="s">
+      <c r="BB203" s="85" t="s">
         <v>1325</v>
       </c>
     </row>
@@ -28512,10 +28687,10 @@
       <c r="AM204" s="2"/>
       <c r="AN204" s="2"/>
       <c r="AO204" s="2"/>
-      <c r="BA204" s="95" t="s">
+      <c r="BA204" s="85" t="s">
         <v>778</v>
       </c>
-      <c r="BB204" s="95" t="s">
+      <c r="BB204" s="85" t="s">
         <v>1326</v>
       </c>
     </row>
@@ -28628,10 +28803,10 @@
       <c r="AM205" s="2"/>
       <c r="AN205" s="2"/>
       <c r="AO205" s="2"/>
-      <c r="BA205" s="95" t="s">
+      <c r="BA205" s="85" t="s">
         <v>757</v>
       </c>
-      <c r="BB205" s="95" t="s">
+      <c r="BB205" s="85" t="s">
         <v>1327</v>
       </c>
     </row>
@@ -28744,10 +28919,10 @@
       <c r="AM206" s="2"/>
       <c r="AN206" s="2"/>
       <c r="AO206" s="2"/>
-      <c r="BA206" s="95" t="s">
+      <c r="BA206" s="85" t="s">
         <v>776</v>
       </c>
-      <c r="BB206" s="95" t="s">
+      <c r="BB206" s="85" t="s">
         <v>1328</v>
       </c>
     </row>
@@ -28860,10 +29035,10 @@
       <c r="AM207" s="2"/>
       <c r="AN207" s="2"/>
       <c r="AO207" s="2"/>
-      <c r="BA207" s="95" t="s">
+      <c r="BA207" s="85" t="s">
         <v>767</v>
       </c>
-      <c r="BB207" s="95" t="s">
+      <c r="BB207" s="85" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -28978,10 +29153,10 @@
       <c r="AM208" s="2"/>
       <c r="AN208" s="2"/>
       <c r="AO208" s="2"/>
-      <c r="BA208" s="95" t="s">
+      <c r="BA208" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="BB208" s="95" t="s">
+      <c r="BB208" s="85" t="s">
         <v>1330</v>
       </c>
     </row>
@@ -29094,10 +29269,10 @@
       <c r="AM209" s="2"/>
       <c r="AN209" s="2"/>
       <c r="AO209" s="2"/>
-      <c r="BA209" s="95" t="s">
+      <c r="BA209" s="85" t="s">
         <v>787</v>
       </c>
-      <c r="BB209" s="95" t="s">
+      <c r="BB209" s="85" t="s">
         <v>1331</v>
       </c>
     </row>
@@ -29212,10 +29387,10 @@
       <c r="AM210" s="2"/>
       <c r="AN210" s="2"/>
       <c r="AO210" s="2"/>
-      <c r="BA210" s="95" t="s">
+      <c r="BA210" s="85" t="s">
         <v>790</v>
       </c>
-      <c r="BB210" s="95" t="s">
+      <c r="BB210" s="85" t="s">
         <v>1332</v>
       </c>
     </row>
@@ -29330,10 +29505,10 @@
       <c r="AM211" s="2"/>
       <c r="AN211" s="2"/>
       <c r="AO211" s="2"/>
-      <c r="BA211" s="95" t="s">
+      <c r="BA211" s="85" t="s">
         <v>795</v>
       </c>
-      <c r="BB211" s="95" t="s">
+      <c r="BB211" s="85" t="s">
         <v>1333</v>
       </c>
     </row>
@@ -29432,9 +29607,8 @@
       <c r="AD212" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="AE212" s="46" t="e">
-        <f t="shared" si="199"/>
-        <v>#N/A</v>
+      <c r="AE212" s="46" t="s">
+        <v>1265</v>
       </c>
       <c r="AF212" s="46" t="s">
         <v>984</v>
@@ -29448,10 +29622,10 @@
       <c r="AM212" s="2"/>
       <c r="AN212" s="2"/>
       <c r="AO212" s="2"/>
-      <c r="BA212" s="95" t="s">
+      <c r="BA212" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="BB212" s="95" t="s">
+      <c r="BB212" s="85" t="s">
         <v>1334</v>
       </c>
     </row>
@@ -29562,10 +29736,10 @@
       <c r="AM213" s="2"/>
       <c r="AN213" s="2"/>
       <c r="AO213" s="2"/>
-      <c r="BA213" s="95" t="s">
+      <c r="BA213" s="85" t="s">
         <v>805</v>
       </c>
-      <c r="BB213" s="95" t="s">
+      <c r="BB213" s="85" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -29660,9 +29834,8 @@
       <c r="AD214" s="34" t="s">
         <v>564</v>
       </c>
-      <c r="AE214" s="46" t="e">
-        <f t="shared" si="199"/>
-        <v>#N/A</v>
+      <c r="AE214" s="46" t="s">
+        <v>1246</v>
       </c>
       <c r="AF214" s="46" t="s">
         <v>986</v>
@@ -29676,10 +29849,10 @@
       <c r="AM214" s="2"/>
       <c r="AN214" s="2"/>
       <c r="AO214" s="2"/>
-      <c r="BA214" s="95" t="s">
+      <c r="BA214" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="BB214" s="95" t="s">
+      <c r="BB214" s="85" t="s">
         <v>1336</v>
       </c>
     </row>
@@ -29791,10 +29964,10 @@
       <c r="AM215" s="1"/>
       <c r="AN215" s="1"/>
       <c r="AO215" s="1"/>
-      <c r="BA215" s="95" t="s">
+      <c r="BA215" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="BB215" s="95" t="s">
+      <c r="BB215" s="85" t="s">
         <v>1337</v>
       </c>
     </row>
@@ -29906,10 +30079,10 @@
       <c r="AM216" s="1"/>
       <c r="AN216" s="1"/>
       <c r="AO216" s="1"/>
-      <c r="BA216" s="95" t="s">
+      <c r="BA216" s="85" t="s">
         <v>807</v>
       </c>
-      <c r="BB216" s="95" t="s">
+      <c r="BB216" s="85" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -30021,10 +30194,10 @@
       <c r="AM217" s="1"/>
       <c r="AN217" s="1"/>
       <c r="AO217" s="1"/>
-      <c r="BA217" s="95" t="s">
+      <c r="BA217" s="85" t="s">
         <v>806</v>
       </c>
-      <c r="BB217" s="95" t="s">
+      <c r="BB217" s="85" t="s">
         <v>1339</v>
       </c>
     </row>
@@ -30136,10 +30309,10 @@
       <c r="AM218" s="1"/>
       <c r="AN218" s="1"/>
       <c r="AO218" s="1"/>
-      <c r="BA218" s="95" t="s">
+      <c r="BA218" s="85" t="s">
         <v>797</v>
       </c>
-      <c r="BB218" s="95" t="s">
+      <c r="BB218" s="85" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -30254,10 +30427,10 @@
       <c r="AM219" s="2"/>
       <c r="AN219" s="2"/>
       <c r="AO219" s="2"/>
-      <c r="BA219" s="95" t="s">
+      <c r="BA219" s="85" t="s">
         <v>800</v>
       </c>
-      <c r="BB219" s="95" t="s">
+      <c r="BB219" s="85" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -30369,10 +30542,10 @@
       <c r="AM220" s="1"/>
       <c r="AN220" s="1"/>
       <c r="AO220" s="1"/>
-      <c r="BA220" s="95" t="s">
+      <c r="BA220" s="85" t="s">
         <v>793</v>
       </c>
-      <c r="BB220" s="95" t="s">
+      <c r="BB220" s="85" t="s">
         <v>1342</v>
       </c>
     </row>
@@ -30484,10 +30657,10 @@
       <c r="AM221" s="1"/>
       <c r="AN221" s="1"/>
       <c r="AO221" s="1"/>
-      <c r="BA221" s="95" t="s">
+      <c r="BA221" s="85" t="s">
         <v>811</v>
       </c>
-      <c r="BB221" s="95" t="s">
+      <c r="BB221" s="85" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -30599,10 +30772,10 @@
       <c r="AM222" s="1"/>
       <c r="AN222" s="1"/>
       <c r="AO222" s="1"/>
-      <c r="BA222" s="95" t="s">
+      <c r="BA222" s="85" t="s">
         <v>804</v>
       </c>
-      <c r="BB222" s="95" t="s">
+      <c r="BB222" s="85" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -30714,10 +30887,10 @@
       <c r="AM223" s="1"/>
       <c r="AN223" s="1"/>
       <c r="AO223" s="1"/>
-      <c r="BA223" s="95" t="s">
+      <c r="BA223" s="85" t="s">
         <v>803</v>
       </c>
-      <c r="BB223" s="95" t="s">
+      <c r="BB223" s="85" t="s">
         <v>1345</v>
       </c>
     </row>
@@ -30829,10 +31002,10 @@
       <c r="AM224" s="1"/>
       <c r="AN224" s="1"/>
       <c r="AO224" s="1"/>
-      <c r="BA224" s="95" t="s">
+      <c r="BA224" s="85" t="s">
         <v>1346</v>
       </c>
-      <c r="BB224" s="95" t="s">
+      <c r="BB224" s="85" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -31364,9 +31537,8 @@
       <c r="AD229" s="34" t="s">
         <v>595</v>
       </c>
-      <c r="AE229" s="81" t="e">
-        <f t="shared" si="199"/>
-        <v>#N/A</v>
+      <c r="AE229" s="81" t="s">
+        <v>1352</v>
       </c>
       <c r="AF229" s="46" t="s">
         <v>1001</v>
@@ -31473,9 +31645,8 @@
       <c r="AD230" s="34" t="s">
         <v>597</v>
       </c>
-      <c r="AE230" s="46" t="e">
-        <f t="shared" si="199"/>
-        <v>#N/A</v>
+      <c r="AE230" s="46" t="s">
+        <v>1270</v>
       </c>
       <c r="AF230" s="46" t="s">
         <v>1002</v>
@@ -34852,9 +35023,8 @@
       <c r="AD261" s="34" t="s">
         <v>671</v>
       </c>
-      <c r="AE261" s="81" t="e">
-        <f t="shared" si="199"/>
-        <v>#N/A</v>
+      <c r="AE261" s="81" t="s">
+        <v>1350</v>
       </c>
       <c r="AF261" s="46" t="s">
         <v>1032</v>
@@ -35857,9 +36027,8 @@
       <c r="AD270" s="27" t="s">
         <v>689</v>
       </c>
-      <c r="AE270" s="46" t="e">
-        <f t="shared" si="264"/>
-        <v>#N/A</v>
+      <c r="AE270" s="46" t="s">
+        <v>1351</v>
       </c>
       <c r="AF270" s="46" t="s">
         <v>1041</v>
@@ -36236,9 +36405,8 @@
       <c r="AD274" s="27" t="s">
         <v>697</v>
       </c>
-      <c r="AE274" s="46" t="e">
-        <f t="shared" si="264"/>
-        <v>#N/A</v>
+      <c r="AE274" s="46" t="s">
+        <v>1349</v>
       </c>
       <c r="AF274" s="46" t="s">
         <v>1044</v>
@@ -38731,9 +38899,8 @@
       <c r="AD297" s="27" t="s">
         <v>752</v>
       </c>
-      <c r="AE297" s="81" t="e">
-        <f t="shared" si="264"/>
-        <v>#N/A</v>
+      <c r="AE297" s="81" t="s">
+        <v>1348</v>
       </c>
       <c r="AF297" s="46" t="s">
         <v>1065</v>
@@ -41208,9 +41375,8 @@
         <v>4</v>
       </c>
       <c r="AD320" s="3"/>
-      <c r="AE320" s="46" t="e">
-        <f t="shared" si="264"/>
-        <v>#N/A</v>
+      <c r="AE320" s="46" t="s">
+        <v>1347</v>
       </c>
       <c r="AF320" s="46" t="s">
         <v>1086</v>

--- a/public/food-data.xlsx
+++ b/public/food-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serena/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanau/WebstormProjects/nutrition-calculator/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C1DDA5-AE65-3046-99A8-37D6AD3CAA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342BCCF6-D836-D24D-91BE-3D999E64EE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12200" yWindow="500" windowWidth="16600" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="300 Common Foods - editing" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="1368">
   <si>
     <t>WeRise Nutrition Calculator Database</t>
   </si>
@@ -4374,6 +4374,33 @@
   </si>
   <si>
     <t>1TmlG0MixbxwTf-8pRtcevu9nJ0xpcb_G</t>
+  </si>
+  <si>
+    <t>Dine Out Dishes</t>
+  </si>
+  <si>
+    <t>HK Delicacies</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Breakfast Foods</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>HK Bakery</t>
+  </si>
+  <si>
+    <t>HK Desserts</t>
+  </si>
+  <si>
+    <t>Condiments</t>
+  </si>
+  <si>
+    <t>Fruits</t>
   </si>
 </sst>
 </file>
@@ -5356,10 +5383,10 @@
   <dimension ref="A1:BB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F325" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AE93" sqref="AE93"/>
+      <selection pane="bottomRight" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5644,7 +5671,9 @@
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
@@ -5771,6 +5800,9 @@
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B6" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
@@ -5896,6 +5928,9 @@
     </row>
     <row r="7" spans="1:54" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
+      <c r="B7" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
@@ -6020,6 +6055,9 @@
     </row>
     <row r="8" spans="1:54" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
+      <c r="B8" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
@@ -6148,6 +6186,9 @@
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B9" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
@@ -6275,6 +6316,9 @@
     <row r="10" spans="1:54" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>1359</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>56</v>
@@ -6390,6 +6434,9 @@
     </row>
     <row r="11" spans="1:54" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="1"/>
+      <c r="B11" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>60</v>
       </c>
@@ -6506,6 +6553,9 @@
       <c r="A12" s="36" t="s">
         <v>64</v>
       </c>
+      <c r="B12" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
@@ -6624,7 +6674,9 @@
     </row>
     <row r="13" spans="1:54" ht="14.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
@@ -6747,6 +6799,9 @@
     </row>
     <row r="14" spans="1:54" ht="14.25" customHeight="1">
       <c r="A14" s="2"/>
+      <c r="B14" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>70</v>
       </c>
@@ -6869,7 +6924,9 @@
     </row>
     <row r="15" spans="1:54" ht="14.25" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C15" s="41" t="s">
         <v>74</v>
       </c>
@@ -6992,7 +7049,9 @@
     </row>
     <row r="16" spans="1:54" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>76</v>
       </c>
@@ -7115,7 +7174,9 @@
     </row>
     <row r="17" spans="1:54" ht="14.25" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>79</v>
       </c>
@@ -7232,7 +7293,9 @@
     </row>
     <row r="18" spans="1:54" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>82</v>
       </c>
@@ -7347,7 +7410,9 @@
     </row>
     <row r="19" spans="1:54" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>84</v>
       </c>
@@ -7462,7 +7527,9 @@
     </row>
     <row r="20" spans="1:54" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>86</v>
       </c>
@@ -7577,7 +7644,9 @@
     </row>
     <row r="21" spans="1:54" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>88</v>
       </c>
@@ -7692,7 +7761,9 @@
     </row>
     <row r="22" spans="1:54" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>90</v>
       </c>
@@ -7807,7 +7878,9 @@
     </row>
     <row r="23" spans="1:54" ht="14.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>92</v>
       </c>
@@ -7922,7 +7995,9 @@
     </row>
     <row r="24" spans="1:54" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>94</v>
       </c>
@@ -8037,7 +8112,9 @@
     </row>
     <row r="25" spans="1:54" ht="14.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>96</v>
       </c>
@@ -8152,7 +8229,9 @@
     </row>
     <row r="26" spans="1:54" ht="14.25" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C26" s="41" t="s">
         <v>98</v>
       </c>
@@ -8267,7 +8346,9 @@
     </row>
     <row r="27" spans="1:54" ht="14.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C27" s="41" t="s">
         <v>100</v>
       </c>
@@ -8382,7 +8463,9 @@
     </row>
     <row r="28" spans="1:54" ht="14.25" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>102</v>
       </c>
@@ -8497,7 +8580,9 @@
     </row>
     <row r="29" spans="1:54" ht="14.25" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>104</v>
       </c>
@@ -8612,7 +8697,9 @@
     </row>
     <row r="30" spans="1:54" ht="14.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>106</v>
       </c>
@@ -8727,7 +8814,9 @@
     </row>
     <row r="31" spans="1:54" ht="14.25" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>108</v>
       </c>
@@ -8844,7 +8933,9 @@
       <c r="A32" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>111</v>
       </c>
@@ -8959,6 +9050,9 @@
     </row>
     <row r="33" spans="1:54" ht="14.25" customHeight="1">
       <c r="A33" s="2"/>
+      <c r="B33" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>114</v>
       </c>
@@ -9073,6 +9167,9 @@
     </row>
     <row r="34" spans="1:54" ht="14.25" customHeight="1">
       <c r="A34" s="2"/>
+      <c r="B34" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C34" s="3" t="s">
         <v>116</v>
       </c>
@@ -9187,6 +9284,9 @@
     </row>
     <row r="35" spans="1:54" ht="14.25" customHeight="1">
       <c r="A35" s="2"/>
+      <c r="B35" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>118</v>
       </c>
@@ -9301,6 +9401,9 @@
     </row>
     <row r="36" spans="1:54" ht="14.25" customHeight="1">
       <c r="A36" s="2"/>
+      <c r="B36" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>120</v>
       </c>
@@ -9415,6 +9518,9 @@
     </row>
     <row r="37" spans="1:54" ht="14.25" customHeight="1">
       <c r="A37" s="2"/>
+      <c r="B37" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>122</v>
       </c>
@@ -9529,6 +9635,9 @@
     </row>
     <row r="38" spans="1:54" ht="14.25" customHeight="1">
       <c r="A38" s="2"/>
+      <c r="B38" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>124</v>
       </c>
@@ -9643,6 +9752,9 @@
     </row>
     <row r="39" spans="1:54" ht="14.25" customHeight="1">
       <c r="A39" s="2"/>
+      <c r="B39" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>126</v>
       </c>
@@ -9757,6 +9869,9 @@
     </row>
     <row r="40" spans="1:54" ht="14.25" customHeight="1">
       <c r="A40" s="2"/>
+      <c r="B40" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C40" s="3" t="s">
         <v>128</v>
       </c>
@@ -9871,6 +9986,9 @@
     </row>
     <row r="41" spans="1:54" ht="14.25" customHeight="1">
       <c r="A41" s="2"/>
+      <c r="B41" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>130</v>
       </c>
@@ -9985,6 +10103,9 @@
     </row>
     <row r="42" spans="1:54" ht="14.25" customHeight="1">
       <c r="A42" s="2"/>
+      <c r="B42" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>132</v>
       </c>
@@ -10099,6 +10220,9 @@
     </row>
     <row r="43" spans="1:54" ht="14.25" customHeight="1">
       <c r="A43" s="2"/>
+      <c r="B43" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>134</v>
       </c>
@@ -10213,6 +10337,9 @@
     </row>
     <row r="44" spans="1:54" ht="14.25" customHeight="1">
       <c r="A44" s="2"/>
+      <c r="B44" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C44" s="3" t="s">
         <v>136</v>
       </c>
@@ -10327,6 +10454,9 @@
     </row>
     <row r="45" spans="1:54" ht="14.25" customHeight="1">
       <c r="A45" s="2"/>
+      <c r="B45" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>139</v>
       </c>
@@ -10441,6 +10571,9 @@
     </row>
     <row r="46" spans="1:54" ht="14.25" customHeight="1">
       <c r="A46" s="2"/>
+      <c r="B46" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>141</v>
       </c>
@@ -10555,6 +10688,9 @@
     </row>
     <row r="47" spans="1:54" ht="14.25" customHeight="1">
       <c r="A47" s="2"/>
+      <c r="B47" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>143</v>
       </c>
@@ -10669,6 +10805,9 @@
     </row>
     <row r="48" spans="1:54" ht="14.25" customHeight="1">
       <c r="A48" s="2"/>
+      <c r="B48" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>145</v>
       </c>
@@ -10783,6 +10922,9 @@
     </row>
     <row r="49" spans="1:54" ht="14.25" customHeight="1">
       <c r="A49" s="2"/>
+      <c r="B49" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>147</v>
       </c>
@@ -10896,6 +11038,9 @@
     </row>
     <row r="50" spans="1:54" ht="14.25" customHeight="1">
       <c r="A50" s="2"/>
+      <c r="B50" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>149</v>
       </c>
@@ -11010,6 +11155,9 @@
     </row>
     <row r="51" spans="1:54" ht="14.25" customHeight="1">
       <c r="A51" s="2"/>
+      <c r="B51" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C51" s="2" t="s">
         <v>151</v>
       </c>
@@ -11126,7 +11274,9 @@
       <c r="A52" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="1"/>
+      <c r="B52" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C52" s="2" t="s">
         <v>154</v>
       </c>
@@ -11241,7 +11391,9 @@
     </row>
     <row r="53" spans="1:54" ht="14.25" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C53" s="2" t="s">
         <v>156</v>
       </c>
@@ -11356,7 +11508,9 @@
     </row>
     <row r="54" spans="1:54" ht="14.25" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C54" s="2" t="s">
         <v>158</v>
       </c>
@@ -11471,7 +11625,9 @@
     </row>
     <row r="55" spans="1:54" ht="14.25" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C55" s="2" t="s">
         <v>160</v>
       </c>
@@ -11586,7 +11742,9 @@
     </row>
     <row r="56" spans="1:54" ht="14.25" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>162</v>
       </c>
@@ -11701,7 +11859,9 @@
     </row>
     <row r="57" spans="1:54" ht="14.25" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C57" s="2" t="s">
         <v>164</v>
       </c>
@@ -11816,7 +11976,9 @@
     </row>
     <row r="58" spans="1:54" ht="14.25" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C58" s="2" t="s">
         <v>166</v>
       </c>
@@ -11931,7 +12093,9 @@
     </row>
     <row r="59" spans="1:54" ht="14.25" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C59" s="2" t="s">
         <v>168</v>
       </c>
@@ -12046,7 +12210,9 @@
     </row>
     <row r="60" spans="1:54" ht="14.25" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C60" s="2" t="s">
         <v>170</v>
       </c>
@@ -12161,7 +12327,9 @@
     </row>
     <row r="61" spans="1:54" ht="14.25" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C61" s="2" t="s">
         <v>172</v>
       </c>
@@ -12276,7 +12444,9 @@
     </row>
     <row r="62" spans="1:54" ht="14.25" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C62" s="2" t="s">
         <v>174</v>
       </c>
@@ -12391,7 +12561,9 @@
     </row>
     <row r="63" spans="1:54" ht="14.25" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C63" s="2" t="s">
         <v>176</v>
       </c>
@@ -12506,7 +12678,9 @@
     </row>
     <row r="64" spans="1:54" ht="14.25" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C64" s="2" t="s">
         <v>178</v>
       </c>
@@ -12621,7 +12795,9 @@
     </row>
     <row r="65" spans="1:54" ht="14.25" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C65" s="2" t="s">
         <v>180</v>
       </c>
@@ -12736,7 +12912,9 @@
     </row>
     <row r="66" spans="1:54" ht="14.25" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C66" s="2" t="s">
         <v>182</v>
       </c>
@@ -12850,7 +13028,9 @@
     </row>
     <row r="67" spans="1:54" ht="14.25" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C67" s="2" t="s">
         <v>184</v>
       </c>
@@ -12965,7 +13145,9 @@
     </row>
     <row r="68" spans="1:54" ht="14.25" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C68" s="2" t="s">
         <v>186</v>
       </c>
@@ -13080,7 +13262,9 @@
     </row>
     <row r="69" spans="1:54" ht="14.25" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C69" s="2" t="s">
         <v>188</v>
       </c>
@@ -13195,7 +13379,9 @@
     </row>
     <row r="70" spans="1:54" ht="14.25" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C70" s="2" t="s">
         <v>190</v>
       </c>
@@ -13310,7 +13496,9 @@
     </row>
     <row r="71" spans="1:54" ht="14.25" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C71" s="2" t="s">
         <v>192</v>
       </c>
@@ -13425,7 +13613,9 @@
     </row>
     <row r="72" spans="1:54" ht="14.25" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C72" s="2" t="s">
         <v>194</v>
       </c>
@@ -13540,7 +13730,9 @@
     </row>
     <row r="73" spans="1:54" ht="14.25" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="B73" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C73" s="2" t="s">
         <v>196</v>
       </c>
@@ -13655,7 +13847,9 @@
     </row>
     <row r="74" spans="1:54" ht="14.25" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C74" s="2" t="s">
         <v>198</v>
       </c>
@@ -13770,7 +13964,9 @@
     </row>
     <row r="75" spans="1:54" ht="14.25" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C75" s="2" t="s">
         <v>200</v>
       </c>
@@ -13885,7 +14081,9 @@
     </row>
     <row r="76" spans="1:54" ht="14.25" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C76" s="2" t="s">
         <v>202</v>
       </c>
@@ -14000,7 +14198,9 @@
     </row>
     <row r="77" spans="1:54" ht="14.25" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C77" s="2" t="s">
         <v>204</v>
       </c>
@@ -14115,7 +14315,9 @@
     </row>
     <row r="78" spans="1:54" ht="14.25" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C78" s="2" t="s">
         <v>206</v>
       </c>
@@ -14230,7 +14432,9 @@
     </row>
     <row r="79" spans="1:54" ht="14.25" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C79" s="2" t="s">
         <v>208</v>
       </c>
@@ -14345,7 +14549,9 @@
     </row>
     <row r="80" spans="1:54" ht="14.25" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C80" s="2" t="s">
         <v>210</v>
       </c>
@@ -14460,7 +14666,9 @@
     </row>
     <row r="81" spans="1:54" ht="14.25" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C81" s="2" t="s">
         <v>212</v>
       </c>
@@ -14575,7 +14783,9 @@
     </row>
     <row r="82" spans="1:54" ht="14.25" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C82" s="2" t="s">
         <v>214</v>
       </c>
@@ -14690,7 +14900,9 @@
     </row>
     <row r="83" spans="1:54" ht="14.25" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C83" s="2" t="s">
         <v>216</v>
       </c>
@@ -14805,7 +15017,9 @@
     </row>
     <row r="84" spans="1:54" ht="14.25" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="B84" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C84" s="2" t="s">
         <v>218</v>
       </c>
@@ -14920,7 +15134,9 @@
     </row>
     <row r="85" spans="1:54" ht="14.25" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="B85" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C85" s="2" t="s">
         <v>220</v>
       </c>
@@ -15035,7 +15251,9 @@
     </row>
     <row r="86" spans="1:54" ht="14.25" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="B86" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C86" s="2" t="s">
         <v>222</v>
       </c>
@@ -15150,7 +15368,9 @@
     </row>
     <row r="87" spans="1:54" ht="14.25" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="B87" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C87" s="2" t="s">
         <v>224</v>
       </c>
@@ -15264,7 +15484,9 @@
     </row>
     <row r="88" spans="1:54" ht="14.25" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C88" s="2" t="s">
         <v>226</v>
       </c>
@@ -15379,7 +15601,9 @@
     </row>
     <row r="89" spans="1:54" ht="14.25" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C89" s="2" t="s">
         <v>228</v>
       </c>
@@ -15494,7 +15718,9 @@
     </row>
     <row r="90" spans="1:54" ht="14.25" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C90" s="2" t="s">
         <v>230</v>
       </c>
@@ -15609,7 +15835,9 @@
     </row>
     <row r="91" spans="1:54" ht="14.25" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C91" s="2" t="s">
         <v>232</v>
       </c>
@@ -15724,7 +15952,9 @@
     </row>
     <row r="92" spans="1:54" ht="14.25" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C92" s="2" t="s">
         <v>234</v>
       </c>
@@ -15839,7 +16069,9 @@
     </row>
     <row r="93" spans="1:54" ht="14.25" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C93" s="2" t="s">
         <v>236</v>
       </c>
@@ -15954,7 +16186,9 @@
     </row>
     <row r="94" spans="1:54" ht="14.25" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C94" s="2" t="s">
         <v>238</v>
       </c>
@@ -16069,7 +16303,9 @@
     </row>
     <row r="95" spans="1:54" ht="14.25" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C95" s="2" t="s">
         <v>240</v>
       </c>
@@ -16184,7 +16420,9 @@
     </row>
     <row r="96" spans="1:54" ht="14.25" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C96" s="2" t="s">
         <v>242</v>
       </c>
@@ -16299,7 +16537,9 @@
     </row>
     <row r="97" spans="1:54" ht="14.25" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C97" s="2" t="s">
         <v>244</v>
       </c>
@@ -16414,7 +16654,9 @@
     </row>
     <row r="98" spans="1:54" ht="14.25" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C98" s="2" t="s">
         <v>246</v>
       </c>
@@ -16529,7 +16771,9 @@
     </row>
     <row r="99" spans="1:54" ht="14.25" customHeight="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C99" s="2" t="s">
         <v>248</v>
       </c>
@@ -16644,7 +16888,9 @@
     </row>
     <row r="100" spans="1:54" ht="14.25" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C100" s="2" t="s">
         <v>250</v>
       </c>
@@ -16759,7 +17005,9 @@
     </row>
     <row r="101" spans="1:54" ht="14.25" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C101" s="2" t="s">
         <v>252</v>
       </c>
@@ -16874,7 +17122,9 @@
     </row>
     <row r="102" spans="1:54" ht="14.25" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C102" s="2" t="s">
         <v>254</v>
       </c>
@@ -16989,7 +17239,9 @@
     </row>
     <row r="103" spans="1:54" ht="14.25" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C103" s="2" t="s">
         <v>256</v>
       </c>
@@ -17104,7 +17356,9 @@
     </row>
     <row r="104" spans="1:54" ht="14.25" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="B104" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C104" s="2" t="s">
         <v>258</v>
       </c>
@@ -17219,7 +17473,9 @@
     </row>
     <row r="105" spans="1:54" ht="14.25" customHeight="1">
       <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+      <c r="B105" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C105" s="2" t="s">
         <v>260</v>
       </c>
@@ -17334,7 +17590,9 @@
     </row>
     <row r="106" spans="1:54" ht="14.25" customHeight="1">
       <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+      <c r="B106" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C106" s="2" t="s">
         <v>262</v>
       </c>
@@ -17449,7 +17707,9 @@
     </row>
     <row r="107" spans="1:54" ht="14.25" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C107" s="2" t="s">
         <v>264</v>
       </c>
@@ -17564,7 +17824,9 @@
     </row>
     <row r="108" spans="1:54" ht="14.25" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C108" s="2" t="s">
         <v>266</v>
       </c>
@@ -17679,7 +17941,9 @@
     </row>
     <row r="109" spans="1:54" ht="14.25" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C109" s="2" t="s">
         <v>268</v>
       </c>
@@ -17794,7 +18058,9 @@
     </row>
     <row r="110" spans="1:54" ht="14.25" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C110" s="2" t="s">
         <v>270</v>
       </c>
@@ -17909,7 +18175,9 @@
     </row>
     <row r="111" spans="1:54" ht="14.25" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C111" s="2" t="s">
         <v>272</v>
       </c>
@@ -18024,7 +18292,9 @@
     </row>
     <row r="112" spans="1:54" ht="14.25" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C112" s="2" t="s">
         <v>274</v>
       </c>
@@ -18139,7 +18409,9 @@
     </row>
     <row r="113" spans="1:54" ht="14.25" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C113" s="2" t="s">
         <v>276</v>
       </c>
@@ -18254,7 +18526,9 @@
     </row>
     <row r="114" spans="1:54" ht="14.25" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C114" s="2" t="s">
         <v>278</v>
       </c>
@@ -18369,7 +18643,9 @@
     </row>
     <row r="115" spans="1:54" ht="14.25" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C115" s="2" t="s">
         <v>280</v>
       </c>
@@ -18484,7 +18760,9 @@
     </row>
     <row r="116" spans="1:54" ht="14.25" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C116" s="2" t="s">
         <v>282</v>
       </c>
@@ -18599,7 +18877,9 @@
     </row>
     <row r="117" spans="1:54" ht="14.25" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="B117" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C117" s="2" t="s">
         <v>284</v>
       </c>
@@ -18714,7 +18994,9 @@
     </row>
     <row r="118" spans="1:54" ht="14.25" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C118" s="2" t="s">
         <v>286</v>
       </c>
@@ -18829,7 +19111,9 @@
     </row>
     <row r="119" spans="1:54" ht="14.25" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="46" t="s">
+        <v>1359</v>
+      </c>
       <c r="C119" s="2" t="s">
         <v>288</v>
       </c>
@@ -18944,7 +19228,7 @@
     </row>
     <row r="120" spans="1:54" ht="14.25" customHeight="1">
       <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+      <c r="B120" s="46"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -18998,7 +19282,9 @@
       <c r="A121" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B121" s="1"/>
+      <c r="B121" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C121" s="2" t="s">
         <v>291</v>
       </c>
@@ -19117,7 +19403,9 @@
       <c r="A122" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B122" s="1"/>
+      <c r="B122" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C122" s="2" t="s">
         <v>297</v>
       </c>
@@ -19236,6 +19524,9 @@
       <c r="A123" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B123" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C123" s="2" t="s">
         <v>301</v>
       </c>
@@ -19353,6 +19644,9 @@
       <c r="A124" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B124" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C124" s="2" t="s">
         <v>304</v>
       </c>
@@ -19471,6 +19765,9 @@
       <c r="A125" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B125" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C125" s="2" t="s">
         <v>307</v>
       </c>
@@ -19588,6 +19885,9 @@
       <c r="A126" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B126" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C126" s="2" t="s">
         <v>311</v>
       </c>
@@ -19706,6 +20006,9 @@
       <c r="A127" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B127" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C127" s="2" t="s">
         <v>315</v>
       </c>
@@ -19824,6 +20127,9 @@
       <c r="A128" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B128" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C128" s="2" t="s">
         <v>319</v>
       </c>
@@ -19941,6 +20247,9 @@
       <c r="A129" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B129" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C129" s="2" t="s">
         <v>323</v>
       </c>
@@ -20059,6 +20368,9 @@
       <c r="A130" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B130" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C130" s="2" t="s">
         <v>326</v>
       </c>
@@ -20177,6 +20489,9 @@
       <c r="A131" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B131" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C131" s="2" t="s">
         <v>329</v>
       </c>
@@ -20293,6 +20608,9 @@
     </row>
     <row r="132" spans="1:54" ht="14.25" customHeight="1">
       <c r="A132" s="1"/>
+      <c r="B132" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C132" s="2" t="s">
         <v>332</v>
       </c>
@@ -20411,6 +20729,9 @@
       <c r="A133" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B133" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C133" s="2" t="s">
         <v>335</v>
       </c>
@@ -20529,6 +20850,9 @@
       <c r="A134" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B134" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C134" s="2" t="s">
         <v>338</v>
       </c>
@@ -20646,6 +20970,9 @@
     </row>
     <row r="135" spans="1:54" ht="14.25" customHeight="1">
       <c r="A135" s="2"/>
+      <c r="B135" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C135" s="2" t="s">
         <v>341</v>
       </c>
@@ -20760,7 +21087,9 @@
     </row>
     <row r="136" spans="1:54" ht="14.25" customHeight="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C136" s="3" t="s">
         <v>343</v>
       </c>
@@ -20877,6 +21206,9 @@
       <c r="A137" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B137" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C137" s="2" t="s">
         <v>345</v>
       </c>
@@ -20994,6 +21326,9 @@
       <c r="A138" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B138" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C138" s="2" t="s">
         <v>348</v>
       </c>
@@ -21112,6 +21447,9 @@
       <c r="A139" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B139" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C139" s="2" t="s">
         <v>351</v>
       </c>
@@ -21230,6 +21568,9 @@
       <c r="A140" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B140" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C140" s="2" t="s">
         <v>354</v>
       </c>
@@ -21348,6 +21689,9 @@
       <c r="A141" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B141" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C141" s="2" t="s">
         <v>357</v>
       </c>
@@ -21467,6 +21811,9 @@
       <c r="A142" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B142" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C142" s="2" t="s">
         <v>360</v>
       </c>
@@ -21583,7 +21930,9 @@
     </row>
     <row r="143" spans="1:54" ht="14.25" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="B143" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C143" s="3" t="s">
         <v>363</v>
       </c>
@@ -21700,6 +22049,9 @@
       <c r="A144" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B144" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C144" s="2" t="s">
         <v>365</v>
       </c>
@@ -21818,6 +22170,9 @@
       <c r="A145" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B145" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C145" s="2" t="s">
         <v>369</v>
       </c>
@@ -21936,6 +22291,9 @@
       <c r="A146" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B146" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C146" s="2" t="s">
         <v>373</v>
       </c>
@@ -22054,6 +22412,9 @@
       <c r="A147" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B147" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C147" s="2" t="s">
         <v>376</v>
       </c>
@@ -22172,6 +22533,9 @@
       <c r="A148" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B148" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C148" s="2" t="s">
         <v>379</v>
       </c>
@@ -22290,6 +22654,9 @@
       <c r="A149" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B149" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C149" s="2" t="s">
         <v>382</v>
       </c>
@@ -22408,6 +22775,9 @@
       <c r="A150" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B150" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C150" s="2" t="s">
         <v>386</v>
       </c>
@@ -22526,6 +22896,9 @@
       <c r="A151" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B151" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C151" s="2" t="s">
         <v>390</v>
       </c>
@@ -22645,6 +23018,9 @@
       <c r="A152" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B152" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C152" s="2" t="s">
         <v>394</v>
       </c>
@@ -22763,6 +23139,9 @@
       <c r="A153" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B153" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C153" s="2" t="s">
         <v>397</v>
       </c>
@@ -22881,6 +23260,9 @@
       <c r="A154" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B154" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C154" s="2" t="s">
         <v>401</v>
       </c>
@@ -22999,6 +23381,9 @@
       <c r="A155" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B155" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C155" s="2" t="s">
         <v>403</v>
       </c>
@@ -23117,6 +23502,9 @@
       <c r="A156" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B156" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C156" s="2" t="s">
         <v>405</v>
       </c>
@@ -23235,6 +23623,9 @@
       <c r="A157" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B157" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C157" s="2" t="s">
         <v>407</v>
       </c>
@@ -23353,6 +23744,9 @@
       <c r="A158" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B158" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C158" s="2" t="s">
         <v>409</v>
       </c>
@@ -23471,6 +23865,9 @@
       <c r="A159" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B159" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C159" s="2" t="s">
         <v>412</v>
       </c>
@@ -23589,6 +23986,9 @@
       <c r="A160" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B160" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C160" s="2" t="s">
         <v>415</v>
       </c>
@@ -23707,6 +24107,9 @@
       <c r="A161" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B161" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C161" s="2" t="s">
         <v>419</v>
       </c>
@@ -23825,6 +24228,9 @@
       <c r="A162" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B162" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C162" s="2" t="s">
         <v>422</v>
       </c>
@@ -23943,6 +24349,9 @@
       <c r="A163" s="58" t="s">
         <v>425</v>
       </c>
+      <c r="B163" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -24051,6 +24460,9 @@
       <c r="A164" s="58" t="s">
         <v>425</v>
       </c>
+      <c r="B164" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -24158,6 +24570,9 @@
       <c r="A165" s="58" t="s">
         <v>425</v>
       </c>
+      <c r="B165" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -24266,6 +24681,9 @@
       <c r="A166" s="58" t="s">
         <v>425</v>
       </c>
+      <c r="B166" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -24374,6 +24792,9 @@
       <c r="A167" s="58" t="s">
         <v>425</v>
       </c>
+      <c r="B167" s="46" t="s">
+        <v>1360</v>
+      </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -24481,7 +24902,7 @@
       <c r="A168" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B168" s="2"/>
+      <c r="B168" s="46"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -24535,6 +24956,9 @@
       <c r="A169" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="B169" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C169" s="2" t="s">
         <v>436</v>
       </c>
@@ -24653,7 +25077,9 @@
       <c r="A170" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B170" s="1"/>
+      <c r="B170" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C170" s="2" t="s">
         <v>441</v>
       </c>
@@ -24770,6 +25196,9 @@
     </row>
     <row r="171" spans="1:54" ht="14.25" customHeight="1">
       <c r="A171" s="1"/>
+      <c r="B171" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C171" s="2" t="s">
         <v>444</v>
       </c>
@@ -24886,6 +25315,9 @@
     </row>
     <row r="172" spans="1:54" ht="14.25" customHeight="1">
       <c r="A172" s="1"/>
+      <c r="B172" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C172" s="2" t="s">
         <v>447</v>
       </c>
@@ -25005,6 +25437,9 @@
       <c r="A173" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B173" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C173" s="2" t="s">
         <v>451</v>
       </c>
@@ -25123,6 +25558,9 @@
       <c r="A174" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B174" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C174" s="2" t="s">
         <v>455</v>
       </c>
@@ -25241,6 +25679,9 @@
       <c r="A175" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B175" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C175" s="2" t="s">
         <v>458</v>
       </c>
@@ -25359,6 +25800,9 @@
       <c r="A176" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B176" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C176" s="2" t="s">
         <v>461</v>
       </c>
@@ -25477,6 +25921,9 @@
       <c r="A177" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B177" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C177" s="2" t="s">
         <v>464</v>
       </c>
@@ -25596,6 +26043,9 @@
       <c r="A178" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B178" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C178" s="2" t="s">
         <v>466</v>
       </c>
@@ -25714,6 +26164,9 @@
       <c r="A179" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B179" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C179" s="2" t="s">
         <v>468</v>
       </c>
@@ -25833,6 +26286,9 @@
       <c r="A180" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B180" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C180" s="2" t="s">
         <v>471</v>
       </c>
@@ -25951,6 +26407,9 @@
       <c r="A181" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B181" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C181" s="2" t="s">
         <v>474</v>
       </c>
@@ -26070,6 +26529,9 @@
       <c r="A182" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B182" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C182" s="2" t="s">
         <v>477</v>
       </c>
@@ -26188,6 +26650,9 @@
       <c r="A183" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B183" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C183" s="2" t="s">
         <v>481</v>
       </c>
@@ -26306,6 +26771,9 @@
       <c r="A184" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B184" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C184" s="2" t="s">
         <v>485</v>
       </c>
@@ -26424,6 +26892,9 @@
       <c r="A185" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B185" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C185" s="2" t="s">
         <v>488</v>
       </c>
@@ -26542,6 +27013,9 @@
       <c r="A186" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B186" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C186" s="2" t="s">
         <v>491</v>
       </c>
@@ -26660,6 +27134,9 @@
       <c r="A187" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B187" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C187" s="2" t="s">
         <v>494</v>
       </c>
@@ -26778,6 +27255,9 @@
       <c r="A188" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B188" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C188" s="2" t="s">
         <v>497</v>
       </c>
@@ -26896,6 +27376,9 @@
       <c r="A189" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B189" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C189" s="2" t="s">
         <v>500</v>
       </c>
@@ -27014,6 +27497,9 @@
       <c r="A190" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B190" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C190" s="2" t="s">
         <v>503</v>
       </c>
@@ -27132,6 +27618,9 @@
       <c r="A191" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B191" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C191" s="2" t="s">
         <v>505</v>
       </c>
@@ -27250,6 +27739,9 @@
       <c r="A192" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B192" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C192" s="2" t="s">
         <v>508</v>
       </c>
@@ -27368,6 +27860,9 @@
       <c r="A193" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B193" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C193" s="2" t="s">
         <v>511</v>
       </c>
@@ -27486,6 +27981,9 @@
       <c r="A194" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B194" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C194" s="2" t="s">
         <v>513</v>
       </c>
@@ -27602,6 +28100,9 @@
     </row>
     <row r="195" spans="1:54" ht="14.25" customHeight="1">
       <c r="A195" s="1"/>
+      <c r="B195" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C195" s="2" t="s">
         <v>516</v>
       </c>
@@ -27720,6 +28221,9 @@
       <c r="A196" s="36" t="s">
         <v>519</v>
       </c>
+      <c r="B196" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C196" s="2" t="s">
         <v>520</v>
       </c>
@@ -27834,6 +28338,9 @@
     </row>
     <row r="197" spans="1:54" ht="14.25" customHeight="1">
       <c r="A197" s="2"/>
+      <c r="B197" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C197" s="2" t="s">
         <v>522</v>
       </c>
@@ -27948,6 +28455,9 @@
     </row>
     <row r="198" spans="1:54" ht="14.25" customHeight="1">
       <c r="A198" s="2"/>
+      <c r="B198" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C198" s="2" t="s">
         <v>524</v>
       </c>
@@ -28062,6 +28572,9 @@
     </row>
     <row r="199" spans="1:54" ht="14.25" customHeight="1">
       <c r="A199" s="2"/>
+      <c r="B199" s="46" t="s">
+        <v>1361</v>
+      </c>
       <c r="C199" s="2" t="s">
         <v>526</v>
       </c>
@@ -28175,7 +28688,7 @@
     </row>
     <row r="200" spans="1:54" ht="14.25" customHeight="1">
       <c r="A200" s="1"/>
-      <c r="B200" s="2"/>
+      <c r="B200" s="46"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -28229,7 +28742,9 @@
       <c r="A201" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B201" s="1"/>
+      <c r="B201" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C201" s="2" t="s">
         <v>529</v>
       </c>
@@ -28348,7 +28863,9 @@
       <c r="A202" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B202" s="1"/>
+      <c r="B202" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C202" s="2" t="s">
         <v>533</v>
       </c>
@@ -28464,6 +28981,9 @@
     </row>
     <row r="203" spans="1:54" ht="14.25" customHeight="1">
       <c r="A203" s="1"/>
+      <c r="B203" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C203" s="2" t="s">
         <v>536</v>
       </c>
@@ -28580,6 +29100,9 @@
     </row>
     <row r="204" spans="1:54" ht="14.25" customHeight="1">
       <c r="A204" s="1"/>
+      <c r="B204" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C204" s="2" t="s">
         <v>538</v>
       </c>
@@ -28696,6 +29219,9 @@
     </row>
     <row r="205" spans="1:54" ht="14.25" customHeight="1">
       <c r="A205" s="1"/>
+      <c r="B205" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C205" s="2" t="s">
         <v>542</v>
       </c>
@@ -28812,6 +29338,9 @@
     </row>
     <row r="206" spans="1:54" ht="14.25" customHeight="1">
       <c r="A206" s="1"/>
+      <c r="B206" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C206" s="2" t="s">
         <v>544</v>
       </c>
@@ -28930,6 +29459,9 @@
       <c r="A207" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B207" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C207" s="2" t="s">
         <v>548</v>
       </c>
@@ -29046,6 +29578,9 @@
       <c r="A208" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B208" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C208" s="2" t="s">
         <v>550</v>
       </c>
@@ -29162,6 +29697,9 @@
     </row>
     <row r="209" spans="1:54" ht="14.25" customHeight="1">
       <c r="A209" s="1"/>
+      <c r="B209" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C209" s="2" t="s">
         <v>552</v>
       </c>
@@ -29280,6 +29818,9 @@
       <c r="A210" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B210" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C210" s="2" t="s">
         <v>554</v>
       </c>
@@ -29398,6 +29939,9 @@
       <c r="A211" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B211" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C211" s="2" t="s">
         <v>556</v>
       </c>
@@ -29516,6 +30060,9 @@
       <c r="A212" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B212" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C212" s="2" t="s">
         <v>558</v>
       </c>
@@ -29631,6 +30178,9 @@
     </row>
     <row r="213" spans="1:54" ht="14.25" customHeight="1">
       <c r="A213" s="2"/>
+      <c r="B213" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C213" s="2" t="s">
         <v>560</v>
       </c>
@@ -29745,6 +30295,9 @@
     </row>
     <row r="214" spans="1:54" ht="14.25" customHeight="1">
       <c r="A214" s="2"/>
+      <c r="B214" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C214" s="2" t="s">
         <v>563</v>
       </c>
@@ -29858,7 +30411,9 @@
     </row>
     <row r="215" spans="1:54" ht="14.25" customHeight="1">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="B215" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C215" s="3" t="s">
         <v>565</v>
       </c>
@@ -29973,7 +30528,9 @@
     </row>
     <row r="216" spans="1:54" ht="14.25" customHeight="1">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="B216" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C216" s="3" t="s">
         <v>567</v>
       </c>
@@ -30088,7 +30645,9 @@
     </row>
     <row r="217" spans="1:54" ht="14.25" customHeight="1">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="B217" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C217" s="3" t="s">
         <v>569</v>
       </c>
@@ -30203,7 +30762,9 @@
     </row>
     <row r="218" spans="1:54" ht="14.25" customHeight="1">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="B218" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C218" s="3" t="s">
         <v>571</v>
       </c>
@@ -30320,6 +30881,9 @@
       <c r="A219" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B219" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C219" s="2" t="s">
         <v>573</v>
       </c>
@@ -30436,7 +31000,9 @@
     </row>
     <row r="220" spans="1:54" ht="14.25" customHeight="1">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="B220" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C220" s="3" t="s">
         <v>576</v>
       </c>
@@ -30551,7 +31117,9 @@
     </row>
     <row r="221" spans="1:54" ht="14.25" customHeight="1">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="B221" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C221" s="3" t="s">
         <v>578</v>
       </c>
@@ -30666,7 +31234,9 @@
     </row>
     <row r="222" spans="1:54" ht="14.25" customHeight="1">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+      <c r="B222" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C222" s="3" t="s">
         <v>580</v>
       </c>
@@ -30781,7 +31351,9 @@
     </row>
     <row r="223" spans="1:54" ht="14.25" customHeight="1">
       <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+      <c r="B223" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C223" s="3" t="s">
         <v>582</v>
       </c>
@@ -30896,7 +31468,9 @@
     </row>
     <row r="224" spans="1:54" ht="14.25" customHeight="1">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="B224" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C224" s="3" t="s">
         <v>584</v>
       </c>
@@ -31011,7 +31585,9 @@
     </row>
     <row r="225" spans="1:41" ht="14.25" customHeight="1">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+      <c r="B225" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C225" s="3" t="s">
         <v>586</v>
       </c>
@@ -31120,7 +31696,9 @@
     </row>
     <row r="226" spans="1:41" ht="14.25" customHeight="1">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="B226" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C226" s="3" t="s">
         <v>588</v>
       </c>
@@ -31229,7 +31807,9 @@
     </row>
     <row r="227" spans="1:41" ht="14.25" customHeight="1">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+      <c r="B227" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C227" s="3" t="s">
         <v>590</v>
       </c>
@@ -31338,7 +31918,9 @@
     </row>
     <row r="228" spans="1:41" ht="14.25" customHeight="1">
       <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+      <c r="B228" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C228" s="3" t="s">
         <v>592</v>
       </c>
@@ -31447,7 +32029,9 @@
     </row>
     <row r="229" spans="1:41" ht="14.25" customHeight="1">
       <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+      <c r="B229" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C229" s="3" t="s">
         <v>594</v>
       </c>
@@ -31555,7 +32139,9 @@
     </row>
     <row r="230" spans="1:41" ht="14.25" customHeight="1">
       <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+      <c r="B230" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C230" s="2" t="s">
         <v>596</v>
       </c>
@@ -31663,7 +32249,9 @@
     </row>
     <row r="231" spans="1:41" ht="14.25" customHeight="1">
       <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
+      <c r="B231" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C231" s="3" t="s">
         <v>598</v>
       </c>
@@ -31774,6 +32362,9 @@
       <c r="A232" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B232" s="46" t="s">
+        <v>1362</v>
+      </c>
       <c r="C232" s="2" t="s">
         <v>600</v>
       </c>
@@ -31884,7 +32475,7 @@
     </row>
     <row r="233" spans="1:41" ht="14.25" customHeight="1">
       <c r="A233" s="1"/>
-      <c r="B233" s="2"/>
+      <c r="B233" s="46"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -31932,7 +32523,9 @@
       <c r="A234" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B234" s="1"/>
+      <c r="B234" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C234" s="2" t="s">
         <v>603</v>
       </c>
@@ -32045,7 +32638,9 @@
       <c r="A235" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B235" s="1"/>
+      <c r="B235" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C235" s="2" t="s">
         <v>607</v>
       </c>
@@ -32158,6 +32753,9 @@
       <c r="A236" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B236" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C236" s="2" t="s">
         <v>610</v>
       </c>
@@ -32268,6 +32866,9 @@
     </row>
     <row r="237" spans="1:41" ht="14.25" customHeight="1">
       <c r="A237" s="1"/>
+      <c r="B237" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C237" s="2" t="s">
         <v>614</v>
       </c>
@@ -32380,6 +32981,9 @@
       <c r="A238" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B238" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C238" s="2" t="s">
         <v>617</v>
       </c>
@@ -32492,6 +33096,9 @@
       <c r="A239" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B239" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C239" s="2" t="s">
         <v>620</v>
       </c>
@@ -32604,6 +33211,9 @@
       <c r="A240" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B240" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C240" s="2" t="s">
         <v>622</v>
       </c>
@@ -32716,6 +33326,9 @@
       <c r="A241" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B241" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C241" s="2" t="s">
         <v>625</v>
       </c>
@@ -32828,6 +33441,9 @@
       <c r="A242" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B242" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C242" s="2" t="s">
         <v>627</v>
       </c>
@@ -32940,6 +33556,9 @@
       <c r="A243" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B243" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C243" s="2" t="s">
         <v>629</v>
       </c>
@@ -33052,6 +33671,9 @@
       <c r="A244" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B244" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C244" s="2" t="s">
         <v>631</v>
       </c>
@@ -33164,6 +33786,9 @@
       <c r="A245" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B245" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C245" s="2" t="s">
         <v>633</v>
       </c>
@@ -33276,6 +33901,9 @@
       <c r="A246" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B246" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C246" s="2" t="s">
         <v>635</v>
       </c>
@@ -33388,6 +34016,9 @@
       <c r="A247" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B247" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C247" s="2" t="s">
         <v>637</v>
       </c>
@@ -33500,6 +34131,9 @@
       <c r="A248" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B248" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C248" s="2" t="s">
         <v>639</v>
       </c>
@@ -33612,6 +34246,9 @@
       <c r="A249" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B249" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C249" s="2" t="s">
         <v>641</v>
       </c>
@@ -33724,6 +34361,9 @@
       <c r="A250" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B250" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C250" s="2" t="s">
         <v>644</v>
       </c>
@@ -33836,6 +34476,9 @@
       <c r="A251" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B251" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C251" s="2" t="s">
         <v>646</v>
       </c>
@@ -33948,6 +34591,9 @@
       <c r="A252" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B252" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C252" s="2" t="s">
         <v>648</v>
       </c>
@@ -34060,6 +34706,9 @@
       <c r="A253" s="36" t="s">
         <v>650</v>
       </c>
+      <c r="B253" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C253" s="2" t="s">
         <v>651</v>
       </c>
@@ -34168,6 +34817,9 @@
     </row>
     <row r="254" spans="1:41" ht="14.25" customHeight="1">
       <c r="A254" s="2"/>
+      <c r="B254" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C254" s="2" t="s">
         <v>653</v>
       </c>
@@ -34276,6 +34928,9 @@
     </row>
     <row r="255" spans="1:41" ht="14.25" customHeight="1">
       <c r="A255" s="7"/>
+      <c r="B255" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C255" s="2" t="s">
         <v>655</v>
       </c>
@@ -34386,6 +35041,9 @@
       <c r="A256" s="7" t="s">
         <v>657</v>
       </c>
+      <c r="B256" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C256" s="2" t="s">
         <v>658</v>
       </c>
@@ -34494,6 +35152,9 @@
     </row>
     <row r="257" spans="1:41" ht="14.25" customHeight="1">
       <c r="A257" s="7"/>
+      <c r="B257" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C257" s="2" t="s">
         <v>661</v>
       </c>
@@ -34602,6 +35263,9 @@
     </row>
     <row r="258" spans="1:41" ht="14.25" customHeight="1">
       <c r="A258" s="63"/>
+      <c r="B258" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C258" s="2" t="s">
         <v>663</v>
       </c>
@@ -34710,8 +35374,8 @@
     </row>
     <row r="259" spans="1:41" ht="14.25" customHeight="1">
       <c r="A259" s="2"/>
-      <c r="B259" s="1" t="s">
-        <v>290</v>
+      <c r="B259" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>665</v>
@@ -34821,6 +35485,9 @@
     </row>
     <row r="260" spans="1:41" ht="14.25" customHeight="1">
       <c r="A260" s="2"/>
+      <c r="B260" s="46" t="s">
+        <v>1363</v>
+      </c>
       <c r="C260" s="2" t="s">
         <v>667</v>
       </c>
@@ -34931,8 +35598,8 @@
       <c r="A261" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>290</v>
+      <c r="B261" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>670</v>
@@ -35041,8 +35708,8 @@
     </row>
     <row r="262" spans="1:41" ht="14.25" customHeight="1">
       <c r="A262" s="2"/>
-      <c r="B262" s="1" t="s">
-        <v>290</v>
+      <c r="B262" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>672</v>
@@ -35152,8 +35819,8 @@
     </row>
     <row r="263" spans="1:41" ht="14.25" customHeight="1">
       <c r="A263" s="2"/>
-      <c r="B263" s="1" t="s">
-        <v>290</v>
+      <c r="B263" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>674</v>
@@ -35263,8 +35930,8 @@
     </row>
     <row r="264" spans="1:41" ht="14.25" customHeight="1">
       <c r="A264" s="2"/>
-      <c r="B264" s="1" t="s">
-        <v>290</v>
+      <c r="B264" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>676</v>
@@ -35374,8 +36041,8 @@
     </row>
     <row r="265" spans="1:41" ht="14.25" customHeight="1">
       <c r="A265" s="2"/>
-      <c r="B265" s="1" t="s">
-        <v>290</v>
+      <c r="B265" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>678</v>
@@ -35485,8 +36152,8 @@
     </row>
     <row r="266" spans="1:41" ht="14.25" customHeight="1">
       <c r="A266" s="2"/>
-      <c r="B266" s="1" t="s">
-        <v>290</v>
+      <c r="B266" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>680</v>
@@ -35596,8 +36263,8 @@
     </row>
     <row r="267" spans="1:41" ht="14.25" customHeight="1">
       <c r="A267" s="1"/>
-      <c r="B267" s="1" t="s">
-        <v>290</v>
+      <c r="B267" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>682</v>
@@ -35707,8 +36374,8 @@
     </row>
     <row r="268" spans="1:41" ht="14.25" customHeight="1">
       <c r="A268" s="1"/>
-      <c r="B268" s="1" t="s">
-        <v>290</v>
+      <c r="B268" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>684</v>
@@ -35818,8 +36485,8 @@
     </row>
     <row r="269" spans="1:41" ht="14.25" customHeight="1">
       <c r="A269" s="1"/>
-      <c r="B269" s="1" t="s">
-        <v>290</v>
+      <c r="B269" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>686</v>
@@ -35933,8 +36600,8 @@
       <c r="A270" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>290</v>
+      <c r="B270" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>688</v>
@@ -36045,8 +36712,8 @@
     </row>
     <row r="271" spans="1:41" ht="14.25" customHeight="1">
       <c r="A271" s="2"/>
-      <c r="B271" s="1" t="s">
-        <v>290</v>
+      <c r="B271" s="46" t="s">
+        <v>1363</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>690</v>
@@ -36156,7 +36823,7 @@
     </row>
     <row r="272" spans="1:41" ht="14.25" customHeight="1">
       <c r="A272" s="1"/>
-      <c r="B272" s="2"/>
+      <c r="B272" s="46"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -36204,7 +36871,9 @@
       <c r="A273" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B273" s="1"/>
+      <c r="B273" s="46" t="s">
+        <v>1364</v>
+      </c>
       <c r="C273" s="2" t="s">
         <v>693</v>
       </c>
@@ -36315,7 +36984,9 @@
       <c r="A274" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B274" s="1"/>
+      <c r="B274" s="46" t="s">
+        <v>1364</v>
+      </c>
       <c r="C274" s="2" t="s">
         <v>696</v>
       </c>
@@ -36423,6 +37094,9 @@
     </row>
     <row r="275" spans="1:41" ht="14.25" customHeight="1">
       <c r="A275" s="1"/>
+      <c r="B275" s="46" t="s">
+        <v>1364</v>
+      </c>
       <c r="C275" s="2" t="s">
         <v>698</v>
       </c>
@@ -36535,6 +37209,9 @@
       <c r="A276" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B276" s="46" t="s">
+        <v>1364</v>
+      </c>
       <c r="C276" s="2" t="s">
         <v>702</v>
       </c>
@@ -36647,6 +37324,9 @@
       <c r="A277" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B277" s="46" t="s">
+        <v>1364</v>
+      </c>
       <c r="C277" s="2" t="s">
         <v>704</v>
       </c>
@@ -36757,7 +37437,9 @@
     </row>
     <row r="278" spans="1:41" ht="14.25" customHeight="1">
       <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
+      <c r="B278" s="46" t="s">
+        <v>1364</v>
+      </c>
       <c r="C278" s="2" t="s">
         <v>706</v>
       </c>
@@ -36866,7 +37548,9 @@
     </row>
     <row r="279" spans="1:41" ht="14.25" customHeight="1">
       <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
+      <c r="B279" s="46" t="s">
+        <v>1364</v>
+      </c>
       <c r="C279" s="2" t="s">
         <v>708</v>
       </c>
@@ -36975,7 +37659,9 @@
     </row>
     <row r="280" spans="1:41" ht="14.25" customHeight="1">
       <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
+      <c r="B280" s="46" t="s">
+        <v>1364</v>
+      </c>
       <c r="C280" s="2" t="s">
         <v>710</v>
       </c>
@@ -37084,7 +37770,9 @@
     </row>
     <row r="281" spans="1:41" ht="14.25" customHeight="1">
       <c r="A281" s="2"/>
-      <c r="B281" s="66"/>
+      <c r="B281" s="46" t="s">
+        <v>1364</v>
+      </c>
       <c r="C281" s="2" t="s">
         <v>712</v>
       </c>
@@ -37193,7 +37881,9 @@
     </row>
     <row r="282" spans="1:41" ht="14.25" customHeight="1">
       <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
+      <c r="B282" s="46" t="s">
+        <v>1364</v>
+      </c>
       <c r="C282" s="2" t="s">
         <v>714</v>
       </c>
@@ -37302,7 +37992,9 @@
     </row>
     <row r="283" spans="1:41" ht="14.25" customHeight="1">
       <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
+      <c r="B283" s="46" t="s">
+        <v>1364</v>
+      </c>
       <c r="C283" s="2" t="s">
         <v>716</v>
       </c>
@@ -37411,7 +38103,7 @@
     </row>
     <row r="284" spans="1:41" ht="14.25" customHeight="1">
       <c r="A284" s="1"/>
-      <c r="B284" s="2"/>
+      <c r="B284" s="46"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -37459,6 +38151,9 @@
       <c r="A285" s="1" t="s">
         <v>718</v>
       </c>
+      <c r="B285" s="46" t="s">
+        <v>1365</v>
+      </c>
       <c r="C285" s="2" t="s">
         <v>719</v>
       </c>
@@ -37569,7 +38264,9 @@
       <c r="A286" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B286" s="1"/>
+      <c r="B286" s="46" t="s">
+        <v>1365</v>
+      </c>
       <c r="C286" s="2" t="s">
         <v>723</v>
       </c>
@@ -37682,6 +38379,9 @@
       <c r="A287" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B287" s="46" t="s">
+        <v>1365</v>
+      </c>
       <c r="C287" s="2" t="s">
         <v>726</v>
       </c>
@@ -37792,8 +38492,8 @@
     </row>
     <row r="288" spans="1:41" ht="14.25" customHeight="1">
       <c r="A288" s="1"/>
-      <c r="B288" s="1" t="s">
-        <v>290</v>
+      <c r="B288" s="46" t="s">
+        <v>1365</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>676</v>
@@ -37907,8 +38607,8 @@
       <c r="A289" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>290</v>
+      <c r="B289" s="46" t="s">
+        <v>1365</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>731</v>
@@ -38022,6 +38722,9 @@
       <c r="A290" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B290" s="46" t="s">
+        <v>1365</v>
+      </c>
       <c r="C290" s="2" t="s">
         <v>734</v>
       </c>
@@ -38134,6 +38837,9 @@
       <c r="A291" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B291" s="46" t="s">
+        <v>1365</v>
+      </c>
       <c r="C291" s="2" t="s">
         <v>737</v>
       </c>
@@ -38246,6 +38952,9 @@
       <c r="A292" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B292" s="46" t="s">
+        <v>1365</v>
+      </c>
       <c r="C292" s="2" t="s">
         <v>739</v>
       </c>
@@ -38358,6 +39067,9 @@
       <c r="A293" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B293" s="46" t="s">
+        <v>1365</v>
+      </c>
       <c r="C293" s="2" t="s">
         <v>742</v>
       </c>
@@ -38470,6 +39182,9 @@
       <c r="A294" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B294" s="46" t="s">
+        <v>1365</v>
+      </c>
       <c r="C294" s="2" t="s">
         <v>745</v>
       </c>
@@ -38582,8 +39297,8 @@
       <c r="A295" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>602</v>
+      <c r="B295" s="46" t="s">
+        <v>1365</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>747</v>
@@ -38697,6 +39412,9 @@
       <c r="A296" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B296" s="46" t="s">
+        <v>1365</v>
+      </c>
       <c r="C296" s="2" t="s">
         <v>749</v>
       </c>
@@ -38807,8 +39525,8 @@
       <c r="A297" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>290</v>
+      <c r="B297" s="46" t="s">
+        <v>1365</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>751</v>
@@ -38917,8 +39635,8 @@
     </row>
     <row r="298" spans="1:41" ht="14.25" customHeight="1">
       <c r="A298" s="2"/>
-      <c r="B298" s="1" t="s">
-        <v>290</v>
+      <c r="B298" s="46" t="s">
+        <v>1365</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>753</v>
@@ -39030,7 +39748,7 @@
       <c r="A299" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B299" s="2"/>
+      <c r="B299" s="46"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -39078,7 +39796,9 @@
       <c r="A300" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B300" s="1"/>
+      <c r="B300" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C300" s="2" t="s">
         <v>756</v>
       </c>
@@ -39196,7 +39916,9 @@
       <c r="A301" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B301" s="1"/>
+      <c r="B301" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C301" s="2" t="s">
         <v>760</v>
       </c>
@@ -39313,6 +40035,9 @@
       <c r="A302" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B302" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C302" s="2" t="s">
         <v>762</v>
       </c>
@@ -39430,6 +40155,9 @@
       <c r="A303" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B303" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C303" s="2" t="s">
         <v>764</v>
       </c>
@@ -39548,6 +40276,9 @@
       <c r="A304" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B304" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C304" s="2" t="s">
         <v>766</v>
       </c>
@@ -39665,6 +40396,9 @@
       <c r="A305" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B305" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C305" s="2" t="s">
         <v>769</v>
       </c>
@@ -39777,6 +40511,9 @@
       <c r="A306" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B306" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C306" s="2" t="s">
         <v>771</v>
       </c>
@@ -39889,6 +40626,9 @@
       <c r="A307" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B307" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C307" s="2" t="s">
         <v>773</v>
       </c>
@@ -40001,6 +40741,9 @@
       <c r="A308" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B308" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C308" s="2" t="s">
         <v>775</v>
       </c>
@@ -40113,6 +40856,9 @@
       <c r="A309" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B309" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C309" s="2" t="s">
         <v>777</v>
       </c>
@@ -40225,6 +40971,9 @@
       <c r="A310" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B310" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C310" s="2" t="s">
         <v>779</v>
       </c>
@@ -40337,6 +41086,9 @@
       <c r="A311" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B311" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C311" s="2" t="s">
         <v>781</v>
       </c>
@@ -40447,6 +41199,9 @@
     </row>
     <row r="312" spans="1:41" ht="14.25" customHeight="1">
       <c r="A312" s="1"/>
+      <c r="B312" s="46" t="s">
+        <v>1366</v>
+      </c>
       <c r="C312" s="2" t="s">
         <v>783</v>
       </c>
@@ -40557,7 +41312,7 @@
       <c r="A313" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B313" s="2"/>
+      <c r="B313" s="46"/>
       <c r="C313" s="2"/>
       <c r="D313" s="69"/>
       <c r="E313" s="2"/>
@@ -40605,8 +41360,8 @@
       <c r="A314" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>602</v>
+      <c r="B314" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>786</v>
@@ -40720,8 +41475,8 @@
       <c r="A315" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>602</v>
+      <c r="B315" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>789</v>
@@ -40833,8 +41588,8 @@
     </row>
     <row r="316" spans="1:41" ht="14.25" customHeight="1">
       <c r="A316" s="1"/>
-      <c r="B316" s="1" t="s">
-        <v>602</v>
+      <c r="B316" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>792</v>
@@ -40948,8 +41703,8 @@
       <c r="A317" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>602</v>
+      <c r="B317" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>794</v>
@@ -41063,8 +41818,8 @@
       <c r="A318" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>602</v>
+      <c r="B318" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>796</v>
@@ -41176,8 +41931,8 @@
       <c r="A319" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>602</v>
+      <c r="B319" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>799</v>
@@ -41291,8 +42046,8 @@
       <c r="A320" s="58" t="s">
         <v>801</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>602</v>
+      <c r="B320" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -41395,8 +42150,8 @@
       <c r="A321" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>602</v>
+      <c r="B321" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -41498,8 +42253,8 @@
     </row>
     <row r="322" spans="1:41" ht="14.25" customHeight="1">
       <c r="A322" s="1"/>
-      <c r="B322" s="1" t="s">
-        <v>602</v>
+      <c r="B322" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -41601,8 +42356,8 @@
     </row>
     <row r="323" spans="1:41" ht="14.25" customHeight="1">
       <c r="A323" s="1"/>
-      <c r="B323" s="1" t="s">
-        <v>602</v>
+      <c r="B323" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -41707,8 +42462,8 @@
     </row>
     <row r="324" spans="1:41" ht="14.25" customHeight="1">
       <c r="A324" s="1"/>
-      <c r="B324" s="1" t="s">
-        <v>602</v>
+      <c r="B324" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -41813,8 +42568,8 @@
     </row>
     <row r="325" spans="1:41" ht="14.25" customHeight="1">
       <c r="A325" s="1"/>
-      <c r="B325" s="1" t="s">
-        <v>602</v>
+      <c r="B325" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -41919,8 +42674,8 @@
     </row>
     <row r="326" spans="1:41" ht="14.25" customHeight="1">
       <c r="A326" s="1"/>
-      <c r="B326" s="1" t="s">
-        <v>602</v>
+      <c r="B326" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -42022,8 +42777,8 @@
     </row>
     <row r="327" spans="1:41" ht="14.25" customHeight="1">
       <c r="A327" s="1"/>
-      <c r="B327" s="1" t="s">
-        <v>602</v>
+      <c r="B327" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -42125,8 +42880,8 @@
     </row>
     <row r="328" spans="1:41" ht="14.25" customHeight="1">
       <c r="A328" s="1"/>
-      <c r="B328" s="1" t="s">
-        <v>602</v>
+      <c r="B328" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -42228,8 +42983,8 @@
     </row>
     <row r="329" spans="1:41" ht="14.25" customHeight="1" thickBot="1">
       <c r="A329" s="1"/>
-      <c r="B329" s="1" t="s">
-        <v>602</v>
+      <c r="B329" s="46" t="s">
+        <v>1367</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>

--- a/public/food-data.xlsx
+++ b/public/food-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanau/WebstormProjects/nutrition-calculator/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342BCCF6-D836-D24D-91BE-3D999E64EE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA3DFC-AAF1-D84E-9F50-E9162A145801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="1359">
   <si>
     <t>WeRise Nutrition Calculator Database</t>
   </si>
@@ -4374,33 +4374,6 @@
   </si>
   <si>
     <t>1TmlG0MixbxwTf-8pRtcevu9nJ0xpcb_G</t>
-  </si>
-  <si>
-    <t>Dine Out Dishes</t>
-  </si>
-  <si>
-    <t>HK Delicacies</t>
-  </si>
-  <si>
-    <t>Beverages</t>
-  </si>
-  <si>
-    <t>Breakfast Foods</t>
-  </si>
-  <si>
-    <t>Snacks</t>
-  </si>
-  <si>
-    <t>HK Bakery</t>
-  </si>
-  <si>
-    <t>HK Desserts</t>
-  </si>
-  <si>
-    <t>Condiments</t>
-  </si>
-  <si>
-    <t>Fruits</t>
   </si>
 </sst>
 </file>
@@ -5383,10 +5356,10 @@
   <dimension ref="A1:BB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F129" sqref="F129"/>
+      <selection pane="bottomRight" activeCell="AE92" sqref="AE92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5672,7 +5645,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -5801,7 +5774,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -5929,7 +5902,7 @@
     <row r="7" spans="1:54" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -6056,7 +6029,7 @@
     <row r="8" spans="1:54" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
@@ -6187,7 +6160,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -6318,7 +6291,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>56</v>
@@ -6435,7 +6408,7 @@
     <row r="11" spans="1:54" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>60</v>
@@ -6554,7 +6527,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>65</v>
@@ -6675,7 +6648,7 @@
     <row r="13" spans="1:54" ht="14.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>67</v>
@@ -6800,7 +6773,7 @@
     <row r="14" spans="1:54" ht="14.25" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>70</v>
@@ -6925,7 +6898,7 @@
     <row r="15" spans="1:54" ht="14.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>74</v>
@@ -7050,7 +7023,7 @@
     <row r="16" spans="1:54" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="1"/>
       <c r="B16" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>76</v>
@@ -7175,7 +7148,7 @@
     <row r="17" spans="1:54" ht="14.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>79</v>
@@ -7294,7 +7267,7 @@
     <row r="18" spans="1:54" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>82</v>
@@ -7411,7 +7384,7 @@
     <row r="19" spans="1:54" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>84</v>
@@ -7528,7 +7501,7 @@
     <row r="20" spans="1:54" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>86</v>
@@ -7645,7 +7618,7 @@
     <row r="21" spans="1:54" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>88</v>
@@ -7762,7 +7735,7 @@
     <row r="22" spans="1:54" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>90</v>
@@ -7879,7 +7852,7 @@
     <row r="23" spans="1:54" ht="14.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>92</v>
@@ -7996,7 +7969,7 @@
     <row r="24" spans="1:54" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>94</v>
@@ -8113,7 +8086,7 @@
     <row r="25" spans="1:54" ht="14.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>96</v>
@@ -8230,7 +8203,7 @@
     <row r="26" spans="1:54" ht="14.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>98</v>
@@ -8347,7 +8320,7 @@
     <row r="27" spans="1:54" ht="14.25" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>100</v>
@@ -8464,7 +8437,7 @@
     <row r="28" spans="1:54" ht="14.25" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>102</v>
@@ -8581,7 +8554,7 @@
     <row r="29" spans="1:54" ht="14.25" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>104</v>
@@ -8698,7 +8671,7 @@
     <row r="30" spans="1:54" ht="14.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>106</v>
@@ -8815,7 +8788,7 @@
     <row r="31" spans="1:54" ht="14.25" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>108</v>
@@ -8934,7 +8907,7 @@
         <v>110</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>111</v>
@@ -9051,7 +9024,7 @@
     <row r="33" spans="1:54" ht="14.25" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>114</v>
@@ -9168,7 +9141,7 @@
     <row r="34" spans="1:54" ht="14.25" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>116</v>
@@ -9285,7 +9258,7 @@
     <row r="35" spans="1:54" ht="14.25" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>118</v>
@@ -9402,7 +9375,7 @@
     <row r="36" spans="1:54" ht="14.25" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>120</v>
@@ -9519,7 +9492,7 @@
     <row r="37" spans="1:54" ht="14.25" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>122</v>
@@ -9636,7 +9609,7 @@
     <row r="38" spans="1:54" ht="14.25" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>124</v>
@@ -9753,7 +9726,7 @@
     <row r="39" spans="1:54" ht="14.25" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>126</v>
@@ -9870,7 +9843,7 @@
     <row r="40" spans="1:54" ht="14.25" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>128</v>
@@ -9987,7 +9960,7 @@
     <row r="41" spans="1:54" ht="14.25" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>130</v>
@@ -10104,7 +10077,7 @@
     <row r="42" spans="1:54" ht="14.25" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>132</v>
@@ -10221,7 +10194,7 @@
     <row r="43" spans="1:54" ht="14.25" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>134</v>
@@ -10338,7 +10311,7 @@
     <row r="44" spans="1:54" ht="14.25" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>136</v>
@@ -10455,7 +10428,7 @@
     <row r="45" spans="1:54" ht="14.25" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>139</v>
@@ -10572,7 +10545,7 @@
     <row r="46" spans="1:54" ht="14.25" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>141</v>
@@ -10689,7 +10662,7 @@
     <row r="47" spans="1:54" ht="14.25" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>143</v>
@@ -10806,7 +10779,7 @@
     <row r="48" spans="1:54" ht="14.25" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>145</v>
@@ -10923,7 +10896,7 @@
     <row r="49" spans="1:54" ht="14.25" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>147</v>
@@ -11039,7 +11012,7 @@
     <row r="50" spans="1:54" ht="14.25" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>149</v>
@@ -11156,7 +11129,7 @@
     <row r="51" spans="1:54" ht="14.25" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>151</v>
@@ -11275,7 +11248,7 @@
         <v>153</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>154</v>
@@ -11392,7 +11365,7 @@
     <row r="53" spans="1:54" ht="14.25" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>156</v>
@@ -11509,7 +11482,7 @@
     <row r="54" spans="1:54" ht="14.25" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>158</v>
@@ -11626,7 +11599,7 @@
     <row r="55" spans="1:54" ht="14.25" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>160</v>
@@ -11743,7 +11716,7 @@
     <row r="56" spans="1:54" ht="14.25" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>162</v>
@@ -11860,7 +11833,7 @@
     <row r="57" spans="1:54" ht="14.25" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>164</v>
@@ -11977,7 +11950,7 @@
     <row r="58" spans="1:54" ht="14.25" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>166</v>
@@ -12094,7 +12067,7 @@
     <row r="59" spans="1:54" ht="14.25" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>168</v>
@@ -12211,7 +12184,7 @@
     <row r="60" spans="1:54" ht="14.25" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>170</v>
@@ -12328,7 +12301,7 @@
     <row r="61" spans="1:54" ht="14.25" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>172</v>
@@ -12445,7 +12418,7 @@
     <row r="62" spans="1:54" ht="14.25" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>174</v>
@@ -12562,7 +12535,7 @@
     <row r="63" spans="1:54" ht="14.25" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>176</v>
@@ -12679,7 +12652,7 @@
     <row r="64" spans="1:54" ht="14.25" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>178</v>
@@ -12796,7 +12769,7 @@
     <row r="65" spans="1:54" ht="14.25" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>180</v>
@@ -12913,7 +12886,7 @@
     <row r="66" spans="1:54" ht="14.25" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>182</v>
@@ -13029,7 +13002,7 @@
     <row r="67" spans="1:54" ht="14.25" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>184</v>
@@ -13146,7 +13119,7 @@
     <row r="68" spans="1:54" ht="14.25" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>186</v>
@@ -13263,7 +13236,7 @@
     <row r="69" spans="1:54" ht="14.25" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>188</v>
@@ -13380,7 +13353,7 @@
     <row r="70" spans="1:54" ht="14.25" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>190</v>
@@ -13497,7 +13470,7 @@
     <row r="71" spans="1:54" ht="14.25" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>192</v>
@@ -13614,7 +13587,7 @@
     <row r="72" spans="1:54" ht="14.25" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>194</v>
@@ -13731,7 +13704,7 @@
     <row r="73" spans="1:54" ht="14.25" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>196</v>
@@ -13848,7 +13821,7 @@
     <row r="74" spans="1:54" ht="14.25" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>198</v>
@@ -13965,7 +13938,7 @@
     <row r="75" spans="1:54" ht="14.25" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>200</v>
@@ -14082,7 +14055,7 @@
     <row r="76" spans="1:54" ht="14.25" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>202</v>
@@ -14199,7 +14172,7 @@
     <row r="77" spans="1:54" ht="14.25" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>204</v>
@@ -14316,7 +14289,7 @@
     <row r="78" spans="1:54" ht="14.25" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>206</v>
@@ -14433,7 +14406,7 @@
     <row r="79" spans="1:54" ht="14.25" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>208</v>
@@ -14550,7 +14523,7 @@
     <row r="80" spans="1:54" ht="14.25" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>210</v>
@@ -14667,7 +14640,7 @@
     <row r="81" spans="1:54" ht="14.25" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>212</v>
@@ -14784,7 +14757,7 @@
     <row r="82" spans="1:54" ht="14.25" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>214</v>
@@ -14901,7 +14874,7 @@
     <row r="83" spans="1:54" ht="14.25" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>216</v>
@@ -15018,7 +14991,7 @@
     <row r="84" spans="1:54" ht="14.25" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>218</v>
@@ -15135,7 +15108,7 @@
     <row r="85" spans="1:54" ht="14.25" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>220</v>
@@ -15252,7 +15225,7 @@
     <row r="86" spans="1:54" ht="14.25" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>222</v>
@@ -15369,7 +15342,7 @@
     <row r="87" spans="1:54" ht="14.25" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>224</v>
@@ -15485,7 +15458,7 @@
     <row r="88" spans="1:54" ht="14.25" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>226</v>
@@ -15602,7 +15575,7 @@
     <row r="89" spans="1:54" ht="14.25" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>228</v>
@@ -15719,7 +15692,7 @@
     <row r="90" spans="1:54" ht="14.25" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>230</v>
@@ -15836,7 +15809,7 @@
     <row r="91" spans="1:54" ht="14.25" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>232</v>
@@ -15953,7 +15926,7 @@
     <row r="92" spans="1:54" ht="14.25" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>234</v>
@@ -16070,7 +16043,7 @@
     <row r="93" spans="1:54" ht="14.25" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>236</v>
@@ -16187,7 +16160,7 @@
     <row r="94" spans="1:54" ht="14.25" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>238</v>
@@ -16304,7 +16277,7 @@
     <row r="95" spans="1:54" ht="14.25" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>240</v>
@@ -16421,7 +16394,7 @@
     <row r="96" spans="1:54" ht="14.25" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>242</v>
@@ -16538,7 +16511,7 @@
     <row r="97" spans="1:54" ht="14.25" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>244</v>
@@ -16655,7 +16628,7 @@
     <row r="98" spans="1:54" ht="14.25" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>246</v>
@@ -16772,7 +16745,7 @@
     <row r="99" spans="1:54" ht="14.25" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>248</v>
@@ -16889,7 +16862,7 @@
     <row r="100" spans="1:54" ht="14.25" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>250</v>
@@ -17006,7 +16979,7 @@
     <row r="101" spans="1:54" ht="14.25" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>252</v>
@@ -17123,7 +17096,7 @@
     <row r="102" spans="1:54" ht="14.25" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>254</v>
@@ -17240,7 +17213,7 @@
     <row r="103" spans="1:54" ht="14.25" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>256</v>
@@ -17357,7 +17330,7 @@
     <row r="104" spans="1:54" ht="14.25" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>258</v>
@@ -17474,7 +17447,7 @@
     <row r="105" spans="1:54" ht="14.25" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>260</v>
@@ -17591,7 +17564,7 @@
     <row r="106" spans="1:54" ht="14.25" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>262</v>
@@ -17708,7 +17681,7 @@
     <row r="107" spans="1:54" ht="14.25" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>264</v>
@@ -17825,7 +17798,7 @@
     <row r="108" spans="1:54" ht="14.25" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>266</v>
@@ -17942,7 +17915,7 @@
     <row r="109" spans="1:54" ht="14.25" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>268</v>
@@ -18059,7 +18032,7 @@
     <row r="110" spans="1:54" ht="14.25" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>270</v>
@@ -18176,7 +18149,7 @@
     <row r="111" spans="1:54" ht="14.25" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>272</v>
@@ -18293,7 +18266,7 @@
     <row r="112" spans="1:54" ht="14.25" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>274</v>
@@ -18410,7 +18383,7 @@
     <row r="113" spans="1:54" ht="14.25" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>276</v>
@@ -18527,7 +18500,7 @@
     <row r="114" spans="1:54" ht="14.25" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>278</v>
@@ -18644,7 +18617,7 @@
     <row r="115" spans="1:54" ht="14.25" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>280</v>
@@ -18761,7 +18734,7 @@
     <row r="116" spans="1:54" ht="14.25" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>282</v>
@@ -18878,7 +18851,7 @@
     <row r="117" spans="1:54" ht="14.25" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>284</v>
@@ -18995,7 +18968,7 @@
     <row r="118" spans="1:54" ht="14.25" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>286</v>
@@ -19112,7 +19085,7 @@
     <row r="119" spans="1:54" ht="14.25" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="46" t="s">
-        <v>1359</v>
+        <v>38</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>288</v>
@@ -19283,7 +19256,7 @@
         <v>290</v>
       </c>
       <c r="B121" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>291</v>
@@ -19404,7 +19377,7 @@
         <v>296</v>
       </c>
       <c r="B122" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>297</v>
@@ -19525,7 +19498,7 @@
         <v>51</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>301</v>
@@ -19645,7 +19618,7 @@
         <v>51</v>
       </c>
       <c r="B124" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>304</v>
@@ -19766,7 +19739,7 @@
         <v>51</v>
       </c>
       <c r="B125" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>307</v>
@@ -19886,7 +19859,7 @@
         <v>51</v>
       </c>
       <c r="B126" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>311</v>
@@ -20007,7 +19980,7 @@
         <v>51</v>
       </c>
       <c r="B127" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>315</v>
@@ -20128,7 +20101,7 @@
         <v>51</v>
       </c>
       <c r="B128" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>319</v>
@@ -20248,7 +20221,7 @@
         <v>51</v>
       </c>
       <c r="B129" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>323</v>
@@ -20369,7 +20342,7 @@
         <v>51</v>
       </c>
       <c r="B130" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>326</v>
@@ -20490,7 +20463,7 @@
         <v>51</v>
       </c>
       <c r="B131" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>329</v>
@@ -20609,7 +20582,7 @@
     <row r="132" spans="1:54" ht="14.25" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>332</v>
@@ -20730,7 +20703,7 @@
         <v>51</v>
       </c>
       <c r="B133" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>335</v>
@@ -20851,7 +20824,7 @@
         <v>51</v>
       </c>
       <c r="B134" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>338</v>
@@ -20971,7 +20944,7 @@
     <row r="135" spans="1:54" ht="14.25" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>341</v>
@@ -21088,7 +21061,7 @@
     <row r="136" spans="1:54" ht="14.25" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>343</v>
@@ -21207,7 +21180,7 @@
         <v>51</v>
       </c>
       <c r="B137" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>345</v>
@@ -21327,7 +21300,7 @@
         <v>51</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>348</v>
@@ -21448,7 +21421,7 @@
         <v>51</v>
       </c>
       <c r="B139" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>351</v>
@@ -21569,7 +21542,7 @@
         <v>51</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>354</v>
@@ -21690,7 +21663,7 @@
         <v>51</v>
       </c>
       <c r="B141" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>357</v>
@@ -21812,7 +21785,7 @@
         <v>51</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>360</v>
@@ -21931,7 +21904,7 @@
     <row r="143" spans="1:54" ht="14.25" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>363</v>
@@ -22050,7 +22023,7 @@
         <v>51</v>
       </c>
       <c r="B144" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>365</v>
@@ -22171,7 +22144,7 @@
         <v>51</v>
       </c>
       <c r="B145" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>369</v>
@@ -22292,7 +22265,7 @@
         <v>51</v>
       </c>
       <c r="B146" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>373</v>
@@ -22413,7 +22386,7 @@
         <v>51</v>
       </c>
       <c r="B147" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>376</v>
@@ -22534,7 +22507,7 @@
         <v>51</v>
       </c>
       <c r="B148" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>379</v>
@@ -22655,7 +22628,7 @@
         <v>51</v>
       </c>
       <c r="B149" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>382</v>
@@ -22776,7 +22749,7 @@
         <v>51</v>
       </c>
       <c r="B150" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>386</v>
@@ -22897,7 +22870,7 @@
         <v>51</v>
       </c>
       <c r="B151" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>390</v>
@@ -23019,7 +22992,7 @@
         <v>51</v>
       </c>
       <c r="B152" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>394</v>
@@ -23140,7 +23113,7 @@
         <v>51</v>
       </c>
       <c r="B153" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>397</v>
@@ -23261,7 +23234,7 @@
         <v>51</v>
       </c>
       <c r="B154" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>401</v>
@@ -23382,7 +23355,7 @@
         <v>51</v>
       </c>
       <c r="B155" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>403</v>
@@ -23503,7 +23476,7 @@
         <v>51</v>
       </c>
       <c r="B156" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>405</v>
@@ -23624,7 +23597,7 @@
         <v>51</v>
       </c>
       <c r="B157" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>407</v>
@@ -23745,7 +23718,7 @@
         <v>51</v>
       </c>
       <c r="B158" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>409</v>
@@ -23866,7 +23839,7 @@
         <v>51</v>
       </c>
       <c r="B159" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>412</v>
@@ -23987,7 +23960,7 @@
         <v>51</v>
       </c>
       <c r="B160" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>415</v>
@@ -24108,7 +24081,7 @@
         <v>51</v>
       </c>
       <c r="B161" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>419</v>
@@ -24229,7 +24202,7 @@
         <v>51</v>
       </c>
       <c r="B162" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>422</v>
@@ -24350,7 +24323,7 @@
         <v>425</v>
       </c>
       <c r="B163" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -24461,7 +24434,7 @@
         <v>425</v>
       </c>
       <c r="B164" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -24571,7 +24544,7 @@
         <v>425</v>
       </c>
       <c r="B165" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -24682,7 +24655,7 @@
         <v>425</v>
       </c>
       <c r="B166" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -24793,7 +24766,7 @@
         <v>425</v>
       </c>
       <c r="B167" s="46" t="s">
-        <v>1360</v>
+        <v>296</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -24957,7 +24930,7 @@
         <v>435</v>
       </c>
       <c r="B169" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>436</v>
@@ -25078,7 +25051,7 @@
         <v>440</v>
       </c>
       <c r="B170" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>441</v>
@@ -25197,7 +25170,7 @@
     <row r="171" spans="1:54" ht="14.25" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>444</v>
@@ -25316,7 +25289,7 @@
     <row r="172" spans="1:54" ht="14.25" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>447</v>
@@ -25438,7 +25411,7 @@
         <v>51</v>
       </c>
       <c r="B173" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>451</v>
@@ -25559,7 +25532,7 @@
         <v>51</v>
       </c>
       <c r="B174" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>455</v>
@@ -25680,7 +25653,7 @@
         <v>51</v>
       </c>
       <c r="B175" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>458</v>
@@ -25801,7 +25774,7 @@
         <v>51</v>
       </c>
       <c r="B176" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>461</v>
@@ -25922,7 +25895,7 @@
         <v>51</v>
       </c>
       <c r="B177" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>464</v>
@@ -26044,7 +26017,7 @@
         <v>51</v>
       </c>
       <c r="B178" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>466</v>
@@ -26165,7 +26138,7 @@
         <v>51</v>
       </c>
       <c r="B179" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>468</v>
@@ -26287,7 +26260,7 @@
         <v>51</v>
       </c>
       <c r="B180" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>471</v>
@@ -26408,7 +26381,7 @@
         <v>51</v>
       </c>
       <c r="B181" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>474</v>
@@ -26530,7 +26503,7 @@
         <v>51</v>
       </c>
       <c r="B182" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>477</v>
@@ -26651,7 +26624,7 @@
         <v>51</v>
       </c>
       <c r="B183" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>481</v>
@@ -26772,7 +26745,7 @@
         <v>51</v>
       </c>
       <c r="B184" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>485</v>
@@ -26893,7 +26866,7 @@
         <v>51</v>
       </c>
       <c r="B185" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>488</v>
@@ -27014,7 +26987,7 @@
         <v>51</v>
       </c>
       <c r="B186" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>491</v>
@@ -27135,7 +27108,7 @@
         <v>51</v>
       </c>
       <c r="B187" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>494</v>
@@ -27256,7 +27229,7 @@
         <v>51</v>
       </c>
       <c r="B188" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>497</v>
@@ -27377,7 +27350,7 @@
         <v>51</v>
       </c>
       <c r="B189" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>500</v>
@@ -27498,7 +27471,7 @@
         <v>51</v>
       </c>
       <c r="B190" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>503</v>
@@ -27619,7 +27592,7 @@
         <v>51</v>
       </c>
       <c r="B191" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>505</v>
@@ -27740,7 +27713,7 @@
         <v>51</v>
       </c>
       <c r="B192" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>508</v>
@@ -27861,7 +27834,7 @@
         <v>51</v>
       </c>
       <c r="B193" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>511</v>
@@ -27982,7 +27955,7 @@
         <v>51</v>
       </c>
       <c r="B194" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>513</v>
@@ -28101,7 +28074,7 @@
     <row r="195" spans="1:54" ht="14.25" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>516</v>
@@ -28222,7 +28195,7 @@
         <v>519</v>
       </c>
       <c r="B196" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>520</v>
@@ -28339,7 +28312,7 @@
     <row r="197" spans="1:54" ht="14.25" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>522</v>
@@ -28456,7 +28429,7 @@
     <row r="198" spans="1:54" ht="14.25" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>524</v>
@@ -28573,7 +28546,7 @@
     <row r="199" spans="1:54" ht="14.25" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="46" t="s">
-        <v>1361</v>
+        <v>440</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>526</v>
@@ -28743,7 +28716,7 @@
         <v>528</v>
       </c>
       <c r="B201" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>529</v>
@@ -28864,7 +28837,7 @@
         <v>532</v>
       </c>
       <c r="B202" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>533</v>
@@ -28982,7 +28955,7 @@
     <row r="203" spans="1:54" ht="14.25" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>536</v>
@@ -29101,7 +29074,7 @@
     <row r="204" spans="1:54" ht="14.25" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>538</v>
@@ -29220,7 +29193,7 @@
     <row r="205" spans="1:54" ht="14.25" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>542</v>
@@ -29339,7 +29312,7 @@
     <row r="206" spans="1:54" ht="14.25" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>544</v>
@@ -29460,7 +29433,7 @@
         <v>51</v>
       </c>
       <c r="B207" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>548</v>
@@ -29579,7 +29552,7 @@
         <v>51</v>
       </c>
       <c r="B208" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>550</v>
@@ -29698,7 +29671,7 @@
     <row r="209" spans="1:54" ht="14.25" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>552</v>
@@ -29819,7 +29792,7 @@
         <v>51</v>
       </c>
       <c r="B210" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>554</v>
@@ -29940,7 +29913,7 @@
         <v>51</v>
       </c>
       <c r="B211" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>556</v>
@@ -30061,7 +30034,7 @@
         <v>51</v>
       </c>
       <c r="B212" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>558</v>
@@ -30179,7 +30152,7 @@
     <row r="213" spans="1:54" ht="14.25" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>560</v>
@@ -30296,7 +30269,7 @@
     <row r="214" spans="1:54" ht="14.25" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>563</v>
@@ -30412,7 +30385,7 @@
     <row r="215" spans="1:54" ht="14.25" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>565</v>
@@ -30529,7 +30502,7 @@
     <row r="216" spans="1:54" ht="14.25" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>567</v>
@@ -30646,7 +30619,7 @@
     <row r="217" spans="1:54" ht="14.25" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>569</v>
@@ -30763,7 +30736,7 @@
     <row r="218" spans="1:54" ht="14.25" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>571</v>
@@ -30882,7 +30855,7 @@
         <v>51</v>
       </c>
       <c r="B219" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>573</v>
@@ -31001,7 +30974,7 @@
     <row r="220" spans="1:54" ht="14.25" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>576</v>
@@ -31118,7 +31091,7 @@
     <row r="221" spans="1:54" ht="14.25" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>578</v>
@@ -31235,7 +31208,7 @@
     <row r="222" spans="1:54" ht="14.25" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>580</v>
@@ -31352,7 +31325,7 @@
     <row r="223" spans="1:54" ht="14.25" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>582</v>
@@ -31469,7 +31442,7 @@
     <row r="224" spans="1:54" ht="14.25" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>584</v>
@@ -31586,7 +31559,7 @@
     <row r="225" spans="1:41" ht="14.25" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>586</v>
@@ -31697,7 +31670,7 @@
     <row r="226" spans="1:41" ht="14.25" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>588</v>
@@ -31808,7 +31781,7 @@
     <row r="227" spans="1:41" ht="14.25" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>590</v>
@@ -31919,7 +31892,7 @@
     <row r="228" spans="1:41" ht="14.25" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>592</v>
@@ -32030,7 +32003,7 @@
     <row r="229" spans="1:41" ht="14.25" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>594</v>
@@ -32140,7 +32113,7 @@
     <row r="230" spans="1:41" ht="14.25" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>596</v>
@@ -32250,7 +32223,7 @@
     <row r="231" spans="1:41" ht="14.25" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>598</v>
@@ -32363,7 +32336,7 @@
         <v>51</v>
       </c>
       <c r="B232" s="46" t="s">
-        <v>1362</v>
+        <v>532</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>600</v>
@@ -32524,7 +32497,7 @@
         <v>602</v>
       </c>
       <c r="B234" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>603</v>
@@ -32639,7 +32612,7 @@
         <v>606</v>
       </c>
       <c r="B235" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>607</v>
@@ -32754,7 +32727,7 @@
         <v>51</v>
       </c>
       <c r="B236" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>610</v>
@@ -32867,7 +32840,7 @@
     <row r="237" spans="1:41" ht="14.25" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>614</v>
@@ -32982,7 +32955,7 @@
         <v>51</v>
       </c>
       <c r="B238" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>617</v>
@@ -33097,7 +33070,7 @@
         <v>51</v>
       </c>
       <c r="B239" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>620</v>
@@ -33212,7 +33185,7 @@
         <v>51</v>
       </c>
       <c r="B240" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>622</v>
@@ -33327,7 +33300,7 @@
         <v>51</v>
       </c>
       <c r="B241" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>625</v>
@@ -33442,7 +33415,7 @@
         <v>51</v>
       </c>
       <c r="B242" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>627</v>
@@ -33557,7 +33530,7 @@
         <v>51</v>
       </c>
       <c r="B243" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>629</v>
@@ -33672,7 +33645,7 @@
         <v>51</v>
       </c>
       <c r="B244" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>631</v>
@@ -33787,7 +33760,7 @@
         <v>51</v>
       </c>
       <c r="B245" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>633</v>
@@ -33902,7 +33875,7 @@
         <v>51</v>
       </c>
       <c r="B246" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>635</v>
@@ -34017,7 +33990,7 @@
         <v>51</v>
       </c>
       <c r="B247" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>637</v>
@@ -34132,7 +34105,7 @@
         <v>51</v>
       </c>
       <c r="B248" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>639</v>
@@ -34247,7 +34220,7 @@
         <v>51</v>
       </c>
       <c r="B249" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>641</v>
@@ -34362,7 +34335,7 @@
         <v>51</v>
       </c>
       <c r="B250" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>644</v>
@@ -34477,7 +34450,7 @@
         <v>51</v>
       </c>
       <c r="B251" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>646</v>
@@ -34592,7 +34565,7 @@
         <v>51</v>
       </c>
       <c r="B252" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>648</v>
@@ -34707,7 +34680,7 @@
         <v>650</v>
       </c>
       <c r="B253" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>651</v>
@@ -34818,7 +34791,7 @@
     <row r="254" spans="1:41" ht="14.25" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>653</v>
@@ -34929,7 +34902,7 @@
     <row r="255" spans="1:41" ht="14.25" customHeight="1">
       <c r="A255" s="7"/>
       <c r="B255" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>655</v>
@@ -35042,7 +35015,7 @@
         <v>657</v>
       </c>
       <c r="B256" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>658</v>
@@ -35153,7 +35126,7 @@
     <row r="257" spans="1:41" ht="14.25" customHeight="1">
       <c r="A257" s="7"/>
       <c r="B257" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>661</v>
@@ -35264,7 +35237,7 @@
     <row r="258" spans="1:41" ht="14.25" customHeight="1">
       <c r="A258" s="63"/>
       <c r="B258" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>663</v>
@@ -35375,7 +35348,7 @@
     <row r="259" spans="1:41" ht="14.25" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>665</v>
@@ -35486,7 +35459,7 @@
     <row r="260" spans="1:41" ht="14.25" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>667</v>
@@ -35599,7 +35572,7 @@
         <v>519</v>
       </c>
       <c r="B261" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>670</v>
@@ -35709,7 +35682,7 @@
     <row r="262" spans="1:41" ht="14.25" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>672</v>
@@ -35820,7 +35793,7 @@
     <row r="263" spans="1:41" ht="14.25" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>674</v>
@@ -35931,7 +35904,7 @@
     <row r="264" spans="1:41" ht="14.25" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>676</v>
@@ -36042,7 +36015,7 @@
     <row r="265" spans="1:41" ht="14.25" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>678</v>
@@ -36153,7 +36126,7 @@
     <row r="266" spans="1:41" ht="14.25" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>680</v>
@@ -36264,7 +36237,7 @@
     <row r="267" spans="1:41" ht="14.25" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>682</v>
@@ -36375,7 +36348,7 @@
     <row r="268" spans="1:41" ht="14.25" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>684</v>
@@ -36486,7 +36459,7 @@
     <row r="269" spans="1:41" ht="14.25" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>686</v>
@@ -36601,7 +36574,7 @@
         <v>51</v>
       </c>
       <c r="B270" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>688</v>
@@ -36713,7 +36686,7 @@
     <row r="271" spans="1:41" ht="14.25" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="46" t="s">
-        <v>1363</v>
+        <v>606</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>690</v>
@@ -36872,7 +36845,7 @@
         <v>692</v>
       </c>
       <c r="B273" s="46" t="s">
-        <v>1364</v>
+        <v>695</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>693</v>
@@ -36985,7 +36958,7 @@
         <v>695</v>
       </c>
       <c r="B274" s="46" t="s">
-        <v>1364</v>
+        <v>695</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>696</v>
@@ -37095,7 +37068,7 @@
     <row r="275" spans="1:41" ht="14.25" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="46" t="s">
-        <v>1364</v>
+        <v>695</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>698</v>
@@ -37210,7 +37183,7 @@
         <v>51</v>
       </c>
       <c r="B276" s="46" t="s">
-        <v>1364</v>
+        <v>695</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>702</v>
@@ -37325,7 +37298,7 @@
         <v>51</v>
       </c>
       <c r="B277" s="46" t="s">
-        <v>1364</v>
+        <v>695</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>704</v>
@@ -37438,7 +37411,7 @@
     <row r="278" spans="1:41" ht="14.25" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="46" t="s">
-        <v>1364</v>
+        <v>695</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>706</v>
@@ -37549,7 +37522,7 @@
     <row r="279" spans="1:41" ht="14.25" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="46" t="s">
-        <v>1364</v>
+        <v>695</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>708</v>
@@ -37660,7 +37633,7 @@
     <row r="280" spans="1:41" ht="14.25" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="46" t="s">
-        <v>1364</v>
+        <v>695</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>710</v>
@@ -37771,7 +37744,7 @@
     <row r="281" spans="1:41" ht="14.25" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="46" t="s">
-        <v>1364</v>
+        <v>695</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>712</v>
@@ -37882,7 +37855,7 @@
     <row r="282" spans="1:41" ht="14.25" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="46" t="s">
-        <v>1364</v>
+        <v>695</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>714</v>
@@ -37993,7 +37966,7 @@
     <row r="283" spans="1:41" ht="14.25" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="46" t="s">
-        <v>1364</v>
+        <v>695</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>716</v>
@@ -38152,7 +38125,7 @@
         <v>718</v>
       </c>
       <c r="B285" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>719</v>
@@ -38265,7 +38238,7 @@
         <v>722</v>
       </c>
       <c r="B286" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>723</v>
@@ -38380,7 +38353,7 @@
         <v>51</v>
       </c>
       <c r="B287" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>726</v>
@@ -38493,7 +38466,7 @@
     <row r="288" spans="1:41" ht="14.25" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>676</v>
@@ -38608,7 +38581,7 @@
         <v>51</v>
       </c>
       <c r="B289" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>731</v>
@@ -38723,7 +38696,7 @@
         <v>51</v>
       </c>
       <c r="B290" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>734</v>
@@ -38838,7 +38811,7 @@
         <v>51</v>
       </c>
       <c r="B291" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>737</v>
@@ -38953,7 +38926,7 @@
         <v>51</v>
       </c>
       <c r="B292" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>739</v>
@@ -39068,7 +39041,7 @@
         <v>51</v>
       </c>
       <c r="B293" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>742</v>
@@ -39183,7 +39156,7 @@
         <v>51</v>
       </c>
       <c r="B294" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>745</v>
@@ -39298,7 +39271,7 @@
         <v>51</v>
       </c>
       <c r="B295" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>747</v>
@@ -39413,7 +39386,7 @@
         <v>51</v>
       </c>
       <c r="B296" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>749</v>
@@ -39526,7 +39499,7 @@
         <v>51</v>
       </c>
       <c r="B297" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>751</v>
@@ -39636,7 +39609,7 @@
     <row r="298" spans="1:41" ht="14.25" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="46" t="s">
-        <v>1365</v>
+        <v>722</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>753</v>
@@ -39797,7 +39770,7 @@
         <v>755</v>
       </c>
       <c r="B300" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>756</v>
@@ -39917,7 +39890,7 @@
         <v>759</v>
       </c>
       <c r="B301" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>760</v>
@@ -40036,7 +40009,7 @@
         <v>51</v>
       </c>
       <c r="B302" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>762</v>
@@ -40156,7 +40129,7 @@
         <v>51</v>
       </c>
       <c r="B303" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>764</v>
@@ -40277,7 +40250,7 @@
         <v>51</v>
       </c>
       <c r="B304" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>766</v>
@@ -40397,7 +40370,7 @@
         <v>51</v>
       </c>
       <c r="B305" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>769</v>
@@ -40512,7 +40485,7 @@
         <v>51</v>
       </c>
       <c r="B306" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>771</v>
@@ -40627,7 +40600,7 @@
         <v>51</v>
       </c>
       <c r="B307" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>773</v>
@@ -40742,7 +40715,7 @@
         <v>51</v>
       </c>
       <c r="B308" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>775</v>
@@ -40857,7 +40830,7 @@
         <v>51</v>
       </c>
       <c r="B309" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>777</v>
@@ -40972,7 +40945,7 @@
         <v>51</v>
       </c>
       <c r="B310" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>779</v>
@@ -41087,7 +41060,7 @@
         <v>51</v>
       </c>
       <c r="B311" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>781</v>
@@ -41200,7 +41173,7 @@
     <row r="312" spans="1:41" ht="14.25" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="46" t="s">
-        <v>1366</v>
+        <v>759</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>783</v>
@@ -41361,7 +41334,7 @@
         <v>785</v>
       </c>
       <c r="B314" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>786</v>
@@ -41476,7 +41449,7 @@
         <v>788</v>
       </c>
       <c r="B315" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>789</v>
@@ -41589,7 +41562,7 @@
     <row r="316" spans="1:41" ht="14.25" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>792</v>
@@ -41704,7 +41677,7 @@
         <v>51</v>
       </c>
       <c r="B317" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>794</v>
@@ -41819,7 +41792,7 @@
         <v>51</v>
       </c>
       <c r="B318" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>796</v>
@@ -41932,7 +41905,7 @@
         <v>51</v>
       </c>
       <c r="B319" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>799</v>
@@ -42047,7 +42020,7 @@
         <v>801</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -42151,7 +42124,7 @@
         <v>51</v>
       </c>
       <c r="B321" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -42254,7 +42227,7 @@
     <row r="322" spans="1:41" ht="14.25" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -42357,7 +42330,7 @@
     <row r="323" spans="1:41" ht="14.25" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -42463,7 +42436,7 @@
     <row r="324" spans="1:41" ht="14.25" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -42569,7 +42542,7 @@
     <row r="325" spans="1:41" ht="14.25" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -42675,7 +42648,7 @@
     <row r="326" spans="1:41" ht="14.25" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -42778,7 +42751,7 @@
     <row r="327" spans="1:41" ht="14.25" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -42881,7 +42854,7 @@
     <row r="328" spans="1:41" ht="14.25" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -42984,7 +42957,7 @@
     <row r="329" spans="1:41" ht="14.25" customHeight="1" thickBot="1">
       <c r="A329" s="1"/>
       <c r="B329" s="46" t="s">
-        <v>1367</v>
+        <v>788</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>

--- a/public/food-data.xlsx
+++ b/public/food-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanau/WebstormProjects/nutrition-calculator/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA3DFC-AAF1-D84E-9F50-E9162A145801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A254030-F1A0-C940-A109-4C576ABEBBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="1370">
   <si>
     <t>WeRise Nutrition Calculator Database</t>
   </si>
@@ -2744,825 +2744,24 @@
     <t>recommendation</t>
   </si>
   <si>
-    <t>三文魚含豐富Omega-3脂肪酸，有助預防血管脂肪堆積及硬化，降低心臟病、中風風險。食用時如要沾醬油的話應沾適量，避免進食過量鈉質。</t>
-  </si>
-  <si>
-    <t>至尊批蕯屬高卡路里食物，所含的材料，例如芝士、辣肉腸、豬肉/牛肉粒、火腿等飽和脂肪含量較高之餘，火腿、辣肉腸、橄欖等材料屬於加工醃製食物，鈉含量較高。應以淺嘗點到即止的原則下進食，避免攝取過量。</t>
-  </si>
-  <si>
-    <t>漢堡包為眾多包類卡路里較低的一款，例如比起炸過的魚柳包卡路里大概低100左右。建議在食漢堡包的同時可以配搭多個走高脂醬汁的沙律，達致營養均衡。</t>
-  </si>
-  <si>
-    <t>魚柳包的主要成份為炸魚柳、車打芝士、他他醬和麵包。他他醬及油炸的鱈魚為主要導致魚柳包熱量、脂肪及鈉質較高的原因。一份正常魚柳包相等於吃了四茶匙油及接近三份一茶匙鹽。想減低鈉質攝取可要求走醬。</t>
-  </si>
-  <si>
-    <t>麥樂雞屬加工食物，主要熱量來源來自脂肪。把醬汁計算在內的話過量進食容易吸取過量脂肪和鹽。若一日三餐進食有機會造成高血脂等問題。</t>
-  </si>
-  <si>
-    <t>市面上的蝦仁炒蛋屬高脂的港式小菜，高脂的原因是炒滑蛋裡的多油。師傅熱鑊落多油炒得香滑，有些更會在蛋漿裡加全脂奶。想多食的人士建議可以自己在家落少油烹調。</t>
-  </si>
-  <si>
-    <t>椰菜絲沙律為低脂低卡路里食物。餐廳可能會灑上沙拉醬。食用時想低脂點建議選擇走醬。</t>
-  </si>
-  <si>
-    <t>市面上魚香茄子主要由油泡茄子和免治豬肉和製成，脂肪和鈉含量都比較高。吃時注意份量，如在外想健康點可選擇非油炸及少汁的菜式，如菜粒炒瘦肉片、鮮茄牛肉飯等。</t>
-  </si>
-  <si>
-    <t>菠蘿咕嚕肉的主要材料多數為腩排/半肥瘦豬肉及菠蘿，屬高脂高糖小菜。烹調過程中除了高溫油炸裹上粉漿的肥豬肉外，咕嚕肉沾上的酸甜咕嚕汁是由粟粉油鹽糖調配而成，大大增加此道菜的脂肪、糖和鈉含量。建議少吃，或吃時注意份量。</t>
-  </si>
-  <si>
-    <t>傳統的蒸肉餅為了多汁少不了加入肥豬肉製成，飽和脂肪高。鹹蛋為蛋加工品，每顆就有836毫克的鈉。建議可自行購買瘦肉剁肉餅，鹹蛋亦無需成隻吃完。</t>
-  </si>
-  <si>
-    <t>中式牛柳的主要材料為牛柳、洋蔥及醬汁。相對其他菜式例如粟米魚塊、菠蘿咕嚕肉，中式牛柳相比之下較健康。雖但如此，中式牛柳一般會用較多的食油在熱鑊翻炒，調味料亦大大提高餸菜鈉質含量。若要健康點可自行在家中用少油少醬料煎炒，減少脂肪和鈉質攝取量。</t>
-  </si>
-  <si>
-    <t>粟米魚塊主要材料為油炸魚柳及粟米，想健康點的話，自家製粟米魚塊可用煎代替油炸和用天然調味料例如胡椒粉代替鹽，減少脂肪和鈉質攝取量。若要外出進食。可選擇少汁非油炸菜式。</t>
-  </si>
-  <si>
-    <t>西蘭花炒魚塊通常會加天然調味料如薑、蔥、蒜、西芹、紅椒調味。非油炸魚柳為較低脂蛋白質來源。西蘭花的纖維亦能提供足夠飽腹感和維持腸道健康。</t>
-  </si>
-  <si>
-    <t>欖菜肉鬆四季豆的欖菜為醃製食物，菜式鈉含量較高，建議可選擇清蒸或全走灼菜。</t>
-  </si>
-  <si>
-    <t>西芹炒雞柳，是健康之選，雞柳為高蛋白質低飽和脂肪肉類，西芹質富含纖維、抗氧化物和維他命。建議少油烹調避免添加過多高鈉調味料或鹽。</t>
-  </si>
-  <si>
-    <t>北菇西蘭花為港式小菜中較低脂低鈉少油菜式，屬於較健康選擇。</t>
-  </si>
-  <si>
-    <t>咖喱牛腩飯為高熱量港式小菜。牛腩為高飽和脂肪部位。咖喱通常加了椰漿/椰奶、鹽、咖喱磚等高飽和脂肪/高鈉調味料調製。熱量和鈉質含量超高，宜少進食。</t>
-  </si>
-  <si>
-    <t>傳統焗豬扒飯一份約1200-1300kcal，高脂肪源自於炒飯底、油分和半肥瘦豬扒和芝士，高鈉質源自於烹調時所用的茄膏、鹽等調味料。建議自己烹調時可選用低脂芝士、瘦豬肉和鮮茄代替，減低脂肪和鈉含量。</t>
-  </si>
-  <si>
-    <t>火腩為豬皮和肥膏，枝竹則是炸腐皮，兩者皆是高脂食材。醬料亦由豉油豆粉糖所混合出，鈉含量比較高。建議減少進食。</t>
-  </si>
-  <si>
-    <t>半肥瘦/肥叉燒飽和脂肪偏高。叉燒本身熟加工食物，連同蜜汁會提高飯的鈉質含量。想吃得健康點建議點選瘦叉燒和走汁/汁另上但不要沾太多。</t>
-  </si>
-  <si>
-    <t>福建炒飯由飯、冬菇、瑤柱、蝦肉、菜粒等材料炒成。在茶餐廳或酒樓點的福建炒飯通常用幾茶匙植物油炒，亦選用高立調味料如雞粉、蠔油、老抽、生抽、或鹽調味，增加整碟炒飯的鈉含量。雖則比起焗豬扒飯、枝竹火腩飯等碟頭飯較為健康，但依然建議吃時注意份量。</t>
-  </si>
-  <si>
-    <t>一般餐廳會選用肥豬肉來製成肉醬。醬汁亦加入了大量高鈉調味料如茄膏、芝士，以及大量的油份等製成。吃一整碟焗肉醬意粉所攝取的鈉質超過一日上限。如上吃肉醬意粉，建議注意份量，又可以嘗試選用瘦豬肉碎、天然調味料如新鮮蕃茄、洋蔥以及低脂芝士等自製輕怡肉醬意粉。</t>
-  </si>
-  <si>
-    <t>白汁含忌廉、牛油或全脂奶等高脂食材，令其脂肪和熱量可相比茄汁意粉高。建議吃時可撥走醬汁，又或者如可以的話要求汁另上，盡量少吃/不吃醬汁。</t>
-  </si>
-  <si>
-    <t>乾炒牛河主要材料為河粉、半肥瘦牛肉、油、豉油、芽菜等，屬於高脂肪高鈉質地道小炒。原因在於熱鑊翻炒時河粉會吸掉大部份油份及高鈉調味料。建議選擇湯粉麵如鮮蝦米粉等較為健康。</t>
-  </si>
-  <si>
-    <t>雖然乾燒伊麵有韭黃、菇類等等膳食纖維豐富材料，因伊麵本身為油炸麵餅，再下油和調味料熱鑊炒至更惹味令其脂肪及鈉含量大大提高。建議選擇湯粉麵魚鮮蝦米粉等較為健康，若然想吃乾燒伊麵的話建議注意份量。</t>
-  </si>
-  <si>
-    <t>味菜排骨炒麵屬於高脂肪高鈉質港式小炒。鹹酸菜為醃製食品，鈉含量高。排骨亦屬較肥部位。炒麵時所下的油以及生抽、鹽、糖等調味料大大提高炒麵的脂肪及鈉質含量。建議選擇湯粉麵如蝦米粉等較為健康，若然想吃味菜排骨炒麵的話建議注意份量。</t>
-  </si>
-  <si>
-    <t>豉椒排骨炒麵屬於高脂肪高鈉質港式小炒。豉汁鈉含量高。排骨亦屬較肥部位。炒麵時所下的油以及生抽、鹽、糖等調味料大大提高炒麵的脂肪及鈉質含量。建議選擇湯粉麵如蝦米粉等較為健康，若然想吃味菜排骨炒麵的話建議注意份量。</t>
-  </si>
-  <si>
-    <t>青咖喱醬雖然熱量不高，但餐廳在烹調青咖喱時會加入椰奶、油等高脂肪材料。雞皮亦屬高飽和脂肪部位。建議用青咖喱佐飯時注意份量，吃雞肉時去皮，減低飽和脂肪攝取量。</t>
-  </si>
-  <si>
-    <t>去皮白切雞飯的飽和脂肪較其他燒味飯與叉燒飯、燒鵝飯低，但鈉含量可較其他燒味飯高。建議吃少減少沾薑蓉等調味料，以降低鈉攝取量。</t>
-  </si>
-  <si>
-    <t>燒鵝皮飽和脂肪高。建議去皮去肥食用燒鵝肉。</t>
-  </si>
-  <si>
-    <t>餐廳特製沙嗲醬主要成份包括花生醬、椰奶、薑黃、蒜頭、糖、油等食材，提高其熱量、脂肪和鈉含量。建議食用時少吃醬汁，注意份量。</t>
-  </si>
-  <si>
-    <t>時菜牛肉飯屬於較為健康碟頭飯，對比之下較低熱量和脂肪。不過碟頭飯的份量比較大，吃時注意份量。</t>
-  </si>
-  <si>
-    <t>楊州炒飯屬於高油高鈉炒飯，建議可選擇非炒飯類例如鮮茄牛肉飯、菜粒肉片飯等較為健康。</t>
-  </si>
-  <si>
-    <t>白汁含忌廉、牛油或全脂奶等高脂食材，令其脂肪和熱量相比茄汁高。建議吃時可撥走醬汁，又或者如可以的話要求汁另上，盡量少吃/不吃醬汁。自家製白汁雞絲飯時，建議可用低脂或脫脂奶代替忌廉/牛油/全脂奶，降低碟頭飯飽和脂肪含量。</t>
-  </si>
-  <si>
     <t>健康低脂之選，盡量避開勾芡進食。</t>
   </si>
   <si>
-    <t>鮮茄牛肉飯的牛肉片比牛肉碎低卡，屬於較健康之選。由於醬汁有機會加入較高鈉的調味料例如生抽和茄膏，建議吃時盡量撥開醬汁。</t>
-  </si>
-  <si>
-    <t>雖然海鮮為低脂肪高蛋白質食材，炒烏冬時餐廳所用的油和調味料大大提高炒烏冬的脂肪及鈉質含量。建議選擇湯烏冬/粉面等更低脂更健康，如進食炒烏冬時應注意份量。</t>
-  </si>
-  <si>
-    <t>炒河粉時餐廳所用的油和調味料大大提高炒河粉的脂肪及鈉質含量。建議選擇湯河粉/非油炸粉面等更低脂更健康的選擇，如進食炒河粉時應注意份量。</t>
-  </si>
-  <si>
-    <t>星洲炒米為高脂肪高鈉質港式小炒。高脂材料主要來自油和半肥瘦叉燒、鈉質來自高鈉調味料如咖喱粉、生抽等。建議選擇湯米粉/非油炸粉麵等更低脂更健康的選擇，如進食星洲炒米時應注意份量。</t>
-  </si>
-  <si>
     <t>清湯底的湯飯較其他炒粉麵飯脂肪及鈉質含量較低。建議鴨腿去皮食用。</t>
   </si>
   <si>
     <t>健康較低脂之選</t>
   </si>
   <si>
-    <t>即食麵為油炸麵底，脫水過程更用了棕櫚油，令飽和脂肪增加。吃下一包即食麵連湯的鈉質含量幾乎是全日上限。建議早餐可選擇非油炸湯粉面，例如通心粉、米粉。建議較少吃即食麵。</t>
-  </si>
-  <si>
-    <t>即食麵為油炸麵底，脫水過程更用了棕櫚油，令飽和脂肪增加。吃下一包即食麵連湯的鈉質含量幾乎是全日上限。建議早餐可選擇非油炸湯粉面，例如通心粉、米粉。建議較少吃即食麵。餐肉亦為高鈉加工食物且營養價值偏低，建議避免食用。</t>
-  </si>
-  <si>
-    <t>即食麵為油炸麵底，脫水過程更用了棕櫚油，令飽和脂肪增加。吃下一包即食麵連湯的鈉質含量幾乎是全日上限。建議早餐可選擇非油炸湯粉面，例如通心粉、米粉。建議較少吃即食麵。五香肉丁亦為高油鈉加工食物，建議可選擇其他配菜如雪菜肉絲米。</t>
-  </si>
-  <si>
-    <t>豉油王炒麵通常加了不少高鈉調味料如生抽、老抽等調味。食譜較為簡單，建議可以選擇自己製作或改選非油炸湯粉麵。</t>
-  </si>
-  <si>
-    <t>脆皮燒肉經過油炸，飽和脂肪高。建議選擇低脂點的燒味如去皮切鷄、瘦叉燒等，或將燒肉去皮去肥食用。</t>
-  </si>
-  <si>
-    <t>牛腩脂肪含量較高, 點選時最好選擇較低卡路里的牛肉部位如牛腱、牛筋或牛肚。建議食用時盡量少蘸牛腩汁，減低鈉攝取量。</t>
-  </si>
-  <si>
     <t>健康較低脂之選。但港式湯河粉通常掃了油，建議可選擇湯米粉/通粉/意粉降低脂肪攝取量。</t>
   </si>
   <si>
-    <t>牛筋脂肪含量不高, 也有助補充骨膠原, 點選牛筋粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的牛腩汁和辣油。</t>
-  </si>
-  <si>
-    <t>牛肚脂肪含量不高, 亦有豐富的蛋白質, 點選牛筋粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的牛腩汁和辣油。</t>
-  </si>
-  <si>
-    <t>牛腩脂肪含量較高, 點選牛肉粉麵時,最好選擇較低卡路里的牛腱、牛筋或牛肚和低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的牛腩汁和辣油。</t>
-  </si>
-  <si>
-    <t>牛雜脂肪含量較高, 點選牛肉粉麵時,最好選擇較低卡路里的牛腱、牛筋或牛肚和低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的牛腩汁和辣油。</t>
-  </si>
-  <si>
-    <t>餐廳在炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。</t>
-  </si>
-  <si>
-    <t>牛肉含有豐富蛋白質和鐵質, 但餐廳在炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。</t>
-  </si>
-  <si>
-    <t>雖然雞粒相對低脂並含有蛋白質, 而菠蘿則含有豐富的膳食纖維和維他命C, 但餐廳在炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。</t>
-  </si>
-  <si>
-    <t>鯇魚含有豐富的蛋白質, 但注意鯇魚腩脂肪含量較高, 可選擇吃較低脂的部位如魚尾和魚背, 亦可考慮低脂的魚類如香魚和黃魚。另外, 餐廳淋上的滾油和豉油脂肪和鈉含量高, 建議吩咐餐廳另上醬汁。</t>
-  </si>
-  <si>
-    <t>西炒飯含有加工食品如火腿和香腸, 在烹煮時亦加入大量食油及調味料如味精和鹽, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。</t>
-  </si>
-  <si>
-    <t>豉椒牛肉炒麵在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。</t>
-  </si>
-  <si>
-    <t>豉椒肉片炒麵在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。</t>
-  </si>
-  <si>
-    <t>豉椒魷魚炒麵在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。</t>
-  </si>
-  <si>
-    <t>豉油雞脂肪含量較高, 建議進食前先去皮及吩咐餐廳另上醬汁, 以減少鈉、卡路里和脂肪攝取量。另外, 亦建議多加一碟烚或清炒蔬菜以攝取纖維量。</t>
-  </si>
-  <si>
-    <t>貢丸熱量和鈉含量高, 點選丸類粉麵時, 最好選擇較低卡路里的白魚蛋和低熱量粉麵如米粉、米線或蛋麵, 亦避免選擇麻辣和酸辣湯底。</t>
-  </si>
-  <si>
-    <t>海鮮卡路里低, 亦有豐富的蛋白質, 建議選擇較低脂的海鮮如花甲、蝦和扇貝等; 同時烏冬為低熱量的粉麵, 是健康的選擇。但注意應避免額外加入高脂肪的辣油。</t>
-  </si>
-  <si>
-    <t>雪菜為醃製食物, 鈉含量高, 而鴨肉脂肪含量較高, 應少吃。另外, 點選湯粉麵時,儘量不要喝湯。</t>
-  </si>
-  <si>
-    <t>雪菜為醃製食物, 鈉含量高, 而肉絲多為肥瘦豬肉, 脂肪含量較高, 應少吃。另外, 點選湯粉麵時,儘量不要喝湯。</t>
-  </si>
-  <si>
-    <t>雲吞熱量較低, 點選雲吞湯粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的辣油。</t>
-  </si>
-  <si>
-    <t>魚片熱量較低, 點選丸類粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免選擇麻辣和酸辣湯底。</t>
-  </si>
-  <si>
-    <t>魚皮餃含有大量肥豬肉, 熱量和鈉含量較高, 點選丸類粉麵時,最好選擇較低卡路里的白魚蛋和低熱量粉麵如米粉、米線或蛋麵, 亦避免選擇麻辣和酸辣湯底。</t>
-  </si>
-  <si>
-    <t>魚蛋熱量較低, 點選丸類粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免選擇麻辣和酸辣湯底。</t>
-  </si>
-  <si>
-    <t>雖然茄子含有豐富的膳食纖維和抗氧化物, 屬健康的蔬果, 但餐廳在烹煮時多以油泡茄子, 加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議可吩咐餐廳分開餸及飯上, 或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。</t>
-  </si>
-  <si>
-    <t>鮮茄含有豐富的茄紅素, 牛肉含有豐富蛋白質和鐵質, 是頗健康的配搭, 但餐廳在烹煮和炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高。建議外出進食時可要求少汁/走汁, 並把炒飯轉為白飯。</t>
-  </si>
-  <si>
-    <t>雖然鱆魚高蛋白質和低脂肪, 而雞肉相對低脂並含有蛋白質, 但雞皮高脂, 而且餐廳在炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。</t>
-  </si>
-  <si>
-    <t>餐廳在烹煮和炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯, 少汁/走汁或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。</t>
-  </si>
-  <si>
-    <t>鹹魚為醃製食物, 鈉含量高, 同時雞皮含有高脂肪, 而且餐廳在炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。</t>
-  </si>
-  <si>
-    <t>炒貴刁在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。</t>
-  </si>
-  <si>
-    <t>蝦仁脂肪含量低, 含有豐富蛋白質和礦物質, 但在烹煮滑蛋汁時加入大量食油及調味料如味精、鹽和醬油, 故鈉含量高。建議可吩咐餐廳分開餸及飯上, 並要求少汁/走汁。</t>
-  </si>
-  <si>
-    <t>涼瓜熱量低, 也可幫助降低血糖, 但肉片脂肪含量較高, 亦在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。</t>
-  </si>
-  <si>
-    <t>涼瓜熱量低, 也可幫助降低血糖, 但餐廳選用的牛肉片脂肪含量較高, 亦在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。</t>
-  </si>
-  <si>
-    <t>水餃為加工食物, 在製作過程中加入很多醬油和鹽作調味, 故鈉含量高, 建議多選擇以冬菇等為天然調味料的自家制水餃。點選水餃湯粉麵時, 最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的辣油。</t>
-  </si>
-  <si>
-    <t>蔬菜含有豐富的膳食纖維, 而肉片含有蛋白質, 是頗健康的配搭。但餐廳在烹煮時加入調味料如味精、鹽和醬油, 故鈉含量少高。建議可吩咐餐廳分開餸及飯上, 並要求少汁/走汁。</t>
-  </si>
-  <si>
-    <t>一般餐廳在烹煮的過程中會加入大量食油及調味料, 建議選擇少醬汁, 脂肪和鈉含量較低</t>
-  </si>
-  <si>
-    <t>廈門炒米粉在烹煮的過程中會加入大量的茄汁和醃菜, 可配以蔬菜同吃，讓高纖成分增加飽腹感, 減少進食份量。</t>
-  </si>
-  <si>
-    <t>墨魚丸的鈉含量偏高, 建議選用白魚蛋, 鈉含量較低。</t>
-  </si>
-  <si>
-    <t>墨魚丸的鈉含量偏高質, 建議選用白魚蛋, 鈉含量較低。</t>
-  </si>
-  <si>
-    <t>一般肉餅在製造過程中會加入肥豬肉來提升口感, 建議選擇瘦肉餅, 脂肪含量較低。</t>
-  </si>
-  <si>
-    <t>一般餐廳在烹煮的過程中會加入大量食油及調味料, 建議選擇少醬汁, 脂肪和鈉含量較低。</t>
-  </si>
-  <si>
-    <t>栗子是低脂和低鈉的食品, 可當作減肥小食。</t>
-  </si>
-  <si>
-    <t>一般餐廳會選用半肥瘦或肥叉燒肉來提升口感, 建議選擇瘦叉燒, 脂肪含量較低。</t>
-  </si>
-  <si>
-    <t>八爪魚/墨魚/魷魚丸含豐富蛋白質, 建議選用白魚蛋, 鈉含量較低。</t>
-  </si>
-  <si>
-    <t>鯪魚球在製造過程中有機會加入魚皮和魚腩來提升口感, 建議選擇少醬汁, 鈉含量較低</t>
-  </si>
-  <si>
-    <t>鯪魚罐頭通常經過醃製和油炸，建議選擇急凍鮪魚, 脂肪和鈉含量較低。</t>
-  </si>
-  <si>
-    <t>海參是低脂和低鈉的食品, 可當作減肥食品。</t>
-  </si>
-  <si>
-    <t>小紅腸是加工食物, 通常經過醃製, 建議減少進食, 減少鈉和脂肪攝取。</t>
-  </si>
-  <si>
-    <t>臘腸是加工食物, 通常經過醃製, 建議減少進食, 減少鈉和脂肪攝取。</t>
-  </si>
-  <si>
-    <t>臘肉(生) 是加工食物, 通常經過醃製, 建議減少進食, 減少鈉和脂肪攝取。</t>
-  </si>
-  <si>
-    <t>一般鮮蝦雲吞在製造過程中會加入半肥瘦豬肉來提升口感, 建議選擇低脂餃子, 脂肪含量較低。</t>
-  </si>
-  <si>
-    <t>一般菜肉雲吞在製造過程中會加入半肥瘦豬肉來提升口感, 建議選擇低脂餃子, 脂肪含量較低。</t>
-  </si>
-  <si>
-    <t>一般叉燒包在製造過程中會加入豬油來提升口感, 脂肪較高, 建議適量進食。</t>
-  </si>
-  <si>
-    <t>奶黃包以雞蛋黃為核心材料，而蓮蓉包以壓碎的蓮子加入豬油製成, 建議選擇香芋包, 脂肪含量較低。</t>
-  </si>
-  <si>
-    <t>蝦餃和潮州粉果在製作時或會加入油來搓皮, 燒賣或會加入肥豬肉來提升口感, 建議適量進食, 避免攝取過量脂肪。</t>
-  </si>
-  <si>
-    <t>一般魚肉燒賣在製造過程中會加入肥豬肉來提升口感, 建議選擇雞肉燒賣, 脂肪含量較低。</t>
-  </si>
-  <si>
-    <t>鮮蝦腸粉含有低脂肪, 建議與醬油分開點, 減少鈉含量攝取</t>
-  </si>
-  <si>
-    <t>春卷/咸水角通常經過油炸, 建議選擇蒸點心, 脂肪含量較低。例如: 素粉果、菜苗餃等等。</t>
-  </si>
-  <si>
-    <t>豬腸粉含有低脂肪, 建議與醬油分開點, 減少鈉含量攝取。</t>
-  </si>
-  <si>
-    <t>蘿蔔糕在製造過程中會加入食品如臘肉臘腸, 自家製時建議使用瘦肉和蝦米, 脂肪和鈉含量較低。</t>
-  </si>
-  <si>
-    <t>芋頭糕在製造過程中會加入食品如臘肉臘腸, 自家製時建議使用瘦肉和蝦米, 脂肪含量較低。</t>
-  </si>
-  <si>
-    <t>鳳爪是高脂肪食物, 建議選擇健康一點的北菇滑雞, 脂肪和鈉含量較低。</t>
-  </si>
-  <si>
-    <t>糯米雞的鈉和脂肪偏高, 進食時可以選擇與人分享, 避免過量攝取。</t>
-  </si>
-  <si>
-    <t>一般山竹牛肉在製造過程中會加入肥豬肉和麻油等來提升口感, 建議選擇較低脂肪的點心。例如: 蝦腸粉, 雞包等等。</t>
-  </si>
-  <si>
-    <t>天然的紫菜含有鹽, 一般紫菜在製造過程中會或會再加入鹽來提升口感, 建議適量進食, 避免攝取過量鈉。</t>
-  </si>
-  <si>
-    <t>牛什包含牛的內臟脂肪, 建議適量進食, 避免攝取過量脂肪。</t>
-  </si>
-  <si>
-    <t>松花蛋(鴨蛋, 皮蛋)是加工食物, 通常經過醃製, 鈉和脂肪含量偏高, 建議適量進食。</t>
-  </si>
-  <si>
-    <t>鹹鴨蛋是醃製食物, 建議選擇普通的雞蛋, 鈉和脂肪含量較低。</t>
-  </si>
-  <si>
-    <t>很多素食餐廳會在烹煮素雞的過程中加入大量油分和醬汁, 自家煮時可使用低脂烹調方法如蒸、灼、快炒等, 脂肪含量較低。</t>
-  </si>
-  <si>
-    <t>一般麵筋在製造過程中會加入鹽來提升麵團的延展性, 建議下鍋前先用冷水泡軟麵筋，再用流水沖洗表面的鹽分, 減少鈉攝取。</t>
-  </si>
-  <si>
-    <t>酸菜/雪菜/梅菜是低脂和低鈉的食品, 可配搭瘦肉絲和米粉, 作為低脂早餐。</t>
-  </si>
-  <si>
-    <t>連皮的乳鴿肉飽和脂肪高, 建議去皮進食, 減少脂肪攝取。</t>
-  </si>
-  <si>
-    <t>白木耳/雲耳/雪耳是低脂和低鈉的食品, 也含有高纖維, 可用作減脂的食品。</t>
-  </si>
-  <si>
-    <t>一般海蜇皮在製造過程中會加入麻油來提升口感, 建議選擇少醬汁, 鈉含量較低。</t>
-  </si>
-  <si>
-    <t>鵪鶉蛋的蛋白質和雞蛋相若, 建議適量攝取, 避免攝取過量膽固醇。</t>
-  </si>
-  <si>
-    <t>沙甸魚屬於油脂魚, 含有豐富的奧米加三, 建議每星期進食兩次油脂性魚類, 降低心血管疾病風險。</t>
-  </si>
-  <si>
-    <t>油浸吞拿魚的脂肪成分較高, 可用來即食, 建議進食時隔走多餘油分, 減少脂肪攝取。</t>
-  </si>
-  <si>
-    <t>水浸吞拿魚的脂肪成分較油浸的低, 可用來製作菜式, 建議以用途而去選擇水浸還是油浸。</t>
-  </si>
-  <si>
-    <t>午餐肉是加工食物, 通常經過醃製, 建議選擇減鹽跟減脂的午餐肉, 鈉和脂肪含量較低。</t>
-  </si>
-  <si>
-    <t>罐頭湯相對高鈉, 建議適量進食, 或可自家用粟米烹煮湯, 減少鈉攝取。</t>
-  </si>
-  <si>
-    <t>腐竹的脂肪來自黃豆中的大豆油, 所以脂肪含量高, 建議減少進食, 減少脂肪攝取。</t>
-  </si>
-  <si>
-    <t>豆腐皮是煮沸豆漿表面凝固的薄膜, 建議用較低脂的烹煮方法, 例如、灼、快炒等。</t>
-  </si>
-  <si>
-    <t>油豆腐是油炸的黃豆製品, 脂肪含量偏高, 建議用較低脂的烹煮方法, 例如、灼、快炒等。</t>
-  </si>
-  <si>
-    <t>甜年糕是低脂和低鈉的食品，建議適量進食，以免攝取過多糖分。</t>
-  </si>
-  <si>
-    <t>一般雙黃白蓮蓉月餅在製造過程中會加入花生油，糖漿等來提升口感, 建議適量進食, 脂肪和糖含量較低。</t>
-  </si>
-  <si>
-    <t>餅皮製作過程使用大量油，果仁內餡亦經過炒焗。另外，部份五仁月餅內含金華火腿，令熱量大增，建議盡量少吃</t>
-  </si>
-  <si>
-    <t>冰皮月餅外皮熱量雖較傳統月餅低，但常見餡料如綠豆蓉、紅豆蓉等仍添加了不少糖分，因此卡路里相對較高，建議少吃和選擇較低糖的冰皮月餅。</t>
-  </si>
-  <si>
-    <t>傳統鹹肉粽內含五花腩，咸蛋等高膽固醇食物，建議少吃。另外，食用時避免搭配豉油或砂糖，以減少鈉和糖的攝取。</t>
-  </si>
-  <si>
-    <t>飲品內原含有糖分，避免再額外加入砂糖。</t>
-  </si>
-  <si>
-    <t>避免再額外加入砂糖，以減少糖的攝取。</t>
-  </si>
-  <si>
-    <t>可樂含有大量糖分，長期飲用可導致肥胖，可選擇無糖可樂作取替；但無糖可樂內仍含有代糖，建議少飲。</t>
-  </si>
-  <si>
-    <t>益力多內含有大量糖分，建議少喝或選擇低糖版本。</t>
-  </si>
-  <si>
-    <t>低糖益力多內仍含有不少糖分，建議少喝。</t>
-  </si>
-  <si>
-    <t>維他奶內含有大量糖分，建議少喝或選擇低糖版本。</t>
-  </si>
-  <si>
-    <t>低糖維他奶內仍含有不少糖分，建議少喝。</t>
-  </si>
-  <si>
-    <t>由於一杯橙汁需由多個橙榨製而成，因此糖分較高，膳食纖維亦較食用原個橙少。為提高營養價值，建議原個橙食用。</t>
-  </si>
-  <si>
-    <t>罐裝橙汁內添加了大量糖分和添加劑，建議飲用鮮榨橙汁。</t>
-  </si>
-  <si>
-    <t>產品內加入了不少糖分，建議飲用無糖豆奶。</t>
-  </si>
-  <si>
     <t>豆奶能提供蛋白質，有助身體攝取足夠營養。</t>
   </si>
   <si>
-    <t>這些飲品內都含有大量糖分，建議少喝或選擇低糖版本。</t>
-  </si>
-  <si>
-    <t>茶內含有咖啡因，建議適量飲用。</t>
-  </si>
-  <si>
-    <t>港式奶茶內加入了糖和奶，攝取過多可能引致糖尿病或肥胖，建議適量飲用</t>
-  </si>
-  <si>
-    <t>港式咖啡內加入了淡奶，脂肪含量較高，飲用時避免再加入砂糖，以減少糖分的攝取。</t>
-  </si>
-  <si>
-    <t>長期和大量飲酒會損害身體，請適量飲用。</t>
-  </si>
-  <si>
-    <t>高鈣低脂奶粉脂肪量比全脂奶粉低，另外亦含有大量鈣質，能為我們補充營養。</t>
-  </si>
-  <si>
-    <t>高鈣低脂奶脂肪量比全脂奶粉低，另外亦含有大量鈣質，能為我們補充營養。</t>
-  </si>
-  <si>
-    <t>全脂奶脂肪含量較高，飲用過多會引致高膽固醇，建議適量飲用或選擇低脂或脫脂奶。</t>
-  </si>
-  <si>
-    <t>高鈣有助補充鈣質，脫脂可減少脂肪的吸引。</t>
-  </si>
-  <si>
-    <t>製作奶昔時或會加入不同水果和糖漿，糖分相對較高，建議控制水果份量和盡量避免使用糖漿，另外可選用低脂或脫脂奶以減少攝取過多脂肪。</t>
-  </si>
-  <si>
-    <t>檸檬含有豐富的維他命C，梳打水比普通水含有較高的鈉質，建議適量飲用，攝取過多或會引起身體不適和損害牙齒</t>
-  </si>
-  <si>
-    <t>紅豆冰內加入大量糖漿和淡奶，紅豆於製作過程中或會再加入糖，使飲品糖分大增。如自家製建議減少糖和選用低脂奶代替淡奶。</t>
-  </si>
-  <si>
-    <t>鴛鴦內加入了淡奶，脂肪含量較高，飲用時避免再加入砂糖，以減少糖分的攝取。</t>
-  </si>
-  <si>
-    <t>雖然檸檬含有豐富維他命C，但蜜糖內含有大量糖分，建議只加入少量蜜糖或以檸檬水取替。</t>
-  </si>
-  <si>
-    <t>白粥含有豐富的碳水化合物，但如過量食用會引致血糖上升，建議適量食用。</t>
-  </si>
-  <si>
-    <t>通心粉含有豐富的碳水化合物，但如過量食用會引致血糖上升，建議適量食用。</t>
-  </si>
-  <si>
-    <t>麥皮含有豐富的纖維，可降膽固醇，但如過量食用會影響血糖。另外，即食麥皮經過大量加工，為精緻澱粉，建議選擇原片燕麥。</t>
-  </si>
-  <si>
-    <t>食用太多會影響血糖，請適量食用。如搭配牛奶、豆漿等食用時，可選擇低脂版本，以降低熱量，另外避免再加入蜜糖等作搭配。</t>
-  </si>
-  <si>
-    <t>有糖玉米片含有較高糖分，建議選擇無糖版本。另外，搭配牛奶、豆漿等食用時，建議選擇低脂版本，另外避免再加入蜜糖等作搭配。</t>
-  </si>
-  <si>
-    <t>饅頭為精緻澱粉，屬升糖指數高的食物，另外製作時可能加入了不少糖，建議適量食用。</t>
-  </si>
-  <si>
-    <t>公仔麵製作過程或經油炸，含有飽和脂肪，所提供的醬料、湯包等含有大量鈉質，攝取過多會導致心血管疾病及影響腎臟功能。建議選取非油炸即食麵，只落少量湯粉作調味以及不要飲用湯水。</t>
-  </si>
-  <si>
-    <t>薯餅製造時經過油炸，含有大量油脂，盡量避免食用。</t>
-  </si>
-  <si>
-    <t>熱香餅為精緻澱粉，屬升糖指數高的食物，食用時如再加上糖漿、果醬等，使熱量大增，建議少吃。</t>
-  </si>
-  <si>
     <t>魚含有豐富的蛋白質和奧米加3脂肪酸，營養價值高，能為我們補充營養。</t>
   </si>
   <si>
-    <t>蟹柳為加工食品，製作過程中加入色素和添加劑，建議少量食用。</t>
-  </si>
-  <si>
-    <t>煙肉為醃製食品，屬第一類最高風險致癌物，烹調煙肉過程中亦會加入不少油煎煮，油脂量高，盡量避免食用。</t>
-  </si>
-  <si>
-    <t>製作奄列時，避免使用牛油，盡量少油，或以原隻烚蛋作取替，以減少油脂的攝取。</t>
-  </si>
-  <si>
-    <t>套餐內的薯餅、炒蛋和鬆餅製作時都加入大量油，盡量避免食用。薯餅和炒蛋可以蒸番薯和烚蛋作取替。</t>
-  </si>
-  <si>
-    <t>叉燒的鈉含量較高，油脂多，餐包內或選用較肥的叉燒，建議選擇其他麵包，例如餐包。</t>
-  </si>
-  <si>
-    <t>及第粥內含有不少內臟，膽固醇和鈉含量較高，建議選擇其他粥，例如瘦肉粥等。</t>
-  </si>
-  <si>
-    <t>柴魚花生粥鈉含量較低，較皮蛋瘦肉粥、及第粥等健康。</t>
-  </si>
-  <si>
-    <t>皮蛋的鈉較高，建議選擇瘦肉粥。</t>
-  </si>
-  <si>
-    <t>油器製作過程中經過油炸，含有大量油脂，盡量避免食用。</t>
-  </si>
-  <si>
-    <t>餐廳炒蛋時或加入食油、牛奶及忌廉，脂肪含量較高，而火腿為加工醃製食品，鈉含量高，應少吃。建議點選三文治時可選擇雞胸肉、青瓜和番茄等健康餡料。</t>
-  </si>
-  <si>
-    <t>火腿為加工醃製食品，鈉含量高，應少吃。建議可選擇番茄牛肉通粉，因爲鮮茄含有豐富的茄紅素，牛肉含有豐富蛋白質和鐵質, 是頗健康的配搭。</t>
-  </si>
-  <si>
-    <t>餐廳在炒米粉時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。</t>
-  </si>
-  <si>
-    <t>炸兩在油炸時加入大量食油，脂肪含量較高，而醬油、麻醬和甜醬脂肪和鈉含量高, 應少吃。建議改吃蒸腸粉，並應避免使用醬汁。</t>
-  </si>
-  <si>
-    <t>麥皮低脂低膽固醇，膳食纖維較高，而牛奶含有豐富的蛋白質和鈣質，是健康的早餐選擇。</t>
-  </si>
-  <si>
-    <t>腸粉由米漿製成，故脂肪含量不高，但注意加入牛肉和配上醬油後，脂肪和鈉含量會提高。建議進食牛肉腸粉時只吃適量，並應避免使用醬汁。</t>
-  </si>
-  <si>
-    <t>餐廳炒蛋和時或加入食油、牛奶及忌廉，而炒牛肉時亦加入不少調味料，故脂肪和鈉含量較高，應少吃。建議點選三文治時可選擇雞胸肉、青瓜和番茄等健康餡料。</t>
-  </si>
-  <si>
-    <t>鮮茄含有豐富的茄紅素，但餐廳炒蛋時或加入食油、牛奶及忌廉，脂肪含量較高。建議點選三文治時可選擇雞胸肉和青瓜等健康餡料。</t>
-  </si>
-  <si>
-    <t>艇仔粥有炸花生、油炸鬼、肥豬肉和豬皮等材料，故脂肪含量較高。建議可選擇其他低熱量的粥品，如鮮魚片粥。</t>
-  </si>
-  <si>
-    <t>火腿和餐廳使用的芝士片為加工醃製食品，鈉含量很高，應少吃。建議點選三文治時可選擇雞胸肉、青瓜和番茄等健康餡料。</t>
-  </si>
-  <si>
-    <t>米粉是低熱量粉麵，但注意雪菜為醃製食物，鈉含量高。建議儘量不要喝湯。</t>
-  </si>
-  <si>
-    <t>鹹牛肉是加工食品，鈉和脂肪含量高，應少吃。建議點選三文治時可選擇雞胸肉、青瓜和番茄等健康餡料。</t>
-  </si>
-  <si>
-    <t>豬柳蛋漢堡中的豬柳漢堡扒是加工食品，鈉和脂肪含量高，應少吃。</t>
-  </si>
-  <si>
-    <t>牛肉乾為加工肉製品，多使用肥肉或帶油的肉來製作，鈉和脂肪含量高，應少吃。</t>
-  </si>
-  <si>
-    <t>豬肉乾為加工肉製品，醃製時加入大量鹽和調味料，鈉含量非常高，應少吃。</t>
-  </si>
-  <si>
-    <t>牛肉鬆為加工製品，醃製時加入大量鹽和調味料，鈉含量非常高，應少吃。</t>
-  </si>
-  <si>
-    <t>豬肉鬆在製作時加入大量的油和醬油，鈉和脂肪含量高，應少吃。</t>
-  </si>
-  <si>
-    <t>魷魚乾為加工製品，醃製時加入鹽和調味料，鈉含量高，應少吃。</t>
-  </si>
-  <si>
-    <t>薯片為油炸食品，脂肪含量非常高，同時亦加入不少鹽和香料，故鈉含量高，應少吃。</t>
-  </si>
-  <si>
-    <t>威化餅的脂肪含量和鈉含量會因品牌而異，若每日食用過多鈉含量高的食物，亦從其他食物攝取鈉，便有機會攝取過量鈉，增加患上高血壓的風險。建議適量食用。</t>
-  </si>
-  <si>
-    <t>朱古力曲奇餅製作時加入大量牛油，脂肪含量非常高，應少吃。建議可以燕麥餅乾取代。</t>
-  </si>
-  <si>
-    <t>蘇打餅鈉含量十分高，若每日食用過多鈉含量高的食物，亦從其他食物攝取鈉，便有機會攝取過量鈉，增加患上高血壓的風險。建議適量食用。</t>
-  </si>
-  <si>
-    <t>清蛋糕製作時加入不少糖和牛油，脂肪含量頗高，建議適量食用。</t>
-  </si>
-  <si>
-    <t>牛奶朱古力製作時加入可可脂或植物油，脂肪含量非常高，亦加入了不少乳糖和添加糖，令糖含量較高，應少吃。</t>
-  </si>
-  <si>
-    <t>杏仁牛奶朱古力製作時加入可可脂或植物油，再加上杏仁，脂肪含量非常高，亦加入了不少乳糖和添加糖，令糖含量較高，應少吃。</t>
-  </si>
-  <si>
-    <t>水果糖含有大量糖分，亦包含其他添加物，長期食用高卡路里食品可能導致體重增加和其他健康問題，建議少吃為妙。</t>
-  </si>
-  <si>
-    <t>梅干是低脂低鈉之選, 同時含有豐富食用纖維有助腸道蠕動。雖然梅干沒有額外添加糖份, 但西梅原本是含有果糖的。建議每天食用上限為六至八粒。</t>
-  </si>
-  <si>
-    <t>提子干含豐富食用纖維、鐵質和抗氧化物, 有助維持腸道健康, 補鐵和預防疾病。建議每天吃最多20粒避免攝取過量的糖份。</t>
-  </si>
-  <si>
-    <t>腰果有豐富的不飽和脂肪酸, 可以預防心血管疾病。不過堅果類的脂肪高, 進食過量可致肥。建議選擇無鹽及非油炸/油烤的腰果作小食, 並每天攝取量最多五粒。</t>
-  </si>
-  <si>
-    <t>花生含不飽和脂肪酸, 適量進食有利於心血管健康。不過花生脂肪含量高, 建議每天攝取少於十粒, 並選擇無鹽及非油炸/油烤的堅果作小食, 避免攝取過多鈉和脂肪。</t>
-  </si>
-  <si>
-    <t>乳酪不僅有豐富的蛋白質、鈣質和其他營養素，還含有維持腸道健康的益生菌。由於全脂乳酪是由全脂牛奶製成, 所以其飽和脂肪含量比低脂和脫脂乳酪高, 多吃能致肥。因此, 選擇低脂或脫脂乳酪較為理想 。</t>
-  </si>
-  <si>
-    <t>乳酪不僅有豐富的蛋白質、鈣質和其他營養素，還含有維持腸道健康的益生菌。低脂乳酪的脂肪含量比全脂乳酪低, 所以是個更健康的選擇。若覺得吃原味乳酪的味道太單寡，也可搭配新鮮水果食用，有營又美味。</t>
-  </si>
-  <si>
-    <t>芝士味夾心餅的脂肪和鈉含量甚高, 多吃易致肥, 並損害心血管健康。因此, 應減少進食這類零食。</t>
-  </si>
-  <si>
-    <t>消化餅的製作過程加入大量油和糖, 導致餅乾既高糖又高脂。消化餅不僅營養含量低, 持續進食還可致肥。 因此, 建議少吃為妙。</t>
-  </si>
-  <si>
-    <t>芝士餅的製作過程加入了大量油和調味料, 導致餅乾既高脂又高鈉。長期食用可致肥, 及增加患上心血管疾病的風險。 因此, 建議少吃為妙。</t>
-  </si>
-  <si>
-    <t>豬皮本身脂肪含量高, 多吃容易致肥。其中脆豬皮小食的飽和脂肪和鈉含量甚高, 不利於心血管健康。為健康著想, 應減少進食由動物皮所製成的小吃。</t>
-  </si>
-  <si>
-    <t>雖然龍蝦片屬低糖低脂食物, 它的製作過程卻加了很多調味料導致鈉含量甚高。攝取過量鈉會增加患上心血管疾病的風險。 因此, 建議少吃為妙。</t>
-  </si>
-  <si>
-    <t>由於粟米脆片通常是經油炸和加入大量調味料而製成的, 所以它屬於高脂高鈉食物。過量攝取鈉和脂肪有損心血管健康, 因此應少吃為妙。</t>
-  </si>
-  <si>
-    <t>魚蛋本身熱量比起其他街頭小食低, 是相對健康的選擇。但是魚蛋加入咖哩汁一同食用時, 鈉含量就會超標。過多攝取鈉質可能會對健康造成不良影響,如高血壓等。因此, 建議食用時蘸小量醬汁或要求少汁, 走汁當然更理想。</t>
-  </si>
-  <si>
-    <t>陳皮梅加入了大量糖和鹽醃製, 導致糖和鈉含量甚高。攝取過多糖份和鈉質可致肥, 及損害心血管健康。因此, 建議少吃為妙。</t>
-  </si>
-  <si>
-    <t>西多士經油炸後通常配上牛油和糖漿一同食用, 因此脂肪, 糖和鈉含量比較高。攝取過多脂肪, 糖和鈉質有機會致肥, 及損害心血管健康。因此, 建議少吃為妙, 或食用時與他人分享從而減低攝取的份量。</t>
-  </si>
-  <si>
-    <t>經醃製和油炸的雞髀鈉和脂肪含量大幅提升, 多吃容易致肥和增加患上心血管疾病的風險。建議食用時去皮, 亦可選擇烤雞髀同時去皮進食以減少脂肪攝取。</t>
-  </si>
-  <si>
-    <t>白麵包熱量本身不太高, 但麵包被塗上牛油和花生醬後不僅卡路裡會變高, 還有脂肪和鈉含量也同時上升。攝取過多脂肪和鈉質有機會致肥, 及損害心血管健康。因此, 建議選擇天然堅果醬、低脂芝士、牛油果、烚蛋及蔬菜等較健康的食材配搭吐司。</t>
-  </si>
-  <si>
-    <t>蛋撻是高熱量食物, 多吃容易致肥。不論是酥皮或曲奇皮都會在製作過程加入大量牛油和豬油, 大大提升蛋撻中飽和脂肪的含量, 對心血管健康不利。蛋漿的製作過程亦加入大量砂糖, 令蛋撻中的糖分過高。蛋撻應該作為偶爾的點心食用,每次最多吃一件。</t>
-  </si>
-  <si>
-    <t>公司治通常使用煙肉和蛋黃醬等高脂肪材料。高熱量和高脂肪含量背後的罪魁禍首是高脂肪的沙拉醬和奶油。要製作更健康的三明治,可以使用全麥麵包、瘦肉如, 雞肉或鹽水浸吞拿魚,並將沙拉醬限制在 1 湯匙或更少, 配搭新鮮蔬菜更理想。</t>
-  </si>
-  <si>
-    <t>炸雞翼含有相當高的熱量、脂肪和鈉質, 多吃容易致肥和損害心血管健康。建議減少食用油炸食物。由於雞皮的脂肪量甚高, 建議避免食用雞翼, 及選擇雞胸和雞腿肉並去皮食用。</t>
-  </si>
-  <si>
-    <t>白麵包配上煉奶和牛油, 大大增加麵包的脂肪和糖含量, 多吃容易致肥。建議少吃為妙。</t>
-  </si>
-  <si>
-    <t>白麵包配上果醬和花生醬, 大大增加麵包的脂肪和糖含量, 多吃容易致肥。建議減少塗抹醬汁, 以減低糖和脂肪攝取量。</t>
-  </si>
-  <si>
-    <t>熱狗腸屬於超加工食品, 並含有過高的鈉質, 常食用有機會增加患上高血壓風險。熱狗麵包是由精製麵粉製成的產品, 營養含量低。建議小食為妙。</t>
-  </si>
-  <si>
-    <t>薯條經油炸和調味後, 脂肪和鈉含量大大提升, 多吃容易致肥和增加患上高血壓的風險,建議少吃為妙。</t>
-  </si>
-  <si>
-    <t>菠蘿油的熱量、糖分和脂肪含量很高。菠蘿包的黃金脆皮是由豬油加上砂糖製成, 最加上一塊厚牛油, 絕對是邪惡之選。多吃容易致肥, 損害心血管健康。建議偶爾食用一次, 少吃為妙。</t>
-  </si>
-  <si>
-    <t>白方包是由精製麵粉製成的產品。在小麥加工成麵粉的過程中, 營養豐富的麥胚和麩皮會被去除。這導致白方包中的纖維、維生素和礦物質含量大幅降低。建議食用能更好地保留小麥的營養成分的全麥麵包。</t>
-  </si>
-  <si>
-    <t>麥方包比起用精製麵粉製作的白方包含更豐富的營養, 因為全麥粉保留了小麥的麩皮和麥胚。因此, 麥方包的纖維、維生素和礦物質含量比白方包更高。</t>
-  </si>
-  <si>
-    <t>酵母麵包採用天然酵母和乳酸菌發酵製成，期間會產生大量益生菌，有利腸道健康， 而且，酵母麵包屬於低升糖指數食物，因此特別適合減重或需控制血糖的人士食用。</t>
-  </si>
-  <si>
-    <t>牛角包的製作過程包含大量牛油或奶油等高脂肪成分，而且含有甜口味的精緻糖，因此其熱量偏高。建議食用麥方包、燕麥餐包及鹹麵包等較低脂的選擇。</t>
-  </si>
-  <si>
-    <t>餐包的脂肪和鈉含量偏高，多吃容易致肥，並損害心血管健康。因此，應減注意進食份量。</t>
-  </si>
-  <si>
-    <t>腸仔屬於加工製肉類的一種，常食用有機會增加患上高血壓風險。而且，腸仔包屬於高脂肪高鹽分的食物。建議每周只吃一次，避免吸收過多鈉及致癌物。</t>
-  </si>
-  <si>
-    <t>瑞士卷內含大量牛油及忌廉，屬於高糖高脂肪的食物。如果过量攝入,容易導致體重增加、血糖升高、心血管疾病等健康問題，因此建議少吃，或者選擇水果餡料的蛋糕捲來代替奶油餡料。</t>
-  </si>
-  <si>
-    <t>菠蘿包通常含有大量白砂糖或糖漿，長期攝入過多糖分可能會導致高血糖及肥胖等問題。另外，菠蘿包含有牛油或人造奶油等高脂肪成分，攝入過量亦可能會增加心血管疾病風險。建議少吃，尤其避免食用港式菠蘿油。</t>
-  </si>
-  <si>
-    <t>洋蔥豬扒包的脂肪含量及鹽分偏高，建議適量進食及注意份量，避免攝取過多脂肪、鹽份及熱量，可以搭配蔬菜一起食用。</t>
-  </si>
-  <si>
-    <t>吞拿魚包的餡料通常經過油浸泡及調味，有時亦會加入蛋黃醬，因此其脂肪含量、鹽份及糖分偏高。建議適量食用。</t>
-  </si>
-  <si>
-    <t>提子包中的葡萄乾或果醬等甜味成分可能導致整體糖分含量較高，而攝取過多糖分可能會導致體重增加和血糖失衡等健康問題，建議適量食用。</t>
-  </si>
-  <si>
-    <t>豆腐花是一種高蛋白質、低脂肪的健康甜品，但進食時應注意揀配料配搭，如添加過多的糖份或高脂肪配料，就有機會攝取額外的熱量及糖分。</t>
-  </si>
-  <si>
-    <t>新鮮芒果的營養價值高，富含維生素C及膳食纖維等營養素。但市面上的芒果布丁在製作時可能會添加大量糖或糖漿，令整體糖分高，對健康不利。建議適量使用天然甜味劑及避免加入煉乳等醬料。</t>
-  </si>
-  <si>
-    <t>蛋撻的酥皮含大量反式脂肪食物，會增加身體壞膽固醇，並減低好膽固醇，增加中風和患心臟病的機會。而且，蛋撻含有大量精緻糖，容易造成血糖波動、快速上升。因此，建議少吃。</t>
-  </si>
-  <si>
-    <t>避免加上果醬、冰淇淋等許多配料，令攝取的含糖量跟澱粉量增加。</t>
-  </si>
-  <si>
-    <t>香草味雪糕含有全脂奶、糖、忌廉等材料，會增加雪糕的卡路里和飽和脂肪，多吃容易致肥。儘量選擇使用天然香料的雪糕，以及控制食用量，亦可搭配水果。</t>
-  </si>
-  <si>
-    <t>乳酪雪糕通常使用較多全脂牛奶或奶油作為主要成分,脂肪含量較高。如果添加大量糖或糖漿,也會增加整體糖分和卡路里含量。</t>
-  </si>
-  <si>
-    <t>雪糕桶含有全脂奶、糖、忌廉等材料，會增加卡路里和飽和脂肪，多吃容易致肥。儘量選擇使用天然香料的雪糕，以及控制食用量，亦可搭配水果。</t>
-  </si>
-  <si>
-    <t>雪糕棒含有全脂奶、糖、忌廉等材料，會增加卡路里和飽和脂肪，多吃容易致肥。儘量選擇使用天然香料的雪糕，以及控制食用量，亦可搭配水果。</t>
-  </si>
-  <si>
-    <t>市面上的蘋果派一般脂肪及糖分偏高，建議選擇新鮮的蘋果和全谷物麵粉等天然原料製成的蘋果派，避免食用人工添加劑和精製糖。</t>
-  </si>
-  <si>
-    <t>水果沙律屬於健康的甜品選擇，但是要注意避免使用罐頭水果導致食用過多糖份，以及儘量選擇新鮮水果。</t>
-  </si>
-  <si>
-    <t>楊枝甘露含有芒果塊、椰奶、牛奶、果汁和西米露等材料，屬於糖分偏高的甜品。建議少吃及注意份量。</t>
-  </si>
-  <si>
-    <t>燉奶中可能含有一定量的糖分，避免再額外添加糖漿或蜂蜜進食。需要控制攝取量，以免增加卡路里攝入。</t>
-  </si>
-  <si>
-    <t>燉蛋中可能含有一定量的糖分，避免再額外添加糖漿或蜂蜜進食。需要控制攝取量，以免增加卡路里攝入。</t>
-  </si>
-  <si>
-    <t>植物油中的脂肪酸分子結構在氫化過程中會變成反式脂肪，會增加低密度脂蛋白膽固醇，增加患上心血管病的風險。</t>
-  </si>
-  <si>
-    <t>豬油的飽和脂肪比例較高，長期食用會有機會增加壞膽固醇的濃度，增加患上心腦血管疾病的風險。</t>
-  </si>
-  <si>
-    <t>牛油含有的飽和脂肪酸和膽固醇含量較高，而且含鈉量高，有機會增加患心血管疾病的風險，建議適量進食。</t>
-  </si>
-  <si>
-    <t>植物牛油雖然通常不含有動物的飽和脂肪和膽固醇，但植物油脂也含有一定量的飽和脂肪，而且含鈉量高。要注意份量。</t>
-  </si>
-  <si>
-    <t>醬油的含鈉量非常高，建議選擇低鈉醬油或無鈉醬油來替代。</t>
-  </si>
-  <si>
-    <t>蛋黃醬主要由植物油和蛋黃組成，屬於高脂肪、高膽固醇的食品，建議適量進食。</t>
-  </si>
-  <si>
-    <t>果醬含有大量糖分，量攝取可能導致熱量過高、高血糖等問題。建議選擇無糖或低糖的果醬。</t>
-  </si>
-  <si>
-    <t>花生醬的主要成分是花生，含有大量的植物性脂肪，而且在製作過程中可能加入白糖或糖漿以增加甜味，增加卡路里攝取。建議適量食用。</t>
-  </si>
-  <si>
-    <t>糖漿的含糖量高，容易引起血糖快速上升。可以選擇楓糖漿、蜂蜜等升糖指數較低的糖漿。</t>
-  </si>
-  <si>
-    <t>相對其他糖，蜂蜜的升糖指數較低，對血糖波動的影響較小，適合糖尿病患者適度食用。</t>
-  </si>
-  <si>
-    <t>煉奶含有大量添加劑，例如乳化劑、防腐劑、色素、抗氧化劑等，而且糖分很高，容易造成肥胖、代謝症候群、糖尿病等問題，建議適量食用。</t>
-  </si>
-  <si>
-    <t>淡奶是不加糖的煉乳，但同時亦含有大量添加劑，例如乳化劑、防腐劑、色素、抗氧化劑等，建議適量食用。</t>
-  </si>
-  <si>
-    <t>凱薩沙律醬的基底是蛋黃醬，加入芝士、蒜末、蛋黃等，其含鈉量十分高。因此，建議進食沙律是避免加入凱薩沙律醬，可以選用沙律醋等較低脂低鈉的醬汁。</t>
-  </si>
-  <si>
-    <t>橙富含維生素C與多種植化素，有維護血管健康、控制血糖水平抗癌等功效。但要注意：腎臟病患者、糖尿病患者、胃病患者不宜多吃橙。</t>
-  </si>
-  <si>
-    <t>蘋果屬於高纖低升糖水果，但仍含有偏高的天然果糖。對於糖尿病患者或飲食需要控制糖分攝取的人群來說,宜適量食用。另外，蘋果的皮含有多酚，有助於降低血壓和膽固醇指數，建議連皮食用。</t>
-  </si>
-  <si>
-    <t>梨屬於高纖低升糖的水果，是健康之選。</t>
-  </si>
-  <si>
-    <t>香蕉富含膳食纖維，有助於促進腸道蠕動順暢，防止便秘，而且糖分不高，是健康之選。</t>
-  </si>
-  <si>
-    <t>火龍果熱量偏低、富含水分與膳食纖維，食用後飽足感滿滿，降低額外攝取熱量的機會，是健康之選。</t>
-  </si>
-  <si>
-    <t>榴槤屬於高脂水果，含有大量的飽和脂肪酸，多吃會導致血液中總膽固醇的含量升高，因此，血脂膽固醇高或患有脂肪肝的患者要慎食。</t>
-  </si>
-  <si>
-    <t>哈密瓜富含膳食纖維，有助排便，而且屬於低糖的水果，是健康之選。</t>
-  </si>
-  <si>
-    <t>士多啤梨的營養價值十分高，但含有的果糖較高，又屬於高鉀食物，所以腎臟功能不好的人士應謹慎食用，不宜吃過量。</t>
-  </si>
-  <si>
     <t>布冧屬於高纖低升糖水果，但仍含有偏高的天然果糖。對於糖尿病患者或飲食需要控制糖分攝取的人群來說,宜適量食用。</t>
   </si>
   <si>
@@ -4374,6 +3573,840 @@
   </si>
   <si>
     <t>1TmlG0MixbxwTf-8pRtcevu9nJ0xpcb_G</t>
+  </si>
+  <si>
+    <t>三文魚含豐富Omega-3脂肪酸，有助預防血管脂肪堆積及硬化，降低心臟病、中風風險。食用時如要沾醬油的話應沾適量，避免進食過量鈉質。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>至尊批蕯屬高卡路里食物，所含的材料，例如芝士、辣肉腸、豬肉/牛肉粒、火腿等飽和脂肪含量較高之餘，火腿、辣肉腸、橄欖等材料屬於加工醃製食物，鈉含量較高。應以淺嘗點到即止的原則下進食，避免攝取過量。請按此瀏覽更多有關預防高血壓的低鹽食譜。</t>
+  </si>
+  <si>
+    <t>漢堡包為眾多包類卡路里較低的一款，例如比起炸過的魚柳包卡路里大概低100左右。建議在食漢堡包的同時可以配搭多個低脂醬汁的沙律，達致營養均衡。請按此瀏覽更多有關預防高血脂的營養食譜。</t>
+  </si>
+  <si>
+    <t>魚柳包的主要成份為炸魚柳、車打芝士、他他醬和麵包。他他醬及油炸的鱈魚為主要導致魚柳包熱量、脂肪及鈉質較高的原因。一份正常魚柳包相等於吃了四茶匙油及接近三份一茶匙鹽。想減低鈉質攝取可要求走醬。請按此瀏覽更多有關預防高血壓的低鹽食譜。</t>
+  </si>
+  <si>
+    <t>麥樂雞屬加工食物，主要熱量來源是脂肪。把醬汁計算在內的話，和過量進食會容易吸取過量脂肪和鹽。若一日三餐進食過量脂肪和鹽的話，有機會造成高血和脂高血壓等問題。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>市面上的蝦仁炒蛋屬高脂的港式小菜，高脂的原因是炒滑蛋裡的多油。師傅熱鑊落多油炒得香滑，有些更會在蛋漿裡加全脂奶。想多食的人士建議可以自己在家落少油烹調。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>椰菜絲沙律為低脂低卡路里食物。餐廳可能會灑上沙拉醬。食用時想低脂點建議選擇走醬。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>市面上魚香茄子主要由油泡茄子和免治豬肉和製成，脂肪和鈉含量都比較高。吃時注意份量，如在外想健康點可選擇非油炸及少汁的菜式，如菜粒炒瘦肉片、鮮茄牛肉飯等。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>菠蘿咕嚕肉的主要材料多數為腩排/半肥瘦豬肉及菠蘿，屬高脂高糖小菜。烹調過程中除了高溫油炸裹上粉漿的肥豬肉外，咕嚕肉沾上的酸甜咕嚕汁是由粟粉油鹽糖調配而成，大大增加此道菜的脂肪、糖和鈉含量。建議少吃，或吃時注意份量。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>傳統的蒸肉餅為了多汁少不了加入肥豬肉製成，飽和脂肪高。鹹蛋為蛋加工品，每顆就有836毫克的鈉。建議可自行購買瘦肉剁肉餅，鹹蛋亦無需成隻吃完。請按此瀏覽更多有關預防高血壓的低鹽食譜。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中式牛柳的主要材料為牛柳、洋蔥及醬汁。相對其他菜式例如粟米魚塊、菠蘿咕嚕肉，中式牛柳相比之下較健康。雖但如此，中式牛柳一般會用較多的食油在熱鑊翻炒，調味料亦大大提高餸菜鈉質含量。若要健康點可自行在家中用少油少醬料煎炒，減少脂肪和鈉質攝取量。請按此瀏覽更多有關針對高血脂的飲食食譜。 </t>
+  </si>
+  <si>
+    <t>粟米魚塊主要材料為油炸魚柳及粟米，想健康點的話，自家製粟米魚塊可用煎代替油炸和用天然調味料例如胡椒粉代替鹽，減少脂肪和鈉質攝取量。若要外出進食。可選擇少汁非油炸菜式。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西蘭花炒魚塊通常會加天然調味料如薑、蔥、蒜、西芹、紅椒調味。非油炸魚柳為較低脂蛋白質來源。西蘭花的纖維亦能提供足夠飽腹感和維持腸道健康。 請按此瀏覽更多高纖飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">欖菜肉鬆四季豆的欖菜為醃製食物，菜式鈉含量較高，建議可選擇清蒸或全走灼菜。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">西芹炒雞柳，是健康之選，雞柳為高蛋白質低飽和脂肪肉類，西芹質富含纖維、抗氧化物和維他命。建議少油烹調避免添加過多高鈉調味料或鹽。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">北菇西蘭花為港式小菜中較低脂低鈉少油菜式，屬於較健康選擇。請按此瀏覽更多高纖飲食貼士。 </t>
+  </si>
+  <si>
+    <t>咖喱牛腩飯為高熱量港式小菜。牛腩為高飽和脂肪部位。咖喱通常加了椰漿/椰奶、鹽、咖喱磚等高飽和脂肪/高鈉調味料調製。熱量和鈉質含量超高，宜少進食。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>傳統焗豬扒飯一份約1200-1300kcal，高脂肪源自於炒飯底、油分和半肥瘦豬扒和芝士，高鈉質源自於烹調時所用的茄膏、鹽等調味料。建議自己烹調時可選用低脂芝士、瘦豬肉和鮮茄代替，減低脂肪和鈉含量。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火腩為豬皮和肥膏，枝竹則是炸腐皮，兩者皆是高脂食材。醬料亦由豉油豆粉糖所混合出，鈉含量比較高。建議減少進食。請按此瀏覽更多有關針對高血脂的飲食食譜。 </t>
+  </si>
+  <si>
+    <t>半肥瘦/肥叉燒飽和脂肪偏高。叉燒本身熟加工食物，連同蜜汁會提高飯的鈉質含量。想吃得健康點建議點選瘦叉燒和走汁/汁另上但不要沾太多。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">福建炒飯由飯、冬菇、瑤柱、蝦肉、菜粒等材料炒成。在茶餐廳或酒樓點的福建炒飯通常用幾茶匙植物油炒，亦選用高鈉調味料如雞粉、蠔油、老抽、生抽、或鹽調味，增加整碟炒飯的鈉含量。雖則比起焗豬扒飯、枝竹火腩飯等碟頭飯較為健康，但依然建議吃時注意份量。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般餐廳會選用肥豬肉來製成肉醬。醬汁亦加入了大量高鈉調味料如茄膏、芝士，以及大量的油份等製成。吃一整碟焗肉醬意粉所攝取的鈉質超過一日上限。如想吃肉醬意粉，建議注意份量，又可以嘗試選用瘦豬肉碎、天然調味料如新鮮蕃茄、洋蔥以及低脂芝士等自製輕怡肉醬意粉。請按此瀏覽更多有關針對高血壓的飲食食譜。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">白汁含忌廉、牛油或全脂奶等高脂食材，令其脂肪和熱量可相比茄汁意粉高。建議吃時可撥走醬汁，又或者如可以的話要求汁另上，盡量少吃/不吃醬汁。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">乾炒牛河主要材料為河粉、半肥瘦牛肉、油、豉油、芽菜等，屬於高脂肪高鈉質地道小炒。原因在於熱鑊翻炒時河粉會吸掉大部份油份及高鈉調味料。建議選擇湯粉麵如鮮蝦米粉等較為健康。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雖然乾燒伊麵有韭黃、菇類等等膳食纖維豐富材料，因伊麵本身為油炸麵餅，再下油和調味料熱鑊炒至更惹味令其脂肪及鈉含量大大提高。建議選擇湯粉麵魚鮮蝦米粉等較為健康，若然想吃乾燒伊麵的話建議注意份量。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>味菜排骨炒麵屬於高脂肪高鈉質港式小炒。鹹酸菜為醃製食品，鈉含量高。排骨亦屬較肥部位。炒麵時所下的油以及生抽、鹽、糖等調味料大大提高炒麵的脂肪及鈉質含量。建議選擇湯粉麵如蝦米粉等較為健康，若然想吃味菜排骨炒麵的話建議注意份量。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>豉椒排骨炒麵屬於高脂肪高鈉質港式小炒。豉汁鈉含量高。排骨亦屬較肥部位。炒麵時所下的油以及生抽、鹽、糖等調味料大大提高炒麵的脂肪及鈉質含量。建議選擇湯粉麵如蝦米粉等較為健康，若然想吃味菜排骨炒麵的話建議注意份量。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>青咖喱醬雖然熱量不高，但餐廳在烹調青咖喱時會加入椰奶、油等高脂肪材料。雞皮亦屬高飽和脂肪部位。建議用青咖喱佐飯時注意份量，吃雞肉時去皮，減低飽和脂肪攝取量。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">去皮白切雞飯的飽和脂肪較其他燒味飯與叉燒飯、燒鵝飯低，但鈉含量可較其他燒味飯高。建議吃時減少沾薑蓉等調味料，以降低鈉攝取量。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">燒鵝皮飽和脂肪高。建議去皮去肥食用燒鵝肉。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">餐廳特製沙嗲醬主要成份包括花生醬、椰奶、薑黃、蒜頭、糖、油等食材，提高其熱量、脂肪和鈉含量。建議食用時少吃醬汁，注意份量。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">時菜牛肉飯屬於較為健康碟頭飯，對比之下較低熱量和脂肪。不過碟頭飯的份量比較大，吃時注意份量。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">楊州炒飯屬於高油高鈉炒飯，建議可選擇非炒飯類例如鮮茄牛肉飯、菜粒肉片飯等較為健康。請按此瀏覽更多有關針對高血壓的飲食食譜。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">白汁含忌廉、牛油或全脂奶等高脂食材，令其脂肪和熱量相比茄汁高。建議吃時可撥走醬汁，如可以的話要求汁另上，盡量少吃/不吃醬汁。自家製白汁雞絲飯時，建議可用低脂或脫脂奶代替忌廉/牛油/全脂奶，降低碟頭飯飽和脂肪含量。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鮮茄牛肉飯的牛肉片比牛肉碎低卡，屬於較健康之選。由於醬汁有機會加入較高鈉的調味料例如生抽和茄膏，建議吃時盡量撥開醬汁。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>雖然海鮮為低脂肪高蛋白質食材，炒烏冬時餐廳所用的油和調味料大大提高炒烏冬的脂肪及鈉質含量。建議選擇湯烏冬/粉面等更低脂更健康，如進食炒烏冬時應注意份量。請按此瀏覽更多有關針對高血脂的飲食食譜。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炒河粉時餐廳所用的油和調味料大大提高炒河粉的脂肪及鈉質含量。建議選擇湯河粉/非油炸粉面等更低脂更健康的選擇，如進食炒河粉時應注意份量。請按此瀏覽更多有關針對高血脂的飲食食譜。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">星洲炒米為高脂肪高鈉質港式小炒。高脂材料主要來自油和半肥瘦叉燒、鈉質來自高鈉調味料如咖喱粉、生抽等。建議選擇湯米粉/非油炸粉麵等更低脂更健康的選擇，如進食星洲炒米時應注意份量。請按此瀏覽更多有關針對高血脂的飲食食譜。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">即食麵為油炸麵底，脫水過程更用了棕櫚油，令飽和脂肪增加。吃下一包即食麵連湯的鈉質含量幾乎是全日上限。建議早餐可選擇非油炸湯粉面，例如通心粉、米粉。建議較少吃即食麵。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">即食麵為油炸麵底，脫水過程更用了棕櫚油，令飽和脂肪增加。吃下一包即食麵連湯的鈉質含量幾乎是全日上限。建議早餐可選擇非油炸湯粉面，例如通心粉、米粉。建議較少吃即食麵。餐肉亦為高鈉加工食物且營養價值偏低，建議避免食用。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">即食麵為油炸麵底，脫水過程更用了棕櫚油，令飽和脂肪增加。吃下一包即食麵連湯的鈉質含量幾乎是全日上限。建議早餐可選擇非油炸湯粉面，例如通心粉、米粉。建議較少吃即食麵。五香肉丁亦為高油鈉加工食物，建議可選擇其他配菜如雪菜肉絲米。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豉油王炒麵通常加了不少高鈉調味料如生抽、老抽等調味。食譜較為簡單，建議可以選擇自己製作或改選非油炸湯粉麵。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">脆皮燒肉經過油炸，飽和脂肪高。建議選擇低脂點的燒味如去皮切鷄、瘦叉燒等，或將燒肉去皮去肥食用。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛腩脂肪含量較高, 點選時最好選擇較低卡路里的牛肉部位如牛腱、牛筋或牛肚。建議食用時盡量少蘸牛腩汁，減低鈉攝取量。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛筋脂肪含量不高, 也有助補充骨膠原, 點選牛筋粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的牛腩汁和辣油。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛肚脂肪含量不高, 亦有豐富的蛋白質, 點選牛筋粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的牛腩汁和辣油。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛腩脂肪含量較高, 點選牛肉粉麵時,最好選擇較低卡路里的牛腱、牛筋或牛肚和低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的牛腩汁和辣油。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>牛腩脂肪含量較高, 點選牛肉粉麵時,最好選擇較低卡路里的牛腱、牛筋或牛肚和低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的牛腩汁和辣油。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>牛雜脂肪含量較高, 點選牛肉粉麵時,最好選擇較低卡路里的牛腱、牛筋或牛肚和低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的牛腩汁和辣油。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>餐廳在炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛肉含有豐富蛋白質和鐵質, 但餐廳在炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雖然雞粒相對低脂並含有蛋白質, 而菠蘿則含有豐富的膳食纖維和維他命C, 但餐廳在炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。請按此瀏覽更多有關針對高血脂的飲食食譜。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鯇魚含有豐富的蛋白質, 但注意鯇魚腩脂肪含量較高, 可選擇吃較低脂的部位如魚尾和魚背, 亦可考慮低脂的魚類如香魚和黃魚。另外, 餐廳淋上的滾油和豉油脂肪和鈉含量高, 建議吩咐餐廳另上醬汁。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">西炒飯含有加工食品如火腿和香腸, 在烹煮時亦加入大量食油及調味料如味精和鹽, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豉椒牛肉炒麵在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豉椒肉片炒麵在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豉椒魷魚炒麵在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豉油雞脂肪含量較高, 建議進食前先去皮及吩咐餐廳另上醬汁, 以減少鈉、卡路里和脂肪攝取量。另外, 亦建議多加一碟烚或清炒蔬菜以攝取纖維量。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">貢丸熱量和鈉含量高, 點選丸類粉麵時, 最好選擇較低卡路里的白魚蛋和低熱量粉麵如米粉、米線或蛋麵, 亦避免選擇麻辣和酸辣湯底。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">海鮮卡路里低, 亦有豐富的蛋白質, 建議選擇較低脂的海鮮如花甲、蝦和扇貝等; 同時烏冬為低熱量的粉麵, 是健康的選擇。但注意應避免額外加入高脂肪的辣油。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>雪菜為醃製食物, 鈉含量高, 而鴨肉脂肪含量較高, 應少吃。另外, 點選湯粉麵時,儘量不要喝湯。請按此瀏覽更多有關針對高血壓的飲食貼士。</t>
+  </si>
+  <si>
+    <t>雪菜為醃製食物, 鈉含量高, 而肉絲多為肥瘦豬肉, 脂肪含量較高, 應少吃。另外, 點選湯粉麵時,儘量不要喝湯。請按此瀏覽更多有關針對高血壓的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雲吞熱量較低, 點選雲吞湯粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的辣油。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚片熱量較低, 點選丸類粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免選擇麻辣和酸辣湯底。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>魚片熱量較低, 點選丸類粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免選擇麻辣和酸辣湯底。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t>魚皮餃含有大量肥豬肉, 熱量和鈉含量較高, 點選丸類粉麵時,最好選擇較低卡路里的白魚蛋和低熱量粉麵如米粉、米線或蛋麵, 亦避免選擇麻辣和酸辣湯底。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚皮餃含有大量肥豬肉, 熱量和鈉含量較高, 點選丸類粉麵時,最好選擇較低卡路里的白魚蛋和低熱量粉麵如米粉、米線或蛋麵, 亦避免選擇麻辣和酸辣湯底。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚蛋熱量較低, 點選丸類粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免選擇麻辣和酸辣湯底。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>魚蛋熱量較低, 點選丸類粉麵時,最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免選擇麻辣和酸辣湯底。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雖然茄子含有豐富的膳食纖維和抗氧化物, 屬健康的蔬果, 但餐廳在烹煮時多以油泡茄子, 加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議可吩咐餐廳分開餸及飯上, 或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鮮茄含有豐富的茄紅素, 牛肉含有豐富蛋白質和鐵質, 是頗健康的配搭, 但餐廳在烹煮和炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高。建議外出進食時可要求少汁/走汁, 並把炒飯轉為白飯。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雖然鱆魚高蛋白質和低脂肪, 而雞肉相對低脂並含有蛋白質, 但雞皮高脂, 而且餐廳在炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">餐廳在烹煮和炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯, 少汁/走汁或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鹹魚為醃製食物, 鈉含量高, 同時雞皮含有高脂肪, 而且餐廳在炒飯時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可要求少飯或選擇較低脂低鈉的食物如冬瓜肉粒湯飯。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炒貴刁在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蝦仁脂肪含量低, 含有豐富蛋白質和礦物質, 但在烹煮滑蛋汁時加入大量食油及調味料如味精、鹽和醬油, 故鈉含量高。建議可吩咐餐廳分開餸及飯上, 並要求少汁/走汁。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">涼瓜熱量低, 也可幫助降低血糖, 但肉片脂肪含量較高, 亦在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">涼瓜熱量低, 也可幫助降低血糖, 但餐廳選用的牛肉片脂肪含量較高, 亦在烹煮時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>水餃為加工食物, 在製作過程中加入很多醬油和鹽作調味, 故鈉含量高, 建議多選擇以冬菇等為天然調味料的自家制水餃。點選水餃湯粉麵時, 最好選擇低熱量粉麵如米粉、米線或蛋麵, 亦避免額外加入高脂肪的辣油。請按此瀏覽更多有關針對高血脂的飲食食譜。 https://www.stroke.med.hku.hk/recipes-hyperlipidaemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔬菜含有豐富的膳食纖維, 而肉片含有蛋白質, 是頗健康的配搭。但餐廳在烹煮時加入調味料如味精、鹽和醬油, 故鈉含量少高。建議可吩咐餐廳分開餸及飯上, 並要求少汁/走汁。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般餐廳在烹煮的過程中會加入大量食油及調味料, 建議選擇少醬汁, 脂肪和鈉含量較低。請按此瀏覽更多有關針對高血脂的飲食食譜。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">廈門炒米粉在烹煮的過程中會加入大量的茄汁和醃菜, 可配以蔬菜同吃，讓高纖成分增加飽腹感, 減少進食份量。請按此瀏覽更多高纖飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">墨魚丸的鈉含量偏高, 建議選用白魚蛋, 鈉含量較低。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">墨魚丸的鈉含量偏高質, 建議選用白魚蛋, 鈉含量較低。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般肉餅在製造過程中會加入肥豬肉來提升口感, 建議選擇瘦肉餅, 脂肪含量較低。請按此瀏覽更多有關針對高血脂的飲食食譜。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">栗子是低脂和低鈉的食品, 可當作減肥小食。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般餐廳會選用半肥瘦或肥叉燒肉來提升口感, 建議選擇瘦叉燒, 脂肪含量較低。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">八爪魚/墨魚/魷魚丸含豐富蛋白質, 建議選用白魚蛋, 鈉含量較低。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鯪魚球在製造過程中有機會加入魚皮和魚腩來提升口感, 建議選擇少醬汁, 鈉含量較低。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鯪魚罐頭通常經過醃製和油炸，建議選擇急凍鮪魚, 脂肪和鈉含量較低。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">海參是低脂和低鈉的食品, 可當作減肥食品。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">小紅腸是加工食物, 通常經過醃製, 建議減少進食, 減少鈉和脂肪攝取。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">臘腸是加工食物, 通常經過醃製, 建議減少進食, 減少鈉和脂肪攝取。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">臘肉(生) 是加工食物, 通常經過醃製, 建議減少進食, 減少鈉和脂肪攝取。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般鮮蝦雲吞在製造過程中會加入半肥瘦豬肉來提升口感, 建議選擇低脂餃子, 脂肪含量較低。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般菜肉雲吞在製造過程中會加入半肥瘦豬肉來提升口感, 建議選擇低脂餃子, 脂肪含量較低。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般叉燒包在製造過程中會加入豬油來提升口感, 脂肪較高, 建議適量進食。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">奶黃包以雞蛋黃為核心材料，而蓮蓉包以壓碎的蓮子加入豬油製成, 建議選擇香芋包, 脂肪含量較低。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蝦餃和潮州粉果在製作時或會加入油來搓皮, 燒賣或會加入肥豬肉來提升口感, 建議適量進食, 避免攝取過量脂肪。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般魚肉燒賣在製造過程中會加入肥豬肉來提升口感, 建議選擇雞肉燒賣, 脂肪含量較低。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鮮蝦腸粉含有低脂肪, 建議與醬油分開點, 減少鈉含量攝取。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">春卷/咸水角通常經過油炸, 建議選擇蒸點心, 脂肪含量較低。例如: 素粉果、菜苗餃等等。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豬腸粉含有低脂肪, 建議與醬油分開點, 減少鈉含量攝取。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蘿蔔糕在製造過程中會加入食品如臘肉臘腸, 自家製時建議使用瘦肉和蝦米, 脂肪和鈉含量較低。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">芋頭糕在製造過程中會加入食品如臘肉臘腸, 自家製時建議使用瘦肉和蝦米, 脂肪含量較低。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鳳爪是高脂肪食物, 建議選擇健康一點的北菇滑雞, 脂肪和鈉含量較低。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">糯米雞的鈉和脂肪偏高, 進食時可以選擇與人分享, 避免過量攝取。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般山竹牛肉在製造過程中會加入肥豬肉和麻油等來提升口感, 建議選擇較低脂肪的點心。例如: 蝦腸粉, 雞包等等。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">天然的紫菜含有鹽, 一般紫菜在製造過程中會或會再加入鹽來提升口感, 建議適量進食, 避免攝取過量鈉。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛什包含牛的內臟脂肪, 建議適量進食, 避免攝取過量脂肪。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">松花蛋(鴨蛋, 皮蛋)是加工食物, 通常經過醃製, 鈉和脂肪含量偏高, 建議適量進食。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鹹鴨蛋是醃製食物, 建議選擇普通的雞蛋, 鈉和脂肪含量較低。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">很多素食餐廳會在烹煮素雞的過程中加入大量油分和醬汁, 自家煮時可使用低脂烹調方法如蒸、灼、快炒等, 脂肪含量較低。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般麵筋在製造過程中會加入鹽來提升麵團的延展性, 建議下鍋前先用冷水泡軟麵筋，再用流水沖洗表面的鹽分, 減少鈉攝取。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>酸菜/雪菜/梅菜是低脂和低鈉的食品, 可配搭瘦肉絲和米粉, 作為低脂早餐。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">連皮的乳鴿肉飽和脂肪高, 建議去皮進食, 減少脂肪攝取。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>白木耳/雲耳/雪耳是低脂和低鈉的食品, 也含有高纖維, 可用作減脂的食品。請按此瀏覽更多高纖飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般海蜇皮在製造過程中會加入麻油來提升口感, 建議選擇少醬汁, 鈉含量較低。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鵪鶉蛋的蛋白質和雞蛋相若, 建議適量攝取, 避免攝取過量膽固醇。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">沙甸魚屬於油脂魚, 含有豐富的奧米加三, 建議每星期進食兩次油脂性魚類, 降低心血管疾病風險。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">油浸吞拿魚的脂肪成分較高, 可用來即食, 建議進食時隔走多餘油分, 減少脂肪攝取。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">水浸吞拿魚的脂肪成分較油浸的低, 可用來製作菜式, 建議以用途而去選擇水浸還是油浸。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">午餐肉是加工食物, 通常經過醃製, 建議選擇減鹽跟減脂的午餐肉, 鈉和脂肪含量較低。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">罐頭湯相對高鈉, 建議適量進食, 或可自家用粟米烹煮湯, 減少鈉攝取。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>腐竹的脂肪來自黃豆中的大豆油, 所以脂肪含量高, 建議減少進食, 減少脂肪攝取。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">豆腐皮是煮沸豆漿表面凝固的薄膜, 建議用較低脂的烹煮方法, 例如、灼、快炒等。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">油豆腐是油炸的黃豆製品, 脂肪含量偏高, 建議用較低脂的烹煮方法, 例如、灼、快炒等。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">甜年糕是低脂和低鈉的食品，建議適量進食，以免攝取過多糖分。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般雙黃白蓮蓉月餅在製造過程中會加入花生油，糖漿等來提升口感, 建議適量進食, 脂肪和糖含量較低。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">餅皮製作過程使用大量油，果仁內餡亦經過炒焗。另外，部份五仁月餅內含金華火腿，令熱量大增，建議盡量少吃。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰皮月餅外皮熱量雖較傳統月餅低，但常見餡料如綠豆蓉、紅豆蓉等仍添加了不少糖分，因此卡路里相對較高，建議少吃和選擇較低糖的冰皮月餅。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">傳統鹹肉粽內含五花腩，咸蛋等高膽固醇食物，建議少吃。另外，食用時避免搭配豉油或砂糖，以減少鈉和糖的攝取。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">飲品內原含有糖分，避免再額外加入砂糖。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">避免再額外加入砂糖，以減少糖的攝取。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">可樂含有大量糖分，長期飲用可導致肥胖，可選擇無糖可樂作取替；但無糖可樂內仍含有代糖，建議少飲。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">益力多內含有大量糖分，建議少喝或選擇低糖版本。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">低糖益力多內仍含有不少糖分，建議少喝。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">維他奶內含有大量糖分，建議少喝或選擇低糖版本。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">低糖維他奶內仍含有不少糖分，建議少喝。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">由於一杯橙汁需由多個橙榨製而成，因此糖分較高，膳食纖維亦較食用原個橙少。為提高營養價值，建議原個橙食用。請按此瀏覽更多高纖飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">罐裝橙汁內添加了大量糖分和添加劑，建議飲用鮮榨橙汁。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">產品內加入了不少糖分，建議飲用無糖豆奶。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">這些飲品內都含有大量糖分，建議少喝或選擇低糖版本。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">茶內含有咖啡因，建議適量飲用。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">港式奶茶內加入了糖和奶，攝取過多可能引致糖尿病或肥胖，建議適量飲用。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">港式咖啡內加入了淡奶，脂肪含量較高，飲用時避免再加入砂糖，以減少糖分的攝取。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">長期和大量飲酒會損害身體，請適量飲用。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">高鈣低脂奶粉脂肪量比全脂奶粉低，另外亦含有大量鈣質，能為我們補充營養。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">高鈣低脂奶脂肪量比全脂奶粉低，另外亦含有大量鈣質，能為我們補充營養。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">全脂奶脂肪含量較高，飲用過多會引致高膽固醇，建議適量飲用或選擇低脂或脫脂奶。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">高鈣有助補充鈣質，脫脂可減少脂肪的吸引。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">製作奶昔時或會加入不同水果和糖漿，糖分相對較高，建議控制水果份量和盡量避免使用糖漿，另外可選用低脂或脫脂奶以減少攝取過多脂肪。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">檸檬含有豐富的維他命C，梳打水比普通水含有較高的鈉質，建議適量飲用，攝取過多或會引起身體不適和損害牙齒。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅豆冰內加入大量糖漿和淡奶，紅豆於製作過程中或會再加入糖，使飲品糖分大增。如自家製建議減少糖和選用低脂奶代替淡奶。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鴛鴦內加入了淡奶，脂肪含量較高，飲用時避免再加入砂糖，以減少糖分的攝取。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雖然檸檬含有豐富維他命C，但蜜糖內含有大量糖分，建議只加入少量蜜糖或以檸檬水取替。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">白粥含有豐富的碳水化合物，但如過量食用會引致血糖上升，建議適量食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>通心粉含有豐富的碳水化合物，但如過量食用會引致血糖上升，建議適量食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麥皮含有豐富的纖維，可降膽固醇，但如過量食用會影響血糖。另外，即食麥皮經過大量加工，為精緻澱粉，建議選擇原片燕麥。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用太多會影響血糖，請適量食用。如搭配牛奶、豆漿等食用時，可選擇低脂版本，以降低熱量，另外避免再加入蜜糖等作搭配。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">有糖玉米片含有較高糖分，建議選擇無糖版本。另外，搭配牛奶、豆漿等食用時，建議選擇低脂版本，另外避免再加入蜜糖等作搭配。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">饅頭為精緻澱粉，屬升糖指數高的食物，另外製作時可能加入了不少糖，建議適量食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">公仔麵製作過程或經油炸，含有飽和脂肪，所提供的醬料、湯包等含有大量鈉質，攝取過多會導致心血管疾病及影響腎臟功能。建議選取非油炸即食麵，只落少量湯粉作調味以及不要飲用湯水。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">薯餅製造時經過油炸，含有大量油脂，盡量避免食用。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">熱香餅為精緻澱粉，屬升糖指數高的食物，食用時如再加上糖漿、果醬等，使熱量大增，建議少吃。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蟹柳為加工食品，製作過程中加入色素和添加劑，建議少量食用。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">煙肉為醃製食品，屬第一類最高風險致癌物，烹調煙肉過程中亦會加入不少油煎煮，油脂量高，盡量避免食用。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">製作奄列時，避免使用牛油，盡量少油，或以原隻烚蛋作取替，以減少油脂的攝取。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>套餐內的薯餅、炒蛋和鬆餅製作時都加入大量油，盡量避免食用。薯餅和炒蛋可以蒸番薯和烚蛋作取替。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">叉燒的鈉含量較高，油脂多，餐包內或選用較肥的叉燒，建議選擇其他麵包，例如餐包。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">及第粥內含有不少內臟，膽固醇和鈉含量較高，建議選擇其他粥，例如瘦肉粥等。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">柴魚花生粥鈉含量較低，較皮蛋瘦肉粥、及第粥等健康。Please click here to browse more dietary tips for hypertension. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">皮蛋的鈉較高，建議選擇瘦肉粥。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">油器製作過程中經過油炸，含有大量油脂，盡量避免食用。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">餐廳炒蛋時或加入食油、牛奶及忌廉，脂肪含量較高，而火腿為加工醃製食品，鈉含量高，應少吃。建議點選三文治時可選擇雞胸肉、青瓜和番茄等健康餡料。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">火腿為加工醃製食品，鈉含量高，應少吃。建議可選擇番茄牛肉通粉，因爲鮮茄含有豐富的茄紅素，牛肉含有豐富蛋白質和鐵質, 是頗健康的配搭。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">餐廳在炒米粉時加入大量食油及調味料如味精、鹽和醬油, 故脂肪和鈉含量高, 應少吃。建議外出進食時可選擇低熱量湯粉麵如米粉、米線或蛋麵。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炸兩在油炸時加入大量食油，脂肪含量較高，而醬油、麻醬和甜醬脂肪和鈉含量高, 應少吃。建議改吃蒸腸粉，並應避免使用醬汁。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">麥皮低脂低膽固醇，膳食纖維較高，而牛奶含有豐富的蛋白質和鈣質，是健康的早餐選擇。請按此瀏覽更多高纖飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">腸粉由米漿製成，故脂肪含量不高，但注意加入牛肉和配上醬油後，脂肪和鈉含量會提高。建議進食牛肉腸粉時只吃適量，並應避免使用醬汁。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">餐廳炒蛋和時或加入食油、牛奶及忌廉，而炒牛肉時亦加入不少調味料，故脂肪和鈉含量較高，應少吃。建議點選三文治時可選擇雞胸肉、青瓜和番茄等健康餡料。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鮮茄含有豐富的茄紅素，但餐廳炒蛋時或加入食油、牛奶及忌廉，脂肪含量較高。建議點選三文治時可選擇雞胸肉和青瓜等健康餡料。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">艇仔粥有炸花生、油炸鬼、肥豬肉和豬皮等材料，故脂肪含量較高。建議可選擇其他低熱量的粥品，如鮮魚片粥。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">火腿和餐廳使用的芝士片為加工醃製食品，鈉含量很高，應少吃。建議點選三文治時可選擇雞胸肉、青瓜和番茄等健康餡料。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">米粉是低熱量粉麵，但注意雪菜為醃製食物，鈉含量高。建議儘量不要喝湯。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鹹牛肉是加工食品，鈉和脂肪含量高，應少吃。建議點選三文治時可選擇雞胸肉、青瓜和番茄等健康餡料。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豬柳蛋漢堡中的豬柳漢堡扒是加工食品，鈉和脂肪含量高，應少吃。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛肉乾為加工肉製品，多使用肥肉或帶油的肉來製作，鈉和脂肪含量高，應少吃。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豬肉乾為加工肉製品，醃製時加入大量鹽和調味料，鈉含量非常高，應少吃。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛肉鬆為加工製品，醃製時加入大量鹽和調味料，鈉含量非常高，應少吃。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豬肉鬆在製作時加入大量的油和醬油，鈉和脂肪含量高，應少吃。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">魷魚乾為加工製品，醃製時加入鹽和調味料，鈉含量高，應少吃。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">薯片為油炸食品，脂肪含量非常高，同時亦加入不少鹽和香料，故鈉含量高，應少吃。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">威化餅的脂肪含量和鈉含量會因品牌而異，若每日食用過多鈉含量高的食物，亦從其他食物攝取鈉，便有機會攝取過量鈉，增加患上高血壓的風險。建議適量食用。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">朱古力曲奇餅製作時加入大量牛油，脂肪含量非常高，應少吃。建議可以燕麥餅乾取代。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蘇打餅鈉含量十分高，若每日食用過多鈉含量高的食物，亦從其他食物攝取鈉，便有機會攝取過量鈉，增加患上高血壓的風險。建議適量食用。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">清蛋糕製作時加入不少糖和牛油，脂肪含量頗高，建議適量食用。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛奶朱古力製作時加入可可脂或植物油，脂肪含量非常高，亦加入了不少乳糖和添加糖，令糖含量較高，應少吃。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">杏仁牛奶朱古力製作時加入可可脂或植物油，再加上杏仁，脂肪含量非常高，亦加入了不少乳糖和添加糖，令糖含量較高，應少吃。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">水果糖含有大量糖分，亦包含其他添加物，長期食用高卡路里食品可能導致體重增加和其他健康問題，建議少吃為妙。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">梅干是低脂低鈉之選, 同時含有豐富食用纖維有助腸道蠕動。雖然梅干沒有額外添加糖份, 但西梅原本是含有果糖的。建議每天食用上限為六至八粒。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">提子干含豐富食用纖維、鐵質和抗氧化物, 有助維持腸道健康, 補鐵和預防疾病。建議每天吃最多20粒避免攝取過量的糖份。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰果有豐富的不飽和脂肪酸, 可以預防心血管疾病。不過堅果類的脂肪高, 進食過量可致肥。建議選擇無鹽及非油炸/油烤的腰果作小食, 並每天攝取量最多五粒。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">花生含不飽和脂肪酸, 適量進食有利於心血管健康。不過花生脂肪含量高, 建議每天攝取少於十粒, 並選擇無鹽及非油炸/油烤的堅果作小食, 避免攝取過多鈉和脂肪。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>乳酪不僅有豐富的蛋白質、鈣質和其他營養素，還含有維持腸道健康的益生菌。由於全脂乳酪是由全脂牛奶製成, 所以其飽和脂肪含量比低脂和脫脂乳酪高, 多吃能致肥。因此, 選擇低脂或脫脂乳酪較為理想 。請按此瀏覽更多有關針對高血脂的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乳酪不僅有豐富的蛋白質、鈣質和其他營養素，還含有維持腸道健康的益生菌。低脂乳酪的脂肪含量比全脂乳酪低, 所以是個更健康的選擇。若覺得吃原味乳酪的味道太單寡，也可搭配新鮮水果食用，有營又美味。 請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">芝士味夾心餅的脂肪和鈉含量甚高, 多吃易致肥, 並損害心血管健康。因此, 應減少進食這類零食。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">消化餅的製作過程加入大量油和糖, 導致餅乾既高糖又高脂。消化餅不僅營養含量低, 持續進食還可致肥。 因此, 建議少吃為妙。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">芝士餅的製作過程加入了大量油和調味料, 導致餅乾既高脂又高鈉。長期食用可致肥, 及增加患上心血管疾病的風險。 因此, 建議少吃為妙。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豬皮本身脂肪含量高, 多吃容易致肥。其中脆豬皮小食的飽和脂肪和鈉含量甚高, 不利於心血管健康。為健康著想, 應減少進食由動物皮所製成的小吃。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雖然龍蝦片屬低糖低脂食物, 它的製作過程卻加了很多調味料導致鈉含量甚高。攝取過量鈉會增加患上心血管疾病的風險。 因此, 建議少吃為妙。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">由於粟米脆片通常是經油炸和加入大量調味料而製成的, 所以它屬於高脂高鈉食物。過量攝取鈉和脂肪有損心血管健康, 因此應少吃為妙。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚蛋本身熱量比起其他街頭小食低, 是相對健康的選擇。但是魚蛋加入咖哩汁一同食用時, 鈉含量就會超標。過多攝取鈉質可能會對健康造成不良影響,如高血壓等。因此, 建議食用時蘸小量醬汁或要求少汁, 走汁當然更理想。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">陳皮梅加入了大量糖和鹽醃製, 導致糖和鈉含量甚高。攝取過多糖份和鈉質可致肥, 及損害心血管健康。因此, 建議少吃為妙。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">西多士經油炸後通常配上牛油和糖漿一同食用, 因此脂肪, 糖和鈉含量比較高。攝取過多脂肪, 糖和鈉質有機會致肥, 及損害心血管健康。因此, 建議少吃為妙, 或食用時與他人分享從而減低攝取的份量。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">經醃製和油炸的雞髀鈉和脂肪含量大幅提升, 多吃容易致肥和增加患上心血管疾病的風險。建議食用時去皮, 亦可選擇烤雞髀同時去皮進食以減少脂肪攝取。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>白麵包熱量本身不太高, 但麵包被塗上牛油和花生醬後不僅卡路裡會變高, 還有脂肪和鈉含量也同時上升。攝取過多脂肪和鈉質有機會致肥, 及損害心血管健康。因此, 建議選擇天然堅果醬、低脂芝士、牛油果、烚蛋及蔬菜等較健康的食材配搭吐司。請按此瀏覽更多有關針對高血脂的飲食食譜。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蛋撻是高熱量食物, 多吃容易致肥。不論是酥皮或曲奇皮都會在製作過程加入大量牛油和豬油, 大大提升蛋撻中飽和脂肪的含量, 對心血管健康不利。蛋漿的製作過程亦加入大量砂糖, 令蛋撻中的糖分過高。蛋撻應該作為偶爾的點心食用,每次最多吃一件。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">公司治通常使用煙肉和蛋黃醬等高脂肪材料。高熱量和高脂肪含量背後的罪魁禍首是高脂肪的沙拉醬和奶油。要製作更健康的三明治,可以使用全麥麵包、瘦肉如, 雞肉或鹽水浸吞拿魚,並將沙拉醬限制在 1 湯匙或更少, 配搭新鮮蔬菜更理想。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">炸雞翼含有相當高的熱量、脂肪和鈉質, 多吃容易致肥和損害心血管健康。建議減少食用油炸食物。由於雞皮的脂肪量甚高, 建議避免食用雞翼, 及選擇雞胸和雞腿肉並去皮食用。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">白麵包配上煉奶和牛油, 大大增加麵包的脂肪和糖含量, 多吃容易致肥。建議少吃為妙。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">白麵包配上果醬和花生醬, 大大增加麵包的脂肪和糖含量, 多吃容易致肥。建議減少塗抹醬汁, 以減低糖和脂肪攝取量。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">熱狗腸屬於超加工食品, 並含有過高的鈉質, 常食用有機會增加患上高血壓風險。熱狗麵包是由精製麵粉製成的產品, 營養含量低。建議小食為妙。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">薯條經油炸和調味後, 脂肪和鈉含量大大提升, 多吃容易致肥和增加患上高血壓的風險,建議少吃為妙。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">菠蘿油的熱量、糖分和脂肪含量很高。菠蘿包的黃金脆皮是由豬油加上砂糖製成, 最加上一塊厚牛油, 絕對是邪惡之選。多吃容易致肥, 損害心血管健康。建議偶爾食用一次, 少吃為妙。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">白方包是由精製麵粉製成的產品。在小麥加工成麵粉的過程中, 營養豐富的麥胚和麩皮會被去除。這導致白方包中的纖維、維生素和礦物質含量大幅降低。建議食用能更好地保留小麥的營養成分的全麥麵包。請按此瀏覽更多高纖飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">麥方包比起用精製麵粉製作的白方包含更豐富的營養, 因為全麥粉保留了小麥的麩皮和麥胚。因此, 麥方包的纖維、維生素和礦物質含量比白方包更高。請按此瀏覽更多高纖飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">酵母麵包採用天然酵母和乳酸菌發酵製成，期間會產生大量益生菌，有利腸道健康， 而且，酵母麵包屬於低升糖指數食物，因此特別適合減重或需控制血糖的人士食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛角包的製作過程包含大量牛油或奶油等高脂肪成分，而且含有甜口味的精緻糖，因此其熱量偏高。建議食用麥方包、燕麥餐包及鹹麵包等較低脂的選擇。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">餐包的脂肪和鈉含量偏高，多吃容易致肥，並損害心血管健康。因此，應減注意進食份量。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">腸仔屬於加工製肉類的一種，常食用有機會增加患上高血壓風險。而且，腸仔包屬於高脂肪高鹽分的食物。建議每周只吃一次，避免吸收過多鈉及致癌物。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">瑞士卷內含大量牛油及忌廉，屬於高糖高脂肪的食物。如果过量攝入,容易導致體重增加、血糖升高、心血管疾病等健康問題，因此建議少吃，或者選擇水果餡料的蛋糕捲來代替奶油餡料。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">菠蘿包通常含有大量白砂糖或糖漿，長期攝入過多糖分可能會導致高血糖及肥胖等問題。另外，菠蘿包含有牛油或人造奶油等高脂肪成分，攝入過量亦可能會增加心血管疾病風險。建議少吃，尤其避免食用港式菠蘿油。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">洋蔥豬扒包的脂肪含量及鹽分偏高，建議適量進食及注意份量，避免攝取過多脂肪、鹽份及熱量，可以搭配蔬菜一起食用。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">吞拿魚包的餡料通常經過油浸泡及調味，有時亦會加入蛋黃醬，因此其脂肪含量、鹽份及糖分偏高。建議適量食用。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">提子包中的葡萄乾或果醬等甜味成分可能導致整體糖分含量較高，而攝取過多糖分可能會導致體重增加和血糖失衡等健康問題，建議適量食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豆腐花是一種高蛋白質、低脂肪的健康甜品，但進食時應注意揀配料配搭，如添加過多的糖份或高脂肪配料，就有機會攝取額外的熱量及糖分。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">新鮮芒果的營養價值高，富含維生素C及膳食纖維等營養素。但市面上的芒果布丁在製作時可能會添加大量糖或糖漿，令整體糖分高，對健康不利。建議適量使用天然甜味劑及避免加入煉乳等醬料。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蛋撻的酥皮含大量反式脂肪食物，會增加身體壞膽固醇，並減低好膽固醇，增加中風和患心臟病的機會。而且，蛋撻含有大量精緻糖，容易造成血糖波動、快速上升。因此，建議少吃。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">避免加上果醬、冰淇淋等許多配料，令攝取的含糖量跟澱粉量增加。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">香草味雪糕含有全脂奶、糖、忌廉等材料，會增加雪糕的卡路里和飽和脂肪，多吃容易致肥。儘量選擇使用天然香料的雪糕，以及控制食用量，亦可搭配水果。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">乳酪雪糕通常使用較多全脂牛奶或奶油作為主要成分,脂肪含量較高。如果添加大量糖或糖漿,也會增加整體糖分和卡路里含量。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪糕桶含有全脂奶、糖、忌廉等材料，會增加卡路里和飽和脂肪，多吃容易致肥。儘量選擇使用天然香料的雪糕，以及控制食用量，亦可搭配水果。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪糕棒含有全脂奶、糖、忌廉等材料，會增加卡路里和飽和脂肪，多吃容易致肥。儘量選擇使用天然香料的雪糕，以及控制食用量，亦可搭配水果。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">市面上的蘋果派一般脂肪及糖分偏高，建議選擇新鮮的蘋果和全谷物麵粉等天然原料製成的蘋果派，避免食用人工添加劑和精製糖。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">水果沙律屬於健康的甜品選擇，但是要注意避免使用罐頭水果導致食用過多糖份，以及儘量選擇新鮮水果。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">楊枝甘露含有芒果塊、椰奶、牛奶、果汁和西米露等材料，屬於糖分偏高的甜品。建議少吃及注意份量。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">燉奶中可能含有一定量的糖分，避免再額外添加糖漿或蜂蜜進食。需要控制攝取量，以免增加卡路里攝入。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">燉蛋中可能含有一定量的糖分，避免再額外添加糖漿或蜂蜜進食。需要控制攝取量，以免增加卡路里攝入。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">植物油中的脂肪酸分子結構在氫化過程中會變成反式脂肪，會增加低密度脂蛋白膽固醇，增加患上心血管病的風險。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">豬油的飽和脂肪比例較高，長期食用會有機會增加壞膽固醇的濃度，增加患上心腦血管疾病的風險。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛油含有的飽和脂肪酸和膽固醇含量較高，而且含鈉量高，有機會增加患心血管疾病的風險，建議適量進食。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">植物牛油雖然通常不含有動物的飽和脂肪和膽固醇，但植物油脂也含有一定量的飽和脂肪，而且含鈉量高。要注意份量。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">醬油的含鈉量非常高，建議選擇低鈉醬油或無鈉醬油來替代。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蛋黃醬主要由植物油和蛋黃組成，屬於高脂肪、高膽固醇的食品，建議適量進食。請按此瀏覽更多有關針對高血脂的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>果醬含有大量糖分，量攝取可能導致熱量過高、高血糖等問題。建議選擇無糖或低糖的果醬。請按此瀏覽更多有關針對糖尿病的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">花生醬的主要成分是花生，含有大量的植物性脂肪，而且在製作過程中可能加入白糖或糖漿以增加甜味，增加卡路里攝取。建議適量食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t>糖漿的含糖量高，容易引起血糖快速上升。可以選擇楓糖漿、蜂蜜等升糖指數較低的糖漿。請按此瀏覽更多有關針對糖尿病的飲食貼士。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">相對其他糖，蜂蜜的升糖指數較低，對血糖波動的影響較小，適合糖尿病患者適度食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉奶含有大量添加劑，例如乳化劑、防腐劑、色素、抗氧化劑等，而且糖分很高，容易造成肥胖、代謝症候群、糖尿病等問題，建議適量食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡奶是不加糖的煉乳，但同時亦含有大量添加劑，例如乳化劑、防腐劑、色素、抗氧化劑等，建議適量食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">凱薩沙律醬的基底是蛋黃醬，加入芝士、蒜末、蛋黃等，其含鈉量十分高。因此，建議進食沙律是避免加入凱薩沙律醬，可以選用沙律醋等較低脂低鈉的醬汁。請按此瀏覽更多有關針對高血壓的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">橙富含維生素C與多種植化素，有維護血管健康、控制血糖水平抗癌等功效。但要注意：腎臟病患者、糖尿病患者、胃病患者不宜多吃橙。請按此瀏覽更多有關針對慢性腎病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">蘋果屬於高纖低升糖水果，但仍含有偏高的天然果糖。對於糖尿病患者或飲食需要控制糖分攝取的人群來說,宜適量食用。另外，蘋果的皮含有多酚，有助於降低血壓和膽固醇指數，建議連皮食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨屬於高纖低升糖的水果，是健康之選。請按此瀏覽更多高纖飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">香蕉富含膳食纖維，有助於促進腸道蠕動順暢，防止便秘，而且糖分不高，是健康之選。請按此瀏覽更多高纖飲食貼士。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">火龍果熱量偏低、富含水分與膳食纖維，食用後飽足感滿滿，降低額外攝取熱量的機會，是健康之選。請按此瀏覽更多高纖飲食貼士。 </t>
+  </si>
+  <si>
+    <t>榴槤屬於高脂水果，含有大量的飽和脂肪酸，多吃會導致血液中總膽固醇的含量升高，因此，血脂膽固醇高或患有脂肪肝的患者要慎食。請按此瀏覽更多為高血脂而設的營養食譜。</t>
+  </si>
+  <si>
+    <t>哈密瓜富含膳食纖維，有助排便，而且屬於低糖的水果，是健康之選。請按此瀏覽更多高纖飲食貼士。</t>
+  </si>
+  <si>
+    <t>士多啤梨的營養價值十分高，但含有的果糖較高，又屬於高鉀食物，所以腎臟功能不好的人士應謹慎食用，不宜吃過量。請按此瀏覽更多為慢性腎病而設的營養食譜。</t>
+  </si>
+  <si>
+    <t>布冧屬於高纖低升糖水果，但仍含有偏高的天然果糖。對於糖尿病患者或飲食需要控制糖分攝取的人群來說,宜適量食用。請按此瀏覽更多有關針對糖尿病的飲食食譜。</t>
+  </si>
+  <si>
+    <t>車厘子屬於高纖低升糖水果，但仍含有偏高的天然果糖。對於糖尿病患者或飲食需要控制糖分攝取的人群來說,宜適量食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。</t>
+  </si>
+  <si>
+    <t>芒果屬於甜份偏高的水果，若本身需要體重控制、糖尿病患，以及血糖控制欠佳的人，吃芒果時要特別注意份量。請按此瀏覽更多有關針對糖尿病的飲食貼士。</t>
+  </si>
+  <si>
+    <t>菠蘿屬於甜份偏高的水果，若本身需要體重控制、糖尿病患，以及血糖控制欠佳的人，吃芒果時要特別注意份量。請按此瀏覽更多有關針對糖尿病的飲食貼士。</t>
+  </si>
+  <si>
+    <t>藍莓屬於高纖低升糖水果，但仍含有偏高的天然果糖。對於糖尿病患者或飲食需要控制糖分攝取的人群來說,宜適量食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。</t>
+  </si>
+  <si>
+    <t>西瓜的糖份相對較低，而且含有大量的水分和膳食纖維，能夠增加飽足感，有助於控制食慾和減少進食量，是健康之選。請按此瀏覽更多有關高纖飲食的貼士。</t>
+  </si>
+  <si>
+    <t>金奇異果屬於高纖低升糖水果，但仍含有偏高的天然果糖。對於糖尿病患者或飲食需要控制糖分攝取的人群來說,宜適量食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。</t>
+  </si>
+  <si>
+    <t>柚子屬於高纖低升糖水果，但仍含有偏高的天然果糖。對於糖尿病患者或飲食需要控制糖分攝取的人群來說,宜適量食用。請按此瀏覽更多有關針對糖尿病的飲食貼士。</t>
   </si>
 </sst>
 </file>
@@ -4383,7 +4416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4499,17 +4532,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4739,7 +4761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4976,10 +4998,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5356,10 +5375,10 @@
   <dimension ref="A1:BB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AE92" sqref="AE92"/>
+      <selection pane="bottomRight" activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5498,30 +5517,30 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="92"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
       <c r="R3" s="3"/>
       <c r="S3" s="10"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="90" t="s">
+      <c r="V3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="92"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="89"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="46"/>
       <c r="AF3" s="46"/>
@@ -5742,8 +5761,8 @@
         <f>VLOOKUP(F5, $BA$1:$BB$500, 2, FALSE)</f>
         <v>136blLX7KGr5vaEqgyNpYRqTyA9iCvG-g</v>
       </c>
-      <c r="AF5" s="46" t="s">
-        <v>815</v>
+      <c r="AF5" s="81" t="s">
+        <v>1092</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>34</v>
@@ -5762,11 +5781,11 @@
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
-      <c r="BA5" s="85" t="s">
+      <c r="BA5" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="BB5" s="85" t="s">
-        <v>1096</v>
+      <c r="BB5" s="82" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:54" ht="14.25" customHeight="1">
@@ -5871,8 +5890,8 @@
         <f>VLOOKUP(F6, $BA$1:$BB$500, 2, FALSE)</f>
         <v>1LrKxHotbfGCUIvt2hNWPwQWd1GTHAJMl</v>
       </c>
-      <c r="AF6" s="46" t="s">
-        <v>816</v>
+      <c r="AF6" s="81" t="s">
+        <v>1093</v>
       </c>
       <c r="AG6" s="31">
         <v>17.600000000000001</v>
@@ -5892,11 +5911,11 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
       <c r="AO6" s="2"/>
-      <c r="BA6" s="85" t="s">
+      <c r="BA6" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="BB6" s="85" t="s">
-        <v>1097</v>
+      <c r="BB6" s="82" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:54" ht="14.25" customHeight="1">
@@ -5999,8 +6018,8 @@
         <f t="shared" ref="AE7:AE70" si="4">VLOOKUP(F7, $BA$1:$BB$500, 2, FALSE)</f>
         <v>1uJCqqU9MNf04OMWZOBf3bOJ1QuunhVog</v>
       </c>
-      <c r="AF7" s="46" t="s">
-        <v>817</v>
+      <c r="AF7" s="81" t="s">
+        <v>1094</v>
       </c>
       <c r="AG7" s="33">
         <v>3.1</v>
@@ -6019,11 +6038,11 @@
       <c r="AM7" s="12"/>
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
-      <c r="BA7" s="85" t="s">
+      <c r="BA7" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="BB7" s="85" t="s">
-        <v>1098</v>
+      <c r="BB7" s="82" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:54" ht="14.25" customHeight="1">
@@ -6126,8 +6145,8 @@
         <f t="shared" si="4"/>
         <v>1Z0xxENBFFbgKWvL2i8Vd0HFUkUHL3Y7m</v>
       </c>
-      <c r="AF8" s="46" t="s">
-        <v>818</v>
+      <c r="AF8" s="81" t="s">
+        <v>1095</v>
       </c>
       <c r="AG8" s="33" t="str">
         <f>VLOOKUP(F6, BA5:BB224, 2, FALSE)</f>
@@ -6148,11 +6167,11 @@
       <c r="AM8" s="12"/>
       <c r="AN8" s="13"/>
       <c r="AO8" s="2"/>
-      <c r="BA8" s="85" t="s">
-        <v>1099</v>
-      </c>
-      <c r="BB8" s="85" t="s">
-        <v>1100</v>
+      <c r="BA8" s="82" t="s">
+        <v>832</v>
+      </c>
+      <c r="BB8" s="82" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="14.25" customHeight="1">
@@ -6258,20 +6277,20 @@
         <f t="shared" si="4"/>
         <v>1_gteOJ4_NGKCTZ7QRMeHmzvRh3QDyiZO</v>
       </c>
-      <c r="AF9" s="46" t="s">
-        <v>819</v>
-      </c>
-      <c r="AG9" s="93">
+      <c r="AF9" s="81" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AG9" s="90">
         <v>21</v>
       </c>
-      <c r="AH9" s="93">
+      <c r="AH9" s="90">
         <v>27</v>
       </c>
-      <c r="AI9" s="93">
+      <c r="AI9" s="90">
         <f>AJ9*388</f>
         <v>698.4</v>
       </c>
-      <c r="AJ9" s="94">
+      <c r="AJ9" s="91">
         <v>1.8</v>
       </c>
       <c r="AK9" s="2"/>
@@ -6279,11 +6298,11 @@
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
-      <c r="BA9" s="85" t="s">
-        <v>1101</v>
-      </c>
-      <c r="BB9" s="85" t="s">
-        <v>1102</v>
+      <c r="BA9" s="82" t="s">
+        <v>834</v>
+      </c>
+      <c r="BB9" s="82" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="10" spans="1:54" ht="14.25" customHeight="1" thickBot="1">
@@ -6386,23 +6405,23 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF10" s="46" t="s">
-        <v>820</v>
-      </c>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="95"/>
+      <c r="AF10" s="81" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="92"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
-      <c r="BA10" s="85" t="s">
+      <c r="BA10" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="BB10" s="85" t="s">
-        <v>1103</v>
+      <c r="BB10" s="82" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="11" spans="1:54" ht="14.25" customHeight="1" thickBot="1">
@@ -6503,8 +6522,8 @@
         <f t="shared" si="4"/>
         <v>1e9mM4_bLeVc59TWj_tDMA_Tbi78MJiaY</v>
       </c>
-      <c r="AF11" s="46" t="s">
-        <v>821</v>
+      <c r="AF11" s="81" t="s">
+        <v>1098</v>
       </c>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -6515,11 +6534,11 @@
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
-      <c r="BA11" s="85" t="s">
-        <v>1104</v>
-      </c>
-      <c r="BB11" s="85" t="s">
-        <v>1105</v>
+      <c r="BA11" s="82" t="s">
+        <v>837</v>
+      </c>
+      <c r="BB11" s="82" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="12" spans="1:54" ht="14.25" customHeight="1">
@@ -6623,7 +6642,7 @@
         <v>#N/A</v>
       </c>
       <c r="AF12" s="46" t="s">
-        <v>822</v>
+        <v>1099</v>
       </c>
       <c r="AG12" s="37" t="s">
         <v>42</v>
@@ -6638,11 +6657,11 @@
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
-      <c r="BA12" s="85" t="s">
-        <v>1106</v>
-      </c>
-      <c r="BB12" s="85" t="s">
-        <v>1107</v>
+      <c r="BA12" s="82" t="s">
+        <v>839</v>
+      </c>
+      <c r="BB12" s="82" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:54" ht="14.25" customHeight="1">
@@ -6743,8 +6762,8 @@
         <f t="shared" si="4"/>
         <v>1yUBcz8itV2UrbtXXEf0QzqAv5-Kxd9p3</v>
       </c>
-      <c r="AF13" s="46" t="s">
-        <v>823</v>
+      <c r="AF13" s="81" t="s">
+        <v>1100</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>2</v>
@@ -6763,11 +6782,11 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
-      <c r="BA13" s="85" t="s">
-        <v>1108</v>
-      </c>
-      <c r="BB13" s="85" t="s">
-        <v>1109</v>
+      <c r="BA13" s="82" t="s">
+        <v>841</v>
+      </c>
+      <c r="BB13" s="82" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:54" ht="14.25" customHeight="1">
@@ -6868,13 +6887,13 @@
         <f t="shared" si="4"/>
         <v>1PBzisvdNx7hKMxDMdCey3pf0Qeb-0urx</v>
       </c>
-      <c r="AF14" s="46" t="s">
-        <v>824</v>
-      </c>
-      <c r="AG14" s="86" t="s">
+      <c r="AF14" s="81" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AG14" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AH14" s="87"/>
+      <c r="AH14" s="84"/>
       <c r="AI14" s="2">
         <v>3</v>
       </c>
@@ -6888,11 +6907,11 @@
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
-      <c r="BA14" s="85" t="s">
+      <c r="BA14" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="BB14" s="85" t="s">
-        <v>1110</v>
+      <c r="BB14" s="82" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:54" ht="14.25" customHeight="1">
@@ -6993,8 +7012,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF15" s="46" t="s">
-        <v>825</v>
+      <c r="AF15" s="81" t="s">
+        <v>1102</v>
       </c>
       <c r="AG15" s="2">
         <v>15</v>
@@ -7002,10 +7021,10 @@
       <c r="AH15" s="2">
         <v>7.5</v>
       </c>
-      <c r="AI15" s="86">
+      <c r="AI15" s="83">
         <v>5</v>
       </c>
-      <c r="AJ15" s="87"/>
+      <c r="AJ15" s="84"/>
       <c r="AK15" s="40" t="s">
         <v>73</v>
       </c>
@@ -7013,11 +7032,11 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
-      <c r="BA15" s="85" t="s">
+      <c r="BA15" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="BB15" s="85" t="s">
-        <v>1111</v>
+      <c r="BB15" s="82" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="16" spans="1:54" ht="14.25" customHeight="1" thickBot="1">
@@ -7118,8 +7137,8 @@
         <f t="shared" si="4"/>
         <v>1AKpdbxJyj7QZv8lKqGNcFa_cCCegyAck</v>
       </c>
-      <c r="AF16" s="46" t="s">
-        <v>826</v>
+      <c r="AF16" s="81" t="s">
+        <v>1103</v>
       </c>
       <c r="AG16" s="42">
         <v>600</v>
@@ -7127,10 +7146,10 @@
       <c r="AH16" s="42">
         <v>300</v>
       </c>
-      <c r="AI16" s="88">
+      <c r="AI16" s="85">
         <v>120</v>
       </c>
-      <c r="AJ16" s="89"/>
+      <c r="AJ16" s="86"/>
       <c r="AK16" s="43" t="s">
         <v>78</v>
       </c>
@@ -7138,11 +7157,11 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
-      <c r="BA16" s="85" t="s">
+      <c r="BA16" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="BB16" s="85" t="s">
-        <v>1112</v>
+      <c r="BB16" s="82" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:54" ht="14.25" customHeight="1">
@@ -7243,8 +7262,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF17" s="46" t="s">
-        <v>827</v>
+      <c r="AF17" s="81" t="s">
+        <v>1104</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>81</v>
@@ -7257,11 +7276,11 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
-      <c r="BA17" s="85" t="s">
+      <c r="BA17" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="BB17" s="85" t="s">
-        <v>1113</v>
+      <c r="BB17" s="82" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="18" spans="1:54" ht="14.25" customHeight="1">
@@ -7362,8 +7381,8 @@
         <f t="shared" si="4"/>
         <v>1XrZwTUfRF-MpgegzdQNQVpV40EcFJr5d</v>
       </c>
-      <c r="AF18" s="46" t="s">
-        <v>828</v>
+      <c r="AF18" s="81" t="s">
+        <v>1105</v>
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -7374,11 +7393,11 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
-      <c r="BA18" s="85" t="s">
+      <c r="BA18" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="BB18" s="85" t="s">
-        <v>1114</v>
+      <c r="BB18" s="82" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="19" spans="1:54" ht="14.25" customHeight="1">
@@ -7479,8 +7498,8 @@
         <f t="shared" si="4"/>
         <v>1_Tx8Zv6bYUWO5n44W9TT4kWNtHlX8uLx</v>
       </c>
-      <c r="AF19" s="46" t="s">
-        <v>829</v>
+      <c r="AF19" s="81" t="s">
+        <v>1106</v>
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -7491,11 +7510,11 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
-      <c r="BA19" s="85" t="s">
+      <c r="BA19" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="BB19" s="85" t="s">
-        <v>1115</v>
+      <c r="BB19" s="82" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="20" spans="1:54" ht="14.25" customHeight="1">
@@ -7596,8 +7615,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF20" s="46" t="s">
-        <v>830</v>
+      <c r="AF20" s="81" t="s">
+        <v>1107</v>
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -7608,11 +7627,11 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
-      <c r="BA20" s="85" t="s">
+      <c r="BA20" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="BB20" s="85" t="s">
-        <v>1116</v>
+      <c r="BB20" s="82" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="21" spans="1:54" ht="14.25" customHeight="1">
@@ -7713,8 +7732,8 @@
         <f t="shared" si="4"/>
         <v>138vMzQHGZr2Qnq20hVxIHt2NG_HxxFVw</v>
       </c>
-      <c r="AF21" s="46" t="s">
-        <v>831</v>
+      <c r="AF21" s="81" t="s">
+        <v>1108</v>
       </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -7725,11 +7744,11 @@
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
-      <c r="BA21" s="85" t="s">
+      <c r="BA21" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="BB21" s="85" t="s">
-        <v>1117</v>
+      <c r="BB21" s="82" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="22" spans="1:54" ht="14.25" customHeight="1">
@@ -7830,8 +7849,8 @@
         <f t="shared" si="4"/>
         <v>1mSMobMyQsoyPaqw4yM1I4xr5sKXEnCoU</v>
       </c>
-      <c r="AF22" s="46" t="s">
-        <v>832</v>
+      <c r="AF22" s="81" t="s">
+        <v>1109</v>
       </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -7842,11 +7861,11 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
-      <c r="BA22" s="85" t="s">
+      <c r="BA22" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="BB22" s="85" t="s">
-        <v>1118</v>
+      <c r="BB22" s="82" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="23" spans="1:54" ht="14.25" customHeight="1">
@@ -7947,8 +7966,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF23" s="46" t="s">
-        <v>833</v>
+      <c r="AF23" s="81" t="s">
+        <v>1110</v>
       </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
@@ -7959,11 +7978,11 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
-      <c r="BA23" s="85" t="s">
+      <c r="BA23" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="BB23" s="85" t="s">
-        <v>1119</v>
+      <c r="BB23" s="82" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="24" spans="1:54" ht="14.25" customHeight="1">
@@ -8064,8 +8083,8 @@
         <f t="shared" si="4"/>
         <v>1p75_QV8s94er8K4UjLjOufSUO54Dg527</v>
       </c>
-      <c r="AF24" s="46" t="s">
-        <v>834</v>
+      <c r="AF24" s="81" t="s">
+        <v>1111</v>
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -8076,11 +8095,11 @@
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
-      <c r="BA24" s="85" t="s">
+      <c r="BA24" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="BB24" s="85" t="s">
-        <v>1120</v>
+      <c r="BB24" s="82" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="25" spans="1:54" ht="14.25" customHeight="1">
@@ -8181,8 +8200,8 @@
         <f t="shared" si="4"/>
         <v>14NtF06EyoNh6Zh8PQgsB5DGEDPGVlicJ</v>
       </c>
-      <c r="AF25" s="46" t="s">
-        <v>835</v>
+      <c r="AF25" s="81" t="s">
+        <v>1112</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -8193,11 +8212,11 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
-      <c r="BA25" s="85" t="s">
+      <c r="BA25" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="BB25" s="85" t="s">
-        <v>1121</v>
+      <c r="BB25" s="82" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="26" spans="1:54" ht="14.25" customHeight="1">
@@ -8298,8 +8317,8 @@
         <f t="shared" si="4"/>
         <v>1GEXhZcK_chMDqs87tMIaTTZIx0PNh3IG</v>
       </c>
-      <c r="AF26" s="46" t="s">
-        <v>836</v>
+      <c r="AF26" s="81" t="s">
+        <v>1113</v>
       </c>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
@@ -8310,11 +8329,11 @@
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
-      <c r="BA26" s="85" t="s">
+      <c r="BA26" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="BB26" s="85" t="s">
-        <v>1122</v>
+      <c r="BB26" s="82" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="27" spans="1:54" ht="14.25" customHeight="1">
@@ -8415,8 +8434,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF27" s="46" t="s">
-        <v>837</v>
+      <c r="AF27" s="81" t="s">
+        <v>1114</v>
       </c>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -8427,11 +8446,11 @@
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
-      <c r="BA27" s="85" t="s">
+      <c r="BA27" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="BB27" s="85" t="s">
-        <v>1123</v>
+      <c r="BB27" s="82" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="28" spans="1:54" ht="14.25" customHeight="1">
@@ -8532,8 +8551,8 @@
         <f t="shared" si="4"/>
         <v>14ETNWGbRfl0UvH8wHbpzcY02TCQSQl5E</v>
       </c>
-      <c r="AF28" s="46" t="s">
-        <v>838</v>
+      <c r="AF28" s="81" t="s">
+        <v>1115</v>
       </c>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
@@ -8544,11 +8563,11 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
-      <c r="BA28" s="85" t="s">
+      <c r="BA28" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="BB28" s="85" t="s">
-        <v>1124</v>
+      <c r="BB28" s="82" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="29" spans="1:54" ht="14.25" customHeight="1">
@@ -8649,8 +8668,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF29" s="46" t="s">
-        <v>839</v>
+      <c r="AF29" s="81" t="s">
+        <v>1116</v>
       </c>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -8661,11 +8680,11 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
-      <c r="BA29" s="85" t="s">
+      <c r="BA29" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="BB29" s="85" t="s">
-        <v>1125</v>
+      <c r="BB29" s="82" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="30" spans="1:54" ht="14.25" customHeight="1">
@@ -8766,8 +8785,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF30" s="46" t="s">
-        <v>840</v>
+      <c r="AF30" s="81" t="s">
+        <v>1117</v>
       </c>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -8778,11 +8797,11 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
-      <c r="BA30" s="85" t="s">
+      <c r="BA30" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="BB30" s="85" t="s">
-        <v>1126</v>
+      <c r="BB30" s="82" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="31" spans="1:54" ht="14.25" customHeight="1">
@@ -8883,8 +8902,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF31" s="46" t="s">
-        <v>841</v>
+      <c r="AF31" s="81" t="s">
+        <v>1118</v>
       </c>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -8895,11 +8914,11 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
-      <c r="BA31" s="85" t="s">
+      <c r="BA31" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="BB31" s="85" t="s">
-        <v>1127</v>
+      <c r="BB31" s="82" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="32" spans="1:54" ht="14.25" customHeight="1">
@@ -9002,8 +9021,8 @@
         <f t="shared" si="4"/>
         <v>1GHEFdfL-neoeA-bpWKDdrTtZyWx-o7qq</v>
       </c>
-      <c r="AF32" s="46" t="s">
-        <v>842</v>
+      <c r="AF32" s="81" t="s">
+        <v>1119</v>
       </c>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
@@ -9014,11 +9033,11 @@
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
-      <c r="BA32" s="85" t="s">
+      <c r="BA32" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="BB32" s="85" t="s">
-        <v>1128</v>
+      <c r="BB32" s="82" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="33" spans="1:54" ht="14.25" customHeight="1">
@@ -9119,8 +9138,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF33" s="46" t="s">
-        <v>843</v>
+      <c r="AF33" s="81" t="s">
+        <v>1120</v>
       </c>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -9131,11 +9150,11 @@
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
-      <c r="BA33" s="85" t="s">
+      <c r="BA33" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="BB33" s="85" t="s">
-        <v>1129</v>
+      <c r="BB33" s="82" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="34" spans="1:54" ht="14.25" customHeight="1">
@@ -9236,8 +9255,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF34" s="46" t="s">
-        <v>844</v>
+      <c r="AF34" s="81" t="s">
+        <v>1121</v>
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
@@ -9248,11 +9267,11 @@
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
-      <c r="BA34" s="85" t="s">
+      <c r="BA34" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="BB34" s="85" t="s">
-        <v>1130</v>
+      <c r="BB34" s="82" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="35" spans="1:54" ht="14.25" customHeight="1">
@@ -9353,8 +9372,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF35" s="46" t="s">
-        <v>845</v>
+      <c r="AF35" s="81" t="s">
+        <v>1122</v>
       </c>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
@@ -9365,11 +9384,11 @@
       <c r="AM35" s="2"/>
       <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
-      <c r="BA35" s="85" t="s">
+      <c r="BA35" s="82" t="s">
         <v>279</v>
       </c>
-      <c r="BB35" s="85" t="s">
-        <v>1131</v>
+      <c r="BB35" s="82" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="36" spans="1:54" ht="14.25" customHeight="1">
@@ -9470,8 +9489,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF36" s="46" t="s">
-        <v>846</v>
+      <c r="AF36" s="81" t="s">
+        <v>1123</v>
       </c>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
@@ -9482,11 +9501,11 @@
       <c r="AM36" s="2"/>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
-      <c r="BA36" s="85" t="s">
+      <c r="BA36" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="BB36" s="85" t="s">
-        <v>1132</v>
+      <c r="BB36" s="82" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="37" spans="1:54" ht="14.25" customHeight="1">
@@ -9587,8 +9606,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF37" s="46" t="s">
-        <v>847</v>
+      <c r="AF37" s="81" t="s">
+        <v>1124</v>
       </c>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
@@ -9599,11 +9618,11 @@
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
-      <c r="BA37" s="85" t="s">
+      <c r="BA37" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="BB37" s="85" t="s">
-        <v>1133</v>
+      <c r="BB37" s="82" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="38" spans="1:54" ht="14.25" customHeight="1">
@@ -9704,8 +9723,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF38" s="46" t="s">
-        <v>848</v>
+      <c r="AF38" s="81" t="s">
+        <v>1125</v>
       </c>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
@@ -9716,11 +9735,11 @@
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
-      <c r="BA38" s="85" t="s">
+      <c r="BA38" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="BB38" s="85" t="s">
-        <v>1134</v>
+      <c r="BB38" s="82" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="39" spans="1:54" ht="14.25" customHeight="1">
@@ -9822,7 +9841,7 @@
         <v>1b2t0FDlhvLs9mBn8Hhj_DVFcOWtNJsYp</v>
       </c>
       <c r="AF39" s="46" t="s">
-        <v>849</v>
+        <v>815</v>
       </c>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
@@ -9833,11 +9852,11 @@
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
-      <c r="BA39" s="85" t="s">
+      <c r="BA39" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="BB39" s="85" t="s">
-        <v>1135</v>
+      <c r="BB39" s="82" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="40" spans="1:54" ht="14.25" customHeight="1">
@@ -9938,8 +9957,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF40" s="46" t="s">
-        <v>850</v>
+      <c r="AF40" s="81" t="s">
+        <v>1126</v>
       </c>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
@@ -9950,11 +9969,11 @@
       <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
-      <c r="BA40" s="85" t="s">
+      <c r="BA40" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="BB40" s="85" t="s">
-        <v>1136</v>
+      <c r="BB40" s="82" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="41" spans="1:54" ht="14.25" customHeight="1">
@@ -10055,8 +10074,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF41" s="46" t="s">
-        <v>851</v>
+      <c r="AF41" s="81" t="s">
+        <v>1127</v>
       </c>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
@@ -10067,11 +10086,11 @@
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
-      <c r="BA41" s="85" t="s">
+      <c r="BA41" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="BB41" s="85" t="s">
-        <v>1137</v>
+      <c r="BB41" s="82" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="42" spans="1:54" ht="14.25" customHeight="1">
@@ -10172,8 +10191,8 @@
         <f t="shared" si="4"/>
         <v>1gDFVkMtgTJYbcGobjk09BdwWrGHls9FI</v>
       </c>
-      <c r="AF42" s="46" t="s">
-        <v>852</v>
+      <c r="AF42" s="81" t="s">
+        <v>1128</v>
       </c>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
@@ -10184,11 +10203,11 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
-      <c r="BA42" s="85" t="s">
+      <c r="BA42" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="BB42" s="85" t="s">
-        <v>1138</v>
+      <c r="BB42" s="82" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="43" spans="1:54" ht="14.25" customHeight="1">
@@ -10289,8 +10308,8 @@
         <f t="shared" si="4"/>
         <v>1NUC58QPaiGXW_JOezlvMuNBc_AJP_lMK</v>
       </c>
-      <c r="AF43" s="46" t="s">
-        <v>853</v>
+      <c r="AF43" s="81" t="s">
+        <v>1129</v>
       </c>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
@@ -10301,11 +10320,11 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
-      <c r="BA43" s="85" t="s">
+      <c r="BA43" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="BB43" s="85" t="s">
-        <v>1139</v>
+      <c r="BB43" s="82" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="44" spans="1:54" ht="14.25" customHeight="1">
@@ -10407,7 +10426,7 @@
         <v>#N/A</v>
       </c>
       <c r="AF44" s="46" t="s">
-        <v>854</v>
+        <v>816</v>
       </c>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
@@ -10418,11 +10437,11 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
-      <c r="BA44" s="85" t="s">
+      <c r="BA44" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="BB44" s="85" t="s">
-        <v>1140</v>
+      <c r="BB44" s="82" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="45" spans="1:54" ht="14.25" customHeight="1">
@@ -10524,7 +10543,7 @@
         <v>#N/A</v>
       </c>
       <c r="AF45" s="46" t="s">
-        <v>855</v>
+        <v>817</v>
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
@@ -10535,11 +10554,11 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
-      <c r="BA45" s="85" t="s">
+      <c r="BA45" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="BB45" s="85" t="s">
-        <v>1141</v>
+      <c r="BB45" s="82" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="46" spans="1:54" ht="14.25" customHeight="1">
@@ -10641,7 +10660,7 @@
         <v>1pWqEmU5pFwvgEAf4bCg_YsiChQEP0Rhb</v>
       </c>
       <c r="AF46" s="46" t="s">
-        <v>855</v>
+        <v>817</v>
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
@@ -10652,11 +10671,11 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
-      <c r="BA46" s="85" t="s">
+      <c r="BA46" s="82" t="s">
         <v>275</v>
       </c>
-      <c r="BB46" s="85" t="s">
-        <v>1142</v>
+      <c r="BB46" s="82" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="47" spans="1:54" ht="14.25" customHeight="1">
@@ -10757,8 +10776,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF47" s="46" t="s">
-        <v>856</v>
+      <c r="AF47" s="81" t="s">
+        <v>1130</v>
       </c>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
@@ -10769,11 +10788,11 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
-      <c r="BA47" s="85" t="s">
+      <c r="BA47" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="BB47" s="85" t="s">
-        <v>1143</v>
+      <c r="BB47" s="82" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="48" spans="1:54" ht="14.25" customHeight="1">
@@ -10874,8 +10893,8 @@
         <f t="shared" si="4"/>
         <v>1IN5Z9h118X08_h52in-rYb3HLCx8Vbsx</v>
       </c>
-      <c r="AF48" s="46" t="s">
-        <v>857</v>
+      <c r="AF48" s="81" t="s">
+        <v>1131</v>
       </c>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
@@ -10886,11 +10905,11 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
-      <c r="BA48" s="85" t="s">
+      <c r="BA48" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="BB48" s="85" t="s">
-        <v>1144</v>
+      <c r="BB48" s="82" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="49" spans="1:54" ht="14.25" customHeight="1">
@@ -10988,10 +11007,10 @@
         <v>148</v>
       </c>
       <c r="AE49" s="81" t="s">
-        <v>1357</v>
-      </c>
-      <c r="AF49" s="46" t="s">
-        <v>856</v>
+        <v>1090</v>
+      </c>
+      <c r="AF49" s="81" t="s">
+        <v>1130</v>
       </c>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
@@ -11002,11 +11021,11 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
-      <c r="BA49" s="85" t="s">
+      <c r="BA49" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="BB49" s="85" t="s">
-        <v>1145</v>
+      <c r="BB49" s="82" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="50" spans="1:54" ht="14.25" customHeight="1">
@@ -11107,8 +11126,8 @@
         <f t="shared" si="4"/>
         <v>16ZTLc1kB37dN-26aS2NWjGr6fsrK1ANB</v>
       </c>
-      <c r="AF50" s="46" t="s">
-        <v>858</v>
+      <c r="AF50" s="81" t="s">
+        <v>1132</v>
       </c>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
@@ -11119,11 +11138,11 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
-      <c r="BA50" s="85" t="s">
+      <c r="BA50" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="BB50" s="85" t="s">
-        <v>1146</v>
+      <c r="BB50" s="82" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="51" spans="1:54" ht="14.25" customHeight="1">
@@ -11224,8 +11243,8 @@
         <f t="shared" si="4"/>
         <v>1O1EHEMIqDDcEoNl3TZZunlUWhtPGZUN3</v>
       </c>
-      <c r="AF51" s="46" t="s">
-        <v>859</v>
+      <c r="AF51" s="81" t="s">
+        <v>1133</v>
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
@@ -11236,11 +11255,11 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
-      <c r="BA51" s="85" t="s">
+      <c r="BA51" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="BB51" s="85" t="s">
-        <v>1147</v>
+      <c r="BB51" s="82" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="52" spans="1:54" ht="14.25" customHeight="1">
@@ -11343,8 +11362,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF52" s="46" t="s">
-        <v>860</v>
+      <c r="AF52" s="81" t="s">
+        <v>1134</v>
       </c>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
@@ -11355,11 +11374,11 @@
       <c r="AM52" s="1"/>
       <c r="AN52" s="1"/>
       <c r="AO52" s="1"/>
-      <c r="BA52" s="85" t="s">
+      <c r="BA52" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="BB52" s="85" t="s">
-        <v>1148</v>
+      <c r="BB52" s="82" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="53" spans="1:54" ht="14.25" customHeight="1">
@@ -11460,8 +11479,8 @@
         <f t="shared" si="4"/>
         <v>15UJMo8VT2M7pitWQ4MP7V0DRNr_IQVuL</v>
       </c>
-      <c r="AF53" s="46" t="s">
-        <v>861</v>
+      <c r="AF53" s="81" t="s">
+        <v>1135</v>
       </c>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
@@ -11472,11 +11491,11 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
       <c r="AO53" s="1"/>
-      <c r="BA53" s="85" t="s">
+      <c r="BA53" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="BB53" s="85" t="s">
-        <v>1149</v>
+      <c r="BB53" s="82" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="54" spans="1:54" ht="14.25" customHeight="1">
@@ -11578,7 +11597,7 @@
         <v>1XYju8TzaE3tVxIZ_rl_e_CvzrqHbrd5i</v>
       </c>
       <c r="AF54" s="46" t="s">
-        <v>855</v>
+        <v>817</v>
       </c>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
@@ -11589,11 +11608,11 @@
       <c r="AM54" s="1"/>
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
-      <c r="BA54" s="85" t="s">
+      <c r="BA54" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="BB54" s="85" t="s">
-        <v>1150</v>
+      <c r="BB54" s="82" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="55" spans="1:54" ht="14.25" customHeight="1">
@@ -11695,7 +11714,7 @@
         <v>13gZa4uo8mbZG7KmXidyo_3QYlBz5HtMb</v>
       </c>
       <c r="AF55" s="46" t="s">
-        <v>862</v>
+        <v>818</v>
       </c>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -11706,11 +11725,11 @@
       <c r="AM55" s="1"/>
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
-      <c r="BA55" s="85" t="s">
+      <c r="BA55" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="BB55" s="85" t="s">
-        <v>1151</v>
+      <c r="BB55" s="82" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="56" spans="1:54" ht="14.25" customHeight="1">
@@ -11812,7 +11831,7 @@
         <v>1V0lJuquX7WJwO9S5FuHxi7iFMZO3Zt_x</v>
       </c>
       <c r="AF56" s="46" t="s">
-        <v>855</v>
+        <v>817</v>
       </c>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -11823,11 +11842,11 @@
       <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
       <c r="AO56" s="1"/>
-      <c r="BA56" s="85" t="s">
+      <c r="BA56" s="82" t="s">
         <v>327</v>
       </c>
-      <c r="BB56" s="85" t="s">
-        <v>1152</v>
+      <c r="BB56" s="82" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="57" spans="1:54" ht="14.25" customHeight="1">
@@ -11929,7 +11948,7 @@
         <v>1u4JWBrqle2BsffYxkB7FC3EepKOljA-o</v>
       </c>
       <c r="AF57" s="46" t="s">
-        <v>855</v>
+        <v>817</v>
       </c>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -11940,11 +11959,11 @@
       <c r="AM57" s="1"/>
       <c r="AN57" s="1"/>
       <c r="AO57" s="1"/>
-      <c r="BA57" s="85" t="s">
+      <c r="BA57" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="BB57" s="85" t="s">
-        <v>1153</v>
+      <c r="BB57" s="82" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="58" spans="1:54" ht="14.25" customHeight="1">
@@ -12045,8 +12064,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF58" s="46" t="s">
-        <v>863</v>
+      <c r="AF58" s="81" t="s">
+        <v>1136</v>
       </c>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -12057,11 +12076,11 @@
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
       <c r="AO58" s="1"/>
-      <c r="BA58" s="85" t="s">
+      <c r="BA58" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="BB58" s="85" t="s">
-        <v>1154</v>
+      <c r="BB58" s="82" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="59" spans="1:54" ht="14.25" customHeight="1">
@@ -12162,8 +12181,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF59" s="46" t="s">
-        <v>863</v>
+      <c r="AF59" s="81" t="s">
+        <v>1136</v>
       </c>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
@@ -12174,11 +12193,11 @@
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
       <c r="AO59" s="1"/>
-      <c r="BA59" s="85" t="s">
+      <c r="BA59" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="BB59" s="85" t="s">
-        <v>1155</v>
+      <c r="BB59" s="82" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="60" spans="1:54" ht="14.25" customHeight="1">
@@ -12279,8 +12298,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF60" s="46" t="s">
-        <v>863</v>
+      <c r="AF60" s="81" t="s">
+        <v>1136</v>
       </c>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
@@ -12291,11 +12310,11 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
       <c r="AO60" s="1"/>
-      <c r="BA60" s="85" t="s">
+      <c r="BA60" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="BB60" s="85" t="s">
-        <v>1156</v>
+      <c r="BB60" s="82" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="61" spans="1:54" ht="14.25" customHeight="1">
@@ -12396,8 +12415,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF61" s="46" t="s">
-        <v>863</v>
+      <c r="AF61" s="81" t="s">
+        <v>1136</v>
       </c>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -12408,11 +12427,11 @@
       <c r="AM61" s="1"/>
       <c r="AN61" s="1"/>
       <c r="AO61" s="1"/>
-      <c r="BA61" s="85" t="s">
+      <c r="BA61" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="BB61" s="85" t="s">
-        <v>1157</v>
+      <c r="BB61" s="82" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="62" spans="1:54" ht="14.25" customHeight="1">
@@ -12513,8 +12532,8 @@
         <f t="shared" si="4"/>
         <v>1eekFLBgM90AQH-Jt-X5drPEc2gfWNzo_</v>
       </c>
-      <c r="AF62" s="46" t="s">
-        <v>864</v>
+      <c r="AF62" s="81" t="s">
+        <v>1137</v>
       </c>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -12525,11 +12544,11 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
       <c r="AO62" s="1"/>
-      <c r="BA62" s="85" t="s">
+      <c r="BA62" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="BB62" s="85" t="s">
-        <v>1158</v>
+      <c r="BB62" s="82" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="63" spans="1:54" ht="14.25" customHeight="1">
@@ -12630,8 +12649,8 @@
         <f t="shared" si="4"/>
         <v>1IH4VgRy-vYcNh7GlUuGREcqFo__6KK0X</v>
       </c>
-      <c r="AF63" s="46" t="s">
-        <v>865</v>
+      <c r="AF63" s="81" t="s">
+        <v>1138</v>
       </c>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -12642,11 +12661,11 @@
       <c r="AM63" s="1"/>
       <c r="AN63" s="1"/>
       <c r="AO63" s="1"/>
-      <c r="BA63" s="85" t="s">
+      <c r="BA63" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="BB63" s="85" t="s">
-        <v>1159</v>
+      <c r="BB63" s="82" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="64" spans="1:54" ht="14.25" customHeight="1">
@@ -12747,8 +12766,8 @@
         <f t="shared" si="4"/>
         <v>1DihgW_XQWbw61LpExTn3Cph6RgW0okvE</v>
       </c>
-      <c r="AF64" s="46" t="s">
-        <v>865</v>
+      <c r="AF64" s="81" t="s">
+        <v>1139</v>
       </c>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
@@ -12759,11 +12778,11 @@
       <c r="AM64" s="1"/>
       <c r="AN64" s="1"/>
       <c r="AO64" s="1"/>
-      <c r="BA64" s="85" t="s">
+      <c r="BA64" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="BB64" s="85" t="s">
-        <v>1160</v>
+      <c r="BB64" s="82" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="65" spans="1:54" ht="14.25" customHeight="1">
@@ -12864,8 +12883,8 @@
         <f t="shared" si="4"/>
         <v>1yv-nCBsD82nfYiWuYhI0a59uPdrF63Fv</v>
       </c>
-      <c r="AF65" s="46" t="s">
-        <v>865</v>
+      <c r="AF65" s="81" t="s">
+        <v>1138</v>
       </c>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
@@ -12876,11 +12895,11 @@
       <c r="AM65" s="1"/>
       <c r="AN65" s="1"/>
       <c r="AO65" s="1"/>
-      <c r="BA65" s="85" t="s">
+      <c r="BA65" s="82" t="s">
         <v>257</v>
       </c>
-      <c r="BB65" s="85" t="s">
-        <v>1161</v>
+      <c r="BB65" s="82" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="66" spans="1:54" ht="14.25" customHeight="1">
@@ -12978,10 +12997,10 @@
         <v>183</v>
       </c>
       <c r="AE66" s="46" t="s">
-        <v>1358</v>
-      </c>
-      <c r="AF66" s="46" t="s">
-        <v>865</v>
+        <v>1091</v>
+      </c>
+      <c r="AF66" s="81" t="s">
+        <v>1138</v>
       </c>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
@@ -12992,11 +13011,11 @@
       <c r="AM66" s="1"/>
       <c r="AN66" s="1"/>
       <c r="AO66" s="1"/>
-      <c r="BA66" s="85" t="s">
+      <c r="BA66" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="BB66" s="85" t="s">
-        <v>1162</v>
+      <c r="BB66" s="82" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="67" spans="1:54" ht="14.25" customHeight="1">
@@ -13097,8 +13116,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF67" s="46" t="s">
-        <v>866</v>
+      <c r="AF67" s="81" t="s">
+        <v>1140</v>
       </c>
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
@@ -13109,11 +13128,11 @@
       <c r="AM67" s="1"/>
       <c r="AN67" s="1"/>
       <c r="AO67" s="1"/>
-      <c r="BA67" s="85" t="s">
+      <c r="BA67" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="BB67" s="85" t="s">
-        <v>1163</v>
+      <c r="BB67" s="82" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="68" spans="1:54" ht="14.25" customHeight="1">
@@ -13214,8 +13233,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF68" s="46" t="s">
-        <v>867</v>
+      <c r="AF68" s="81" t="s">
+        <v>1141</v>
       </c>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
@@ -13226,11 +13245,11 @@
       <c r="AM68" s="1"/>
       <c r="AN68" s="1"/>
       <c r="AO68" s="1"/>
-      <c r="BA68" s="85" t="s">
+      <c r="BA68" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="BB68" s="85" t="s">
-        <v>1164</v>
+      <c r="BB68" s="82" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="69" spans="1:54" ht="14.25" customHeight="1">
@@ -13331,8 +13350,8 @@
         <f t="shared" si="4"/>
         <v>1zWRJpfdXJzYnglXbVUMXqLG21XoKuHsH</v>
       </c>
-      <c r="AF69" s="46" t="s">
-        <v>868</v>
+      <c r="AF69" s="81" t="s">
+        <v>1142</v>
       </c>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
@@ -13343,11 +13362,11 @@
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
       <c r="AO69" s="1"/>
-      <c r="BA69" s="85" t="s">
-        <v>1165</v>
-      </c>
-      <c r="BB69" s="85" t="s">
-        <v>1166</v>
+      <c r="BA69" s="82" t="s">
+        <v>898</v>
+      </c>
+      <c r="BB69" s="82" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="70" spans="1:54" ht="14.25" customHeight="1">
@@ -13448,8 +13467,8 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AF70" s="46" t="s">
-        <v>869</v>
+      <c r="AF70" s="81" t="s">
+        <v>1143</v>
       </c>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
@@ -13460,11 +13479,11 @@
       <c r="AM70" s="1"/>
       <c r="AN70" s="1"/>
       <c r="AO70" s="1"/>
-      <c r="BA70" s="85" t="s">
+      <c r="BA70" s="82" t="s">
         <v>428</v>
       </c>
-      <c r="BB70" s="85" t="s">
-        <v>1167</v>
+      <c r="BB70" s="82" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="71" spans="1:54" ht="14.25" customHeight="1">
@@ -13565,8 +13584,8 @@
         <f t="shared" ref="AE71:AE134" si="69">VLOOKUP(F71, $BA$1:$BB$500, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AF71" s="46" t="s">
-        <v>870</v>
+      <c r="AF71" s="81" t="s">
+        <v>1144</v>
       </c>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
@@ -13577,11 +13596,11 @@
       <c r="AM71" s="1"/>
       <c r="AN71" s="1"/>
       <c r="AO71" s="1"/>
-      <c r="BA71" s="85" t="s">
-        <v>1168</v>
-      </c>
-      <c r="BB71" s="85" t="s">
-        <v>1169</v>
+      <c r="BA71" s="82" t="s">
+        <v>901</v>
+      </c>
+      <c r="BB71" s="82" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="72" spans="1:54" ht="14.25" customHeight="1">
@@ -13682,8 +13701,8 @@
         <f t="shared" si="69"/>
         <v>1h3lF9GHillXlonRsltmSyofiOZP4AlPj</v>
       </c>
-      <c r="AF72" s="46" t="s">
-        <v>871</v>
+      <c r="AF72" s="81" t="s">
+        <v>1145</v>
       </c>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
@@ -13694,11 +13713,11 @@
       <c r="AM72" s="1"/>
       <c r="AN72" s="1"/>
       <c r="AO72" s="1"/>
-      <c r="BA72" s="85" t="s">
+      <c r="BA72" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="BB72" s="85" t="s">
-        <v>1170</v>
+      <c r="BB72" s="82" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="73" spans="1:54" ht="14.25" customHeight="1">
@@ -13799,8 +13818,8 @@
         <f t="shared" si="69"/>
         <v>1hrV0jX0Lr6dmMDx7nk65jUREFhSVrYCV</v>
       </c>
-      <c r="AF73" s="46" t="s">
-        <v>872</v>
+      <c r="AF73" s="81" t="s">
+        <v>1146</v>
       </c>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
@@ -13811,11 +13830,11 @@
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
       <c r="AO73" s="1"/>
-      <c r="BA73" s="85" t="s">
-        <v>1171</v>
-      </c>
-      <c r="BB73" s="85" t="s">
-        <v>1172</v>
+      <c r="BA73" s="82" t="s">
+        <v>904</v>
+      </c>
+      <c r="BB73" s="82" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="74" spans="1:54" ht="14.25" customHeight="1">
@@ -13916,8 +13935,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF74" s="46" t="s">
-        <v>873</v>
+      <c r="AF74" s="81" t="s">
+        <v>1147</v>
       </c>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
@@ -13928,11 +13947,11 @@
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
       <c r="AO74" s="1"/>
-      <c r="BA74" s="85" t="s">
+      <c r="BA74" s="82" t="s">
         <v>398</v>
       </c>
-      <c r="BB74" s="85" t="s">
-        <v>1173</v>
+      <c r="BB74" s="82" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="75" spans="1:54" ht="14.25" customHeight="1">
@@ -14033,8 +14052,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF75" s="46" t="s">
-        <v>874</v>
+      <c r="AF75" s="81" t="s">
+        <v>1148</v>
       </c>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
@@ -14045,11 +14064,11 @@
       <c r="AM75" s="1"/>
       <c r="AN75" s="1"/>
       <c r="AO75" s="1"/>
-      <c r="BA75" s="85" t="s">
+      <c r="BA75" s="82" t="s">
         <v>349</v>
       </c>
-      <c r="BB75" s="85" t="s">
-        <v>1174</v>
+      <c r="BB75" s="82" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="76" spans="1:54" ht="14.25" customHeight="1">
@@ -14150,8 +14169,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF76" s="46" t="s">
-        <v>875</v>
+      <c r="AF76" s="81" t="s">
+        <v>1149</v>
       </c>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
@@ -14162,11 +14181,11 @@
       <c r="AM76" s="1"/>
       <c r="AN76" s="1"/>
       <c r="AO76" s="1"/>
-      <c r="BA76" s="85" t="s">
+      <c r="BA76" s="82" t="s">
         <v>298</v>
       </c>
-      <c r="BB76" s="85" t="s">
-        <v>1175</v>
+      <c r="BB76" s="82" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="77" spans="1:54" ht="14.25" customHeight="1">
@@ -14267,8 +14286,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF77" s="46" t="s">
-        <v>876</v>
+      <c r="AF77" s="81" t="s">
+        <v>1150</v>
       </c>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
@@ -14279,11 +14298,11 @@
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
       <c r="AO77" s="1"/>
-      <c r="BA77" s="85" t="s">
+      <c r="BA77" s="82" t="s">
         <v>355</v>
       </c>
-      <c r="BB77" s="85" t="s">
-        <v>1176</v>
+      <c r="BB77" s="82" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="78" spans="1:54" ht="14.25" customHeight="1">
@@ -14384,8 +14403,8 @@
         <f t="shared" si="69"/>
         <v>1V4Q9t0O5FG4bIWoL7RA2fGpcRMOsNMEj</v>
       </c>
-      <c r="AF78" s="46" t="s">
-        <v>876</v>
+      <c r="AF78" s="81" t="s">
+        <v>1150</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
@@ -14396,11 +14415,11 @@
       <c r="AM78" s="1"/>
       <c r="AN78" s="1"/>
       <c r="AO78" s="1"/>
-      <c r="BA78" s="85" t="s">
+      <c r="BA78" s="82" t="s">
         <v>344</v>
       </c>
-      <c r="BB78" s="85" t="s">
-        <v>1177</v>
+      <c r="BB78" s="82" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="79" spans="1:54" ht="14.25" customHeight="1">
@@ -14501,8 +14520,8 @@
         <f t="shared" si="69"/>
         <v>19wsSxiGfNOUiUBcNzIP9ekB9Yh_e03dg</v>
       </c>
-      <c r="AF79" s="46" t="s">
-        <v>876</v>
+      <c r="AF79" s="81" t="s">
+        <v>1150</v>
       </c>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
@@ -14513,11 +14532,11 @@
       <c r="AM79" s="1"/>
       <c r="AN79" s="1"/>
       <c r="AO79" s="1"/>
-      <c r="BA79" s="85" t="s">
+      <c r="BA79" s="82" t="s">
         <v>333</v>
       </c>
-      <c r="BB79" s="85" t="s">
-        <v>1178</v>
+      <c r="BB79" s="82" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="80" spans="1:54" ht="14.25" customHeight="1">
@@ -14618,8 +14637,8 @@
         <f t="shared" si="69"/>
         <v>13oBzSXJK0uCzErvRlHSfyzW4R1re1-3k</v>
       </c>
-      <c r="AF80" s="46" t="s">
-        <v>876</v>
+      <c r="AF80" s="81" t="s">
+        <v>1150</v>
       </c>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
@@ -14630,11 +14649,11 @@
       <c r="AM80" s="1"/>
       <c r="AN80" s="1"/>
       <c r="AO80" s="1"/>
-      <c r="BA80" s="85" t="s">
+      <c r="BA80" s="82" t="s">
         <v>293</v>
       </c>
-      <c r="BB80" s="85" t="s">
-        <v>1179</v>
+      <c r="BB80" s="82" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="81" spans="1:54" ht="14.25" customHeight="1">
@@ -14735,8 +14754,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF81" s="46" t="s">
-        <v>877</v>
+      <c r="AF81" s="81" t="s">
+        <v>1151</v>
       </c>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
@@ -14747,11 +14766,11 @@
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
       <c r="AO81" s="1"/>
-      <c r="BA81" s="85" t="s">
+      <c r="BA81" s="82" t="s">
         <v>410</v>
       </c>
-      <c r="BB81" s="85" t="s">
-        <v>1180</v>
+      <c r="BB81" s="82" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="82" spans="1:54" ht="14.25" customHeight="1">
@@ -14852,8 +14871,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF82" s="46" t="s">
-        <v>878</v>
+      <c r="AF82" s="81" t="s">
+        <v>1152</v>
       </c>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
@@ -14864,11 +14883,11 @@
       <c r="AM82" s="1"/>
       <c r="AN82" s="1"/>
       <c r="AO82" s="1"/>
-      <c r="BA82" s="85" t="s">
-        <v>1181</v>
-      </c>
-      <c r="BB82" s="85" t="s">
-        <v>1182</v>
+      <c r="BA82" s="82" t="s">
+        <v>914</v>
+      </c>
+      <c r="BB82" s="82" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="83" spans="1:54" ht="14.25" customHeight="1">
@@ -14969,8 +14988,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF83" s="46" t="s">
-        <v>879</v>
+      <c r="AF83" s="81" t="s">
+        <v>1153</v>
       </c>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
@@ -14981,11 +15000,11 @@
       <c r="AM83" s="1"/>
       <c r="AN83" s="1"/>
       <c r="AO83" s="1"/>
-      <c r="BA83" s="85" t="s">
+      <c r="BA83" s="82" t="s">
         <v>383</v>
       </c>
-      <c r="BB83" s="85" t="s">
-        <v>1183</v>
+      <c r="BB83" s="82" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="84" spans="1:54" ht="14.25" customHeight="1">
@@ -15086,8 +15105,8 @@
         <f t="shared" si="69"/>
         <v>1Xe5oAKi0SIOdpUbkBH-xayGBu3F3g-Jl</v>
       </c>
-      <c r="AF84" s="46" t="s">
-        <v>880</v>
+      <c r="AF84" s="81" t="s">
+        <v>1154</v>
       </c>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
@@ -15098,11 +15117,11 @@
       <c r="AM84" s="1"/>
       <c r="AN84" s="1"/>
       <c r="AO84" s="1"/>
-      <c r="BA84" s="85" t="s">
+      <c r="BA84" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="BB84" s="85" t="s">
-        <v>1184</v>
+      <c r="BB84" s="82" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="85" spans="1:54" ht="14.25" customHeight="1">
@@ -15203,8 +15222,8 @@
         <f t="shared" si="69"/>
         <v>1own7I2RWwSpDWgEszaiaerW4gYaSWfo3</v>
       </c>
-      <c r="AF85" s="46" t="s">
-        <v>880</v>
+      <c r="AF85" s="81" t="s">
+        <v>1154</v>
       </c>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
@@ -15215,11 +15234,11 @@
       <c r="AM85" s="1"/>
       <c r="AN85" s="1"/>
       <c r="AO85" s="1"/>
-      <c r="BA85" s="85" t="s">
+      <c r="BA85" s="82" t="s">
         <v>352</v>
       </c>
-      <c r="BB85" s="85" t="s">
-        <v>1185</v>
+      <c r="BB85" s="82" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="86" spans="1:54" ht="14.25" customHeight="1">
@@ -15320,8 +15339,8 @@
         <f t="shared" si="69"/>
         <v>1kYwI6eDCuD8ibB_NfYATiDvvjOAUtx7T</v>
       </c>
-      <c r="AF86" s="46" t="s">
-        <v>880</v>
+      <c r="AF86" s="81" t="s">
+        <v>1154</v>
       </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
@@ -15332,11 +15351,11 @@
       <c r="AM86" s="1"/>
       <c r="AN86" s="1"/>
       <c r="AO86" s="1"/>
-      <c r="BA86" s="85" t="s">
+      <c r="BA86" s="82" t="s">
         <v>416</v>
       </c>
-      <c r="BB86" s="85" t="s">
-        <v>1186</v>
+      <c r="BB86" s="82" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="87" spans="1:54" ht="14.25" customHeight="1">
@@ -15434,10 +15453,10 @@
         <v>225</v>
       </c>
       <c r="AE87" s="81" t="s">
-        <v>1135</v>
-      </c>
-      <c r="AF87" s="46" t="s">
-        <v>880</v>
+        <v>868</v>
+      </c>
+      <c r="AF87" s="81" t="s">
+        <v>1154</v>
       </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
@@ -15448,11 +15467,11 @@
       <c r="AM87" s="1"/>
       <c r="AN87" s="1"/>
       <c r="AO87" s="1"/>
-      <c r="BA87" s="85" t="s">
-        <v>1187</v>
-      </c>
-      <c r="BB87" s="85" t="s">
-        <v>1188</v>
+      <c r="BA87" s="82" t="s">
+        <v>920</v>
+      </c>
+      <c r="BB87" s="82" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="88" spans="1:54" ht="14.25" customHeight="1">
@@ -15553,8 +15572,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF88" s="46" t="s">
-        <v>881</v>
+      <c r="AF88" s="81" t="s">
+        <v>1155</v>
       </c>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
@@ -15565,11 +15584,11 @@
       <c r="AM88" s="1"/>
       <c r="AN88" s="1"/>
       <c r="AO88" s="1"/>
-      <c r="BA88" s="85" t="s">
+      <c r="BA88" s="82" t="s">
         <v>380</v>
       </c>
-      <c r="BB88" s="85" t="s">
-        <v>1189</v>
+      <c r="BB88" s="82" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="89" spans="1:54" ht="14.25" customHeight="1">
@@ -15670,8 +15689,8 @@
         <f t="shared" si="69"/>
         <v>1awQs9xLLQdhSierAWHDsMywMWk-2ybcb</v>
       </c>
-      <c r="AF89" s="46" t="s">
-        <v>881</v>
+      <c r="AF89" s="81" t="s">
+        <v>1155</v>
       </c>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
@@ -15682,11 +15701,11 @@
       <c r="AM89" s="1"/>
       <c r="AN89" s="1"/>
       <c r="AO89" s="1"/>
-      <c r="BA89" s="85" t="s">
-        <v>1190</v>
-      </c>
-      <c r="BB89" s="85" t="s">
-        <v>1191</v>
+      <c r="BA89" s="82" t="s">
+        <v>923</v>
+      </c>
+      <c r="BB89" s="82" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="90" spans="1:54" ht="14.25" customHeight="1">
@@ -15787,8 +15806,8 @@
         <f t="shared" si="69"/>
         <v>1NkcXsm94yeHMTSGOM9FqSEgPnO0LmsnG</v>
       </c>
-      <c r="AF90" s="46" t="s">
-        <v>881</v>
+      <c r="AF90" s="81" t="s">
+        <v>1155</v>
       </c>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
@@ -15799,11 +15818,11 @@
       <c r="AM90" s="1"/>
       <c r="AN90" s="1"/>
       <c r="AO90" s="1"/>
-      <c r="BA90" s="85" t="s">
-        <v>1192</v>
-      </c>
-      <c r="BB90" s="85" t="s">
-        <v>1193</v>
+      <c r="BA90" s="82" t="s">
+        <v>925</v>
+      </c>
+      <c r="BB90" s="82" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="91" spans="1:54" ht="14.25" customHeight="1">
@@ -15904,8 +15923,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF91" s="46" t="s">
-        <v>881</v>
+      <c r="AF91" s="81" t="s">
+        <v>1156</v>
       </c>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
@@ -15916,11 +15935,11 @@
       <c r="AM91" s="1"/>
       <c r="AN91" s="1"/>
       <c r="AO91" s="1"/>
-      <c r="BA91" s="85" t="s">
+      <c r="BA91" s="82" t="s">
         <v>342</v>
       </c>
-      <c r="BB91" s="85" t="s">
-        <v>1194</v>
+      <c r="BB91" s="82" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="92" spans="1:54" ht="14.25" customHeight="1">
@@ -16021,8 +16040,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF92" s="46" t="s">
-        <v>882</v>
+      <c r="AF92" s="81" t="s">
+        <v>1157</v>
       </c>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
@@ -16033,11 +16052,11 @@
       <c r="AM92" s="1"/>
       <c r="AN92" s="1"/>
       <c r="AO92" s="1"/>
-      <c r="BA92" s="85" t="s">
-        <v>1195</v>
-      </c>
-      <c r="BB92" s="85" t="s">
-        <v>1196</v>
+      <c r="BA92" s="82" t="s">
+        <v>928</v>
+      </c>
+      <c r="BB92" s="82" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="93" spans="1:54" ht="14.25" customHeight="1">
@@ -16138,8 +16157,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF93" s="46" t="s">
-        <v>882</v>
+      <c r="AF93" s="81" t="s">
+        <v>1158</v>
       </c>
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
@@ -16150,11 +16169,11 @@
       <c r="AM93" s="1"/>
       <c r="AN93" s="1"/>
       <c r="AO93" s="1"/>
-      <c r="BA93" s="85" t="s">
-        <v>1197</v>
-      </c>
-      <c r="BB93" s="85" t="s">
-        <v>1198</v>
+      <c r="BA93" s="82" t="s">
+        <v>930</v>
+      </c>
+      <c r="BB93" s="82" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="94" spans="1:54" ht="14.25" customHeight="1">
@@ -16255,8 +16274,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF94" s="46" t="s">
-        <v>882</v>
+      <c r="AF94" s="81" t="s">
+        <v>1158</v>
       </c>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
@@ -16267,11 +16286,11 @@
       <c r="AM94" s="1"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
-      <c r="BA94" s="85" t="s">
-        <v>1199</v>
-      </c>
-      <c r="BB94" s="85" t="s">
-        <v>1200</v>
+      <c r="BA94" s="82" t="s">
+        <v>932</v>
+      </c>
+      <c r="BB94" s="82" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="95" spans="1:54" ht="14.25" customHeight="1">
@@ -16372,8 +16391,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF95" s="46" t="s">
-        <v>882</v>
+      <c r="AF95" s="81" t="s">
+        <v>1158</v>
       </c>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
@@ -16384,11 +16403,11 @@
       <c r="AM95" s="1"/>
       <c r="AN95" s="1"/>
       <c r="AO95" s="1"/>
-      <c r="BA95" s="85" t="s">
-        <v>1201</v>
-      </c>
-      <c r="BB95" s="85" t="s">
-        <v>1202</v>
+      <c r="BA95" s="82" t="s">
+        <v>934</v>
+      </c>
+      <c r="BB95" s="82" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="96" spans="1:54" ht="14.25" customHeight="1">
@@ -16489,8 +16508,8 @@
         <f t="shared" si="69"/>
         <v>1cA0zcBBIunkCJk6gY1bifUM08lmaxfph</v>
       </c>
-      <c r="AF96" s="46" t="s">
-        <v>883</v>
+      <c r="AF96" s="81" t="s">
+        <v>1159</v>
       </c>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
@@ -16501,11 +16520,11 @@
       <c r="AM96" s="1"/>
       <c r="AN96" s="1"/>
       <c r="AO96" s="1"/>
-      <c r="BA96" s="85" t="s">
-        <v>1203</v>
-      </c>
-      <c r="BB96" s="85" t="s">
-        <v>1204</v>
+      <c r="BA96" s="82" t="s">
+        <v>936</v>
+      </c>
+      <c r="BB96" s="82" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="97" spans="1:54" ht="14.25" customHeight="1">
@@ -16606,8 +16625,8 @@
         <f t="shared" si="69"/>
         <v>1H99rF7ktqgN0ZDkSEhVQ0gCfA0zga-oN</v>
       </c>
-      <c r="AF97" s="46" t="s">
-        <v>883</v>
+      <c r="AF97" s="81" t="s">
+        <v>1160</v>
       </c>
       <c r="AG97" s="1"/>
       <c r="AH97" s="1"/>
@@ -16618,11 +16637,11 @@
       <c r="AM97" s="1"/>
       <c r="AN97" s="1"/>
       <c r="AO97" s="1"/>
-      <c r="BA97" s="85" t="s">
+      <c r="BA97" s="82" t="s">
         <v>514</v>
       </c>
-      <c r="BB97" s="85" t="s">
-        <v>1205</v>
+      <c r="BB97" s="82" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="98" spans="1:54" ht="14.25" customHeight="1">
@@ -16723,8 +16742,8 @@
         <f t="shared" si="69"/>
         <v>19WzJ5eRFGnH0C3Nm48SNNb9EME0weQ--</v>
       </c>
-      <c r="AF98" s="46" t="s">
-        <v>883</v>
+      <c r="AF98" s="81" t="s">
+        <v>1159</v>
       </c>
       <c r="AG98" s="1"/>
       <c r="AH98" s="1"/>
@@ -16735,11 +16754,11 @@
       <c r="AM98" s="1"/>
       <c r="AN98" s="1"/>
       <c r="AO98" s="1"/>
-      <c r="BA98" s="85" t="s">
+      <c r="BA98" s="82" t="s">
         <v>506</v>
       </c>
-      <c r="BB98" s="85" t="s">
-        <v>1206</v>
+      <c r="BB98" s="82" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="99" spans="1:54" ht="14.25" customHeight="1">
@@ -16840,8 +16859,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF99" s="46" t="s">
-        <v>883</v>
+      <c r="AF99" s="81" t="s">
+        <v>1159</v>
       </c>
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
@@ -16852,11 +16871,11 @@
       <c r="AM99" s="1"/>
       <c r="AN99" s="1"/>
       <c r="AO99" s="1"/>
-      <c r="BA99" s="85" t="s">
-        <v>1207</v>
-      </c>
-      <c r="BB99" s="85" t="s">
-        <v>1208</v>
+      <c r="BA99" s="82" t="s">
+        <v>940</v>
+      </c>
+      <c r="BB99" s="82" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="100" spans="1:54" ht="14.25" customHeight="1">
@@ -16957,8 +16976,8 @@
         <f t="shared" si="69"/>
         <v>1BrKh2-BwE0riCeHxmwM7GDNJ_0SiJxNG</v>
       </c>
-      <c r="AF100" s="46" t="s">
-        <v>884</v>
+      <c r="AF100" s="81" t="s">
+        <v>1161</v>
       </c>
       <c r="AG100" s="1"/>
       <c r="AH100" s="1"/>
@@ -16969,11 +16988,11 @@
       <c r="AM100" s="1"/>
       <c r="AN100" s="1"/>
       <c r="AO100" s="1"/>
-      <c r="BA100" s="85" t="s">
+      <c r="BA100" s="82" t="s">
         <v>482</v>
       </c>
-      <c r="BB100" s="85" t="s">
-        <v>1209</v>
+      <c r="BB100" s="82" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="101" spans="1:54" ht="14.25" customHeight="1">
@@ -17074,8 +17093,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF101" s="46" t="s">
-        <v>885</v>
+      <c r="AF101" s="81" t="s">
+        <v>1162</v>
       </c>
       <c r="AG101" s="1"/>
       <c r="AH101" s="1"/>
@@ -17086,11 +17105,11 @@
       <c r="AM101" s="1"/>
       <c r="AN101" s="1"/>
       <c r="AO101" s="1"/>
-      <c r="BA101" s="85" t="s">
+      <c r="BA101" s="82" t="s">
         <v>509</v>
       </c>
-      <c r="BB101" s="85" t="s">
-        <v>1210</v>
+      <c r="BB101" s="82" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="102" spans="1:54" ht="14.25" customHeight="1">
@@ -17191,8 +17210,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF102" s="46" t="s">
-        <v>886</v>
+      <c r="AF102" s="81" t="s">
+        <v>1163</v>
       </c>
       <c r="AG102" s="1"/>
       <c r="AH102" s="1"/>
@@ -17203,11 +17222,11 @@
       <c r="AM102" s="1"/>
       <c r="AN102" s="1"/>
       <c r="AO102" s="1"/>
-      <c r="BA102" s="85" t="s">
+      <c r="BA102" s="82" t="s">
         <v>512</v>
       </c>
-      <c r="BB102" s="85" t="s">
-        <v>1211</v>
+      <c r="BB102" s="82" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="103" spans="1:54" ht="14.25" customHeight="1">
@@ -17308,8 +17327,8 @@
         <f t="shared" si="69"/>
         <v>1Ku1-P0Q8z0397AENkzre5VMn5b4c8byD</v>
       </c>
-      <c r="AF103" s="46" t="s">
-        <v>887</v>
+      <c r="AF103" s="81" t="s">
+        <v>1164</v>
       </c>
       <c r="AG103" s="1"/>
       <c r="AH103" s="1"/>
@@ -17320,11 +17339,11 @@
       <c r="AM103" s="1"/>
       <c r="AN103" s="1"/>
       <c r="AO103" s="1"/>
-      <c r="BA103" s="85" t="s">
+      <c r="BA103" s="82" t="s">
         <v>469</v>
       </c>
-      <c r="BB103" s="85" t="s">
-        <v>1212</v>
+      <c r="BB103" s="82" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="104" spans="1:54" ht="14.25" customHeight="1">
@@ -17425,8 +17444,8 @@
         <f t="shared" si="69"/>
         <v>1OJGh1S1HMVejoE740jhQurSN4jHtXJSE</v>
       </c>
-      <c r="AF104" s="46" t="s">
-        <v>888</v>
+      <c r="AF104" s="81" t="s">
+        <v>1165</v>
       </c>
       <c r="AG104" s="1"/>
       <c r="AH104" s="1"/>
@@ -17437,11 +17456,11 @@
       <c r="AM104" s="1"/>
       <c r="AN104" s="1"/>
       <c r="AO104" s="1"/>
-      <c r="BA104" s="85" t="s">
-        <v>1213</v>
-      </c>
-      <c r="BB104" s="85" t="s">
-        <v>1214</v>
+      <c r="BA104" s="82" t="s">
+        <v>946</v>
+      </c>
+      <c r="BB104" s="82" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="105" spans="1:54" ht="14.25" customHeight="1">
@@ -17542,8 +17561,8 @@
         <f t="shared" si="69"/>
         <v>1RHcb-M56stN5n8T2hED6Tcrt0b_82iW4</v>
       </c>
-      <c r="AF105" s="46" t="s">
-        <v>889</v>
+      <c r="AF105" s="81" t="s">
+        <v>1166</v>
       </c>
       <c r="AG105" s="1"/>
       <c r="AH105" s="1"/>
@@ -17554,11 +17573,11 @@
       <c r="AM105" s="2"/>
       <c r="AN105" s="2"/>
       <c r="AO105" s="2"/>
-      <c r="BA105" s="85" t="s">
-        <v>1215</v>
-      </c>
-      <c r="BB105" s="85" t="s">
-        <v>1216</v>
+      <c r="BA105" s="82" t="s">
+        <v>948</v>
+      </c>
+      <c r="BB105" s="82" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="106" spans="1:54" ht="14.25" customHeight="1">
@@ -17659,8 +17678,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF106" s="46" t="s">
-        <v>890</v>
+      <c r="AF106" s="81" t="s">
+        <v>1167</v>
       </c>
       <c r="AG106" s="2"/>
       <c r="AH106" s="2"/>
@@ -17671,11 +17690,11 @@
       <c r="AM106" s="2"/>
       <c r="AN106" s="2"/>
       <c r="AO106" s="2"/>
-      <c r="BA106" s="85" t="s">
+      <c r="BA106" s="82" t="s">
         <v>495</v>
       </c>
-      <c r="BB106" s="85" t="s">
-        <v>1217</v>
+      <c r="BB106" s="82" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="107" spans="1:54" ht="14.25" customHeight="1">
@@ -17776,8 +17795,8 @@
         <f t="shared" si="69"/>
         <v>1tpihpl7YP50xQhoSbYOsT3EQj1-Y_EyS</v>
       </c>
-      <c r="AF107" s="46" t="s">
-        <v>891</v>
+      <c r="AF107" s="81" t="s">
+        <v>1168</v>
       </c>
       <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
@@ -17788,11 +17807,11 @@
       <c r="AM107" s="1"/>
       <c r="AN107" s="1"/>
       <c r="AO107" s="1"/>
-      <c r="BA107" s="85" t="s">
+      <c r="BA107" s="82" t="s">
         <v>459</v>
       </c>
-      <c r="BB107" s="85" t="s">
-        <v>1218</v>
+      <c r="BB107" s="82" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="108" spans="1:54" ht="14.25" customHeight="1">
@@ -17893,8 +17912,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF108" s="46" t="s">
-        <v>892</v>
+      <c r="AF108" s="81" t="s">
+        <v>1169</v>
       </c>
       <c r="AG108" s="1"/>
       <c r="AH108" s="1"/>
@@ -17905,11 +17924,11 @@
       <c r="AM108" s="1"/>
       <c r="AN108" s="1"/>
       <c r="AO108" s="1"/>
-      <c r="BA108" s="85" t="s">
+      <c r="BA108" s="82" t="s">
         <v>501</v>
       </c>
-      <c r="BB108" s="85" t="s">
-        <v>1219</v>
+      <c r="BB108" s="82" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="109" spans="1:54" ht="14.25" customHeight="1">
@@ -18010,8 +18029,8 @@
         <f t="shared" si="69"/>
         <v>1hyy4qB-HkcWLhSlHIN4tKfqL3eF0P97i</v>
       </c>
-      <c r="AF109" s="46" t="s">
-        <v>893</v>
+      <c r="AF109" s="81" t="s">
+        <v>1170</v>
       </c>
       <c r="AG109" s="1"/>
       <c r="AH109" s="1"/>
@@ -18022,11 +18041,11 @@
       <c r="AM109" s="1"/>
       <c r="AN109" s="1"/>
       <c r="AO109" s="1"/>
-      <c r="BA109" s="85" t="s">
+      <c r="BA109" s="82" t="s">
         <v>492</v>
       </c>
-      <c r="BB109" s="85" t="s">
-        <v>1220</v>
+      <c r="BB109" s="82" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="110" spans="1:54" ht="14.25" customHeight="1">
@@ -18127,8 +18146,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF110" s="46" t="s">
-        <v>894</v>
+      <c r="AF110" s="81" t="s">
+        <v>1171</v>
       </c>
       <c r="AG110" s="1"/>
       <c r="AH110" s="1"/>
@@ -18139,11 +18158,11 @@
       <c r="AM110" s="1"/>
       <c r="AN110" s="1"/>
       <c r="AO110" s="1"/>
-      <c r="BA110" s="85" t="s">
+      <c r="BA110" s="82" t="s">
         <v>525</v>
       </c>
-      <c r="BB110" s="85" t="s">
-        <v>1221</v>
+      <c r="BB110" s="82" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="111" spans="1:54" ht="14.25" customHeight="1">
@@ -18244,8 +18263,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF111" s="46" t="s">
-        <v>895</v>
+      <c r="AF111" s="81" t="s">
+        <v>1172</v>
       </c>
       <c r="AG111" s="1"/>
       <c r="AH111" s="1"/>
@@ -18256,11 +18275,11 @@
       <c r="AM111" s="1"/>
       <c r="AN111" s="1"/>
       <c r="AO111" s="1"/>
-      <c r="BA111" s="85" t="s">
+      <c r="BA111" s="82" t="s">
         <v>449</v>
       </c>
-      <c r="BB111" s="85" t="s">
-        <v>1222</v>
+      <c r="BB111" s="82" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="112" spans="1:54" ht="14.25" customHeight="1">
@@ -18361,8 +18380,8 @@
         <f t="shared" si="69"/>
         <v>1scW9Dj5rNTAOAdWX50B6E3TTH3cmeCPF</v>
       </c>
-      <c r="AF112" s="82" t="s">
-        <v>896</v>
+      <c r="AF112" s="81" t="s">
+        <v>1173</v>
       </c>
       <c r="AG112" s="1"/>
       <c r="AH112" s="1"/>
@@ -18373,11 +18392,11 @@
       <c r="AM112" s="1"/>
       <c r="AN112" s="1"/>
       <c r="AO112" s="1"/>
-      <c r="BA112" s="85" t="s">
+      <c r="BA112" s="82" t="s">
         <v>521</v>
       </c>
-      <c r="BB112" s="85" t="s">
-        <v>1223</v>
+      <c r="BB112" s="82" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="113" spans="1:54" ht="14.25" customHeight="1">
@@ -18478,8 +18497,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF113" s="46" t="s">
-        <v>897</v>
+      <c r="AF113" s="81" t="s">
+        <v>1174</v>
       </c>
       <c r="AG113" s="1"/>
       <c r="AH113" s="1"/>
@@ -18490,11 +18509,11 @@
       <c r="AM113" s="1"/>
       <c r="AN113" s="1"/>
       <c r="AO113" s="1"/>
-      <c r="BA113" s="85" t="s">
+      <c r="BA113" s="82" t="s">
         <v>517</v>
       </c>
-      <c r="BB113" s="85" t="s">
-        <v>1224</v>
+      <c r="BB113" s="82" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="114" spans="1:54" ht="14.25" customHeight="1">
@@ -18595,8 +18614,8 @@
         <f t="shared" si="69"/>
         <v>1hncQeXVk-c76ptbAQ3IInfCexCR2XLfT</v>
       </c>
-      <c r="AF114" s="46" t="s">
-        <v>897</v>
+      <c r="AF114" s="81" t="s">
+        <v>1174</v>
       </c>
       <c r="AG114" s="1"/>
       <c r="AH114" s="1"/>
@@ -18607,11 +18626,11 @@
       <c r="AM114" s="1"/>
       <c r="AN114" s="1"/>
       <c r="AO114" s="1"/>
-      <c r="BA114" s="85" t="s">
+      <c r="BA114" s="82" t="s">
         <v>523</v>
       </c>
-      <c r="BB114" s="85" t="s">
-        <v>1225</v>
+      <c r="BB114" s="82" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="115" spans="1:54" ht="14.25" customHeight="1">
@@ -18712,8 +18731,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF115" s="46" t="s">
-        <v>897</v>
+      <c r="AF115" s="81" t="s">
+        <v>1174</v>
       </c>
       <c r="AG115" s="1"/>
       <c r="AH115" s="1"/>
@@ -18724,11 +18743,11 @@
       <c r="AM115" s="1"/>
       <c r="AN115" s="1"/>
       <c r="AO115" s="1"/>
-      <c r="BA115" s="85" t="s">
+      <c r="BA115" s="82" t="s">
         <v>452</v>
       </c>
-      <c r="BB115" s="85" t="s">
-        <v>1226</v>
+      <c r="BB115" s="82" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="116" spans="1:54" ht="14.25" customHeight="1">
@@ -18829,8 +18848,8 @@
         <f t="shared" si="69"/>
         <v>1sAznhmIDZDtUquSHeR3FfF-433gTv07u</v>
       </c>
-      <c r="AF116" s="46" t="s">
-        <v>898</v>
+      <c r="AF116" s="81" t="s">
+        <v>1175</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
@@ -18841,11 +18860,11 @@
       <c r="AM116" s="1"/>
       <c r="AN116" s="1"/>
       <c r="AO116" s="1"/>
-      <c r="BA116" s="85" t="s">
+      <c r="BA116" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="BB116" s="85" t="s">
-        <v>1227</v>
+      <c r="BB116" s="82" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="117" spans="1:54" ht="14.25" customHeight="1">
@@ -18946,8 +18965,8 @@
         <f t="shared" si="69"/>
         <v>1-aTaX0YKUSIzfhQB0AGFtUvyBlAPTlrL</v>
       </c>
-      <c r="AF117" s="46" t="s">
-        <v>899</v>
+      <c r="AF117" s="81" t="s">
+        <v>1176</v>
       </c>
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
@@ -18958,11 +18977,11 @@
       <c r="AM117" s="1"/>
       <c r="AN117" s="1"/>
       <c r="AO117" s="1"/>
-      <c r="BA117" s="85" t="s">
-        <v>1228</v>
-      </c>
-      <c r="BB117" s="85" t="s">
-        <v>1229</v>
+      <c r="BA117" s="82" t="s">
+        <v>961</v>
+      </c>
+      <c r="BB117" s="82" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="118" spans="1:54" ht="14.25" customHeight="1">
@@ -19063,8 +19082,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF118" s="46" t="s">
-        <v>900</v>
+      <c r="AF118" s="81" t="s">
+        <v>1172</v>
       </c>
       <c r="AG118" s="1"/>
       <c r="AH118" s="1"/>
@@ -19075,11 +19094,11 @@
       <c r="AM118" s="1"/>
       <c r="AN118" s="1"/>
       <c r="AO118" s="1"/>
-      <c r="BA118" s="85" t="s">
+      <c r="BA118" s="82" t="s">
         <v>465</v>
       </c>
-      <c r="BB118" s="85" t="s">
-        <v>1230</v>
+      <c r="BB118" s="82" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="119" spans="1:54" ht="14.25" customHeight="1">
@@ -19180,8 +19199,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF119" s="46" t="s">
-        <v>900</v>
+      <c r="AF119" s="81" t="s">
+        <v>1172</v>
       </c>
       <c r="AG119" s="1"/>
       <c r="AH119" s="1"/>
@@ -19192,11 +19211,11 @@
       <c r="AM119" s="1"/>
       <c r="AN119" s="1"/>
       <c r="AO119" s="1"/>
-      <c r="BA119" s="85" t="s">
+      <c r="BA119" s="82" t="s">
         <v>489</v>
       </c>
-      <c r="BB119" s="85" t="s">
-        <v>1231</v>
+      <c r="BB119" s="82" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="120" spans="1:54" ht="14.25" customHeight="1">
@@ -19234,7 +19253,9 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF120" s="46"/>
+      <c r="AF120" s="81" t="s">
+        <v>1177</v>
+      </c>
       <c r="AG120" s="1"/>
       <c r="AH120" s="1"/>
       <c r="AI120" s="2"/>
@@ -19244,11 +19265,11 @@
       <c r="AM120" s="2"/>
       <c r="AN120" s="2"/>
       <c r="AO120" s="2"/>
-      <c r="BA120" s="85" t="s">
+      <c r="BA120" s="82" t="s">
         <v>437</v>
       </c>
-      <c r="BB120" s="85" t="s">
-        <v>1232</v>
+      <c r="BB120" s="82" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="121" spans="1:54" ht="14.25" customHeight="1">
@@ -19353,8 +19374,8 @@
         <f t="shared" si="69"/>
         <v>1_D_Caj_SbFMZs8KzU6Q6Sia1u1erJsqR</v>
       </c>
-      <c r="AF121" s="46" t="s">
-        <v>901</v>
+      <c r="AF121" s="81" t="s">
+        <v>1178</v>
       </c>
       <c r="AG121" s="2"/>
       <c r="AH121" s="2"/>
@@ -19365,11 +19386,11 @@
       <c r="AM121" s="1"/>
       <c r="AN121" s="1"/>
       <c r="AO121" s="1"/>
-      <c r="BA121" s="85" t="s">
-        <v>1233</v>
-      </c>
-      <c r="BB121" s="85" t="s">
-        <v>1234</v>
+      <c r="BA121" s="82" t="s">
+        <v>966</v>
+      </c>
+      <c r="BB121" s="82" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="122" spans="1:54" ht="14.25" customHeight="1">
@@ -19474,8 +19495,8 @@
         <f t="shared" si="69"/>
         <v>1zeuXnrlAsQwwnY9W7Pktf6F3Do1rGpT7</v>
       </c>
-      <c r="AF122" s="46" t="s">
-        <v>902</v>
+      <c r="AF122" s="81" t="s">
+        <v>1179</v>
       </c>
       <c r="AG122" s="1"/>
       <c r="AH122" s="1"/>
@@ -19486,11 +19507,11 @@
       <c r="AM122" s="1"/>
       <c r="AN122" s="1"/>
       <c r="AO122" s="1"/>
-      <c r="BA122" s="85" t="s">
-        <v>1235</v>
-      </c>
-      <c r="BB122" s="85" t="s">
-        <v>1236</v>
+      <c r="BA122" s="82" t="s">
+        <v>968</v>
+      </c>
+      <c r="BB122" s="82" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="123" spans="1:54" ht="14.25" customHeight="1">
@@ -19592,10 +19613,10 @@
         <v>302</v>
       </c>
       <c r="AE123" s="81" t="s">
-        <v>1353</v>
-      </c>
-      <c r="AF123" s="46" t="s">
-        <v>903</v>
+        <v>1086</v>
+      </c>
+      <c r="AF123" s="81" t="s">
+        <v>1180</v>
       </c>
       <c r="AG123" s="1"/>
       <c r="AH123" s="1"/>
@@ -19606,11 +19627,11 @@
       <c r="AM123" s="2"/>
       <c r="AN123" s="2"/>
       <c r="AO123" s="2"/>
-      <c r="BA123" s="85" t="s">
+      <c r="BA123" s="82" t="s">
         <v>585</v>
       </c>
-      <c r="BB123" s="85" t="s">
-        <v>1237</v>
+      <c r="BB123" s="82" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="124" spans="1:54" ht="14.25" customHeight="1">
@@ -19715,8 +19736,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF124" s="46" t="s">
-        <v>904</v>
+      <c r="AF124" s="81" t="s">
+        <v>1181</v>
       </c>
       <c r="AG124" s="2"/>
       <c r="AH124" s="2"/>
@@ -19727,11 +19748,11 @@
       <c r="AM124" s="2"/>
       <c r="AN124" s="2"/>
       <c r="AO124" s="2"/>
-      <c r="BA124" s="85" t="s">
+      <c r="BA124" s="82" t="s">
         <v>566</v>
       </c>
-      <c r="BB124" s="85" t="s">
-        <v>1238</v>
+      <c r="BB124" s="82" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="125" spans="1:54" ht="14.25" customHeight="1">
@@ -19833,10 +19854,10 @@
         <v>308</v>
       </c>
       <c r="AE125" s="81" t="s">
-        <v>1354</v>
-      </c>
-      <c r="AF125" s="46" t="s">
-        <v>905</v>
+        <v>1087</v>
+      </c>
+      <c r="AF125" s="81" t="s">
+        <v>1182</v>
       </c>
       <c r="AG125" s="2"/>
       <c r="AH125" s="2"/>
@@ -19847,11 +19868,11 @@
       <c r="AM125" s="2"/>
       <c r="AN125" s="2"/>
       <c r="AO125" s="2"/>
-      <c r="BA125" s="85" t="s">
+      <c r="BA125" s="82" t="s">
         <v>537</v>
       </c>
-      <c r="BB125" s="85" t="s">
-        <v>1239</v>
+      <c r="BB125" s="82" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="126" spans="1:54" ht="14.25" customHeight="1">
@@ -19956,8 +19977,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF126" s="46" t="s">
-        <v>906</v>
+      <c r="AF126" s="81" t="s">
+        <v>1183</v>
       </c>
       <c r="AG126" s="2"/>
       <c r="AH126" s="2"/>
@@ -19968,11 +19989,11 @@
       <c r="AM126" s="2"/>
       <c r="AN126" s="2"/>
       <c r="AO126" s="2"/>
-      <c r="BA126" s="85" t="s">
+      <c r="BA126" s="82" t="s">
         <v>591</v>
       </c>
-      <c r="BB126" s="85" t="s">
-        <v>1240</v>
+      <c r="BB126" s="82" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="127" spans="1:54" ht="14.25" customHeight="1">
@@ -20077,8 +20098,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF127" s="46" t="s">
-        <v>907</v>
+      <c r="AF127" s="81" t="s">
+        <v>1184</v>
       </c>
       <c r="AG127" s="2"/>
       <c r="AH127" s="2"/>
@@ -20089,11 +20110,11 @@
       <c r="AM127" s="2"/>
       <c r="AN127" s="2"/>
       <c r="AO127" s="2"/>
-      <c r="BA127" s="85" t="s">
+      <c r="BA127" s="82" t="s">
         <v>683</v>
       </c>
-      <c r="BB127" s="85" t="s">
-        <v>1241</v>
+      <c r="BB127" s="82" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="128" spans="1:54" ht="14.25" customHeight="1">
@@ -20195,10 +20216,10 @@
         <v>320</v>
       </c>
       <c r="AE128" s="46" t="s">
-        <v>1355</v>
-      </c>
-      <c r="AF128" s="46" t="s">
-        <v>908</v>
+        <v>1088</v>
+      </c>
+      <c r="AF128" s="81" t="s">
+        <v>1185</v>
       </c>
       <c r="AG128" s="2"/>
       <c r="AH128" s="2"/>
@@ -20209,11 +20230,11 @@
       <c r="AM128" s="2"/>
       <c r="AN128" s="2"/>
       <c r="AO128" s="2"/>
-      <c r="BA128" s="85" t="s">
+      <c r="BA128" s="82" t="s">
         <v>568</v>
       </c>
-      <c r="BB128" s="85" t="s">
-        <v>1242</v>
+      <c r="BB128" s="82" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="129" spans="1:54" ht="14.25" customHeight="1">
@@ -20318,8 +20339,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF129" s="46" t="s">
-        <v>909</v>
+      <c r="AF129" s="81" t="s">
+        <v>1186</v>
       </c>
       <c r="AG129" s="2"/>
       <c r="AH129" s="2"/>
@@ -20330,11 +20351,11 @@
       <c r="AM129" s="2"/>
       <c r="AN129" s="2"/>
       <c r="AO129" s="2"/>
-      <c r="BA129" s="85" t="s">
+      <c r="BA129" s="82" t="s">
         <v>572</v>
       </c>
-      <c r="BB129" s="85" t="s">
-        <v>1243</v>
+      <c r="BB129" s="82" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="130" spans="1:54" ht="14.25" customHeight="1">
@@ -20439,8 +20460,8 @@
         <f t="shared" si="69"/>
         <v>1UqPa07Bel6J4__7TTOxXr7160ONHEvOH</v>
       </c>
-      <c r="AF130" s="46" t="s">
-        <v>910</v>
+      <c r="AF130" s="81" t="s">
+        <v>1187</v>
       </c>
       <c r="AG130" s="2"/>
       <c r="AH130" s="2"/>
@@ -20451,11 +20472,11 @@
       <c r="AM130" s="2"/>
       <c r="AN130" s="2"/>
       <c r="AO130" s="2"/>
-      <c r="BA130" s="85" t="s">
+      <c r="BA130" s="82" t="s">
         <v>589</v>
       </c>
-      <c r="BB130" s="85" t="s">
-        <v>1244</v>
+      <c r="BB130" s="82" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="131" spans="1:54" ht="14.25" customHeight="1">
@@ -20560,8 +20581,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF131" s="46" t="s">
-        <v>911</v>
+      <c r="AF131" s="81" t="s">
+        <v>1188</v>
       </c>
       <c r="AG131" s="2"/>
       <c r="AH131" s="2"/>
@@ -20572,11 +20593,11 @@
       <c r="AM131" s="2"/>
       <c r="AN131" s="2"/>
       <c r="AO131" s="2"/>
-      <c r="BA131" s="85" t="s">
-        <v>1245</v>
-      </c>
-      <c r="BB131" s="85" t="s">
-        <v>1246</v>
+      <c r="BA131" s="82" t="s">
+        <v>978</v>
+      </c>
+      <c r="BB131" s="82" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="132" spans="1:54" ht="14.25" customHeight="1">
@@ -20679,8 +20700,8 @@
         <f t="shared" si="69"/>
         <v>1xylkrFK_0fi1uHMPy17KaUAc886fWIYI</v>
       </c>
-      <c r="AF132" s="46" t="s">
-        <v>912</v>
+      <c r="AF132" s="81" t="s">
+        <v>1189</v>
       </c>
       <c r="AG132" s="2"/>
       <c r="AH132" s="2"/>
@@ -20691,11 +20712,11 @@
       <c r="AM132" s="2"/>
       <c r="AN132" s="2"/>
       <c r="AO132" s="2"/>
-      <c r="BA132" s="85" t="s">
+      <c r="BA132" s="82" t="s">
         <v>599</v>
       </c>
-      <c r="BB132" s="85" t="s">
-        <v>1247</v>
+      <c r="BB132" s="82" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="133" spans="1:54" ht="14.25" customHeight="1">
@@ -20800,8 +20821,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF133" s="46" t="s">
-        <v>913</v>
+      <c r="AF133" s="81" t="s">
+        <v>1190</v>
       </c>
       <c r="AG133" s="2"/>
       <c r="AH133" s="2"/>
@@ -20812,11 +20833,11 @@
       <c r="AM133" s="2"/>
       <c r="AN133" s="2"/>
       <c r="AO133" s="2"/>
-      <c r="BA133" s="85" t="s">
+      <c r="BA133" s="82" t="s">
         <v>581</v>
       </c>
-      <c r="BB133" s="85" t="s">
-        <v>1248</v>
+      <c r="BB133" s="82" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="134" spans="1:54" ht="14.25" customHeight="1">
@@ -20922,8 +20943,8 @@
         <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
-      <c r="AF134" s="46" t="s">
-        <v>914</v>
+      <c r="AF134" s="81" t="s">
+        <v>1191</v>
       </c>
       <c r="AG134" s="2"/>
       <c r="AH134" s="2"/>
@@ -20934,11 +20955,11 @@
       <c r="AM134" s="2"/>
       <c r="AN134" s="2"/>
       <c r="AO134" s="2"/>
-      <c r="BA134" s="85" t="s">
+      <c r="BA134" s="82" t="s">
         <v>601</v>
       </c>
-      <c r="BB134" s="85" t="s">
-        <v>1249</v>
+      <c r="BB134" s="82" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="135" spans="1:54" ht="14.25" customHeight="1">
@@ -21039,8 +21060,8 @@
         <f t="shared" ref="AE135:AE198" si="134">VLOOKUP(F135, $BA$1:$BB$500, 2, FALSE)</f>
         <v>1yuxMu2n8Al-f04uprLWBvKNq9FhT_4hf</v>
       </c>
-      <c r="AF135" s="46" t="s">
-        <v>915</v>
+      <c r="AF135" s="81" t="s">
+        <v>1192</v>
       </c>
       <c r="AG135" s="2"/>
       <c r="AH135" s="2"/>
@@ -21051,11 +21072,11 @@
       <c r="AM135" s="2"/>
       <c r="AN135" s="2"/>
       <c r="AO135" s="2"/>
-      <c r="BA135" s="85" t="s">
+      <c r="BA135" s="82" t="s">
         <v>539</v>
       </c>
-      <c r="BB135" s="85" t="s">
-        <v>1250</v>
+      <c r="BB135" s="82" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="136" spans="1:54" ht="14.25" customHeight="1">
@@ -21156,8 +21177,8 @@
         <f t="shared" si="134"/>
         <v>1JUj3tbxrpw3gHRvBdG0t0tlhCSpXVsRZ</v>
       </c>
-      <c r="AF136" s="46" t="s">
-        <v>916</v>
+      <c r="AF136" s="81" t="s">
+        <v>1193</v>
       </c>
       <c r="AG136" s="2"/>
       <c r="AH136" s="2"/>
@@ -21168,11 +21189,11 @@
       <c r="AM136" s="1"/>
       <c r="AN136" s="1"/>
       <c r="AO136" s="1"/>
-      <c r="BA136" s="85" t="s">
+      <c r="BA136" s="82" t="s">
         <v>555</v>
       </c>
-      <c r="BB136" s="85" t="s">
-        <v>1251</v>
+      <c r="BB136" s="82" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="137" spans="1:54" ht="14.25" customHeight="1">
@@ -21274,10 +21295,10 @@
         <v>346</v>
       </c>
       <c r="AE137" s="81" t="s">
-        <v>1356</v>
-      </c>
-      <c r="AF137" s="46" t="s">
-        <v>917</v>
+        <v>1089</v>
+      </c>
+      <c r="AF137" s="81" t="s">
+        <v>1194</v>
       </c>
       <c r="AG137" s="1"/>
       <c r="AH137" s="1"/>
@@ -21288,11 +21309,11 @@
       <c r="AM137" s="2"/>
       <c r="AN137" s="2"/>
       <c r="AO137" s="2"/>
-      <c r="BA137" s="85" t="s">
+      <c r="BA137" s="82" t="s">
         <v>545</v>
       </c>
-      <c r="BB137" s="85" t="s">
-        <v>1252</v>
+      <c r="BB137" s="82" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="138" spans="1:54" ht="14.25" customHeight="1">
@@ -21397,8 +21418,8 @@
         <f t="shared" si="134"/>
         <v>1vWsgMqc-B95AIEqWxE0-KM9Wv0asEsvt</v>
       </c>
-      <c r="AF138" s="46" t="s">
-        <v>918</v>
+      <c r="AF138" s="81" t="s">
+        <v>1195</v>
       </c>
       <c r="AG138" s="2"/>
       <c r="AH138" s="2"/>
@@ -21409,11 +21430,11 @@
       <c r="AM138" s="2"/>
       <c r="AN138" s="2"/>
       <c r="AO138" s="2"/>
-      <c r="BA138" s="85" t="s">
+      <c r="BA138" s="82" t="s">
         <v>587</v>
       </c>
-      <c r="BB138" s="85" t="s">
-        <v>1253</v>
+      <c r="BB138" s="82" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="139" spans="1:54" ht="14.25" customHeight="1">
@@ -21518,8 +21539,8 @@
         <f t="shared" si="134"/>
         <v>15fLvvaCVA84foHYaas1XUvHvAGK3E7dm</v>
       </c>
-      <c r="AF139" s="46" t="s">
-        <v>919</v>
+      <c r="AF139" s="81" t="s">
+        <v>1196</v>
       </c>
       <c r="AG139" s="2"/>
       <c r="AH139" s="2"/>
@@ -21530,11 +21551,11 @@
       <c r="AM139" s="2"/>
       <c r="AN139" s="2"/>
       <c r="AO139" s="2"/>
-      <c r="BA139" s="85" t="s">
+      <c r="BA139" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="BB139" s="85" t="s">
-        <v>1254</v>
+      <c r="BB139" s="82" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="140" spans="1:54" ht="14.25" customHeight="1">
@@ -21639,8 +21660,8 @@
         <f t="shared" si="134"/>
         <v>1_8pnpVaMejQ1JJ1RSyViGa6aNQcZnBbH</v>
       </c>
-      <c r="AF140" s="46" t="s">
-        <v>920</v>
+      <c r="AF140" s="81" t="s">
+        <v>1197</v>
       </c>
       <c r="AG140" s="2"/>
       <c r="AH140" s="2"/>
@@ -21651,11 +21672,11 @@
       <c r="AM140" s="2"/>
       <c r="AN140" s="2"/>
       <c r="AO140" s="2"/>
-      <c r="BA140" s="85" t="s">
+      <c r="BA140" s="82" t="s">
         <v>549</v>
       </c>
-      <c r="BB140" s="85" t="s">
-        <v>1255</v>
+      <c r="BB140" s="82" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="141" spans="1:54" ht="14.25" customHeight="1">
@@ -21761,8 +21782,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF141" s="46" t="s">
-        <v>921</v>
+      <c r="AF141" s="81" t="s">
+        <v>1198</v>
       </c>
       <c r="AG141" s="2"/>
       <c r="AH141" s="2"/>
@@ -21773,11 +21794,11 @@
       <c r="AM141" s="2"/>
       <c r="AN141" s="2"/>
       <c r="AO141" s="2"/>
-      <c r="BA141" s="85" t="s">
+      <c r="BA141" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="BB141" s="85" t="s">
-        <v>1256</v>
+      <c r="BB141" s="82" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="142" spans="1:54" ht="14.25" customHeight="1">
@@ -21882,8 +21903,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF142" s="46" t="s">
-        <v>922</v>
+      <c r="AF142" s="81" t="s">
+        <v>1199</v>
       </c>
       <c r="AG142" s="2"/>
       <c r="AH142" s="2"/>
@@ -21894,11 +21915,11 @@
       <c r="AM142" s="2"/>
       <c r="AN142" s="2"/>
       <c r="AO142" s="2"/>
-      <c r="BA142" s="85" t="s">
+      <c r="BA142" s="82" t="s">
         <v>553</v>
       </c>
-      <c r="BB142" s="85" t="s">
-        <v>1257</v>
+      <c r="BB142" s="82" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="143" spans="1:54" ht="14.25" customHeight="1">
@@ -21999,8 +22020,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF143" s="46" t="s">
-        <v>923</v>
+      <c r="AF143" s="81" t="s">
+        <v>1200</v>
       </c>
       <c r="AG143" s="2"/>
       <c r="AH143" s="2"/>
@@ -22011,11 +22032,11 @@
       <c r="AM143" s="1"/>
       <c r="AN143" s="1"/>
       <c r="AO143" s="1"/>
-      <c r="BA143" s="85" t="s">
+      <c r="BA143" s="82" t="s">
         <v>551</v>
       </c>
-      <c r="BB143" s="85" t="s">
-        <v>1258</v>
+      <c r="BB143" s="82" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="144" spans="1:54" ht="14.25" customHeight="1">
@@ -22120,8 +22141,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF144" s="46" t="s">
-        <v>924</v>
+      <c r="AF144" s="81" t="s">
+        <v>1201</v>
       </c>
       <c r="AG144" s="1"/>
       <c r="AH144" s="1"/>
@@ -22132,11 +22153,11 @@
       <c r="AM144" s="2"/>
       <c r="AN144" s="2"/>
       <c r="AO144" s="2"/>
-      <c r="BA144" s="85" t="s">
+      <c r="BA144" s="82" t="s">
         <v>577</v>
       </c>
-      <c r="BB144" s="85" t="s">
-        <v>1259</v>
+      <c r="BB144" s="82" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="145" spans="1:54" ht="14.25" customHeight="1">
@@ -22241,8 +22262,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF145" s="46" t="s">
-        <v>925</v>
+      <c r="AF145" s="81" t="s">
+        <v>1202</v>
       </c>
       <c r="AG145" s="2"/>
       <c r="AH145" s="2"/>
@@ -22253,11 +22274,11 @@
       <c r="AM145" s="2"/>
       <c r="AN145" s="2"/>
       <c r="AO145" s="2"/>
-      <c r="BA145" s="85" t="s">
-        <v>1260</v>
-      </c>
-      <c r="BB145" s="85" t="s">
-        <v>1261</v>
+      <c r="BA145" s="82" t="s">
+        <v>993</v>
+      </c>
+      <c r="BB145" s="82" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="146" spans="1:54" ht="14.25" customHeight="1">
@@ -22362,8 +22383,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF146" s="46" t="s">
-        <v>926</v>
+      <c r="AF146" s="81" t="s">
+        <v>1203</v>
       </c>
       <c r="AG146" s="2"/>
       <c r="AH146" s="2"/>
@@ -22374,11 +22395,11 @@
       <c r="AM146" s="2"/>
       <c r="AN146" s="2"/>
       <c r="AO146" s="2"/>
-      <c r="BA146" s="85" t="s">
+      <c r="BA146" s="82" t="s">
         <v>557</v>
       </c>
-      <c r="BB146" s="85" t="s">
-        <v>1262</v>
+      <c r="BB146" s="82" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="147" spans="1:54" ht="14.25" customHeight="1">
@@ -22483,8 +22504,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF147" s="46" t="s">
-        <v>927</v>
+      <c r="AF147" s="81" t="s">
+        <v>1204</v>
       </c>
       <c r="AG147" s="2"/>
       <c r="AH147" s="2"/>
@@ -22495,11 +22516,11 @@
       <c r="AM147" s="2"/>
       <c r="AN147" s="2"/>
       <c r="AO147" s="2"/>
-      <c r="BA147" s="85" t="s">
+      <c r="BA147" s="82" t="s">
         <v>570</v>
       </c>
-      <c r="BB147" s="85" t="s">
-        <v>1263</v>
+      <c r="BB147" s="82" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="148" spans="1:54" ht="14.25" customHeight="1">
@@ -22604,8 +22625,8 @@
         <f t="shared" si="134"/>
         <v>1GfS3rbvaojIQHp-S2xpQC6Nc-ZcZj11i</v>
       </c>
-      <c r="AF148" s="46" t="s">
-        <v>928</v>
+      <c r="AF148" s="81" t="s">
+        <v>1205</v>
       </c>
       <c r="AG148" s="2"/>
       <c r="AH148" s="2"/>
@@ -22616,11 +22637,11 @@
       <c r="AM148" s="2"/>
       <c r="AN148" s="2"/>
       <c r="AO148" s="2"/>
-      <c r="BA148" s="85" t="s">
-        <v>1264</v>
-      </c>
-      <c r="BB148" s="85" t="s">
-        <v>1265</v>
+      <c r="BA148" s="82" t="s">
+        <v>997</v>
+      </c>
+      <c r="BB148" s="82" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="149" spans="1:54" ht="14.25" customHeight="1">
@@ -22725,8 +22746,8 @@
         <f t="shared" si="134"/>
         <v>1OtE-TlfIGtmPIUrUhx4JsNg4MnVRWlcv</v>
       </c>
-      <c r="AF149" s="46" t="s">
-        <v>929</v>
+      <c r="AF149" s="81" t="s">
+        <v>1206</v>
       </c>
       <c r="AG149" s="2"/>
       <c r="AH149" s="2"/>
@@ -22737,11 +22758,11 @@
       <c r="AM149" s="2"/>
       <c r="AN149" s="2"/>
       <c r="AO149" s="2"/>
-      <c r="BA149" s="85" t="s">
+      <c r="BA149" s="82" t="s">
         <v>583</v>
       </c>
-      <c r="BB149" s="85" t="s">
-        <v>1266</v>
+      <c r="BB149" s="82" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="150" spans="1:54" ht="14.25" customHeight="1">
@@ -22846,8 +22867,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF150" s="46" t="s">
-        <v>930</v>
+      <c r="AF150" s="81" t="s">
+        <v>1207</v>
       </c>
       <c r="AG150" s="2"/>
       <c r="AH150" s="2"/>
@@ -22858,11 +22879,11 @@
       <c r="AM150" s="2"/>
       <c r="AN150" s="2"/>
       <c r="AO150" s="2"/>
-      <c r="BA150" s="85" t="s">
+      <c r="BA150" s="82" t="s">
         <v>579</v>
       </c>
-      <c r="BB150" s="85" t="s">
-        <v>1267</v>
+      <c r="BB150" s="82" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="151" spans="1:54" ht="14.25" customHeight="1">
@@ -22968,8 +22989,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF151" s="46" t="s">
-        <v>931</v>
+      <c r="AF151" s="81" t="s">
+        <v>1208</v>
       </c>
       <c r="AG151" s="2"/>
       <c r="AH151" s="2"/>
@@ -22980,11 +23001,11 @@
       <c r="AM151" s="2"/>
       <c r="AN151" s="2"/>
       <c r="AO151" s="2"/>
-      <c r="BA151" s="85" t="s">
+      <c r="BA151" s="82" t="s">
         <v>530</v>
       </c>
-      <c r="BB151" s="85" t="s">
-        <v>1268</v>
+      <c r="BB151" s="82" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="152" spans="1:54" ht="14.25" customHeight="1">
@@ -23089,8 +23110,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF152" s="46" t="s">
-        <v>932</v>
+      <c r="AF152" s="81" t="s">
+        <v>1209</v>
       </c>
       <c r="AG152" s="2"/>
       <c r="AH152" s="2"/>
@@ -23101,11 +23122,11 @@
       <c r="AM152" s="2"/>
       <c r="AN152" s="2"/>
       <c r="AO152" s="2"/>
-      <c r="BA152" s="85" t="s">
-        <v>1269</v>
-      </c>
-      <c r="BB152" s="85" t="s">
-        <v>1270</v>
+      <c r="BA152" s="82" t="s">
+        <v>1002</v>
+      </c>
+      <c r="BB152" s="82" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="153" spans="1:54" ht="14.25" customHeight="1">
@@ -23210,8 +23231,8 @@
         <f t="shared" si="134"/>
         <v>12X-pWGogUhsErKpfbSl8uZG3v1OkTP9n</v>
       </c>
-      <c r="AF153" s="46" t="s">
-        <v>933</v>
+      <c r="AF153" s="81" t="s">
+        <v>1210</v>
       </c>
       <c r="AG153" s="2"/>
       <c r="AH153" s="2"/>
@@ -23222,11 +23243,11 @@
       <c r="AM153" s="2"/>
       <c r="AN153" s="2"/>
       <c r="AO153" s="2"/>
-      <c r="BA153" s="85" t="s">
+      <c r="BA153" s="82" t="s">
         <v>630</v>
       </c>
-      <c r="BB153" s="85" t="s">
-        <v>1271</v>
+      <c r="BB153" s="82" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="154" spans="1:54" ht="14.25" customHeight="1">
@@ -23331,8 +23352,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF154" s="46" t="s">
-        <v>934</v>
+      <c r="AF154" s="81" t="s">
+        <v>1211</v>
       </c>
       <c r="AG154" s="2"/>
       <c r="AH154" s="2"/>
@@ -23343,11 +23364,11 @@
       <c r="AM154" s="2"/>
       <c r="AN154" s="2"/>
       <c r="AO154" s="2"/>
-      <c r="BA154" s="85" t="s">
+      <c r="BA154" s="82" t="s">
         <v>652</v>
       </c>
-      <c r="BB154" s="85" t="s">
-        <v>1272</v>
+      <c r="BB154" s="82" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="155" spans="1:54" ht="14.25" customHeight="1">
@@ -23452,8 +23473,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF155" s="46" t="s">
-        <v>935</v>
+      <c r="AF155" s="81" t="s">
+        <v>1212</v>
       </c>
       <c r="AG155" s="2"/>
       <c r="AH155" s="2"/>
@@ -23464,11 +23485,11 @@
       <c r="AM155" s="2"/>
       <c r="AN155" s="2"/>
       <c r="AO155" s="2"/>
-      <c r="BA155" s="85" t="s">
+      <c r="BA155" s="82" t="s">
         <v>683</v>
       </c>
-      <c r="BB155" s="85" t="s">
-        <v>1273</v>
+      <c r="BB155" s="82" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="156" spans="1:54" ht="14.25" customHeight="1">
@@ -23573,8 +23594,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF156" s="46" t="s">
-        <v>936</v>
+      <c r="AF156" s="81" t="s">
+        <v>1213</v>
       </c>
       <c r="AG156" s="2"/>
       <c r="AH156" s="2"/>
@@ -23585,11 +23606,11 @@
       <c r="AM156" s="2"/>
       <c r="AN156" s="2"/>
       <c r="AO156" s="2"/>
-      <c r="BA156" s="85" t="s">
+      <c r="BA156" s="82" t="s">
         <v>618</v>
       </c>
-      <c r="BB156" s="85" t="s">
-        <v>1274</v>
+      <c r="BB156" s="82" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="157" spans="1:54" ht="14.25" customHeight="1">
@@ -23694,8 +23715,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF157" s="46" t="s">
-        <v>937</v>
+      <c r="AF157" s="81" t="s">
+        <v>1214</v>
       </c>
       <c r="AG157" s="2"/>
       <c r="AH157" s="2"/>
@@ -23706,11 +23727,11 @@
       <c r="AM157" s="2"/>
       <c r="AN157" s="2"/>
       <c r="AO157" s="2"/>
-      <c r="BA157" s="85" t="s">
+      <c r="BA157" s="82" t="s">
         <v>638</v>
       </c>
-      <c r="BB157" s="85" t="s">
-        <v>1275</v>
+      <c r="BB157" s="82" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="158" spans="1:54" ht="14.25" customHeight="1">
@@ -23815,8 +23836,8 @@
         <f t="shared" si="134"/>
         <v>1Sc9pHCBIYSIHeiMpcNcdudYJ3-cG6hmk</v>
       </c>
-      <c r="AF158" s="46" t="s">
-        <v>938</v>
+      <c r="AF158" s="81" t="s">
+        <v>1215</v>
       </c>
       <c r="AG158" s="2"/>
       <c r="AH158" s="2"/>
@@ -23827,11 +23848,11 @@
       <c r="AM158" s="2"/>
       <c r="AN158" s="2"/>
       <c r="AO158" s="2"/>
-      <c r="BA158" s="85" t="s">
+      <c r="BA158" s="82" t="s">
         <v>634</v>
       </c>
-      <c r="BB158" s="85" t="s">
-        <v>1276</v>
+      <c r="BB158" s="82" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="159" spans="1:54" ht="14.25" customHeight="1">
@@ -23936,8 +23957,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF159" s="46" t="s">
-        <v>939</v>
+      <c r="AF159" s="81" t="s">
+        <v>1216</v>
       </c>
       <c r="AG159" s="2"/>
       <c r="AH159" s="2"/>
@@ -23948,11 +23969,11 @@
       <c r="AM159" s="2"/>
       <c r="AN159" s="2"/>
       <c r="AO159" s="2"/>
-      <c r="BA159" s="85" t="s">
+      <c r="BA159" s="82" t="s">
         <v>685</v>
       </c>
-      <c r="BB159" s="85" t="s">
-        <v>1277</v>
+      <c r="BB159" s="82" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="160" spans="1:54" ht="14.25" customHeight="1">
@@ -24057,8 +24078,8 @@
         <f t="shared" si="134"/>
         <v>1tU0UjQnhUbQW87Di3KBRMp4Zi91lbmg5</v>
       </c>
-      <c r="AF160" s="46" t="s">
-        <v>940</v>
+      <c r="AF160" s="81" t="s">
+        <v>1217</v>
       </c>
       <c r="AG160" s="2"/>
       <c r="AH160" s="2"/>
@@ -24069,11 +24090,11 @@
       <c r="AM160" s="2"/>
       <c r="AN160" s="2"/>
       <c r="AO160" s="2"/>
-      <c r="BA160" s="85" t="s">
-        <v>1278</v>
-      </c>
-      <c r="BB160" s="85" t="s">
-        <v>1279</v>
+      <c r="BA160" s="82" t="s">
+        <v>1011</v>
+      </c>
+      <c r="BB160" s="82" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="161" spans="1:54" ht="14.25" customHeight="1">
@@ -24178,8 +24199,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF161" s="83" t="s">
-        <v>941</v>
+      <c r="AF161" s="81" t="s">
+        <v>1218</v>
       </c>
       <c r="AG161" s="2"/>
       <c r="AH161" s="2"/>
@@ -24190,11 +24211,11 @@
       <c r="AM161" s="2"/>
       <c r="AN161" s="2"/>
       <c r="AO161" s="2"/>
-      <c r="BA161" s="85" t="s">
+      <c r="BA161" s="82" t="s">
         <v>626</v>
       </c>
-      <c r="BB161" s="85" t="s">
-        <v>1280</v>
+      <c r="BB161" s="82" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="162" spans="1:54" ht="14.25" customHeight="1">
@@ -24299,8 +24320,8 @@
         <f t="shared" si="134"/>
         <v>1ctupMAgoleNaHoxJMsaD5JDWi7km0m9C</v>
       </c>
-      <c r="AF162" s="83" t="s">
-        <v>942</v>
+      <c r="AF162" s="81" t="s">
+        <v>1219</v>
       </c>
       <c r="AG162" s="2"/>
       <c r="AH162" s="2"/>
@@ -24311,11 +24332,11 @@
       <c r="AM162" s="2"/>
       <c r="AN162" s="2"/>
       <c r="AO162" s="2"/>
-      <c r="BA162" s="85" t="s">
+      <c r="BA162" s="82" t="s">
         <v>673</v>
       </c>
-      <c r="BB162" s="85" t="s">
-        <v>1281</v>
+      <c r="BB162" s="82" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="163" spans="1:54" ht="14.25" customHeight="1">
@@ -24410,8 +24431,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF163" s="46" t="s">
-        <v>943</v>
+      <c r="AF163" s="81" t="s">
+        <v>1220</v>
       </c>
       <c r="AG163" s="2"/>
       <c r="AH163" s="2"/>
@@ -24422,11 +24443,11 @@
       <c r="AM163" s="2"/>
       <c r="AN163" s="2"/>
       <c r="AO163" s="2"/>
-      <c r="BA163" s="85" t="s">
+      <c r="BA163" s="82" t="s">
         <v>679</v>
       </c>
-      <c r="BB163" s="85" t="s">
-        <v>1282</v>
+      <c r="BB163" s="82" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="164" spans="1:54" ht="14.25" customHeight="1">
@@ -24520,8 +24541,8 @@
         <f t="shared" si="134"/>
         <v>1EqW3sz-Hs5CifzJ5PKHJ6dBk-26qo3p4</v>
       </c>
-      <c r="AF164" s="46" t="s">
-        <v>944</v>
+      <c r="AF164" s="81" t="s">
+        <v>1221</v>
       </c>
       <c r="AG164" s="2"/>
       <c r="AH164" s="2"/>
@@ -24532,11 +24553,11 @@
       <c r="AM164" s="2"/>
       <c r="AN164" s="2"/>
       <c r="AO164" s="2"/>
-      <c r="BA164" s="85" t="s">
+      <c r="BA164" s="82" t="s">
         <v>647</v>
       </c>
-      <c r="BB164" s="85" t="s">
-        <v>1283</v>
+      <c r="BB164" s="82" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="165" spans="1:54" ht="14.25" customHeight="1">
@@ -24631,8 +24652,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF165" s="46" t="s">
-        <v>945</v>
+      <c r="AF165" s="81" t="s">
+        <v>1222</v>
       </c>
       <c r="AG165" s="2"/>
       <c r="AH165" s="2"/>
@@ -24643,11 +24664,11 @@
       <c r="AM165" s="2"/>
       <c r="AN165" s="2"/>
       <c r="AO165" s="2"/>
-      <c r="BA165" s="85" t="s">
+      <c r="BA165" s="82" t="s">
         <v>675</v>
       </c>
-      <c r="BB165" s="85" t="s">
-        <v>1284</v>
+      <c r="BB165" s="82" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="166" spans="1:54" ht="14.25" customHeight="1">
@@ -24742,8 +24763,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF166" s="46" t="s">
-        <v>946</v>
+      <c r="AF166" s="81" t="s">
+        <v>1223</v>
       </c>
       <c r="AG166" s="2"/>
       <c r="AH166" s="2"/>
@@ -24754,11 +24775,11 @@
       <c r="AM166" s="2"/>
       <c r="AN166" s="2"/>
       <c r="AO166" s="2"/>
-      <c r="BA166" s="85" t="s">
+      <c r="BA166" s="82" t="s">
         <v>628</v>
       </c>
-      <c r="BB166" s="85" t="s">
-        <v>1285</v>
+      <c r="BB166" s="82" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="167" spans="1:54" ht="14.25" customHeight="1">
@@ -24852,8 +24873,8 @@
         <f t="shared" si="134"/>
         <v>1UtPWABXz1645IUGmeSP12NvgpNWA_RpF</v>
       </c>
-      <c r="AF167" s="46" t="s">
-        <v>947</v>
+      <c r="AF167" s="81" t="s">
+        <v>1224</v>
       </c>
       <c r="AG167" s="2"/>
       <c r="AH167" s="2"/>
@@ -24864,11 +24885,11 @@
       <c r="AM167" s="2"/>
       <c r="AN167" s="2"/>
       <c r="AO167" s="2"/>
-      <c r="BA167" s="85" t="s">
+      <c r="BA167" s="82" t="s">
         <v>687</v>
       </c>
-      <c r="BB167" s="85" t="s">
-        <v>1286</v>
+      <c r="BB167" s="82" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="168" spans="1:54" ht="14.25" customHeight="1">
@@ -24908,7 +24929,9 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF168" s="46"/>
+      <c r="AF168" s="81" t="s">
+        <v>1224</v>
+      </c>
       <c r="AG168" s="2"/>
       <c r="AH168" s="2"/>
       <c r="AI168" s="2"/>
@@ -24918,11 +24941,11 @@
       <c r="AM168" s="2"/>
       <c r="AN168" s="2"/>
       <c r="AO168" s="2"/>
-      <c r="BA168" s="85" t="s">
+      <c r="BA168" s="82" t="s">
         <v>636</v>
       </c>
-      <c r="BB168" s="85" t="s">
-        <v>1287</v>
+      <c r="BB168" s="82" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="169" spans="1:54" ht="14.25" customHeight="1">
@@ -25027,8 +25050,8 @@
         <f t="shared" si="134"/>
         <v>1QfkS5WbLTcK-OuyYqV-PooushqWxm6JA</v>
       </c>
-      <c r="AF169" s="46" t="s">
-        <v>948</v>
+      <c r="AF169" s="81" t="s">
+        <v>1225</v>
       </c>
       <c r="AG169" s="2"/>
       <c r="AH169" s="2"/>
@@ -25039,11 +25062,11 @@
       <c r="AM169" s="2"/>
       <c r="AN169" s="2"/>
       <c r="AO169" s="2"/>
-      <c r="BA169" s="85" t="s">
+      <c r="BA169" s="82" t="s">
         <v>608</v>
       </c>
-      <c r="BB169" s="85" t="s">
-        <v>1288</v>
+      <c r="BB169" s="82" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="170" spans="1:54" ht="14.25" customHeight="1">
@@ -25148,8 +25171,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF170" s="46" t="s">
-        <v>948</v>
+      <c r="AF170" s="81" t="s">
+        <v>1226</v>
       </c>
       <c r="AG170" s="2"/>
       <c r="AH170" s="2"/>
@@ -25160,11 +25183,11 @@
       <c r="AM170" s="1"/>
       <c r="AN170" s="1"/>
       <c r="AO170" s="1"/>
-      <c r="BA170" s="85" t="s">
+      <c r="BA170" s="82" t="s">
         <v>645</v>
       </c>
-      <c r="BB170" s="85" t="s">
-        <v>1289</v>
+      <c r="BB170" s="82" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="171" spans="1:54" ht="14.25" customHeight="1">
@@ -25267,8 +25290,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF171" s="46" t="s">
-        <v>949</v>
+      <c r="AF171" s="81" t="s">
+        <v>1227</v>
       </c>
       <c r="AG171" s="1"/>
       <c r="AH171" s="1"/>
@@ -25279,11 +25302,11 @@
       <c r="AM171" s="2"/>
       <c r="AN171" s="2"/>
       <c r="AO171" s="2"/>
-      <c r="BA171" s="85" t="s">
+      <c r="BA171" s="82" t="s">
         <v>642</v>
       </c>
-      <c r="BB171" s="85" t="s">
-        <v>1290</v>
+      <c r="BB171" s="82" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="172" spans="1:54" ht="14.25" customHeight="1">
@@ -25387,8 +25410,8 @@
         <f t="shared" si="134"/>
         <v>13ISSaPquMqJy5I0mnpyhFoHKhsewBi39</v>
       </c>
-      <c r="AF172" s="46" t="s">
-        <v>950</v>
+      <c r="AF172" s="81" t="s">
+        <v>1228</v>
       </c>
       <c r="AG172" s="2"/>
       <c r="AH172" s="2"/>
@@ -25399,11 +25422,11 @@
       <c r="AM172" s="2"/>
       <c r="AN172" s="2"/>
       <c r="AO172" s="2"/>
-      <c r="BA172" s="85" t="s">
+      <c r="BA172" s="82" t="s">
         <v>640</v>
       </c>
-      <c r="BB172" s="85" t="s">
-        <v>1291</v>
+      <c r="BB172" s="82" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="173" spans="1:54" ht="14.25" customHeight="1">
@@ -25508,8 +25531,8 @@
         <f t="shared" si="134"/>
         <v>18JzN2mePnuT45FVHvhFPvDRnKLGYIFFx</v>
       </c>
-      <c r="AF173" s="46" t="s">
-        <v>951</v>
+      <c r="AF173" s="81" t="s">
+        <v>1229</v>
       </c>
       <c r="AG173" s="2"/>
       <c r="AH173" s="2"/>
@@ -25520,11 +25543,11 @@
       <c r="AM173" s="2"/>
       <c r="AN173" s="2"/>
       <c r="AO173" s="2"/>
-      <c r="BA173" s="85" t="s">
+      <c r="BA173" s="82" t="s">
         <v>681</v>
       </c>
-      <c r="BB173" s="85" t="s">
-        <v>1292</v>
+      <c r="BB173" s="82" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="174" spans="1:54" ht="14.25" customHeight="1">
@@ -25629,8 +25652,8 @@
         <f t="shared" si="134"/>
         <v>1vMRCOMl9qkrSCcYxmaU9O8XBp_jgYrYK</v>
       </c>
-      <c r="AF174" s="46" t="s">
-        <v>952</v>
+      <c r="AF174" s="81" t="s">
+        <v>1230</v>
       </c>
       <c r="AG174" s="2"/>
       <c r="AH174" s="2"/>
@@ -25641,11 +25664,11 @@
       <c r="AM174" s="2"/>
       <c r="AN174" s="2"/>
       <c r="AO174" s="2"/>
-      <c r="BA174" s="85" t="s">
+      <c r="BA174" s="82" t="s">
         <v>666</v>
       </c>
-      <c r="BB174" s="85" t="s">
-        <v>1293</v>
+      <c r="BB174" s="82" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="175" spans="1:54" ht="14.25" customHeight="1">
@@ -25750,8 +25773,8 @@
         <f t="shared" si="134"/>
         <v>1HtC1dp3ENQtwb7KA3OLJ5jDkaHZ1hKA_</v>
       </c>
-      <c r="AF175" s="46" t="s">
-        <v>953</v>
+      <c r="AF175" s="81" t="s">
+        <v>1231</v>
       </c>
       <c r="AG175" s="2"/>
       <c r="AH175" s="2"/>
@@ -25762,11 +25785,11 @@
       <c r="AM175" s="2"/>
       <c r="AN175" s="2"/>
       <c r="AO175" s="2"/>
-      <c r="BA175" s="85" t="s">
+      <c r="BA175" s="82" t="s">
         <v>662</v>
       </c>
-      <c r="BB175" s="85" t="s">
-        <v>1294</v>
+      <c r="BB175" s="82" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="176" spans="1:54" ht="14.25" customHeight="1">
@@ -25871,8 +25894,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF176" s="46" t="s">
-        <v>954</v>
+      <c r="AF176" s="81" t="s">
+        <v>1232</v>
       </c>
       <c r="AG176" s="2"/>
       <c r="AH176" s="2"/>
@@ -25883,11 +25906,11 @@
       <c r="AM176" s="2"/>
       <c r="AN176" s="2"/>
       <c r="AO176" s="2"/>
-      <c r="BA176" s="85" t="s">
+      <c r="BA176" s="82" t="s">
         <v>621</v>
       </c>
-      <c r="BB176" s="85" t="s">
-        <v>1295</v>
+      <c r="BB176" s="82" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="177" spans="1:54" ht="14.25" customHeight="1">
@@ -25993,8 +26016,8 @@
         <f t="shared" si="134"/>
         <v>1O2ebxZWxG0uSRupsaJu6dJetwUN8xrPx</v>
       </c>
-      <c r="AF177" s="46" t="s">
-        <v>955</v>
+      <c r="AF177" s="81" t="s">
+        <v>1233</v>
       </c>
       <c r="AG177" s="2"/>
       <c r="AH177" s="2"/>
@@ -26005,11 +26028,11 @@
       <c r="AM177" s="2"/>
       <c r="AN177" s="2"/>
       <c r="AO177" s="2"/>
-      <c r="BA177" s="85" t="s">
+      <c r="BA177" s="82" t="s">
         <v>604</v>
       </c>
-      <c r="BB177" s="85" t="s">
-        <v>1296</v>
+      <c r="BB177" s="82" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="178" spans="1:54" ht="14.25" customHeight="1">
@@ -26112,10 +26135,10 @@
         <v>467</v>
       </c>
       <c r="AE178" s="46" t="s">
-        <v>1229</v>
+        <v>962</v>
       </c>
       <c r="AF178" s="46" t="s">
-        <v>956</v>
+        <v>819</v>
       </c>
       <c r="AG178" s="2"/>
       <c r="AH178" s="2"/>
@@ -26126,11 +26149,11 @@
       <c r="AM178" s="2"/>
       <c r="AN178" s="2"/>
       <c r="AO178" s="2"/>
-      <c r="BA178" s="85" t="s">
+      <c r="BA178" s="82" t="s">
         <v>623</v>
       </c>
-      <c r="BB178" s="85" t="s">
-        <v>1297</v>
+      <c r="BB178" s="82" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="179" spans="1:54" ht="14.25" customHeight="1">
@@ -26236,8 +26259,8 @@
         <f t="shared" si="134"/>
         <v>12fP2VuGykrOtVDt1XXU4ldEmjMHWcD_O</v>
       </c>
-      <c r="AF179" s="46" t="s">
-        <v>957</v>
+      <c r="AF179" s="81" t="s">
+        <v>1234</v>
       </c>
       <c r="AG179" s="2"/>
       <c r="AH179" s="2"/>
@@ -26248,11 +26271,11 @@
       <c r="AM179" s="2"/>
       <c r="AN179" s="2"/>
       <c r="AO179" s="2"/>
-      <c r="BA179" s="85" t="s">
+      <c r="BA179" s="82" t="s">
         <v>691</v>
       </c>
-      <c r="BB179" s="85" t="s">
-        <v>1298</v>
+      <c r="BB179" s="82" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="180" spans="1:54" ht="14.25" customHeight="1">
@@ -26355,10 +26378,10 @@
         <v>472</v>
       </c>
       <c r="AE180" s="46" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AF180" s="46" t="s">
-        <v>958</v>
+        <v>947</v>
+      </c>
+      <c r="AF180" s="81" t="s">
+        <v>1235</v>
       </c>
       <c r="AG180" s="2"/>
       <c r="AH180" s="2"/>
@@ -26369,11 +26392,11 @@
       <c r="AM180" s="2"/>
       <c r="AN180" s="2"/>
       <c r="AO180" s="2"/>
-      <c r="BA180" s="85" t="s">
+      <c r="BA180" s="82" t="s">
         <v>632</v>
       </c>
-      <c r="BB180" s="85" t="s">
-        <v>1299</v>
+      <c r="BB180" s="82" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="181" spans="1:54" ht="14.25" customHeight="1">
@@ -26479,8 +26502,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF181" s="46" t="s">
-        <v>959</v>
+      <c r="AF181" s="81" t="s">
+        <v>1235</v>
       </c>
       <c r="AG181" s="2"/>
       <c r="AH181" s="2"/>
@@ -26491,11 +26514,11 @@
       <c r="AM181" s="2"/>
       <c r="AN181" s="2"/>
       <c r="AO181" s="2"/>
-      <c r="BA181" s="85" t="s">
-        <v>1300</v>
-      </c>
-      <c r="BB181" s="85" t="s">
-        <v>1301</v>
+      <c r="BA181" s="82" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BB181" s="82" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="182" spans="1:54" ht="14.25" customHeight="1">
@@ -26600,8 +26623,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF182" s="46" t="s">
-        <v>960</v>
+      <c r="AF182" s="81" t="s">
+        <v>1235</v>
       </c>
       <c r="AG182" s="2"/>
       <c r="AH182" s="2"/>
@@ -26612,11 +26635,11 @@
       <c r="AM182" s="2"/>
       <c r="AN182" s="2"/>
       <c r="AO182" s="2"/>
-      <c r="BA182" s="85" t="s">
+      <c r="BA182" s="82" t="s">
         <v>654</v>
       </c>
-      <c r="BB182" s="85" t="s">
-        <v>1302</v>
+      <c r="BB182" s="82" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="183" spans="1:54" ht="14.25" customHeight="1">
@@ -26721,8 +26744,8 @@
         <f t="shared" si="134"/>
         <v>12C9XXp7XzztDFK6cBNujOK24mH8Dc_Su</v>
       </c>
-      <c r="AF183" s="46" t="s">
-        <v>960</v>
+      <c r="AF183" s="81" t="s">
+        <v>1236</v>
       </c>
       <c r="AG183" s="2"/>
       <c r="AH183" s="2"/>
@@ -26733,11 +26756,11 @@
       <c r="AM183" s="2"/>
       <c r="AN183" s="2"/>
       <c r="AO183" s="2"/>
-      <c r="BA183" s="85" t="s">
+      <c r="BA183" s="82" t="s">
         <v>677</v>
       </c>
-      <c r="BB183" s="85" t="s">
-        <v>1303</v>
+      <c r="BB183" s="82" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="184" spans="1:54" ht="14.25" customHeight="1">
@@ -26842,8 +26865,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF184" s="46" t="s">
-        <v>960</v>
+      <c r="AF184" s="81" t="s">
+        <v>1237</v>
       </c>
       <c r="AG184" s="2"/>
       <c r="AH184" s="2"/>
@@ -26854,11 +26877,11 @@
       <c r="AM184" s="2"/>
       <c r="AN184" s="2"/>
       <c r="AO184" s="2"/>
-      <c r="BA184" s="85" t="s">
-        <v>1304</v>
-      </c>
-      <c r="BB184" s="85" t="s">
-        <v>1305</v>
+      <c r="BA184" s="82" t="s">
+        <v>1037</v>
+      </c>
+      <c r="BB184" s="82" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="185" spans="1:54" ht="14.25" customHeight="1">
@@ -26963,8 +26986,8 @@
         <f t="shared" si="134"/>
         <v>1gekH5I2eHbrxIX2R2WLQG0YuToPWjHWK</v>
       </c>
-      <c r="AF185" s="46" t="s">
-        <v>961</v>
+      <c r="AF185" s="81" t="s">
+        <v>1238</v>
       </c>
       <c r="AG185" s="2"/>
       <c r="AH185" s="2"/>
@@ -26975,11 +26998,11 @@
       <c r="AM185" s="2"/>
       <c r="AN185" s="2"/>
       <c r="AO185" s="2"/>
-      <c r="BA185" s="85" t="s">
+      <c r="BA185" s="82" t="s">
         <v>717</v>
       </c>
-      <c r="BB185" s="85" t="s">
-        <v>1306</v>
+      <c r="BB185" s="82" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="186" spans="1:54" ht="14.25" customHeight="1">
@@ -27084,8 +27107,8 @@
         <f t="shared" si="134"/>
         <v>1XGos8KCQiUmvx1wfl4YE9msNz-ElEjxB</v>
       </c>
-      <c r="AF186" s="46" t="s">
-        <v>962</v>
+      <c r="AF186" s="81" t="s">
+        <v>1238</v>
       </c>
       <c r="AG186" s="2"/>
       <c r="AH186" s="2"/>
@@ -27096,11 +27119,11 @@
       <c r="AM186" s="2"/>
       <c r="AN186" s="2"/>
       <c r="AO186" s="2"/>
-      <c r="BA186" s="85" t="s">
+      <c r="BA186" s="82" t="s">
         <v>703</v>
       </c>
-      <c r="BB186" s="85" t="s">
-        <v>1307</v>
+      <c r="BB186" s="82" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="187" spans="1:54" ht="14.25" customHeight="1">
@@ -27205,8 +27228,8 @@
         <f t="shared" si="134"/>
         <v>1hmOSt_U1FEEbgLaMvT7Pw8L9ICm1zTPo</v>
       </c>
-      <c r="AF187" s="46" t="s">
-        <v>963</v>
+      <c r="AF187" s="81" t="s">
+        <v>1238</v>
       </c>
       <c r="AG187" s="2"/>
       <c r="AH187" s="2"/>
@@ -27217,11 +27240,11 @@
       <c r="AM187" s="2"/>
       <c r="AN187" s="2"/>
       <c r="AO187" s="2"/>
-      <c r="BA187" s="85" t="s">
+      <c r="BA187" s="82" t="s">
         <v>694</v>
       </c>
-      <c r="BB187" s="85" t="s">
-        <v>1308</v>
+      <c r="BB187" s="82" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="188" spans="1:54" ht="14.25" customHeight="1">
@@ -27326,8 +27349,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF188" s="46" t="s">
-        <v>963</v>
+      <c r="AF188" s="81" t="s">
+        <v>1238</v>
       </c>
       <c r="AG188" s="2"/>
       <c r="AH188" s="2"/>
@@ -27338,11 +27361,11 @@
       <c r="AM188" s="2"/>
       <c r="AN188" s="2"/>
       <c r="AO188" s="2"/>
-      <c r="BA188" s="85" t="s">
+      <c r="BA188" s="82" t="s">
         <v>709</v>
       </c>
-      <c r="BB188" s="85" t="s">
-        <v>1309</v>
+      <c r="BB188" s="82" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="189" spans="1:54" ht="14.25" customHeight="1">
@@ -27447,8 +27470,8 @@
         <f t="shared" si="134"/>
         <v>1ZsQXuf6afyQTwI0V1UKEBiN_hqowTGEY</v>
       </c>
-      <c r="AF189" s="46" t="s">
-        <v>963</v>
+      <c r="AF189" s="81" t="s">
+        <v>1239</v>
       </c>
       <c r="AG189" s="2"/>
       <c r="AH189" s="2"/>
@@ -27459,11 +27482,11 @@
       <c r="AM189" s="2"/>
       <c r="AN189" s="2"/>
       <c r="AO189" s="2"/>
-      <c r="BA189" s="85" t="s">
+      <c r="BA189" s="82" t="s">
         <v>705</v>
       </c>
-      <c r="BB189" s="85" t="s">
-        <v>1310</v>
+      <c r="BB189" s="82" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="190" spans="1:54" ht="14.25" customHeight="1">
@@ -27568,8 +27591,8 @@
         <f t="shared" si="134"/>
         <v>#N/A</v>
       </c>
-      <c r="AF190" s="46" t="s">
-        <v>963</v>
+      <c r="AF190" s="81" t="s">
+        <v>1240</v>
       </c>
       <c r="AG190" s="2"/>
       <c r="AH190" s="2"/>
@@ -27580,11 +27603,11 @@
       <c r="AM190" s="2"/>
       <c r="AN190" s="2"/>
       <c r="AO190" s="2"/>
-      <c r="BA190" s="85" t="s">
+      <c r="BA190" s="82" t="s">
         <v>707</v>
       </c>
-      <c r="BB190" s="85" t="s">
-        <v>1311</v>
+      <c r="BB190" s="82" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="191" spans="1:54" ht="14.25" customHeight="1">
@@ -27689,8 +27712,8 @@
         <f t="shared" si="134"/>
         <v>1DjjXH2PIPolauQPXCSAOQah756gBg0Mm</v>
       </c>
-      <c r="AF191" s="46" t="s">
-        <v>964</v>
+      <c r="AF191" s="81" t="s">
+        <v>1241</v>
       </c>
       <c r="AG191" s="2"/>
       <c r="AH191" s="2"/>
@@ -27701,11 +27724,11 @@
       <c r="AM191" s="2"/>
       <c r="AN191" s="2"/>
       <c r="AO191" s="2"/>
-      <c r="BA191" s="85" t="s">
+      <c r="BA191" s="82" t="s">
         <v>711</v>
       </c>
-      <c r="BB191" s="85" t="s">
-        <v>1312</v>
+      <c r="BB191" s="82" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="192" spans="1:54" ht="14.25" customHeight="1">
@@ -27810,8 +27833,8 @@
         <f t="shared" si="134"/>
         <v>15hGup13Ub3uvgw29MLL374A2KR3AQG_u</v>
       </c>
-      <c r="AF192" s="46" t="s">
-        <v>965</v>
+      <c r="AF192" s="81" t="s">
+        <v>1242</v>
       </c>
       <c r="AG192" s="2"/>
       <c r="AH192" s="2"/>
@@ -27822,11 +27845,11 @@
       <c r="AM192" s="2"/>
       <c r="AN192" s="2"/>
       <c r="AO192" s="2"/>
-      <c r="BA192" s="85" t="s">
-        <v>1313</v>
-      </c>
-      <c r="BB192" s="85" t="s">
-        <v>1314</v>
+      <c r="BA192" s="82" t="s">
+        <v>1046</v>
+      </c>
+      <c r="BB192" s="82" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="193" spans="1:54" ht="14.25" customHeight="1">
@@ -27931,8 +27954,8 @@
         <f t="shared" si="134"/>
         <v>15UULE3x1TehOKUL46swV-uUVMTPbPrXQ</v>
       </c>
-      <c r="AF193" s="46" t="s">
-        <v>966</v>
+      <c r="AF193" s="81" t="s">
+        <v>1243</v>
       </c>
       <c r="AG193" s="2"/>
       <c r="AH193" s="2"/>
@@ -27943,11 +27966,11 @@
       <c r="AM193" s="2"/>
       <c r="AN193" s="2"/>
       <c r="AO193" s="2"/>
-      <c r="BA193" s="85" t="s">
+      <c r="BA193" s="82" t="s">
         <v>720</v>
       </c>
-      <c r="BB193" s="85" t="s">
-        <v>1315</v>
+      <c r="BB193" s="82" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="194" spans="1:54" ht="14.25" customHeight="1">
@@ -28052,8 +28075,8 @@
         <f t="shared" si="134"/>
         <v>1Dpy3tynXkXWoChiM-pilo-WHaliRh8My</v>
       </c>
-      <c r="AF194" s="46" t="s">
-        <v>967</v>
+      <c r="AF194" s="81" t="s">
+        <v>1244</v>
       </c>
       <c r="AG194" s="2"/>
       <c r="AH194" s="2"/>
@@ -28064,11 +28087,11 @@
       <c r="AM194" s="2"/>
       <c r="AN194" s="2"/>
       <c r="AO194" s="2"/>
-      <c r="BA194" s="85" t="s">
+      <c r="BA194" s="82" t="s">
         <v>743</v>
       </c>
-      <c r="BB194" s="85" t="s">
-        <v>1316</v>
+      <c r="BB194" s="82" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="195" spans="1:54" ht="14.25" customHeight="1">
@@ -28171,8 +28194,8 @@
         <f t="shared" si="134"/>
         <v>1tdiF7TtPTtX7Sm8a7CWh4a1keOh0Hcer</v>
       </c>
-      <c r="AF195" s="46" t="s">
-        <v>968</v>
+      <c r="AF195" s="81" t="s">
+        <v>1245</v>
       </c>
       <c r="AG195" s="2"/>
       <c r="AH195" s="2"/>
@@ -28183,11 +28206,11 @@
       <c r="AM195" s="2"/>
       <c r="AN195" s="2"/>
       <c r="AO195" s="2"/>
-      <c r="BA195" s="85" t="s">
+      <c r="BA195" s="82" t="s">
         <v>732</v>
       </c>
-      <c r="BB195" s="85" t="s">
-        <v>1317</v>
+      <c r="BB195" s="82" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="196" spans="1:54" ht="14.25" customHeight="1">
@@ -28290,8 +28313,8 @@
         <f t="shared" si="134"/>
         <v>1q2Y-nzH0T-aNXuVIkNrUIlKFv0AsvHTD</v>
       </c>
-      <c r="AF196" s="46" t="s">
-        <v>969</v>
+      <c r="AF196" s="81" t="s">
+        <v>1246</v>
       </c>
       <c r="AG196" s="2"/>
       <c r="AH196" s="2"/>
@@ -28302,11 +28325,11 @@
       <c r="AM196" s="2"/>
       <c r="AN196" s="2"/>
       <c r="AO196" s="2"/>
-      <c r="BA196" s="85" t="s">
+      <c r="BA196" s="82" t="s">
         <v>735</v>
       </c>
-      <c r="BB196" s="85" t="s">
-        <v>1318</v>
+      <c r="BB196" s="82" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="197" spans="1:54" ht="14.25" customHeight="1">
@@ -28407,8 +28430,8 @@
         <f t="shared" si="134"/>
         <v>1jAk7bSC_6W2gtONBtl4cY23vS92LypIU</v>
       </c>
-      <c r="AF197" s="46" t="s">
-        <v>970</v>
+      <c r="AF197" s="81" t="s">
+        <v>1247</v>
       </c>
       <c r="AG197" s="2"/>
       <c r="AH197" s="2"/>
@@ -28419,11 +28442,11 @@
       <c r="AM197" s="2"/>
       <c r="AN197" s="2"/>
       <c r="AO197" s="2"/>
-      <c r="BA197" s="85" t="s">
+      <c r="BA197" s="82" t="s">
         <v>724</v>
       </c>
-      <c r="BB197" s="85" t="s">
-        <v>1319</v>
+      <c r="BB197" s="82" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="198" spans="1:54" ht="14.25" customHeight="1">
@@ -28524,8 +28547,8 @@
         <f t="shared" si="134"/>
         <v>1JSxY7GQqvK2rWlbqze0_oXY3o2Py4HrF</v>
       </c>
-      <c r="AF198" s="46" t="s">
-        <v>971</v>
+      <c r="AF198" s="81" t="s">
+        <v>1248</v>
       </c>
       <c r="AG198" s="2"/>
       <c r="AH198" s="2"/>
@@ -28536,11 +28559,11 @@
       <c r="AM198" s="2"/>
       <c r="AN198" s="2"/>
       <c r="AO198" s="2"/>
-      <c r="BA198" s="85" t="s">
+      <c r="BA198" s="82" t="s">
         <v>750</v>
       </c>
-      <c r="BB198" s="85" t="s">
-        <v>1320</v>
+      <c r="BB198" s="82" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="199" spans="1:54" ht="14.25" customHeight="1">
@@ -28640,8 +28663,8 @@
         <f t="shared" ref="AE199:AE262" si="199">VLOOKUP(F199, $BA$1:$BB$500, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AF199" s="46" t="s">
-        <v>972</v>
+      <c r="AF199" s="81" t="s">
+        <v>1249</v>
       </c>
       <c r="AG199" s="2"/>
       <c r="AH199" s="2"/>
@@ -28652,11 +28675,11 @@
       <c r="AM199" s="2"/>
       <c r="AN199" s="2"/>
       <c r="AO199" s="2"/>
-      <c r="BA199" s="85" t="s">
+      <c r="BA199" s="82" t="s">
         <v>727</v>
       </c>
-      <c r="BB199" s="85" t="s">
-        <v>1321</v>
+      <c r="BB199" s="82" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="200" spans="1:54" ht="14.25" customHeight="1">
@@ -28694,7 +28717,9 @@
         <f t="shared" si="199"/>
         <v>#N/A</v>
       </c>
-      <c r="AF200" s="46"/>
+      <c r="AF200" s="81" t="s">
+        <v>1250</v>
+      </c>
       <c r="AG200" s="2"/>
       <c r="AH200" s="2"/>
       <c r="AI200" s="2"/>
@@ -28704,11 +28729,11 @@
       <c r="AM200" s="2"/>
       <c r="AN200" s="2"/>
       <c r="AO200" s="2"/>
-      <c r="BA200" s="85" t="s">
+      <c r="BA200" s="82" t="s">
         <v>748</v>
       </c>
-      <c r="BB200" s="85" t="s">
-        <v>1322</v>
+      <c r="BB200" s="82" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="201" spans="1:54" ht="14.25" customHeight="1">
@@ -28813,8 +28838,8 @@
         <f t="shared" si="199"/>
         <v>1WohYLIyRqg1yVvP8t4sy2ky8wYSwSlbo</v>
       </c>
-      <c r="AF201" s="46" t="s">
-        <v>973</v>
+      <c r="AF201" s="81" t="s">
+        <v>1251</v>
       </c>
       <c r="AG201" s="2"/>
       <c r="AH201" s="2"/>
@@ -28825,11 +28850,11 @@
       <c r="AM201" s="1"/>
       <c r="AN201" s="1"/>
       <c r="AO201" s="1"/>
-      <c r="BA201" s="85" t="s">
+      <c r="BA201" s="82" t="s">
         <v>746</v>
       </c>
-      <c r="BB201" s="85" t="s">
-        <v>1323</v>
+      <c r="BB201" s="82" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="202" spans="1:54" ht="14.25" customHeight="1">
@@ -28931,10 +28956,10 @@
         <v>534</v>
       </c>
       <c r="AE202" s="46" t="s">
-        <v>1261</v>
-      </c>
-      <c r="AF202" s="46" t="s">
-        <v>974</v>
+        <v>994</v>
+      </c>
+      <c r="AF202" s="81" t="s">
+        <v>1252</v>
       </c>
       <c r="AG202" s="1"/>
       <c r="AH202" s="1"/>
@@ -28945,11 +28970,11 @@
       <c r="AM202" s="1"/>
       <c r="AN202" s="1"/>
       <c r="AO202" s="1"/>
-      <c r="BA202" s="85" t="s">
+      <c r="BA202" s="82" t="s">
         <v>754</v>
       </c>
-      <c r="BB202" s="85" t="s">
-        <v>1324</v>
+      <c r="BB202" s="82" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="203" spans="1:54" ht="14.25" customHeight="1">
@@ -29052,8 +29077,8 @@
         <f t="shared" si="199"/>
         <v>142lU4HqFesJvYaU34U0l7niRt-U9qcKA</v>
       </c>
-      <c r="AF203" s="46" t="s">
-        <v>975</v>
+      <c r="AF203" s="81" t="s">
+        <v>1253</v>
       </c>
       <c r="AG203" s="1"/>
       <c r="AH203" s="1"/>
@@ -29064,11 +29089,11 @@
       <c r="AM203" s="2"/>
       <c r="AN203" s="2"/>
       <c r="AO203" s="2"/>
-      <c r="BA203" s="85" t="s">
+      <c r="BA203" s="82" t="s">
         <v>729</v>
       </c>
-      <c r="BB203" s="85" t="s">
-        <v>1325</v>
+      <c r="BB203" s="82" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="204" spans="1:54" ht="14.25" customHeight="1">
@@ -29171,8 +29196,8 @@
         <f t="shared" si="199"/>
         <v>1prxscDs6cnbftQCSq5bEbeRmos0ChlV1</v>
       </c>
-      <c r="AF204" s="46" t="s">
-        <v>976</v>
+      <c r="AF204" s="81" t="s">
+        <v>1254</v>
       </c>
       <c r="AG204" s="2"/>
       <c r="AH204" s="2"/>
@@ -29183,11 +29208,11 @@
       <c r="AM204" s="2"/>
       <c r="AN204" s="2"/>
       <c r="AO204" s="2"/>
-      <c r="BA204" s="85" t="s">
+      <c r="BA204" s="82" t="s">
         <v>778</v>
       </c>
-      <c r="BB204" s="85" t="s">
-        <v>1326</v>
+      <c r="BB204" s="82" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="205" spans="1:54" ht="14.25" customHeight="1">
@@ -29290,8 +29315,8 @@
         <f t="shared" si="199"/>
         <v>#N/A</v>
       </c>
-      <c r="AF205" s="46" t="s">
-        <v>977</v>
+      <c r="AF205" s="81" t="s">
+        <v>1255</v>
       </c>
       <c r="AG205" s="2"/>
       <c r="AH205" s="2"/>
@@ -29302,11 +29327,11 @@
       <c r="AM205" s="2"/>
       <c r="AN205" s="2"/>
       <c r="AO205" s="2"/>
-      <c r="BA205" s="85" t="s">
+      <c r="BA205" s="82" t="s">
         <v>757</v>
       </c>
-      <c r="BB205" s="85" t="s">
-        <v>1327</v>
+      <c r="BB205" s="82" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="206" spans="1:54" ht="14.25" customHeight="1">
@@ -29409,8 +29434,8 @@
         <f t="shared" si="199"/>
         <v>12PQuQ7IgubnwY1opXRZUc6QMvp-l4APw</v>
       </c>
-      <c r="AF206" s="46" t="s">
-        <v>978</v>
+      <c r="AF206" s="81" t="s">
+        <v>1256</v>
       </c>
       <c r="AG206" s="2"/>
       <c r="AH206" s="2"/>
@@ -29421,11 +29446,11 @@
       <c r="AM206" s="2"/>
       <c r="AN206" s="2"/>
       <c r="AO206" s="2"/>
-      <c r="BA206" s="85" t="s">
+      <c r="BA206" s="82" t="s">
         <v>776</v>
       </c>
-      <c r="BB206" s="85" t="s">
-        <v>1328</v>
+      <c r="BB206" s="82" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="207" spans="1:54" ht="14.25" customHeight="1">
@@ -29529,7 +29554,7 @@
         <v>1Fc5VAXjTqoDrf8KNFkPYck5yOtIG8eLC</v>
       </c>
       <c r="AF207" s="46" t="s">
-        <v>979</v>
+        <v>820</v>
       </c>
       <c r="AG207" s="2"/>
       <c r="AH207" s="2"/>
@@ -29540,11 +29565,11 @@
       <c r="AM207" s="2"/>
       <c r="AN207" s="2"/>
       <c r="AO207" s="2"/>
-      <c r="BA207" s="85" t="s">
+      <c r="BA207" s="82" t="s">
         <v>767</v>
       </c>
-      <c r="BB207" s="85" t="s">
-        <v>1329</v>
+      <c r="BB207" s="82" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="208" spans="1:54" ht="14.25" customHeight="1">
@@ -29649,8 +29674,8 @@
         <f t="shared" si="199"/>
         <v>1NMMEx3VzIRn6N2bjySl4npCMLbbnRxsG</v>
       </c>
-      <c r="AF208" s="46" t="s">
-        <v>980</v>
+      <c r="AF208" s="81" t="s">
+        <v>1257</v>
       </c>
       <c r="AG208" s="2"/>
       <c r="AH208" s="2"/>
@@ -29661,11 +29686,11 @@
       <c r="AM208" s="2"/>
       <c r="AN208" s="2"/>
       <c r="AO208" s="2"/>
-      <c r="BA208" s="85" t="s">
+      <c r="BA208" s="82" t="s">
         <v>811</v>
       </c>
-      <c r="BB208" s="85" t="s">
-        <v>1330</v>
+      <c r="BB208" s="82" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="209" spans="1:54" ht="14.25" customHeight="1">
@@ -29768,8 +29793,8 @@
         <f t="shared" si="199"/>
         <v>1PoVEy8BoAwolQ7Jei440uNC3wtSoqoae</v>
       </c>
-      <c r="AF209" s="46" t="s">
-        <v>981</v>
+      <c r="AF209" s="81" t="s">
+        <v>1258</v>
       </c>
       <c r="AG209" s="2"/>
       <c r="AH209" s="2"/>
@@ -29780,11 +29805,11 @@
       <c r="AM209" s="2"/>
       <c r="AN209" s="2"/>
       <c r="AO209" s="2"/>
-      <c r="BA209" s="85" t="s">
+      <c r="BA209" s="82" t="s">
         <v>787</v>
       </c>
-      <c r="BB209" s="85" t="s">
-        <v>1331</v>
+      <c r="BB209" s="82" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="210" spans="1:54" ht="14.25" customHeight="1">
@@ -29889,8 +29914,8 @@
         <f t="shared" si="199"/>
         <v>1KCanku4S0VnhPJPXNRu8bPqoB3JT82OG</v>
       </c>
-      <c r="AF210" s="46" t="s">
-        <v>982</v>
+      <c r="AF210" s="81" t="s">
+        <v>1259</v>
       </c>
       <c r="AG210" s="2"/>
       <c r="AH210" s="2"/>
@@ -29901,11 +29926,11 @@
       <c r="AM210" s="2"/>
       <c r="AN210" s="2"/>
       <c r="AO210" s="2"/>
-      <c r="BA210" s="85" t="s">
+      <c r="BA210" s="82" t="s">
         <v>790</v>
       </c>
-      <c r="BB210" s="85" t="s">
-        <v>1332</v>
+      <c r="BB210" s="82" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="211" spans="1:54" ht="14.25" customHeight="1">
@@ -30010,8 +30035,8 @@
         <f t="shared" si="199"/>
         <v>14cn0A2rivKhVbiQPWVkLH8VJGcmgo29t</v>
       </c>
-      <c r="AF211" s="46" t="s">
-        <v>983</v>
+      <c r="AF211" s="81" t="s">
+        <v>1260</v>
       </c>
       <c r="AG211" s="2"/>
       <c r="AH211" s="2"/>
@@ -30022,11 +30047,11 @@
       <c r="AM211" s="2"/>
       <c r="AN211" s="2"/>
       <c r="AO211" s="2"/>
-      <c r="BA211" s="85" t="s">
+      <c r="BA211" s="82" t="s">
         <v>795</v>
       </c>
-      <c r="BB211" s="85" t="s">
-        <v>1333</v>
+      <c r="BB211" s="82" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="212" spans="1:54" ht="14.25" customHeight="1">
@@ -30128,10 +30153,10 @@
         <v>559</v>
       </c>
       <c r="AE212" s="46" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AF212" s="46" t="s">
-        <v>984</v>
+        <v>998</v>
+      </c>
+      <c r="AF212" s="81" t="s">
+        <v>1261</v>
       </c>
       <c r="AG212" s="2"/>
       <c r="AH212" s="2"/>
@@ -30142,11 +30167,11 @@
       <c r="AM212" s="2"/>
       <c r="AN212" s="2"/>
       <c r="AO212" s="2"/>
-      <c r="BA212" s="85" t="s">
+      <c r="BA212" s="82" t="s">
         <v>810</v>
       </c>
-      <c r="BB212" s="85" t="s">
-        <v>1334</v>
+      <c r="BB212" s="82" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="213" spans="1:54" ht="14.25" customHeight="1">
@@ -30247,8 +30272,8 @@
         <f t="shared" si="199"/>
         <v>1sF7LuNpLRRnzmxvkUp-YAPh2Ar7tNxNZ</v>
       </c>
-      <c r="AF213" s="46" t="s">
-        <v>985</v>
+      <c r="AF213" s="81" t="s">
+        <v>1262</v>
       </c>
       <c r="AG213" s="2"/>
       <c r="AH213" s="2"/>
@@ -30259,11 +30284,11 @@
       <c r="AM213" s="2"/>
       <c r="AN213" s="2"/>
       <c r="AO213" s="2"/>
-      <c r="BA213" s="85" t="s">
+      <c r="BA213" s="82" t="s">
         <v>805</v>
       </c>
-      <c r="BB213" s="85" t="s">
-        <v>1335</v>
+      <c r="BB213" s="82" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="214" spans="1:54" ht="14.25" customHeight="1">
@@ -30361,10 +30386,10 @@
         <v>564</v>
       </c>
       <c r="AE214" s="46" t="s">
-        <v>1246</v>
-      </c>
-      <c r="AF214" s="46" t="s">
-        <v>986</v>
+        <v>979</v>
+      </c>
+      <c r="AF214" s="81" t="s">
+        <v>1263</v>
       </c>
       <c r="AG214" s="2"/>
       <c r="AH214" s="2"/>
@@ -30375,11 +30400,11 @@
       <c r="AM214" s="2"/>
       <c r="AN214" s="2"/>
       <c r="AO214" s="2"/>
-      <c r="BA214" s="85" t="s">
+      <c r="BA214" s="82" t="s">
         <v>809</v>
       </c>
-      <c r="BB214" s="85" t="s">
-        <v>1336</v>
+      <c r="BB214" s="82" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="215" spans="1:54" ht="14.25" customHeight="1">
@@ -30480,8 +30505,8 @@
         <f t="shared" si="199"/>
         <v>1QbalXdZM7b3GDJzfgUHsJOwdzdzmvlrK</v>
       </c>
-      <c r="AF215" s="46" t="s">
-        <v>987</v>
+      <c r="AF215" s="81" t="s">
+        <v>1264</v>
       </c>
       <c r="AG215" s="2"/>
       <c r="AH215" s="2"/>
@@ -30492,11 +30517,11 @@
       <c r="AM215" s="1"/>
       <c r="AN215" s="1"/>
       <c r="AO215" s="1"/>
-      <c r="BA215" s="85" t="s">
+      <c r="BA215" s="82" t="s">
         <v>808</v>
       </c>
-      <c r="BB215" s="85" t="s">
-        <v>1337</v>
+      <c r="BB215" s="82" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="216" spans="1:54" ht="14.25" customHeight="1">
@@ -30597,8 +30622,8 @@
         <f t="shared" si="199"/>
         <v>1Q_EQzmPqAXxjp58jFhE1Md8yWumFEucl</v>
       </c>
-      <c r="AF216" s="46" t="s">
-        <v>988</v>
+      <c r="AF216" s="81" t="s">
+        <v>1265</v>
       </c>
       <c r="AG216" s="1"/>
       <c r="AH216" s="1"/>
@@ -30609,11 +30634,11 @@
       <c r="AM216" s="1"/>
       <c r="AN216" s="1"/>
       <c r="AO216" s="1"/>
-      <c r="BA216" s="85" t="s">
+      <c r="BA216" s="82" t="s">
         <v>807</v>
       </c>
-      <c r="BB216" s="85" t="s">
-        <v>1338</v>
+      <c r="BB216" s="82" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="217" spans="1:54" ht="14.25" customHeight="1">
@@ -30714,8 +30739,8 @@
         <f t="shared" si="199"/>
         <v>13T3F-fleiN1K2IddA7PtICTuTo2ywMKO</v>
       </c>
-      <c r="AF217" s="46" t="s">
-        <v>989</v>
+      <c r="AF217" s="81" t="s">
+        <v>1266</v>
       </c>
       <c r="AG217" s="1"/>
       <c r="AH217" s="1"/>
@@ -30726,11 +30751,11 @@
       <c r="AM217" s="1"/>
       <c r="AN217" s="1"/>
       <c r="AO217" s="1"/>
-      <c r="BA217" s="85" t="s">
+      <c r="BA217" s="82" t="s">
         <v>806</v>
       </c>
-      <c r="BB217" s="85" t="s">
-        <v>1339</v>
+      <c r="BB217" s="82" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="218" spans="1:54" ht="14.25" customHeight="1">
@@ -30831,8 +30856,8 @@
         <f t="shared" si="199"/>
         <v>1-TSxqmR5v_44EcKmotnHv_OINmw1mlnu</v>
       </c>
-      <c r="AF218" s="46" t="s">
-        <v>990</v>
+      <c r="AF218" s="81" t="s">
+        <v>1267</v>
       </c>
       <c r="AG218" s="1"/>
       <c r="AH218" s="1"/>
@@ -30843,11 +30868,11 @@
       <c r="AM218" s="1"/>
       <c r="AN218" s="1"/>
       <c r="AO218" s="1"/>
-      <c r="BA218" s="85" t="s">
+      <c r="BA218" s="82" t="s">
         <v>797</v>
       </c>
-      <c r="BB218" s="85" t="s">
-        <v>1340</v>
+      <c r="BB218" s="82" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="219" spans="1:54" ht="14.25" customHeight="1">
@@ -30952,8 +30977,8 @@
         <f t="shared" si="199"/>
         <v>#N/A</v>
       </c>
-      <c r="AF219" s="46" t="s">
-        <v>991</v>
+      <c r="AF219" s="81" t="s">
+        <v>1268</v>
       </c>
       <c r="AG219" s="1"/>
       <c r="AH219" s="1"/>
@@ -30964,11 +30989,11 @@
       <c r="AM219" s="2"/>
       <c r="AN219" s="2"/>
       <c r="AO219" s="2"/>
-      <c r="BA219" s="85" t="s">
+      <c r="BA219" s="82" t="s">
         <v>800</v>
       </c>
-      <c r="BB219" s="85" t="s">
-        <v>1341</v>
+      <c r="BB219" s="82" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="220" spans="1:54" ht="14.25" customHeight="1">
@@ -31069,8 +31094,8 @@
         <f t="shared" si="199"/>
         <v>1yXGd1-Mv43k72Mg7J3fZgBazZzuDRlfp</v>
       </c>
-      <c r="AF220" s="46" t="s">
-        <v>992</v>
+      <c r="AF220" s="81" t="s">
+        <v>1269</v>
       </c>
       <c r="AG220" s="2"/>
       <c r="AH220" s="2"/>
@@ -31081,11 +31106,11 @@
       <c r="AM220" s="1"/>
       <c r="AN220" s="1"/>
       <c r="AO220" s="1"/>
-      <c r="BA220" s="85" t="s">
+      <c r="BA220" s="82" t="s">
         <v>793</v>
       </c>
-      <c r="BB220" s="85" t="s">
-        <v>1342</v>
+      <c r="BB220" s="82" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="221" spans="1:54" ht="14.25" customHeight="1">
@@ -31186,8 +31211,8 @@
         <f t="shared" si="199"/>
         <v>15C46ySpD2nZZ2wkXOTodZ9iWSsmlXfYs</v>
       </c>
-      <c r="AF221" s="46" t="s">
-        <v>993</v>
+      <c r="AF221" s="81" t="s">
+        <v>1270</v>
       </c>
       <c r="AG221" s="1"/>
       <c r="AH221" s="1"/>
@@ -31198,11 +31223,11 @@
       <c r="AM221" s="1"/>
       <c r="AN221" s="1"/>
       <c r="AO221" s="1"/>
-      <c r="BA221" s="85" t="s">
+      <c r="BA221" s="82" t="s">
         <v>811</v>
       </c>
-      <c r="BB221" s="85" t="s">
-        <v>1343</v>
+      <c r="BB221" s="82" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="222" spans="1:54" ht="14.25" customHeight="1">
@@ -31303,8 +31328,8 @@
         <f t="shared" si="199"/>
         <v>1FhsOerjrqc7SDgwgYfRCw3wSlaW4MGpg</v>
       </c>
-      <c r="AF222" s="46" t="s">
-        <v>994</v>
+      <c r="AF222" s="81" t="s">
+        <v>1271</v>
       </c>
       <c r="AG222" s="1"/>
       <c r="AH222" s="1"/>
@@ -31315,11 +31340,11 @@
       <c r="AM222" s="1"/>
       <c r="AN222" s="1"/>
       <c r="AO222" s="1"/>
-      <c r="BA222" s="85" t="s">
+      <c r="BA222" s="82" t="s">
         <v>804</v>
       </c>
-      <c r="BB222" s="85" t="s">
-        <v>1344</v>
+      <c r="BB222" s="82" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="223" spans="1:54" ht="14.25" customHeight="1">
@@ -31420,8 +31445,8 @@
         <f t="shared" si="199"/>
         <v>1ZNkNYWCBkvkeQqx_nJSA_6CeIYRnO4gA</v>
       </c>
-      <c r="AF223" s="46" t="s">
-        <v>995</v>
+      <c r="AF223" s="81" t="s">
+        <v>1272</v>
       </c>
       <c r="AG223" s="1"/>
       <c r="AH223" s="1"/>
@@ -31432,11 +31457,11 @@
       <c r="AM223" s="1"/>
       <c r="AN223" s="1"/>
       <c r="AO223" s="1"/>
-      <c r="BA223" s="85" t="s">
+      <c r="BA223" s="82" t="s">
         <v>803</v>
       </c>
-      <c r="BB223" s="85" t="s">
-        <v>1345</v>
+      <c r="BB223" s="82" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="224" spans="1:54" ht="14.25" customHeight="1">
@@ -31537,8 +31562,8 @@
         <f t="shared" si="199"/>
         <v>15TSgJJJq1j6tvn0MB9iBfGIz2P5c6k_F</v>
       </c>
-      <c r="AF224" s="46" t="s">
-        <v>996</v>
+      <c r="AF224" s="81" t="s">
+        <v>1273</v>
       </c>
       <c r="AG224" s="1"/>
       <c r="AH224" s="1"/>
@@ -31549,11 +31574,11 @@
       <c r="AM224" s="1"/>
       <c r="AN224" s="1"/>
       <c r="AO224" s="1"/>
-      <c r="BA224" s="85" t="s">
-        <v>1346</v>
-      </c>
-      <c r="BB224" s="85" t="s">
-        <v>1347</v>
+      <c r="BA224" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BB224" s="82" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="225" spans="1:41" ht="14.25" customHeight="1">
@@ -31654,8 +31679,8 @@
         <f t="shared" si="199"/>
         <v>15CGPeP1DUD1sc5S5seEtQ8RpLgfn6ib4</v>
       </c>
-      <c r="AF225" s="46" t="s">
-        <v>997</v>
+      <c r="AF225" s="81" t="s">
+        <v>1274</v>
       </c>
       <c r="AG225" s="1"/>
       <c r="AH225" s="1"/>
@@ -31765,8 +31790,8 @@
         <f t="shared" si="199"/>
         <v>1560lIsBOGbqzsl9R7bTohD9Qg5VERc5J</v>
       </c>
-      <c r="AF226" s="46" t="s">
-        <v>998</v>
+      <c r="AF226" s="81" t="s">
+        <v>1275</v>
       </c>
       <c r="AG226" s="1"/>
       <c r="AH226" s="1"/>
@@ -31876,8 +31901,8 @@
         <f t="shared" si="199"/>
         <v>1tnAQwIFcLz-_yraeExzXlpP324v9ynPd</v>
       </c>
-      <c r="AF227" s="46" t="s">
-        <v>999</v>
+      <c r="AF227" s="81" t="s">
+        <v>1276</v>
       </c>
       <c r="AG227" s="1"/>
       <c r="AH227" s="1"/>
@@ -31987,8 +32012,8 @@
         <f t="shared" si="199"/>
         <v>13Vh19EWciRh_c5pBiqLcVxjNPcW1mYv4</v>
       </c>
-      <c r="AF228" s="46" t="s">
-        <v>1000</v>
+      <c r="AF228" s="81" t="s">
+        <v>1277</v>
       </c>
       <c r="AG228" s="1"/>
       <c r="AH228" s="1"/>
@@ -32095,10 +32120,10 @@
         <v>595</v>
       </c>
       <c r="AE229" s="81" t="s">
-        <v>1352</v>
-      </c>
-      <c r="AF229" s="46" t="s">
-        <v>1001</v>
+        <v>1085</v>
+      </c>
+      <c r="AF229" s="81" t="s">
+        <v>1278</v>
       </c>
       <c r="AG229" s="1"/>
       <c r="AH229" s="1"/>
@@ -32205,10 +32230,10 @@
         <v>597</v>
       </c>
       <c r="AE230" s="46" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AF230" s="46" t="s">
-        <v>1002</v>
+        <v>1003</v>
+      </c>
+      <c r="AF230" s="81" t="s">
+        <v>1279</v>
       </c>
       <c r="AG230" s="1"/>
       <c r="AH230" s="1"/>
@@ -32318,8 +32343,8 @@
         <f t="shared" si="199"/>
         <v>1Gy-xArx1HLolZ9xMuBsG5Oij1IQe1ggn</v>
       </c>
-      <c r="AF231" s="46" t="s">
-        <v>1003</v>
+      <c r="AF231" s="81" t="s">
+        <v>1280</v>
       </c>
       <c r="AG231" s="1"/>
       <c r="AH231" s="1"/>
@@ -32433,8 +32458,8 @@
         <f t="shared" si="199"/>
         <v>1vLlG5UjxxZN01m9awgsg0HLSyTR9KCVQ</v>
       </c>
-      <c r="AF232" s="46" t="s">
-        <v>1004</v>
+      <c r="AF232" s="81" t="s">
+        <v>1281</v>
       </c>
       <c r="AG232" s="1"/>
       <c r="AH232" s="1"/>
@@ -32481,7 +32506,9 @@
         <f t="shared" si="199"/>
         <v>#N/A</v>
       </c>
-      <c r="AF233" s="46"/>
+      <c r="AF233" s="81" t="s">
+        <v>1282</v>
+      </c>
       <c r="AG233" s="2"/>
       <c r="AH233" s="2"/>
       <c r="AI233" s="2"/>
@@ -32594,8 +32621,8 @@
         <f t="shared" si="199"/>
         <v>1Um1aQtoTqhHI65pxO9eYRU5-q8ONrLNS</v>
       </c>
-      <c r="AF234" s="46" t="s">
-        <v>1005</v>
+      <c r="AF234" s="81" t="s">
+        <v>1283</v>
       </c>
       <c r="AG234" s="2"/>
       <c r="AH234" s="2"/>
@@ -32709,8 +32736,8 @@
         <f t="shared" si="199"/>
         <v>1lW-OKFrZgVP1D_7MHVLlWpoRe55oj-MO</v>
       </c>
-      <c r="AF235" s="46" t="s">
-        <v>1006</v>
+      <c r="AF235" s="81" t="s">
+        <v>1284</v>
       </c>
       <c r="AG235" s="1"/>
       <c r="AH235" s="1"/>
@@ -32824,8 +32851,8 @@
         <f t="shared" si="199"/>
         <v>#N/A</v>
       </c>
-      <c r="AF236" s="46" t="s">
-        <v>1007</v>
+      <c r="AF236" s="81" t="s">
+        <v>1285</v>
       </c>
       <c r="AG236" s="1"/>
       <c r="AH236" s="1"/>
@@ -32937,8 +32964,8 @@
         <f t="shared" si="199"/>
         <v>#N/A</v>
       </c>
-      <c r="AF237" s="46" t="s">
-        <v>1008</v>
+      <c r="AF237" s="81" t="s">
+        <v>1286</v>
       </c>
       <c r="AG237" s="2"/>
       <c r="AH237" s="2"/>
@@ -33052,8 +33079,8 @@
         <f t="shared" si="199"/>
         <v>1dRgkFMO89u1l3W1O_XRqm4qhkBpT978f</v>
       </c>
-      <c r="AF238" s="46" t="s">
-        <v>1009</v>
+      <c r="AF238" s="81" t="s">
+        <v>1287</v>
       </c>
       <c r="AG238" s="2"/>
       <c r="AH238" s="2"/>
@@ -33167,8 +33194,8 @@
         <f t="shared" si="199"/>
         <v>1f2GORJZncEoniKtvtjQZlxHnr9uLa1UG</v>
       </c>
-      <c r="AF239" s="46" t="s">
-        <v>1010</v>
+      <c r="AF239" s="81" t="s">
+        <v>1288</v>
       </c>
       <c r="AG239" s="2"/>
       <c r="AH239" s="2"/>
@@ -33282,8 +33309,8 @@
         <f t="shared" si="199"/>
         <v>113LOZicVisUhUrRVbjPSB_1KbwnDYFpT</v>
       </c>
-      <c r="AF240" s="46" t="s">
-        <v>1011</v>
+      <c r="AF240" s="81" t="s">
+        <v>1289</v>
       </c>
       <c r="AG240" s="2"/>
       <c r="AH240" s="2"/>
@@ -33397,8 +33424,8 @@
         <f t="shared" si="199"/>
         <v>1ETcZ82Oc3OQfdkyJ-0Okiuw_G6ogle-_</v>
       </c>
-      <c r="AF241" s="46" t="s">
-        <v>1012</v>
+      <c r="AF241" s="81" t="s">
+        <v>1290</v>
       </c>
       <c r="AG241" s="2"/>
       <c r="AH241" s="2"/>
@@ -33512,8 +33539,8 @@
         <f t="shared" si="199"/>
         <v>1pIt17kHlTiWA0QMOsLqMJ2JkbtJb5e0A</v>
       </c>
-      <c r="AF242" s="46" t="s">
-        <v>1013</v>
+      <c r="AF242" s="81" t="s">
+        <v>1291</v>
       </c>
       <c r="AG242" s="2"/>
       <c r="AH242" s="2"/>
@@ -33627,8 +33654,8 @@
         <f t="shared" si="199"/>
         <v>1H4op4AXTYJvcnPfA9pg1_ybdZh_w-BjN</v>
       </c>
-      <c r="AF243" s="46" t="s">
-        <v>1014</v>
+      <c r="AF243" s="81" t="s">
+        <v>1292</v>
       </c>
       <c r="AG243" s="2"/>
       <c r="AH243" s="2"/>
@@ -33742,8 +33769,8 @@
         <f t="shared" si="199"/>
         <v>10SWt_F2zEcudWSZVZUbaJij-Xdp5iQTv</v>
       </c>
-      <c r="AF244" s="46" t="s">
-        <v>1015</v>
+      <c r="AF244" s="81" t="s">
+        <v>1293</v>
       </c>
       <c r="AG244" s="2"/>
       <c r="AH244" s="2"/>
@@ -33857,8 +33884,8 @@
         <f t="shared" si="199"/>
         <v>10lEfK19lM77Kxmyr6Qe26krI2sAKBbbH</v>
       </c>
-      <c r="AF245" s="46" t="s">
-        <v>1016</v>
+      <c r="AF245" s="81" t="s">
+        <v>1294</v>
       </c>
       <c r="AG245" s="2"/>
       <c r="AH245" s="2"/>
@@ -33972,8 +33999,8 @@
         <f t="shared" si="199"/>
         <v>1t_Lzdg3xvaerThDwwHAg0U8-nk5LCSTn</v>
       </c>
-      <c r="AF246" s="46" t="s">
-        <v>1017</v>
+      <c r="AF246" s="81" t="s">
+        <v>1295</v>
       </c>
       <c r="AG246" s="2"/>
       <c r="AH246" s="2"/>
@@ -34087,8 +34114,8 @@
         <f t="shared" si="199"/>
         <v>1Gh6Kc9scKP_dunPZ1ocgQ-k09N5qrMb9</v>
       </c>
-      <c r="AF247" s="46" t="s">
-        <v>1018</v>
+      <c r="AF247" s="81" t="s">
+        <v>1296</v>
       </c>
       <c r="AG247" s="2"/>
       <c r="AH247" s="2"/>
@@ -34202,8 +34229,8 @@
         <f t="shared" si="199"/>
         <v>1gqNajTknP0jloO2xfC8PFLj4Gqj-xiok</v>
       </c>
-      <c r="AF248" s="46" t="s">
-        <v>1019</v>
+      <c r="AF248" s="81" t="s">
+        <v>1297</v>
       </c>
       <c r="AG248" s="2"/>
       <c r="AH248" s="2"/>
@@ -34317,8 +34344,8 @@
         <f t="shared" si="199"/>
         <v>1Dyb_IJXLyec9KueYg8MzaVCQzA0eY4Sn</v>
       </c>
-      <c r="AF249" s="46" t="s">
-        <v>1020</v>
+      <c r="AF249" s="81" t="s">
+        <v>1298</v>
       </c>
       <c r="AG249" s="2"/>
       <c r="AH249" s="2"/>
@@ -34432,8 +34459,8 @@
         <f t="shared" si="199"/>
         <v>1AZUWbqRMcyUdiO9BRlAiK1DgZ0YPUEh1</v>
       </c>
-      <c r="AF250" s="46" t="s">
-        <v>1021</v>
+      <c r="AF250" s="81" t="s">
+        <v>1299</v>
       </c>
       <c r="AG250" s="2"/>
       <c r="AH250" s="2"/>
@@ -34547,8 +34574,8 @@
         <f t="shared" si="199"/>
         <v>1F7JjiZg8KUyckYqv5YBpzE0c2IEGAyhi</v>
       </c>
-      <c r="AF251" s="46" t="s">
-        <v>1022</v>
+      <c r="AF251" s="81" t="s">
+        <v>1300</v>
       </c>
       <c r="AG251" s="2"/>
       <c r="AH251" s="2"/>
@@ -34662,8 +34689,8 @@
         <f t="shared" si="199"/>
         <v>#N/A</v>
       </c>
-      <c r="AF252" s="46" t="s">
-        <v>1023</v>
+      <c r="AF252" s="81" t="s">
+        <v>1301</v>
       </c>
       <c r="AG252" s="2"/>
       <c r="AH252" s="2"/>
@@ -34775,8 +34802,8 @@
         <f t="shared" si="199"/>
         <v>1rkihYNgj1SIZUe7vNV3PMR8YZeqFyVn8</v>
       </c>
-      <c r="AF253" s="46" t="s">
-        <v>1024</v>
+      <c r="AF253" s="81" t="s">
+        <v>1302</v>
       </c>
       <c r="AG253" s="2"/>
       <c r="AH253" s="2"/>
@@ -34886,8 +34913,8 @@
         <f t="shared" si="199"/>
         <v>1JwHAwC1h8aMuIEb_IT8pdwNW5zYdK5GA</v>
       </c>
-      <c r="AF254" s="46" t="s">
-        <v>1025</v>
+      <c r="AF254" s="81" t="s">
+        <v>1303</v>
       </c>
       <c r="AG254" s="2"/>
       <c r="AH254" s="2"/>
@@ -34997,8 +35024,8 @@
         <f t="shared" si="199"/>
         <v>#N/A</v>
       </c>
-      <c r="AF255" s="46" t="s">
-        <v>1026</v>
+      <c r="AF255" s="81" t="s">
+        <v>1304</v>
       </c>
       <c r="AG255" s="2"/>
       <c r="AH255" s="2"/>
@@ -35110,8 +35137,8 @@
         <f t="shared" si="199"/>
         <v>#N/A</v>
       </c>
-      <c r="AF256" s="46" t="s">
-        <v>1027</v>
+      <c r="AF256" s="81" t="s">
+        <v>1305</v>
       </c>
       <c r="AG256" s="2"/>
       <c r="AH256" s="2"/>
@@ -35221,8 +35248,8 @@
         <f t="shared" si="199"/>
         <v>1NcGi6mkbBNdI-kw5-8ofvicqqec18yOr</v>
       </c>
-      <c r="AF257" s="46" t="s">
-        <v>1028</v>
+      <c r="AF257" s="81" t="s">
+        <v>1306</v>
       </c>
       <c r="AG257" s="2"/>
       <c r="AH257" s="2"/>
@@ -35332,8 +35359,8 @@
         <f t="shared" si="199"/>
         <v>#N/A</v>
       </c>
-      <c r="AF258" s="46" t="s">
-        <v>1029</v>
+      <c r="AF258" s="81" t="s">
+        <v>1307</v>
       </c>
       <c r="AG258" s="2"/>
       <c r="AH258" s="2"/>
@@ -35443,8 +35470,8 @@
         <f t="shared" si="199"/>
         <v>1jWcg2gj74GWZiZqhHhT4a9bg1oXeaqdZ</v>
       </c>
-      <c r="AF259" s="46" t="s">
-        <v>1030</v>
+      <c r="AF259" s="81" t="s">
+        <v>1308</v>
       </c>
       <c r="AG259" s="2"/>
       <c r="AH259" s="2"/>
@@ -35554,8 +35581,8 @@
         <f t="shared" si="199"/>
         <v>#N/A</v>
       </c>
-      <c r="AF260" s="46" t="s">
-        <v>1031</v>
+      <c r="AF260" s="81" t="s">
+        <v>1309</v>
       </c>
       <c r="AG260" s="2"/>
       <c r="AH260" s="2"/>
@@ -35664,10 +35691,10 @@
         <v>671</v>
       </c>
       <c r="AE261" s="81" t="s">
-        <v>1350</v>
-      </c>
-      <c r="AF261" s="46" t="s">
-        <v>1032</v>
+        <v>1083</v>
+      </c>
+      <c r="AF261" s="81" t="s">
+        <v>1310</v>
       </c>
       <c r="AG261" s="2"/>
       <c r="AH261" s="2"/>
@@ -35777,8 +35804,8 @@
         <f t="shared" si="199"/>
         <v>1aDIbiRWLrSOC-9S_rwvoBjlYVOKsfzYf</v>
       </c>
-      <c r="AF262" s="46" t="s">
-        <v>1033</v>
+      <c r="AF262" s="81" t="s">
+        <v>1311</v>
       </c>
       <c r="AG262" s="2"/>
       <c r="AH262" s="2"/>
@@ -35888,8 +35915,8 @@
         <f t="shared" ref="AE263:AE326" si="264">VLOOKUP(F263, $BA$1:$BB$500, 2, FALSE)</f>
         <v>1gtKYCi5mT0KS53MQcTSAn5jirMHFNL0c</v>
       </c>
-      <c r="AF263" s="46" t="s">
-        <v>1034</v>
+      <c r="AF263" s="81" t="s">
+        <v>1312</v>
       </c>
       <c r="AG263" s="2"/>
       <c r="AH263" s="2"/>
@@ -35999,8 +36026,8 @@
         <f t="shared" si="264"/>
         <v>1xnoHvhiDSdyLf6zX3LqE9KAGUI5_aO23</v>
       </c>
-      <c r="AF264" s="46" t="s">
-        <v>1035</v>
+      <c r="AF264" s="81" t="s">
+        <v>1313</v>
       </c>
       <c r="AG264" s="64"/>
       <c r="AH264" s="64"/>
@@ -36110,8 +36137,8 @@
         <f t="shared" si="264"/>
         <v>1Ch3Ja1K4qq4YlkzseANFUqXl9pujszut</v>
       </c>
-      <c r="AF265" s="46" t="s">
-        <v>1036</v>
+      <c r="AF265" s="81" t="s">
+        <v>1314</v>
       </c>
       <c r="AG265" s="64"/>
       <c r="AH265" s="64"/>
@@ -36221,8 +36248,8 @@
         <f t="shared" si="264"/>
         <v>18t2_8xok1cuyZD7evtawAHj0ahJeFPDC</v>
       </c>
-      <c r="AF266" s="46" t="s">
-        <v>1037</v>
+      <c r="AF266" s="81" t="s">
+        <v>1315</v>
       </c>
       <c r="AG266" s="2"/>
       <c r="AH266" s="2"/>
@@ -36332,8 +36359,8 @@
         <f t="shared" si="264"/>
         <v>143RwWVEjjgzR-IzaFUQfHsFP7kx3_jDr</v>
       </c>
-      <c r="AF267" s="46" t="s">
-        <v>1038</v>
+      <c r="AF267" s="81" t="s">
+        <v>1316</v>
       </c>
       <c r="AG267" s="2"/>
       <c r="AH267" s="2"/>
@@ -36443,8 +36470,8 @@
         <f t="shared" si="264"/>
         <v>1AQiRFfCoJdFY2gFZZJL-DwBOSioaevTU</v>
       </c>
-      <c r="AF268" s="46" t="s">
-        <v>1039</v>
+      <c r="AF268" s="81" t="s">
+        <v>1317</v>
       </c>
       <c r="AG268" s="1"/>
       <c r="AH268" s="1"/>
@@ -36556,8 +36583,8 @@
         <f t="shared" si="264"/>
         <v>1ygRrqe5v6PQy7WuRyIrFfUmBS2TB0Dw_</v>
       </c>
-      <c r="AF269" s="46" t="s">
-        <v>1040</v>
+      <c r="AF269" s="81" t="s">
+        <v>1318</v>
       </c>
       <c r="AG269" s="1"/>
       <c r="AH269" s="1"/>
@@ -36668,10 +36695,10 @@
         <v>689</v>
       </c>
       <c r="AE270" s="46" t="s">
-        <v>1351</v>
-      </c>
-      <c r="AF270" s="46" t="s">
-        <v>1041</v>
+        <v>1084</v>
+      </c>
+      <c r="AF270" s="81" t="s">
+        <v>1319</v>
       </c>
       <c r="AG270" s="2"/>
       <c r="AH270" s="2"/>
@@ -36781,8 +36808,8 @@
         <f t="shared" si="264"/>
         <v>1_pbeYi2dObkQrQTZkG5ITdW52XRlI5gi</v>
       </c>
-      <c r="AF271" s="46" t="s">
-        <v>1042</v>
+      <c r="AF271" s="81" t="s">
+        <v>1320</v>
       </c>
       <c r="AG271" s="2"/>
       <c r="AH271" s="2"/>
@@ -36829,7 +36856,9 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF272" s="46"/>
+      <c r="AF272" s="81" t="s">
+        <v>1321</v>
+      </c>
       <c r="AG272" s="64"/>
       <c r="AH272" s="64"/>
       <c r="AI272" s="2"/>
@@ -36940,8 +36969,8 @@
         <f t="shared" si="264"/>
         <v>1j_CGfMfqc_O0PPVI-i-XO-fJZWGNqlH6</v>
       </c>
-      <c r="AF273" s="46" t="s">
-        <v>1043</v>
+      <c r="AF273" s="81" t="s">
+        <v>1322</v>
       </c>
       <c r="AG273" s="2"/>
       <c r="AH273" s="2"/>
@@ -37050,10 +37079,10 @@
         <v>697</v>
       </c>
       <c r="AE274" s="46" t="s">
-        <v>1349</v>
-      </c>
-      <c r="AF274" s="46" t="s">
-        <v>1044</v>
+        <v>1082</v>
+      </c>
+      <c r="AF274" s="81" t="s">
+        <v>1323</v>
       </c>
       <c r="AG274" s="1"/>
       <c r="AH274" s="1"/>
@@ -37165,8 +37194,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF275" s="83" t="s">
-        <v>1045</v>
+      <c r="AF275" s="81" t="s">
+        <v>1324</v>
       </c>
       <c r="AG275" s="1"/>
       <c r="AH275" s="1"/>
@@ -37280,8 +37309,8 @@
         <f t="shared" si="264"/>
         <v>1vbEqrzHVdJI_Us5Rq_7oQels6xam0M2u</v>
       </c>
-      <c r="AF276" s="46" t="s">
-        <v>1046</v>
+      <c r="AF276" s="81" t="s">
+        <v>1325</v>
       </c>
       <c r="AG276" s="2"/>
       <c r="AH276" s="2"/>
@@ -37395,8 +37424,8 @@
         <f t="shared" si="264"/>
         <v>1cbgH_O55joK1CYMjLY_viBOyUpoTfpAt</v>
       </c>
-      <c r="AF277" s="46" t="s">
-        <v>1047</v>
+      <c r="AF277" s="81" t="s">
+        <v>1326</v>
       </c>
       <c r="AG277" s="2"/>
       <c r="AH277" s="2"/>
@@ -37506,8 +37535,8 @@
         <f t="shared" si="264"/>
         <v>1BptI13uXsNd3ZjjSPZuR76W1dnrEbuzd</v>
       </c>
-      <c r="AF278" s="84" t="s">
-        <v>1048</v>
+      <c r="AF278" s="81" t="s">
+        <v>1327</v>
       </c>
       <c r="AG278" s="2"/>
       <c r="AH278" s="2"/>
@@ -37617,9 +37646,7 @@
         <f t="shared" si="264"/>
         <v>1p0sGL8v-6vIR6puBRhoGroU0lQ2p6uBP</v>
       </c>
-      <c r="AF279" s="46" t="s">
-        <v>1049</v>
-      </c>
+      <c r="AF279" s="46"/>
       <c r="AG279" s="1"/>
       <c r="AH279" s="1"/>
       <c r="AI279" s="1"/>
@@ -37728,8 +37755,8 @@
         <f t="shared" si="264"/>
         <v>1EzGw4kqw3gri_bTb1jCwDW8vNajXLUIo</v>
       </c>
-      <c r="AF280" s="46" t="s">
-        <v>1050</v>
+      <c r="AF280" s="81" t="s">
+        <v>1328</v>
       </c>
       <c r="AG280" s="1"/>
       <c r="AH280" s="1"/>
@@ -37839,8 +37866,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF281" s="46" t="s">
-        <v>1051</v>
+      <c r="AF281" s="81" t="s">
+        <v>1329</v>
       </c>
       <c r="AG281" s="1"/>
       <c r="AH281" s="1"/>
@@ -37950,8 +37977,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF282" s="46" t="s">
-        <v>1052</v>
+      <c r="AF282" s="81" t="s">
+        <v>1330</v>
       </c>
       <c r="AG282" s="66"/>
       <c r="AH282" s="66"/>
@@ -38061,8 +38088,8 @@
         <f t="shared" si="264"/>
         <v>1EWFdOZUL7heHb4MA9fNKKYJatsN_FFKL</v>
       </c>
-      <c r="AF283" s="46" t="s">
-        <v>1053</v>
+      <c r="AF283" s="81" t="s">
+        <v>1331</v>
       </c>
       <c r="AG283" s="1"/>
       <c r="AH283" s="1"/>
@@ -38109,7 +38136,9 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF284" s="46"/>
+      <c r="AF284" s="81" t="s">
+        <v>1332</v>
+      </c>
       <c r="AG284" s="1"/>
       <c r="AH284" s="1"/>
       <c r="AI284" s="2"/>
@@ -38222,7 +38251,9 @@
         <f t="shared" si="264"/>
         <v>1wYESBrJaY7l5tu20dHuz9_DNzeKbsA-4</v>
       </c>
-      <c r="AF285" s="46"/>
+      <c r="AF285" s="81" t="s">
+        <v>1333</v>
+      </c>
       <c r="AG285" s="2"/>
       <c r="AH285" s="2"/>
       <c r="AI285" s="2"/>
@@ -38335,8 +38366,8 @@
         <f t="shared" si="264"/>
         <v>17APEpt4wpEeDoKlofHvGmX_vWc5unxtB</v>
       </c>
-      <c r="AF286" s="46" t="s">
-        <v>1054</v>
+      <c r="AF286" s="81" t="s">
+        <v>1334</v>
       </c>
       <c r="AG286" s="2"/>
       <c r="AH286" s="2"/>
@@ -38450,8 +38481,8 @@
         <f t="shared" si="264"/>
         <v>1NTOSJopUOFy92372T4sLcXZNVdyNaMRe</v>
       </c>
-      <c r="AF287" s="46" t="s">
-        <v>1055</v>
+      <c r="AF287" s="81" t="s">
+        <v>1335</v>
       </c>
       <c r="AG287" s="1"/>
       <c r="AH287" s="1"/>
@@ -38563,8 +38594,8 @@
         <f t="shared" si="264"/>
         <v>1UmwOz0AwuDm4F0q4bGchpf-gMvrEt2Ps</v>
       </c>
-      <c r="AF288" s="46" t="s">
-        <v>1056</v>
+      <c r="AF288" s="81" t="s">
+        <v>1336</v>
       </c>
       <c r="AG288" s="2"/>
       <c r="AH288" s="2"/>
@@ -38678,8 +38709,8 @@
         <f t="shared" si="264"/>
         <v>1Vzepi221rZo2CQsQESXqvMLZfTLN8qHx</v>
       </c>
-      <c r="AF289" s="46" t="s">
-        <v>1057</v>
+      <c r="AF289" s="81" t="s">
+        <v>1337</v>
       </c>
       <c r="AG289" s="2"/>
       <c r="AH289" s="2"/>
@@ -38793,8 +38824,8 @@
         <f t="shared" si="264"/>
         <v>1qP2xwbja9A9QSecQWtk6P_TVhtRmUQRB</v>
       </c>
-      <c r="AF290" s="46" t="s">
-        <v>1058</v>
+      <c r="AF290" s="81" t="s">
+        <v>1338</v>
       </c>
       <c r="AG290" s="2"/>
       <c r="AH290" s="2"/>
@@ -38908,8 +38939,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF291" s="46" t="s">
-        <v>1059</v>
+      <c r="AF291" s="81" t="s">
+        <v>1339</v>
       </c>
       <c r="AG291" s="2"/>
       <c r="AH291" s="2"/>
@@ -39023,8 +39054,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF292" s="46" t="s">
-        <v>1060</v>
+      <c r="AF292" s="81" t="s">
+        <v>1340</v>
       </c>
       <c r="AG292" s="2"/>
       <c r="AH292" s="2"/>
@@ -39138,8 +39169,8 @@
         <f t="shared" si="264"/>
         <v>12XHF87-gx_uhpi3iyvYAdNJgUNJXzh7U</v>
       </c>
-      <c r="AF293" s="46" t="s">
-        <v>1061</v>
+      <c r="AF293" s="81" t="s">
+        <v>1341</v>
       </c>
       <c r="AG293" s="2"/>
       <c r="AH293" s="2"/>
@@ -39253,8 +39284,8 @@
         <f t="shared" si="264"/>
         <v>11yTdY6vu9mdWFmQbDtaDf6XjGG4saK52</v>
       </c>
-      <c r="AF294" s="46" t="s">
-        <v>1062</v>
+      <c r="AF294" s="81" t="s">
+        <v>1342</v>
       </c>
       <c r="AG294" s="2"/>
       <c r="AH294" s="2"/>
@@ -39368,8 +39399,8 @@
         <f t="shared" si="264"/>
         <v>1hTi845SVRZnAJf9kpEDuqzJYcE69JjjU</v>
       </c>
-      <c r="AF295" s="46" t="s">
-        <v>1063</v>
+      <c r="AF295" s="81" t="s">
+        <v>1343</v>
       </c>
       <c r="AG295" s="2"/>
       <c r="AH295" s="2"/>
@@ -39481,8 +39512,8 @@
         <f t="shared" si="264"/>
         <v>1bnXejnzDoQ7qPOWT8-SrJjIxzoNPe1-B</v>
       </c>
-      <c r="AF296" s="46" t="s">
-        <v>1064</v>
+      <c r="AF296" s="81" t="s">
+        <v>1344</v>
       </c>
       <c r="AG296" s="2"/>
       <c r="AH296" s="2"/>
@@ -39591,10 +39622,10 @@
         <v>752</v>
       </c>
       <c r="AE297" s="81" t="s">
-        <v>1348</v>
-      </c>
-      <c r="AF297" s="46" t="s">
-        <v>1065</v>
+        <v>1081</v>
+      </c>
+      <c r="AF297" s="81" t="s">
+        <v>1345</v>
       </c>
       <c r="AG297" s="2"/>
       <c r="AH297" s="2"/>
@@ -39704,8 +39735,8 @@
         <f t="shared" si="264"/>
         <v>1Ul56ql8lNQrxFRV7QUVVDgT4DFBE28Me</v>
       </c>
-      <c r="AF298" s="46" t="s">
-        <v>1066</v>
+      <c r="AF298" s="81" t="s">
+        <v>1346</v>
       </c>
       <c r="AG298" s="2"/>
       <c r="AH298" s="2"/>
@@ -39754,7 +39785,9 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF299" s="46"/>
+      <c r="AF299" s="81" t="s">
+        <v>1347</v>
+      </c>
       <c r="AG299" s="2"/>
       <c r="AH299" s="2"/>
       <c r="AI299" s="2"/>
@@ -39872,8 +39905,8 @@
         <f t="shared" si="264"/>
         <v>1-7XHNSf7wjv7u5bRfzhlD5OybxBTQPSW</v>
       </c>
-      <c r="AF300" s="46" t="s">
-        <v>1067</v>
+      <c r="AF300" s="81" t="s">
+        <v>1348</v>
       </c>
       <c r="AG300" s="2"/>
       <c r="AH300" s="2"/>
@@ -39991,8 +40024,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF301" s="46" t="s">
-        <v>1068</v>
+      <c r="AF301" s="81" t="s">
+        <v>1349</v>
       </c>
       <c r="AG301" s="1"/>
       <c r="AH301" s="1"/>
@@ -40111,8 +40144,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF302" s="46" t="s">
-        <v>1069</v>
+      <c r="AF302" s="81" t="s">
+        <v>1350</v>
       </c>
       <c r="AG302" s="1"/>
       <c r="AH302" s="1"/>
@@ -40232,8 +40265,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF303" s="46" t="s">
-        <v>1070</v>
+      <c r="AF303" s="81" t="s">
+        <v>1351</v>
       </c>
       <c r="AG303" s="2"/>
       <c r="AH303" s="2"/>
@@ -40352,8 +40385,8 @@
         <f t="shared" si="264"/>
         <v>1V_XRUnlCNnCfLjjRtz6lCRNjg98_FgNy</v>
       </c>
-      <c r="AF304" s="46" t="s">
-        <v>1071</v>
+      <c r="AF304" s="81" t="s">
+        <v>1352</v>
       </c>
       <c r="AG304" s="2"/>
       <c r="AH304" s="2"/>
@@ -40467,8 +40500,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF305" s="46" t="s">
-        <v>1072</v>
+      <c r="AF305" s="81" t="s">
+        <v>1353</v>
       </c>
       <c r="AG305" s="2"/>
       <c r="AH305" s="2"/>
@@ -40582,8 +40615,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF306" s="46" t="s">
-        <v>1073</v>
+      <c r="AF306" s="81" t="s">
+        <v>1354</v>
       </c>
       <c r="AG306" s="2"/>
       <c r="AH306" s="2"/>
@@ -40697,8 +40730,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF307" s="46" t="s">
-        <v>1074</v>
+      <c r="AF307" s="81" t="s">
+        <v>1355</v>
       </c>
       <c r="AG307" s="2"/>
       <c r="AH307" s="2"/>
@@ -40812,8 +40845,8 @@
         <f t="shared" si="264"/>
         <v>1j-gTs7pBB14R92DX--d5Y1-WaHrBJbb2</v>
       </c>
-      <c r="AF308" s="46" t="s">
-        <v>1075</v>
+      <c r="AF308" s="81" t="s">
+        <v>1356</v>
       </c>
       <c r="AG308" s="2"/>
       <c r="AH308" s="2"/>
@@ -40927,8 +40960,8 @@
         <f t="shared" si="264"/>
         <v>1on8hBdH5_GDfC4DL67heSz0tObUblwdl</v>
       </c>
-      <c r="AF309" s="46" t="s">
-        <v>1076</v>
+      <c r="AF309" s="81" t="s">
+        <v>1357</v>
       </c>
       <c r="AG309" s="2"/>
       <c r="AH309" s="2"/>
@@ -41042,8 +41075,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF310" s="46" t="s">
-        <v>1077</v>
+      <c r="AF310" s="81" t="s">
+        <v>1358</v>
       </c>
       <c r="AG310" s="2"/>
       <c r="AH310" s="2"/>
@@ -41157,8 +41190,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF311" s="46" t="s">
-        <v>1078</v>
+      <c r="AF311" s="81" t="s">
+        <v>1359</v>
       </c>
       <c r="AG311" s="2"/>
       <c r="AH311" s="2"/>
@@ -41268,8 +41301,8 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF312" s="46" t="s">
-        <v>1079</v>
+      <c r="AF312" s="81" t="s">
+        <v>1360</v>
       </c>
       <c r="AG312" s="2"/>
       <c r="AH312" s="2"/>
@@ -41318,7 +41351,9 @@
         <f t="shared" si="264"/>
         <v>#N/A</v>
       </c>
-      <c r="AF313" s="46"/>
+      <c r="AF313" s="81" t="s">
+        <v>1361</v>
+      </c>
       <c r="AG313" s="2"/>
       <c r="AH313" s="2"/>
       <c r="AI313" s="2"/>
@@ -41431,8 +41466,8 @@
         <f t="shared" si="264"/>
         <v>1_8ZN91DBgk_TMjaOaPPd8U3nz8uNT7py</v>
       </c>
-      <c r="AF314" s="46" t="s">
-        <v>1080</v>
+      <c r="AF314" s="81" t="s">
+        <v>1362</v>
       </c>
       <c r="AG314" s="2"/>
       <c r="AH314" s="2"/>
@@ -41546,8 +41581,8 @@
         <f t="shared" si="264"/>
         <v>1C_esSV4-0x5sK71ga24Y7pEWaTIbuU57</v>
       </c>
-      <c r="AF315" s="46" t="s">
-        <v>1081</v>
+      <c r="AF315" s="81" t="s">
+        <v>1363</v>
       </c>
       <c r="AG315" s="2"/>
       <c r="AH315" s="2"/>
@@ -41659,8 +41694,8 @@
         <f t="shared" si="264"/>
         <v>1pFc-8vUfUjPYJZ5tWW5Vk7PfNqe9v0qc</v>
       </c>
-      <c r="AF316" s="46" t="s">
-        <v>1082</v>
+      <c r="AF316" s="81" t="s">
+        <v>1364</v>
       </c>
       <c r="AG316" s="2"/>
       <c r="AH316" s="2"/>
@@ -41774,8 +41809,8 @@
         <f t="shared" si="264"/>
         <v>1SHAni6_YbHfoiokzEJN3w-lTcahWaNQ_</v>
       </c>
-      <c r="AF317" s="46" t="s">
-        <v>1083</v>
+      <c r="AF317" s="81" t="s">
+        <v>1365</v>
       </c>
       <c r="AG317" s="2"/>
       <c r="AH317" s="2"/>
@@ -41887,8 +41922,8 @@
         <f t="shared" si="264"/>
         <v>1NbryTuQA4n6vJ8WstbwkSayMAsAebzKS</v>
       </c>
-      <c r="AF318" s="46" t="s">
-        <v>1084</v>
+      <c r="AF318" s="81" t="s">
+        <v>1366</v>
       </c>
       <c r="AG318" s="2"/>
       <c r="AH318" s="2"/>
@@ -42002,8 +42037,8 @@
         <f t="shared" si="264"/>
         <v>1WcrE5k_mTW1vA1UF0_t2LCLDdNdgxMIX</v>
       </c>
-      <c r="AF319" s="46" t="s">
-        <v>1085</v>
+      <c r="AF319" s="81" t="s">
+        <v>1367</v>
       </c>
       <c r="AG319" s="2"/>
       <c r="AH319" s="2"/>
@@ -42104,10 +42139,10 @@
       </c>
       <c r="AD320" s="3"/>
       <c r="AE320" s="46" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AF320" s="46" t="s">
-        <v>1086</v>
+        <v>1080</v>
+      </c>
+      <c r="AF320" s="81" t="s">
+        <v>1368</v>
       </c>
       <c r="AG320" s="2"/>
       <c r="AH320" s="2"/>
@@ -42211,8 +42246,8 @@
         <f t="shared" si="264"/>
         <v>1MEYvoeuqzk1cMuUUDndyMgrbuOXT7VrV</v>
       </c>
-      <c r="AF321" s="46" t="s">
-        <v>1087</v>
+      <c r="AF321" s="81" t="s">
+        <v>1369</v>
       </c>
       <c r="AG321" s="2"/>
       <c r="AH321" s="2"/>
@@ -42315,7 +42350,7 @@
         <v>1SrFqwwsTx1Uo6D_-FCGM9w4tmTSbzH6s</v>
       </c>
       <c r="AF322" s="46" t="s">
-        <v>1088</v>
+        <v>821</v>
       </c>
       <c r="AG322" s="2"/>
       <c r="AH322" s="2"/>
@@ -42421,7 +42456,7 @@
         <v>1sfQLjvdA-_v4Uk0t9OL13Nva3zJmwQLp</v>
       </c>
       <c r="AF323" s="46" t="s">
-        <v>1089</v>
+        <v>822</v>
       </c>
       <c r="AG323" s="2"/>
       <c r="AH323" s="2"/>
@@ -42527,7 +42562,7 @@
         <v>1qTTmRUfq_Vw7zQDjk09cy-ZtjXNyDbax</v>
       </c>
       <c r="AF324" s="46" t="s">
-        <v>1090</v>
+        <v>823</v>
       </c>
       <c r="AG324" s="2"/>
       <c r="AH324" s="2"/>
@@ -42633,7 +42668,7 @@
         <v>1-me3B9XvNoQGtDuKA6mD8ljweqnBYFhz</v>
       </c>
       <c r="AF325" s="46" t="s">
-        <v>1091</v>
+        <v>824</v>
       </c>
       <c r="AG325" s="2"/>
       <c r="AH325" s="2"/>
@@ -42736,7 +42771,7 @@
         <v>1wUXYSj6zBOmNBFlQHuMmw43xQVPpbYpp</v>
       </c>
       <c r="AF326" s="46" t="s">
-        <v>1092</v>
+        <v>825</v>
       </c>
       <c r="AG326" s="2"/>
       <c r="AH326" s="2"/>
@@ -42839,7 +42874,7 @@
         <v>1ojFrye5aECkiqKWVGVUNCSL-2Vh0OwlA</v>
       </c>
       <c r="AF327" s="46" t="s">
-        <v>1093</v>
+        <v>826</v>
       </c>
       <c r="AG327" s="2"/>
       <c r="AH327" s="2"/>
@@ -42942,7 +42977,7 @@
         <v>1tSWm-LevgC8Nr62C2vMCFAF5GATV_e27</v>
       </c>
       <c r="AF328" s="46" t="s">
-        <v>1094</v>
+        <v>827</v>
       </c>
       <c r="AG328" s="2"/>
       <c r="AH328" s="2"/>
@@ -43045,7 +43080,7 @@
         <v>16ZDZIEyMszDcAWcu7p0Qn3KTrDXyP7GE</v>
       </c>
       <c r="AF329" s="46" t="s">
-        <v>1095</v>
+        <v>828</v>
       </c>
       <c r="AG329" s="2"/>
       <c r="AH329" s="2"/>
@@ -71363,8 +71398,315 @@
       <formula>299.9</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="AF5" r:id="rId1" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{48997002-8FB1-F542-802D-8D0A19ED980E}"/>
+    <hyperlink ref="AF6" r:id="rId2" display="https://www.stroke.med.hku.hk/recipes-hypertension" xr:uid="{3446BC1B-2D27-954F-8E41-B160FCA9AD87}"/>
+    <hyperlink ref="AF7" r:id="rId3" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{340CC061-2D74-5641-A425-0008E265E123}"/>
+    <hyperlink ref="AF8" r:id="rId4" display="https://www.stroke.med.hku.hk/recipes-hypertension" xr:uid="{1ABC5C76-4E0E-8D4A-A075-3C3665AB89BE}"/>
+    <hyperlink ref="AF9" r:id="rId5" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{18DD5D7C-8806-0241-8121-84201D952FCD}"/>
+    <hyperlink ref="AF10" r:id="rId6" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{B376464F-826B-F545-813B-AB9B4DA9ADA5}"/>
+    <hyperlink ref="AF11" r:id="rId7" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{73CAA14E-8F6B-1640-A710-B4B5C6DDEB47}"/>
+    <hyperlink ref="AF13" r:id="rId8" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{DB9B91B5-8766-CB4E-990F-C79FB3AFC5D0}"/>
+    <hyperlink ref="AF14" r:id="rId9" display="https://www.stroke.med.hku.hk/recipes-hypertension" xr:uid="{FFEDCD97-4F39-904C-84D3-E89618643AF8}"/>
+    <hyperlink ref="AF15" r:id="rId10" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{E38E012B-FEE2-274F-999A-5BB6E1E14505}"/>
+    <hyperlink ref="AF16" r:id="rId11" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{DE39F8BB-B2F5-274B-B86A-DD64FE6E4D04}"/>
+    <hyperlink ref="AF17" r:id="rId12" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{5D41B7E0-1089-CD4D-BE54-364D89DB239F}"/>
+    <hyperlink ref="AF18" r:id="rId13" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{346B16FC-B59F-6741-B511-471FCED940CC}"/>
+    <hyperlink ref="AF19" r:id="rId14" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{E5E26B19-CB1B-B441-9215-F67AD7F022D9}"/>
+    <hyperlink ref="AF20" r:id="rId15" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{B3638D77-C82B-E64F-887F-F0B946FA6AE6}"/>
+    <hyperlink ref="AF21" r:id="rId16" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{A67BE0E8-6BDE-E243-B34A-6AC6C7587B5A}"/>
+    <hyperlink ref="AF22" r:id="rId17" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{A7183492-996A-F644-96B6-0EE86502575D}"/>
+    <hyperlink ref="AF23" r:id="rId18" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{44A6E1A9-54FD-364D-B387-15B543EE57AD}"/>
+    <hyperlink ref="AF24" r:id="rId19" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{0B72B92F-E43D-5047-B66B-9AAEA141FA91}"/>
+    <hyperlink ref="AF25" r:id="rId20" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{1A81A765-B4B6-F443-B40D-5D81C8E8BFF0}"/>
+    <hyperlink ref="AF26" r:id="rId21" display="https://www.stroke.med.hku.hk/recipes-hypertension" xr:uid="{01D80C96-A0C5-2C41-B91D-9486B5E260D5}"/>
+    <hyperlink ref="AF27" r:id="rId22" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{F338F338-515B-C54A-A369-A338DC9B785E}"/>
+    <hyperlink ref="AF28" r:id="rId23" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{51CB0B4E-4E72-B740-950D-553F5D4C335E}"/>
+    <hyperlink ref="AF29" r:id="rId24" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{5267006C-8B51-0547-B5A5-28C23362F6F0}"/>
+    <hyperlink ref="AF30" r:id="rId25" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{90A5735A-F686-6046-B038-B5AD9D9F9FC0}"/>
+    <hyperlink ref="AF31" r:id="rId26" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{D0184376-68CE-9D42-B467-CC86FD632877}"/>
+    <hyperlink ref="AF32" r:id="rId27" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{DFD378A0-FCD4-DD42-BE6C-9BA38AF95254}"/>
+    <hyperlink ref="AF33" r:id="rId28" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{5F9D3246-0F54-4043-9FFD-E6E60376965B}"/>
+    <hyperlink ref="AF34" r:id="rId29" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{418763AD-71C1-BC46-979A-4530CAC4218C}"/>
+    <hyperlink ref="AF35" r:id="rId30" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{43815909-BB6F-C648-B45F-9EF010E361DF}"/>
+    <hyperlink ref="AF36" r:id="rId31" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{0F9D24EF-15A5-9E4B-8DE8-1F4FC878C48B}"/>
+    <hyperlink ref="AF37" r:id="rId32" display="https://www.stroke.med.hku.hk/recipes-hypertension" xr:uid="{05716F51-7CF5-8743-A451-2E4387B2732E}"/>
+    <hyperlink ref="AF38" r:id="rId33" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{9C27F711-6682-EC42-919B-C632972424A3}"/>
+    <hyperlink ref="AF40" r:id="rId34" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{3896B30C-987B-EE42-9281-5217634569BC}"/>
+    <hyperlink ref="AF41" r:id="rId35" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{6F5CE5B6-0712-C243-AAF4-C1D999902EA3}"/>
+    <hyperlink ref="AF42" r:id="rId36" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{8694B084-6C61-C443-AAF0-9AB5EBDD0006}"/>
+    <hyperlink ref="AF43" r:id="rId37" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{2C6B02C7-84C2-5345-A1BB-FCE9BEC6B613}"/>
+    <hyperlink ref="AF47" r:id="rId38" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{DCBAFE3A-023A-994D-B00F-24AEBD873367}"/>
+    <hyperlink ref="AF48" r:id="rId39" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{7A06F62E-B4CB-9F42-9099-B7381C658A3C}"/>
+    <hyperlink ref="AF49" r:id="rId40" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{76E044B0-4912-0F41-9E00-1379A0BA32A2}"/>
+    <hyperlink ref="AF50" r:id="rId41" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{DA80146B-CF26-1D4C-B7EA-D1AC6FE17D4F}"/>
+    <hyperlink ref="AF51" r:id="rId42" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{69A557BA-93D6-564F-92EA-CB2026A60B85}"/>
+    <hyperlink ref="AF52" r:id="rId43" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{FEE8E8B0-873D-E046-9E7B-C35BE7FFFC95}"/>
+    <hyperlink ref="AF53" r:id="rId44" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{7FE0E809-1F7D-4B45-BFA0-5890A33BC1BA}"/>
+    <hyperlink ref="AF58" r:id="rId45" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{199E84DA-CAE4-3545-883D-023F136A9611}"/>
+    <hyperlink ref="AF59" r:id="rId46" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{015037C8-945F-DD4F-82D0-4A3F50A7B44F}"/>
+    <hyperlink ref="AF60" r:id="rId47" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{9297DE74-B954-5A4C-B497-24846E2C20BF}"/>
+    <hyperlink ref="AF61" r:id="rId48" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{3F80AD7F-26EC-374E-890A-B2813A9FE3D8}"/>
+    <hyperlink ref="AF62" r:id="rId49" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{9C90D035-7B0C-024D-9A9B-AAB6F1BEF353}"/>
+    <hyperlink ref="AF63" r:id="rId50" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{52135E41-85B8-5948-ABCD-9828C72550CF}"/>
+    <hyperlink ref="AF64" r:id="rId51" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{41479AFA-AFB3-6142-85AE-E8D7BF67137C}"/>
+    <hyperlink ref="AF65" r:id="rId52" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{85BF6368-EEC2-4A40-9D88-333983FF5570}"/>
+    <hyperlink ref="AF66" r:id="rId53" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{B1457F17-BF62-D440-84CE-3F5418897A15}"/>
+    <hyperlink ref="AF67" r:id="rId54" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{13FFD078-E15A-5848-B3B9-69E0F6663F51}"/>
+    <hyperlink ref="AF68" r:id="rId55" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{06364EB8-F4C1-034C-9F5A-634822BDE17D}"/>
+    <hyperlink ref="AF69" r:id="rId56" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{F289225C-1214-8441-ADAA-482B8D091008}"/>
+    <hyperlink ref="AF70" r:id="rId57" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{2C9BEE0A-F50C-2042-ABB8-2D1CAA82CB09}"/>
+    <hyperlink ref="AF71" r:id="rId58" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{9C64EFA0-5AA1-9D4E-8CCE-B62A4148A305}"/>
+    <hyperlink ref="AF72" r:id="rId59" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{66D91BAE-E99D-2945-863E-92567D144A0A}"/>
+    <hyperlink ref="AF73" r:id="rId60" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{6F3E2BEF-EE33-4C4A-9D9E-CD5740EDEFE1}"/>
+    <hyperlink ref="AF74" r:id="rId61" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{05E9571F-3B26-3046-A30D-E89436D775EB}"/>
+    <hyperlink ref="AF75" r:id="rId62" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{263ED0BE-4520-E54A-84CA-C4FBE0582DCB}"/>
+    <hyperlink ref="AF76" r:id="rId63" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{406AFBAD-10FA-C040-9905-9E1671B81A9D}"/>
+    <hyperlink ref="AF77" r:id="rId64" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{42AF512B-F61A-534D-A495-6C2E5C2A776C}"/>
+    <hyperlink ref="AF78" r:id="rId65" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{CB21D484-E830-0E49-90B5-AD55CBFBF4C0}"/>
+    <hyperlink ref="AF79" r:id="rId66" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{AFFEC2E0-08F6-5E4D-B912-2C9B7CF6FEFB}"/>
+    <hyperlink ref="AF80" r:id="rId67" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{02F29811-5BB6-F94C-B098-FE26B2ED99E0}"/>
+    <hyperlink ref="AF81" r:id="rId68" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{72FE97C2-82E9-284E-B56E-35A700762FEB}"/>
+    <hyperlink ref="AF82" r:id="rId69" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{8838E48B-B1B0-2D4C-A363-9CDAB9FAD16F}"/>
+    <hyperlink ref="AF83" r:id="rId70" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{03246FEF-A49A-A84A-8CEE-8BCA62582BA6}"/>
+    <hyperlink ref="AF84" r:id="rId71" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{D4C7BE14-A297-2640-9E74-62101F7417BC}"/>
+    <hyperlink ref="AF85" r:id="rId72" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{0FDA453C-6961-B54B-AAB7-DAC8D8D7097C}"/>
+    <hyperlink ref="AF86" r:id="rId73" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{3B9A678C-7CDE-654A-9AE6-5F0EC45BD03D}"/>
+    <hyperlink ref="AF87" r:id="rId74" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{4DF3BDA9-61E7-4E42-8985-96DF0C32E985}"/>
+    <hyperlink ref="AF88" r:id="rId75" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{742580F1-F3AB-BD48-9466-1B6733629756}"/>
+    <hyperlink ref="AF89" r:id="rId76" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{60ED4540-8909-A94B-BC36-AE31733535AA}"/>
+    <hyperlink ref="AF90" r:id="rId77" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{C9D253B6-0EB4-864A-8922-EE2A307EC0FC}"/>
+    <hyperlink ref="AF91" r:id="rId78" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{66323A33-6BB7-AA4A-905E-DE3274796352}"/>
+    <hyperlink ref="AF92" r:id="rId79" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{BB03CEC6-E18A-4E40-923A-B3F2C8854E76}"/>
+    <hyperlink ref="AF93" r:id="rId80" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{FAF8EF38-0B12-584B-8EF8-462EEC3D6FE9}"/>
+    <hyperlink ref="AF94" r:id="rId81" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{AE67B5AA-EECB-2449-B008-50C6EFCAF05C}"/>
+    <hyperlink ref="AF95" r:id="rId82" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{233A938A-80C8-1B49-BC38-540AB291A856}"/>
+    <hyperlink ref="AF96" r:id="rId83" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{6BB342BB-56B5-7042-BDD9-3CB88A1C0985}"/>
+    <hyperlink ref="AF97" r:id="rId84" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{394D1C69-A980-BF4A-B723-EDC82C94EBC7}"/>
+    <hyperlink ref="AF98" r:id="rId85" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{C2B7A468-89D8-6F47-93E2-1BB8382DC1ED}"/>
+    <hyperlink ref="AF99" r:id="rId86" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{2BD53412-B474-6B46-9C91-42822913CC92}"/>
+    <hyperlink ref="AF100" r:id="rId87" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{E374D6CE-8414-8C44-B902-215539BB4991}"/>
+    <hyperlink ref="AF101" r:id="rId88" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{858FAAD9-4B9C-F942-9BF3-DF79B0E6BE28}"/>
+    <hyperlink ref="AF102" r:id="rId89" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{E88D2379-30C3-BD42-A625-9ED92AE6BEBC}"/>
+    <hyperlink ref="AF103" r:id="rId90" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{2CA8C070-2573-684D-A676-EED16E32657B}"/>
+    <hyperlink ref="AF104" r:id="rId91" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{D627D5FD-DF87-7549-A622-D400462AFE9E}"/>
+    <hyperlink ref="AF105" r:id="rId92" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{2077CFDA-B04F-9546-BD4C-96B1A0248266}"/>
+    <hyperlink ref="AF106" r:id="rId93" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{CD089206-FF3A-524A-889D-A3BF0A8A1093}"/>
+    <hyperlink ref="AF107" r:id="rId94" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{1EECA20A-C16F-0642-BE06-965EDBAAC5AF}"/>
+    <hyperlink ref="AF108" r:id="rId95" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{EC543288-9C6D-7A44-A56B-B30A2168C4F8}"/>
+    <hyperlink ref="AF109" r:id="rId96" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{0623BFEE-3345-A041-9BA0-4515020B98B9}"/>
+    <hyperlink ref="AF110" r:id="rId97" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{AA1E4ADA-F53E-B543-B96C-5A0F3F47C1F7}"/>
+    <hyperlink ref="AF111" r:id="rId98" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{7175BB46-4C91-6446-963F-1A5C9CAA9044}"/>
+    <hyperlink ref="AF112" r:id="rId99" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{4F3448BF-8919-4A40-8569-12C5E1594FD5}"/>
+    <hyperlink ref="AF113" r:id="rId100" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{FA540DE1-C5B9-E443-BF75-904C22561193}"/>
+    <hyperlink ref="AF114" r:id="rId101" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{8D92F910-E870-CF47-A1F1-BB9DE94AF748}"/>
+    <hyperlink ref="AF115" r:id="rId102" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{5542549B-1A28-8749-84F8-44E3E8FE3711}"/>
+    <hyperlink ref="AF116" r:id="rId103" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{4720B81F-98DC-1F44-A8DD-27BFC5CF8C9F}"/>
+    <hyperlink ref="AF117" r:id="rId104" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{BADAF8FC-4032-894F-B979-2BE3BD002381}"/>
+    <hyperlink ref="AF118" r:id="rId105" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{DBEE7708-10F0-9C4F-B972-6BE368FB6955}"/>
+    <hyperlink ref="AF119" r:id="rId106" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{8C9CF38F-74A4-CF4E-A63F-8491E0BE777F}"/>
+    <hyperlink ref="AF120" r:id="rId107" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{F9D4A1E6-6A74-2448-B2D5-8143C1C47340}"/>
+    <hyperlink ref="AF121" r:id="rId108" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{BDF3456D-02B8-6F49-A95F-568DC98E90C3}"/>
+    <hyperlink ref="AF122" r:id="rId109" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{AAA822DD-A6D3-0542-9452-9C0482FFB31D}"/>
+    <hyperlink ref="AF123" r:id="rId110" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{BC5A19C3-8529-EC42-B256-76F881A9D772}"/>
+    <hyperlink ref="AF124" r:id="rId111" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{DA74920D-71FB-0C4B-A624-C294CDFCB2A2}"/>
+    <hyperlink ref="AF125" r:id="rId112" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{E921DEB9-1B97-4241-9389-BAC0F8317A14}"/>
+    <hyperlink ref="AF126" r:id="rId113" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{358D3E96-FAC2-D748-A2D8-CAD944C725FF}"/>
+    <hyperlink ref="AF127" r:id="rId114" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{BF57E97E-545F-B143-A04E-D99F552F389F}"/>
+    <hyperlink ref="AF128" r:id="rId115" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{373C7F8A-D1A2-FA4F-9E44-22B1AC996570}"/>
+    <hyperlink ref="AF129" r:id="rId116" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{A7BA199B-768B-584A-AF3F-3FC4402ADC89}"/>
+    <hyperlink ref="AF130" r:id="rId117" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{D92C731F-115A-D24B-80DB-C4121E890CBD}"/>
+    <hyperlink ref="AF131" r:id="rId118" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{D244F720-E679-344D-8D5F-C4B8CE1A4257}"/>
+    <hyperlink ref="AF132" r:id="rId119" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{651F0D46-06D9-3C41-B720-4EB29CD00A3F}"/>
+    <hyperlink ref="AF133" r:id="rId120" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{A85278B6-8864-EA4B-B7AD-2283D029DDE6}"/>
+    <hyperlink ref="AF134" r:id="rId121" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{D1D77064-6DDF-844A-A3E4-4D6C16C7A0DF}"/>
+    <hyperlink ref="AF135" r:id="rId122" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{DF89551C-00FD-DE42-8F7D-EB06A45759AC}"/>
+    <hyperlink ref="AF136" r:id="rId123" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{60F5DCB7-081F-5D43-9822-748D6B1482EC}"/>
+    <hyperlink ref="AF137" r:id="rId124" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{46318985-C1B0-7746-B042-7A29E318BB6D}"/>
+    <hyperlink ref="AF138" r:id="rId125" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{9B877413-6E85-5D41-9B04-4481B17C6ADE}"/>
+    <hyperlink ref="AF139" r:id="rId126" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{0AB3953A-4C99-AF46-922C-BD3BA426A0A1}"/>
+    <hyperlink ref="AF140" r:id="rId127" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{2C0F89C3-DF3A-CF4D-A75A-95DB0C9D06B2}"/>
+    <hyperlink ref="AF141" r:id="rId128" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{DBF7CFD1-3061-1642-9B37-5A21C045FEA1}"/>
+    <hyperlink ref="AF142" r:id="rId129" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{F278108B-93BF-4F4F-A3D1-359485CFC77C}"/>
+    <hyperlink ref="AF143" r:id="rId130" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{00F253E9-DDEA-CC43-BDD9-7DE52B16666B}"/>
+    <hyperlink ref="AF144" r:id="rId131" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{E69E5785-5155-4347-BB09-40547E0E5AC5}"/>
+    <hyperlink ref="AF145" r:id="rId132" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{E6261887-F290-2440-B0BA-8DD5C033312E}"/>
+    <hyperlink ref="AF146" r:id="rId133" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{DCB84DE3-D77E-9B49-BD62-F76803627D54}"/>
+    <hyperlink ref="AF147" r:id="rId134" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{CE1146DA-5B4D-C44D-A249-5A8EE7209096}"/>
+    <hyperlink ref="AF148" r:id="rId135" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{CE3969B0-21E0-3348-A4C0-798401461214}"/>
+    <hyperlink ref="AF149" r:id="rId136" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{E84A72E9-05DD-6D4A-BF3D-BEDC057D8ACB}"/>
+    <hyperlink ref="AF150" r:id="rId137" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{77ECD593-15C8-B94C-A5C2-A60A12919CE6}"/>
+    <hyperlink ref="AF151" r:id="rId138" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{75A01202-527C-924D-87CC-30B99B93D9EB}"/>
+    <hyperlink ref="AF152" r:id="rId139" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{8AAB45C4-8B6F-C042-B71E-5D4BDF6230A6}"/>
+    <hyperlink ref="AF153" r:id="rId140" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{CB8FC911-79AD-3049-A26E-813EFD8BBCF3}"/>
+    <hyperlink ref="AF154" r:id="rId141" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{FA3ABE4E-8093-864F-B195-EAB2A0884328}"/>
+    <hyperlink ref="AF155" r:id="rId142" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{E6CB2491-659D-ED49-95E2-C6CAAF2F4811}"/>
+    <hyperlink ref="AF156" r:id="rId143" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{B2D9D32E-4BDE-C047-93E2-4BC240D900A5}"/>
+    <hyperlink ref="AF157" r:id="rId144" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{123A3B96-357C-AC47-9F94-E2C8608D51CD}"/>
+    <hyperlink ref="AF158" r:id="rId145" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{F1A0B3B3-9918-B24F-8E41-87E96B6A4741}"/>
+    <hyperlink ref="AF159" r:id="rId146" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{795D8053-BA50-ED43-8346-F48C7E3AADEB}"/>
+    <hyperlink ref="AF160" r:id="rId147" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{7A38FD20-DEB8-DB4E-88D6-F02F9B89AA50}"/>
+    <hyperlink ref="AF161" r:id="rId148" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{441A038A-1474-694B-93C3-347C7839F59A}"/>
+    <hyperlink ref="AF162" r:id="rId149" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{162E1777-DE1F-9F4D-BCD9-A030A5974149}"/>
+    <hyperlink ref="AF163" r:id="rId150" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{92CC4823-8D84-164A-9B6F-C0E4FC60B828}"/>
+    <hyperlink ref="AF164" r:id="rId151" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{7CE761E1-79A2-4546-8A8D-4462AB305B4B}"/>
+    <hyperlink ref="AF165" r:id="rId152" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{CB377447-8ACF-D64A-A1DF-9AA432C71C6B}"/>
+    <hyperlink ref="AF166" r:id="rId153" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{D88A578A-2965-D949-B454-7A64BC174FA9}"/>
+    <hyperlink ref="AF167" r:id="rId154" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{6F0F534B-6741-5949-A16A-E5E72B5C5C65}"/>
+    <hyperlink ref="AF168" r:id="rId155" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{0CAB01D7-C466-3D4C-A3F0-FB1BA8F8CF8E}"/>
+    <hyperlink ref="AF169" r:id="rId156" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{A55F475B-E294-354A-BD97-C98C8C07DEB1}"/>
+    <hyperlink ref="AF170" r:id="rId157" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{C681B03F-EE1C-824D-A5A8-8A0D8AFD4A09}"/>
+    <hyperlink ref="AF171" r:id="rId158" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{1570DF6D-4C95-6B43-A78A-5F2A29479830}"/>
+    <hyperlink ref="AF172" r:id="rId159" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{32F472BF-9E2F-AF4E-B71D-5EDB3F996FC8}"/>
+    <hyperlink ref="AF173" r:id="rId160" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{BA1F6F12-5921-4346-9367-840FEE617379}"/>
+    <hyperlink ref="AF174" r:id="rId161" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{54F35808-FA16-4245-AE88-DFA188516772}"/>
+    <hyperlink ref="AF175" r:id="rId162" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{B167C781-9268-1A49-A889-BA3EF61CF89C}"/>
+    <hyperlink ref="AF176" r:id="rId163" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{3111775E-6C45-7B48-BC4A-E3FD6D13B452}"/>
+    <hyperlink ref="AF177" r:id="rId164" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{3CA7DC7C-AE25-3D40-88FE-D6038D7B4EAB}"/>
+    <hyperlink ref="AF179" r:id="rId165" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{93659CD2-C3EE-994B-81DB-D2FCE93BA20B}"/>
+    <hyperlink ref="AF180" r:id="rId166" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{88A160DD-DA31-3046-9386-405E5F143B2D}"/>
+    <hyperlink ref="AF181" r:id="rId167" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{899E0534-EED5-0446-A766-AECF9CB2C684}"/>
+    <hyperlink ref="AF182" r:id="rId168" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{353BF8E6-090F-6646-A078-B93A7385DAC6}"/>
+    <hyperlink ref="AF183" r:id="rId169" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{A5C6681B-E815-E046-9863-CD57AE3426AA}"/>
+    <hyperlink ref="AF184" r:id="rId170" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{C8A07BA6-6DD6-0149-99FC-303937F2106F}"/>
+    <hyperlink ref="AF185" r:id="rId171" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{7F581314-659D-1D42-8D02-8B260A7DF89A}"/>
+    <hyperlink ref="AF186" r:id="rId172" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{2CEF494E-1BD8-2948-9528-1B1D8F868CE1}"/>
+    <hyperlink ref="AF187" r:id="rId173" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{1B255912-01D7-4249-AB8A-8970B38D2BD5}"/>
+    <hyperlink ref="AF188" r:id="rId174" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{326111F5-F34C-8C41-92F8-0A6A80A73E9A}"/>
+    <hyperlink ref="AF189" r:id="rId175" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{B6C64084-9083-0041-9B44-4139939761AD}"/>
+    <hyperlink ref="AF190" r:id="rId176" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{283E9D8A-6C32-7D42-BE4F-391ACDFB6109}"/>
+    <hyperlink ref="AF191" r:id="rId177" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{AD163890-1653-0D4A-A4BC-743ABC125FA5}"/>
+    <hyperlink ref="AF192" r:id="rId178" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{971FE555-992F-C44C-90FC-5A8246C85FA8}"/>
+    <hyperlink ref="AF193" r:id="rId179" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{E79CEB7B-A144-A24B-98D5-FFDD2E463E1A}"/>
+    <hyperlink ref="AF194" r:id="rId180" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{ED627BEF-C6D1-9642-A81D-25ACA6B571AF}"/>
+    <hyperlink ref="AF195" r:id="rId181" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{13C869A7-75C8-5B4D-86DC-5E432DC1BDDA}"/>
+    <hyperlink ref="AF196" r:id="rId182" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{CBA12475-2685-C243-9416-D27C010A162B}"/>
+    <hyperlink ref="AF197" r:id="rId183" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{DE95F1A8-685A-5948-A62C-CC0802FF4FF8}"/>
+    <hyperlink ref="AF198" r:id="rId184" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{056FEADF-2D73-8540-97C8-4CB1876A34FD}"/>
+    <hyperlink ref="AF199" r:id="rId185" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{98407771-866E-D84A-BF7F-252B26D90A06}"/>
+    <hyperlink ref="AF200" r:id="rId186" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{7E33C803-E8D1-4748-8D0E-57D114F18D02}"/>
+    <hyperlink ref="AF201" r:id="rId187" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{3B1CD06F-B1C5-5A4A-8C9B-03E97D72EB21}"/>
+    <hyperlink ref="AF202" r:id="rId188" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{D1B08320-5409-484E-8725-61A19208471A}"/>
+    <hyperlink ref="AF203" r:id="rId189" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{6BC3B62A-832A-CA4C-AEB3-952EB2EF660A}"/>
+    <hyperlink ref="AF204" r:id="rId190" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{C653B213-757F-0146-86E7-AD0323B59C85}"/>
+    <hyperlink ref="AF205" r:id="rId191" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{00B2AF3D-B80C-6640-A07A-0E94E5C73A70}"/>
+    <hyperlink ref="AF206" r:id="rId192" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{C6A8DF33-4DD5-6146-B694-08E92582555F}"/>
+    <hyperlink ref="AF208" r:id="rId193" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{3905B392-9A5D-AE40-96E8-A7ECEECE70F4}"/>
+    <hyperlink ref="AF209" r:id="rId194" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{0031314B-40D9-E64C-AAB5-E43556C81D7F}"/>
+    <hyperlink ref="AF210" r:id="rId195" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{C81D1834-FF24-B24E-893F-15F02ABB7FF0}"/>
+    <hyperlink ref="AF211" r:id="rId196" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{340F26E2-7470-1F42-B39C-1C417BB23D04}"/>
+    <hyperlink ref="AF212" r:id="rId197" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{66EE2E1A-FA67-1F4F-8564-C8B1050F44ED}"/>
+    <hyperlink ref="AF213" r:id="rId198" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{E34D4DA9-91AA-FB4C-9D2D-4AD96F494FF6}"/>
+    <hyperlink ref="AF214" r:id="rId199" display="https://www.stroke-en.med.hku.hk/diet-tips-hypertension" xr:uid="{5D595070-9ACA-4340-964D-C53E36F0DF0A}"/>
+    <hyperlink ref="AF215" r:id="rId200" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{D047A10A-C2B7-2441-B74D-F975DA853E07}"/>
+    <hyperlink ref="AF216" r:id="rId201" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{FE010479-C5A5-7F4C-A353-214A4EBB8D9E}"/>
+    <hyperlink ref="AF217" r:id="rId202" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{771F5E8A-7502-C849-8472-E1FFD69994EC}"/>
+    <hyperlink ref="AF218" r:id="rId203" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{5BC39234-173F-984E-BF14-A7E4BE29E26F}"/>
+    <hyperlink ref="AF219" r:id="rId204" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{267D3FB1-BB02-ED4F-9706-CF15AA401A88}"/>
+    <hyperlink ref="AF220" r:id="rId205" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{0E0AD6DB-27F0-2C43-9596-3D4FB3A06CE8}"/>
+    <hyperlink ref="AF221" r:id="rId206" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{E7991B6C-6951-3147-B490-83211B3C601C}"/>
+    <hyperlink ref="AF222" r:id="rId207" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{585F2A7A-DEDF-234D-AF4C-D04C41DB263C}"/>
+    <hyperlink ref="AF223" r:id="rId208" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{A63D8C41-6F1F-2944-818A-47D929F3CAE9}"/>
+    <hyperlink ref="AF224" r:id="rId209" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{E701840E-8AF7-D344-BCCD-0ED0CA0DDC90}"/>
+    <hyperlink ref="AF225" r:id="rId210" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{AA97F9F5-648B-C841-8F16-BD86EB34C993}"/>
+    <hyperlink ref="AF226" r:id="rId211" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{E32131AF-001C-7542-BE24-50846B542CA6}"/>
+    <hyperlink ref="AF227" r:id="rId212" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{D3906B85-C5AC-D646-86CC-564D9D841A8F}"/>
+    <hyperlink ref="AF228" r:id="rId213" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{3124FD70-8F00-AE46-894C-68D90FD56E98}"/>
+    <hyperlink ref="AF229" r:id="rId214" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{6B1F5079-A1CD-2E4B-A9E7-5CF6A13739FA}"/>
+    <hyperlink ref="AF230" r:id="rId215" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{85864095-F1EB-F746-8B12-12BEDB60F90C}"/>
+    <hyperlink ref="AF231" r:id="rId216" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{930C0A68-36A2-0A4D-B79B-70BA9732E969}"/>
+    <hyperlink ref="AF232" r:id="rId217" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{93B14283-2BC3-AB4A-85C4-96374E24751A}"/>
+    <hyperlink ref="AF233" r:id="rId218" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{EEFE50BD-0AEC-664D-BBA8-3E895D2FDC89}"/>
+    <hyperlink ref="AF234" r:id="rId219" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{26B13558-C9EF-684A-8BA8-A23C1AA6FD15}"/>
+    <hyperlink ref="AF235" r:id="rId220" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{455E44C4-3667-0D40-893E-DB068B4CFCCB}"/>
+    <hyperlink ref="AF236" r:id="rId221" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{FC6129E0-215A-FB4B-BBF4-170CB0247F6C}"/>
+    <hyperlink ref="AF237" r:id="rId222" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{9A628596-F771-6E41-967B-34746A6F57BB}"/>
+    <hyperlink ref="AF238" r:id="rId223" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{5D2E82A5-0A56-FA4F-ADC3-9DD1DEA8B787}"/>
+    <hyperlink ref="AF239" r:id="rId224" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{84736E10-681C-0B43-9926-6EA8E2491283}"/>
+    <hyperlink ref="AF240" r:id="rId225" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{BD54F326-223E-944C-861A-D34268F5BD5C}"/>
+    <hyperlink ref="AF241" r:id="rId226" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{52A66302-C4C2-D842-AB6D-A7B8B011CB69}"/>
+    <hyperlink ref="AF242" r:id="rId227" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{75C79AB3-8EAD-4640-9CBF-F9E00D30486D}"/>
+    <hyperlink ref="AF243" r:id="rId228" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{E23F6B07-A6BA-A247-8F83-DECFB8EE51F9}"/>
+    <hyperlink ref="AF244" r:id="rId229" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{469CE801-7062-144A-8F08-3DAE530F53BD}"/>
+    <hyperlink ref="AF245" r:id="rId230" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{BA956A41-7419-3D44-BDB7-1AB1324535E8}"/>
+    <hyperlink ref="AF246" r:id="rId231" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{FDAA4A31-C18D-9E46-929B-95741A72B2C7}"/>
+    <hyperlink ref="AF247" r:id="rId232" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{E6778248-4D6E-8441-9823-EA0D6580AABB}"/>
+    <hyperlink ref="AF248" r:id="rId233" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{C64B09B7-81CF-5C45-B9B5-68DB7F5BF1F8}"/>
+    <hyperlink ref="AF249" r:id="rId234" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{F50A900E-C754-B34F-A30A-C13EA5FB7C66}"/>
+    <hyperlink ref="AF250" r:id="rId235" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{270AB117-D6D6-FB44-9C8C-20743FF9A35F}"/>
+    <hyperlink ref="AF251" r:id="rId236" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{0AF2C334-0E65-CC4F-BACB-E820E7796852}"/>
+    <hyperlink ref="AF252" r:id="rId237" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{226C7712-B799-FB4B-95CF-A570D732C65E}"/>
+    <hyperlink ref="AF253" r:id="rId238" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{72AE91F7-04CE-3141-9538-2A245BF4173F}"/>
+    <hyperlink ref="AF254" r:id="rId239" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{C11D9C87-E109-2646-87C2-EBCE90085A90}"/>
+    <hyperlink ref="AF255" r:id="rId240" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{FE8D6D07-0AD1-574B-A1B0-564F5401880D}"/>
+    <hyperlink ref="AF256" r:id="rId241" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{41370FDF-8C40-EE43-8123-E4574C984A44}"/>
+    <hyperlink ref="AF257" r:id="rId242" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{ED0FC918-4DDB-4346-926D-696370B714AB}"/>
+    <hyperlink ref="AF258" r:id="rId243" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{D3446DE4-99A1-AE4A-A963-4F874004CFB1}"/>
+    <hyperlink ref="AF259" r:id="rId244" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{B4C0F84E-BF82-7541-B260-72C876D74783}"/>
+    <hyperlink ref="AF260" r:id="rId245" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{4B8711B7-9063-BD4C-89A0-C48424FFCE40}"/>
+    <hyperlink ref="AF261" r:id="rId246" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{E6CCFCEF-C135-3D49-AE3F-54E3E95587F7}"/>
+    <hyperlink ref="AF262" r:id="rId247" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{FD181B60-621D-E644-B3A1-017C81F15E29}"/>
+    <hyperlink ref="AF263" r:id="rId248" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{58D34716-FE23-BA42-B85E-396909EDF922}"/>
+    <hyperlink ref="AF264" r:id="rId249" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{2043C2A8-28A8-104D-8E26-B2729001CA8E}"/>
+    <hyperlink ref="AF265" r:id="rId250" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{6B0FBCFD-DDC3-4646-9A3D-1E2BE6DCBD4E}"/>
+    <hyperlink ref="AF266" r:id="rId251" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{E02EE711-5C09-534B-A244-B0ACA4CC2497}"/>
+    <hyperlink ref="AF267" r:id="rId252" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{41CCF7F2-D747-A84E-A4EE-ACC4990A572D}"/>
+    <hyperlink ref="AF268" r:id="rId253" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{B40EE9C0-D813-6041-BFA1-2B46C0C90D79}"/>
+    <hyperlink ref="AF269" r:id="rId254" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{01636B6D-0717-7F47-B02F-80B7BA123127}"/>
+    <hyperlink ref="AF270" r:id="rId255" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{4E23E2F3-DD78-1143-B822-88D20677EBA0}"/>
+    <hyperlink ref="AF271" r:id="rId256" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{A9C656B8-DAE8-D745-AD93-422B1D767337}"/>
+    <hyperlink ref="AF272" r:id="rId257" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{ED02C444-079A-EB42-9C46-4F57EFFF7599}"/>
+    <hyperlink ref="AF273" r:id="rId258" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{A10DCB93-8D1B-2D42-8F5E-1B2423F395A6}"/>
+    <hyperlink ref="AF274" r:id="rId259" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{0D00C1B1-A4F6-4D43-901E-EB047D6231B0}"/>
+    <hyperlink ref="AF275" r:id="rId260" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{135E7ABE-F8F6-B644-A195-D06BDDDC08B6}"/>
+    <hyperlink ref="AF276" r:id="rId261" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{79A9961A-338C-AB4C-94CA-829E8BA43895}"/>
+    <hyperlink ref="AF277" r:id="rId262" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{8C2D73B9-9474-4146-8D29-4352F18F8712}"/>
+    <hyperlink ref="AF278" r:id="rId263" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{7BE8687A-CA47-F54F-8431-040DA52A70C7}"/>
+    <hyperlink ref="AF280" r:id="rId264" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{BB9E62C6-86D8-BC48-A463-9D93235D2E9A}"/>
+    <hyperlink ref="AF281" r:id="rId265" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{EE92D4B2-64C7-1849-A655-65584C77A777}"/>
+    <hyperlink ref="AF282" r:id="rId266" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{2117D1BB-F5CA-5446-8B22-163D7BDAC3C4}"/>
+    <hyperlink ref="AF283" r:id="rId267" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{A9B8104D-3C35-804C-AB63-52C0A0D392D4}"/>
+    <hyperlink ref="AF284" r:id="rId268" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{A7144064-1083-774B-ACD2-C291A8A36629}"/>
+    <hyperlink ref="AF285" r:id="rId269" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{5A809629-064D-0F44-9142-CB2911CC6CA5}"/>
+    <hyperlink ref="AF286" r:id="rId270" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{852B1B00-ABF3-A544-9F84-6FA47FEE5154}"/>
+    <hyperlink ref="AF287" r:id="rId271" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{BB280603-C29D-F147-B35D-431E592BC400}"/>
+    <hyperlink ref="AF288" r:id="rId272" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{C3D30B91-3326-A545-B982-FEDDFC85E41A}"/>
+    <hyperlink ref="AF289" r:id="rId273" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{ACEF709F-F3C6-2E4D-BBCA-5742FDC5F8EB}"/>
+    <hyperlink ref="AF290" r:id="rId274" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{094CB1E4-239E-764B-9694-4F246DD08028}"/>
+    <hyperlink ref="AF291" r:id="rId275" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{3E2FCE12-BC8C-404B-A803-E4A361AB0099}"/>
+    <hyperlink ref="AF292" r:id="rId276" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{5714452C-E28D-9E4D-8F9D-B57D83F6AA0B}"/>
+    <hyperlink ref="AF293" r:id="rId277" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{1B1C484F-BE21-D547-B09C-0447F6E77C59}"/>
+    <hyperlink ref="AF294" r:id="rId278" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{10CFE11D-8E82-2244-BFA3-82A0913C3440}"/>
+    <hyperlink ref="AF295" r:id="rId279" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{DFE3DBB1-C4B3-1A45-A4B7-BF9D2B59E1AB}"/>
+    <hyperlink ref="AF296" r:id="rId280" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{C7901D5F-C522-5043-8439-078A32729132}"/>
+    <hyperlink ref="AF297" r:id="rId281" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{DCC7F159-0A5F-834E-958F-E2915860C987}"/>
+    <hyperlink ref="AF298" r:id="rId282" display="https://www.stroke.med.hku.hk/diet-tips-hyperlipidemias" xr:uid="{6FB29D77-C5C5-8446-8874-D2F93CE09B6F}"/>
+    <hyperlink ref="AF299" r:id="rId283" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{582B7D5B-166B-7B44-A277-A4B6945BA684}"/>
+    <hyperlink ref="AF300" r:id="rId284" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{F32DA946-DF6B-1146-AD55-9D5FB05B9295}"/>
+    <hyperlink ref="AF301" r:id="rId285" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{9A251F92-1AC0-B849-ADB1-A659C99DC8C1}"/>
+    <hyperlink ref="AF302" r:id="rId286" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{E9341F0C-C3DE-4242-8521-FBF9A9B1075D}"/>
+    <hyperlink ref="AF303" r:id="rId287" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{56523628-D271-5242-B8B7-B6D48C8207F3}"/>
+    <hyperlink ref="AF304" r:id="rId288" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{A522CEDA-A6BD-C344-9A3D-4234BE86A458}"/>
+    <hyperlink ref="AF305" r:id="rId289" display="https://www.stroke.med.hku.hk/diet-tips-hypertension" xr:uid="{4F97BF49-0B5D-F74F-A5D0-2C68437E3FB4}"/>
+    <hyperlink ref="AF306" r:id="rId290" display="https://www.stroke.med.hku.hk/diet-tips-ckd" xr:uid="{3725D292-E052-8D4C-9AAA-EE3DA3F50D03}"/>
+    <hyperlink ref="AF307" r:id="rId291" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{EDDFD3F9-5533-9349-BFE8-7165AA2FAA70}"/>
+    <hyperlink ref="AF308" r:id="rId292" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{3DFE12A3-ED5E-3F41-B851-9C3F23695A96}"/>
+    <hyperlink ref="AF309" r:id="rId293" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{830BBDC7-74B9-E141-9EDB-11BEB8ED2BD4}"/>
+    <hyperlink ref="AF310" r:id="rId294" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre'" xr:uid="{CE9736F3-7D14-E34D-BC20-5A708D606D33}"/>
+    <hyperlink ref="AF311" r:id="rId295" display="https://www.stroke.med.hku.hk/recipes-hyperlipidaemia" xr:uid="{2B9BA9E4-7B6C-8A43-B856-2889B0ED42C0}"/>
+    <hyperlink ref="AF312" r:id="rId296" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{A152D2B6-1E71-F244-8FCA-6FD5C6EC95EB}"/>
+    <hyperlink ref="AF313" r:id="rId297" display="https://www.stroke.med.hku.hk/recipes-ckd" xr:uid="{BC02AEA5-7439-E24E-BBEF-42AA8696036F}"/>
+    <hyperlink ref="AF314" r:id="rId298" display="https://www.stroke.med.hku.hk/recipes-diabetes" xr:uid="{9834740D-2744-6443-9C47-FD162FC00440}"/>
+    <hyperlink ref="AF315" r:id="rId299" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{9BF2A392-39C4-A14F-BEB7-73FE86F1D974}"/>
+    <hyperlink ref="AF316" r:id="rId300" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{586EACCE-8F68-4F4B-8EA8-DF7D9C918635}"/>
+    <hyperlink ref="AF317" r:id="rId301" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{C3A2BA0C-0340-764E-8150-9C5FBAEAC55D}"/>
+    <hyperlink ref="AF318" r:id="rId302" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{4F316E5A-FF13-BC4C-8E44-A001C206E34F}"/>
+    <hyperlink ref="AF319" r:id="rId303" display="https://www.stroke.med.hku.hk/diet-tips-high-fibre" xr:uid="{5444E361-10A5-2A4F-8633-08932E3981B3}"/>
+    <hyperlink ref="AF320" r:id="rId304" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{09BFB480-9744-8B4E-B85F-8C7072E30B73}"/>
+    <hyperlink ref="AF321" r:id="rId305" display="https://www.stroke.med.hku.hk/diet-tips-diabetes" xr:uid="{C8FF49DD-8743-C647-B1DD-A70FC47B9269}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId306"/>
 </worksheet>
 </file>
--- a/public/food-data.xlsx
+++ b/public/food-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanau/WebstormProjects/nutrition-calculator/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DDAC5F-C313-8E40-8263-A17F506E1D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA9828-04D8-2348-AE4F-14DD61059759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5281,30 +5281,30 @@
   <dimension ref="A1:AU1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AI12" sqref="AI12"/>
+      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="65.5" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="4" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="16" width="9.1640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="1.83203125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="6.83203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="22" max="29" width="9.1640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="16" width="9.1640625" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="1.83203125" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" customWidth="1"/>
+    <col min="22" max="29" width="9.1640625" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
     <col min="31" max="31" width="9" customWidth="1"/>
     <col min="32" max="32" width="15.5" customWidth="1"/>
     <col min="33" max="34" width="9" customWidth="1"/>

--- a/public/food-data.xlsx
+++ b/public/food-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanau/WebstormProjects/nutrition-calculator/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3EA23D-AC5D-EB47-8DFE-F9F5E2B69AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF0F709-2519-3E44-9936-174E900FED3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5581,10 +5581,10 @@
   <dimension ref="A1:AU1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="Y5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AK14" sqref="AK14"/>
+      <selection pane="bottomRight" activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
